--- a/기사데이터/토스/엑셀파일/news(토스, 2023.08.16~2023.08.31).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.08.16~2023.08.31).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2023.08.29.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>"쿠팡·컬리 아니었네" '택배 없는 날' 편의점 택배 날았다</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000019056?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>CU·GS25 택배 이용량 '껑충'…컬리·쿠팡도 늘어가격경쟁력·일반택배 대체재 부각…이용량 증가세편의점 CU 택배 이용모습/사진 제공=BGF리테일지난 14일 택배 없는 날. 서울 구로구에 거주하는 A씨는 편의점 CU 앱에서 편의점 택배를 예약하고 할인쿠폰을 사용해 회원접수를 했다. A씨는 "급하게 택배를 이용해야 했는데, 택배 쉬는 날이라고 해서 걱정했다"며 "다행히 편의점 택배를 이용해 보낼 수 있었다"고 말했다.경기 파주에 거주하는 B씨도 편의점 GS25 앱을 이용해 반값택배를 신청했다. 평소에도 편의점 택배를 자주 이용하는 B씨는 "저렴한 가격에 미리 예약해두면 할인 받을 수 있고 주로 중고거래를 하는 주말에도 가능해서 좋다"라며 "자세한 주소 정보를 입력하지 않아도 되는데다 집 근처 GS25와 GS더프레시에 맡기면 돼서 종종 이용하고 있다"고 말했다.실제로 올해 택배 없는 날 편의점 자체 택배의 이용량이 크게 증가한 것으로 나타났다. CJ대한통운, 한진, 우체국택배, 롯데글로벌로지스(롯데택배) 등의 택배사들이 택배기사의 휴식을 보장하기 위해 택배 없는 날을 진행한 가운데, 이에 참여하지 않는 쿠팡이나 컬리보다 접근성이 뛰어난 편의점으로 택배 수요가 더 몰린 것으로 분석된다.편의점 택배 이용건수 '쑥'29일 업계에 따르면 BGF리테일이 운영하는 편의점 CU는 지난 14일 '알뜰택배' 이용건수가 전년 동기 대비 342% 증가했다. GS리테일의 편의점 GS25도 '반값택배'의 지난 14일 접수 건수가 전주 동일 대비 71% 늘었다.CU 알뜰택배와 GS25 반값택배는 각 사 점포에서 택배 발송을 접수하고 택배를 받는 수신자가 해당 브랜드의 다른 점포에서 택배를 찾아가는 서비스다. 알뜰택배와 반값택배는 각 사 점포에 상품을 공급하는 물류배송 차량을 활용한다. 반면 CJ대한통운, 한진택배, 로젠택배, 롯데택배, 우체국택배 등의 택배는 배송기사가 고객이 접수하는 주소에서 택배를 수거하고 물류센터를 거쳐 각 배송지로 배송하는 구조다.토스 앱에서 GS25 택배 접수하는 모습/사진 제공= GS리테일CU는 택배 없는 날을 포함, 지난 7~20일 토스나 번개장터에서 알뜰택배를 예약하면 500원을 할인해주는 프로모션을 진행했다. BGF리테일 관계자는 "택배 없는 날 일반택배를 대체하는 수요가 컸다"며 "13일 일요일, 15일 공휴일까지 겹치면서 우체국택배 등을 접수하지 못한 고객들이 편의점 택배로 많이 유입된 것"이라고 분석했다.GS리테일 관계자도 "반값택배의 경우 일반택배의 반값에 접수 가능하다는 장점이 있어 최근 2~3일 내로 배송도 가능해 고객들이 일반택배를 대체하고 있다"고 말했다. 반값택배는 GS25 택배 접수 구성비 중 40%를 차지한다.편의점 택배 이용 늘어난 이유택배 없는 날은 택배기사들의 휴식을 보장하기 위해 지난 2020년 지정됐다. 온라인 쇼핑이 대중적으로 자리잡으면서, 국내 택배 물동량은 지속적으로 증가해왔다. 국가물류통합정보센터에 따르면 국내 택배시장 물동량은 2012년 14억개에서 2016년 20억개를 돌파했고, 코로나19가 발생한 2020년엔 33억7000만개를 넘어섰다. 지난해엔 41억2000만개를 기록했다.국내 택배 물동량 추이/그래픽=비즈워치배송기사들은 일반적으로 주 5~6일 수백개의 택배물량을 배송한다. 배송기사가 휴가를 가려면 하루 25만원 정도의 용차비를 내야 하는 것으로 알려졌다. 이에 택배노조와 대형택배사들은 사회적 합의를 통해 택배기사들의 휴가를 보장하기로 한 것이다.택배 없는 날은 광복절 전날인 8월 14일로, 배송기사들이 택배 없는 날에 이어 공휴일까지 휴가를 떠날 수 있도록 했다는 게 택배업계의 설명이다. 올해는 월요일이 택배 없는 날에 해당하면서 토, 일, 월, 화요일이 택배 휴무일이 됐다. 택배를 이용해야 하는 소비자들은 대체재를 찾을 수밖에 없다. 이러한 상황에서 주목받은 게 편의점 택배가 된 셈이다. 편의점 택배의 가격경쟁력도 이용량 증가에 영향을 미쳤다. 일반택배보다 저렴한 가격대와 고객의 주소를 밝히지 않아도 된다. 일반 택배사들의 기본운임은 동일구역 기준 소형(5kg 이하) 5000원 이상이다. CU 알뜰택배 이용료는 5kg 이하까지 1800~2700원이다. GS25 반값택배도 5kg 이하 물품에 대해 1800~2600원을 받는다. 근처 매장 운영 시간에 따라 24시간 접수도 가능하다.중고거래가 대중화됨에 따라 개인 주소 노출을 꺼리거나 상대적으로 저렴한 가격을 고려해 편의점 택배를 이용하는 소비자들이 늘어난 점도 이용량 증가에 주효했다.동참 안 한 쿠팡·컬리도 반사익택배 없는 날에 참여하지 않은 쿠팡, 컬리, SSG닷컴 등 이커머스들도 일부 반사이익을 봤을 것으로 추정된다. 쿠팡 '로켓배송', 컬리 '샛별배송', SSG닷컴 '쓱배송'은 자체 물류를 통해 자체 배송기사가 상품을 배송한다.실제 컬리의 경우 지난 13~15일 기간 전년 동기 대비는 15% 증가했고, 직전주 대비 매출은 비슷한 수준을 보였다. 이 기간 별도의 프로모션도 없었다. 컬리는 통상 평일에 주문량이 많고 주말이나 연휴에는 주문량이 줄어든다.이번 택배 없는 날 기간이 일~화요일이었지만 전주와 비슷한 수준인 것을 고려하면, 사실상 평소 기준보다 주문량이 늘었다는 설명이다. 주문 상품군은 간편식 상품들이 주를 이뤘다. 쿠팡, SSG닷컴은 올해 택배 없는 날 기간(8월 13~15일) 배송 물량 증가율을 공개하지 않았다.택배 없는 날 논란은 지속이처럼 편의점 택배가 급부상한 가운데 택배 없는 날에 대한 논란은 지속될 전망이다. 택배업을 운영하는 쿠팡 등은 올해 택배 없는 날에 동참하지 않으면서 기존 택배업체들이 날을 세웠다.쿠팡 배송차량(위), CJ대한통운 전경/그래픽=비즈워치쿠팡은 지난 4일 쿠팡 뉴스룸을 통해 "쿠팡은 1년 365일 택배 없는 날, 쿠팡 배송기사의 ‘휴가 플렉스’"라는 게시물을 게재했다. 택배 없는 날을 지정할 당시부터 택배업계는 쿠팡 등의 온라인 유통업체들도 동참할 것을 요구했지만 쿠팡은 '365일 로켓배송 시스템임에도 퀵플렉서(배송기사)가 원할 때 쉴 수 있는 구조'라고 주장하며 택배 없는 날에 동참하지 않았다. 쿠팡 물류자회사 쿠팡로지스틱스서비스(CLS)의 퀵플렉스 대리점에는 위탁 규정에 따라 휴가자를 지원하는 백업 인력이 있다는 게 이유였다.국내 택배업계 1위인 CJ대한통운은 배송기사들의 휴식을 보장하기 위해 택배 없는 날이 필요하다는 입장이다. 롯데택배는 "수년간 택배 없는 날이 지속되면서 배송 계획을 세워놓은 만큼 차질이 없었다"며 "사회적 합의를 통해 시행한 만큼 앞으로도 지켜나갈 것"이라고 말했다.정부도 '택배 없는 날' 인지도 높이기에 나섰다. 국토교통부는 지난 10일 SNS 공식 계정에 택배 없는 날 관련 카드뉴스를 올렸다. 지속적으로 늘어나는 택배물량에 여름철 폭염·폭우 속 근무가 택배기사들의 안전을 위협한다며, 택배 없는 날의 필요성을 안내하는 내용이다.택배업계 관계자는 "택배 없는 날은 배송기사들의 휴식을 보장하기 위해 노조와 택배사들이 사회적 합의를 통해 지정한 날이지만, 법적 구속력이 없다는 한계가 있다"며 "택배사들의 협조 여부에 따라 지속될 수 있을 것"이라고 전망했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2023.08.31.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>'대기업도 먼저 찾는 AI 계약 관리 솔루션' BHSN, 알토스 시리즈A 60억 투자 유치</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003131103?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>임정근 BHSN 대표“기존 기업의 계약 관리 업무는 담당자가 바뀔 때마다 데이터 연속성이 떨어지는 측면이 있습니다. 인공지능(AI) 기반 계약 관리 솔루션으로 작업 시간 등의 효율을 도모하겠습니다.”AI 계약 관리 솔루션 스타트업 BHSN이 알토스벤처스로부터 시리즈A 투자 60억원을 유치했다. 알토스는 크래프톤, 토스, 당근 등 유니콘 기업을 발굴한 벤처캐피털(VC)이다. 상반기 1934억원의 투자를 집행한 알토스는 법률, 논문, 계약검토 등 전문지식 데이터를 수집·가공해 상용화 성과룰 거둔 BHSN의 AI 솔루션에 주목했다.BHSN은 기업 전문 변호사 출신인 임정근 대표가 2020년 설립한 회사다. 기업 현장에서 종이 문서로 관리하던 계약서를 3년간 라벨링을 거쳐 데이터로 구축했다. 나아가 장병탁 서울대 AI연구원장 연구팀과 AI 법률 사례 연구개발(R&amp;D) 프로젝트를 진행, AI 법률 언어모델 BHSN-버트(BERT)를 자체 개발했다. 일정 금액 이상 대출 거래 계약서 중 친족회사 해당 여부와 같이 기업 공시 의무와 직결된 데이터를 쉽게 분석할 수 있다. CJ제일제당과 SK텔레콤 등이 BHSN의 AI 솔루션을 선제 도입했다.임 대표는 “기존에는 엑셀 정리 등 사람이 직접 데이터를 관리하다보니 시간이 많이 걸리고 오류가 발생하는 문제가 있었다”면서 “법무 검토 요청 등 비즈니스 데이터 특화한 AI 모델로 업무 효율을 높이기 위한 목적”이라고 개발 배경을 설명했다.임 대표는 기업 전반의 디지털 전환(DT) 도입 움직임에 주목했다. 미국과 일본은 계약 관리를 디지털 솔루션으로 제공하는 시장이 활성화됐다. BHSN 역시 국내 여러 대기업과 AI 솔루션 도입을 논의하고 있다. 회사는 기업 수요에 부합하는 프라이빗 거대언어모델(LLM)을 고도화할 계획이다. 예를 들어 법률 문서와 지식의 인과관계를 이해한 AI가 계약서 상 보험가입 의무를 묻는 질문에 유사사례를 토대로 대답하는 방식이다. 회사는 쿠팡, 네이버 하이퍼클로바, 그린랩스 등에 종사한 개발 인력을 영입했다.임 대표는 “기업의 환경·사회·지배구조(ESG) 강화 요구가 높아지며 계약, 법무검토 등 데이터 통합 필요성이 높아지고 있다”면서 “비즈니스 데이터의 디지털화를 주도하는 회사로 도약하겠다”고 말했다.BHSN</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2023.08.21.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>토스 콘텐츠 플랫폼 '토스피드' 누적 조회수 3천만</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000348097?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>[토스의 콘텐츠 플랫폼 '토스피드'가 출시된 지 5년여 만에 누적 주회수 3천만을 기록했다. (자료=토스)]모바일 금융서비스 토스를 운영하는 비바리퍼블리카는 자사의 콘텐츠 플랫폼 '토스피드'의 누적 조회수가 3천만을 돌파했다고 21일 밝혔습니다. 토스피드는 토스 사용자를 비롯해 금융소비자라면 꼭 알아야 할 정보 제공을 목표로 지난 2018년 5월 기업 공식 블로그 형식으로 시작됐습니다. 토스 관계자는 "공식 블로그로 출발한 이후 오리지널 콘텐츠 확장, 금융·경제 전문가 필진 확보, 타 기업·브랜드와의 콘텐츠 협업 등으로 금융에 대한 궁금증을 해소할 수 있는 콘텐츠 플랫폼으로 성장했다"고 설명했습니다. 매달 20여 건의 다양한 콘텐츠를 발행하는 토스피드의 월평균 조회수는 이달 기준 100만을 넘어섰습니다. 오리지널 콘텐츠 시리즈는 총 70개로 금융과 일상을 연결하는 콘텐츠부터 금융·경제 지식을 심도 있게 다루는 콘텐츠까지 다양합니다. 이 중 누적 조회수 50만을 넘긴 시리즈는 10개입니다. '사소한 질문들' 2021년 및 2022년 시리즈, '에브리데이 경제학' 시리즈는 누적 조회수 120만 이상을 기록했습니다. 전세 제도, NFT 등 시의성 있는 금융·경제 이슈를 쉽고 빠르게 풀어낸 콘텐츠와 함께 보험 가입, 생애 첫 대출, 부동산 계약 등 소비자들이 어려움을 겪는 부분에 실질적인 팁을 제공하는 콘텐츠도 호응을 얻고 있습니다. 이밖에 토스는 전문가 필진 및 타 기업·브랜드와의 콘텐츠 협업, 누구나 참여 가능한 공모전도 진행하고 있습니다. 김경곤 한밭대 경제학과 교수, 채상욱 건설·부동산 애널리스트, 김경일 아주대 심리학과 교수 등 40여 명의 전문가가 다양한 주제로 견해를 전달합니다. 피델리티자산운용, 신한자산운용 등 국내외 금융사와 부딩, 커피팟, 심용환역사N교육연구소 등 콘텐츠 기업 및 민간 연구소와의 협업도 확대해 나가고 있습니다. 올해 토스피드에서 진행된 머니스토리 공모전 '드래프트(DRAFT)'에는 1천500건이 넘는 작품이 몰리며, 누구나 '돈'에 대한 이야기를 나눌 수 있는 플랫폼으로서의 입지도 다져가고 있습니다. 공모전 수상작 16편은 이달 말 토스피드를 통해 연재되며, 9월 중 책으로도 출간될 예정입니다. 윤기열 토스 커뮤니케이션 헤드는 "토스가 금융의 수퍼앱으로 자리매김한 것과 마찬가지로 토스피드 역시 모두가 금융에 좀 더 쉽고 재미있게 다가갈 수 있도록 지원하는 콘텐츠 플랫폼으로서의 역할을 더 강화해 나가고자 한다"고 말했습니다.당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2023.08.22.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>토스 - 한국정보기술연구원, ‘차세대 보안리더’ 양성 맞손</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005556218?sid=105</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>[이데일리 김현아 기자]8월 21일(월) 역삼동 토스 본사에서 진행된 업무 협약식에서 토스 이형석 CTO(왼쪽)와 한국정보기술연구원 유준상 원장(오른쪽)이 기념 사진을 촬영하고 있다. 사진 제공: 비바리퍼블리카)모바일 금융 서비스 ‘토스‘를 운영하는 비바리퍼블리카(이하 토스)가 한국정보기술연구원(KITRI)과 ’차세대 보안리더 양성프로그램(Best of the Best, BoB)’ 관련 업무 협약을 체결했다.지난 21일 역삼동 토스 본사에서 열린 행사에선 토스의 이형석 최고기술책임자(CTO)와 이종호 보안기술팀 리더, 한국정보기술연구원 유준상 원장 등이 참석했다.BoB는 과학기술정보통신부가 주최하고 한국정보기술연구원에서 주관하는 사이버 보안인재 양성 프로그램이다. 화이트해커 양성 교육과정으로도 잘 알려져 있으며, 해당 프로그램을 통해 지난 10년여 간 1,600명 이상의 보안 전문가가 배출됐다.양사는 이번 협약을 통해 △기술 및 정보 공유를 통한 정보보안 전문가 양성 및 우수인재 지원 △정보보안 인재 양성을 위한 교육과정 개발 및 개선 △인적 자원 교류 등 보안과 관련해 다양한 협력을 진행할 예정이다.토스는 보안기술팀을 중심으로 기술 교육, 윤리 교육, 프로젝트 멘토링 등 수준 높은 보안 교육을 집중적으로 지원한다. 또한 BoB 프로그램의 우수 교육생과 수료생들에게 인턴십 기회 등을 제공할 계획이다.토스 보안기술팀은 세계적인 화이트해커 이종호 리더를 주축으로 팀원 11명 전원이 화이트해커로 구성됐다. 매일 문제점이나 취약점을 발견하고 의도적으로 공격하는 행위인 레드 티밍(red-teaming)을 통해 토스 앱을 점검하고 필요한 조치를 선제적으로 시행하며 보안을 강화해 나가고 있다. 보안기술팀 팀원들 중 대부분이 BoB 프로그램을 수료했으며, 현재 해당 프로그램의 멘토로도 활동 중이다.토스 이형석 CTO는 “토스는 보안을 가장 중요한 가치로 삼고 있는 만큼, ‘정보보안 우수인재 양성을 통한 국가적 보안 난제 해소’를 향한 한국정보기술연구원의 노력에 적극적으로 협조하고자 한다“라며 “특히 금융보안 관련 기술력과 경험을 바탕으로 수준 높은 교육을 제공할 것”이라고 전했다.한국정보기술연구원 유준상 원장은 “BoB 프로그램을 수료한 ‘선배’ 멘토들 중 정보보안 분야에서 최고라고 자부할 수 있는 토스의 보안기술팀과 함께하게 되어 기쁘다”라며 “교육 프로그램을 비롯, 다양한 협업을 통해 차세대 보안리더를 함께 양성할 수 있기를 기대한다“라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2023.08.29.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>토스증권, 보안 콘퍼런스 개최…정보보호 우수 사례 소개</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0014157402?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>[토스증권 제공. 재판매 및 DB 금지]    (서울=연합뉴스) 송은경 기자 = 토스증권은 자사 정보보호 우수 사례를 소개하는 금융 보안 콘퍼런스 '가디언즈'를 개최했다고 29일 밝혔다.    지난 25일 강남구 토스증권 본사에서 처음 개최된 이 행사는 토스증권이 정보보호 관리체계를 이뤄내는 과정에서 우수사례를 발표하기 위해 마련됐다.    금융사 보안 업무 담당자들을 대상으로 무료로 진행했으며, 100여명이 참석을 신청해 단기간에 마감된 것으로 전해졌다.    토스증권은 콘퍼런스에서 정보보호 관리체계와 보안 취약점 점검 방법, 보안 위협에 대한 예방·대응 체계 등 자사의 보안 강점을 소개했다.    지정호 토스증권 정보보안 최고 책임자(CISO)는 "토스증권의 사례 공유가 금융회사 보안 역량 강화에 도움이 되고 이번 행사를 시작으로 금융회사 간 정보보호 사례 교류가 활성화되기를 기대한다"고 말했다.    norae@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2023.08.31.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>금리인하 요구에 인색한 우리은행.... 금리 인하폭·감면액 ‘꼴찌’</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000928418?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>사진=송기영 기자        올해 상반기 5대 은행 중 우리은행이 가계대출 금리인하에 가장 소극적이었던 것으로 나타났다. 금리 인하 폭과 건당 이자 감면액이 5대 은행 중 가장 적었다.은행연합회는 31일 올해 상반기 은행별 금리인하 요구권 운영 실적을 홈페이지를 통해 공시했다. 금융소비자는 취직·승진·소득증가 등을 근거로 금리를 낮춰 달라고 은행에 인하 요구권을 행사할 수 있다.공시에 따르면 농협은행은 상반기 1만3100건의 가계대출 금리인하요구 신청을 받아 9047건(69.1%)을 수용했다. 이자감면액은 7억9100만원, 인하금리는 0.30%다.같은 기간 우리은행은 9만4195건 신청에 3만2400건을 수용해 수용률 34.4%를 보였다. 이자감면액은 20억3400만원, 인하금리는 0.11%다. 수용률은 5대 은행 중 두번째로 높았지만, 금리 인하 폭과 이자감면액은 가장 낮았다.신한은행은 9만4670건 신청에 2만4629건(26.0%)을 수용했다. 이자감면액은 38억4200만원, 인하금리는 0.39%다. KB국민은행은 6만4512건 신청에 1만6536건(25.6%)을 수용했다. 이자감면액은 10억5900만원, 인하금리는 0.15%다.하나은행은 6만5948건 신청에 1만2382건을 수용해 18.8%의 수용률을 보였다. 이자감면액은 23억5700만원, 인하금리는 0.32%다.기업 대출까지 더한 전체 대출 금리인하 요구권 수용률 역시 농협은행(68.8%), 우리은행(34.9%), 신한은행(26.7%), KB국민은행(25.7%), 하나은행(19.2%) 순서로 높았다.총 이자 감면액을 금리인하 요구 수용 건수로 나눈 결과, 건당 감면액은 하나은행이 19만원으로 가장 많았고 신한은행(15만6000원), NH농협은행(8만7000원), KB국민은행(6만4000원), 우리은행(6만3000원)이 뒤를 이었다.우리은행 관계자는 “금리인하요구권 관련 신청 건수가 9만건이 넘고 수용률도 제일 높은 편이며 총 감면금액도 적은 편은 아니다”며 “많은 신청 건수에 비해 상대적으로 낮은 금리 인하 요구가 많아 건당 감면액과 감면폭이 작아진 것으로 보인다”고 했다.인터넷전문은행 3사의 경우 시중은행 대비 금리인하요구권 신청이 많았다. 카카오뱅크는 49만8241건 신청에 14만6026건(29.3%)을 수용했다. 이자감면액은 51억4100만원, 인하금리는 0.20%다. 토스뱅크는 12만2669건 신청에 2만3802건(19.4%)을 수용했고 이자감면액은 35억5400만원, 인하금리는 0.59%다. 케이뱅크는 18만3462건 신청에 3만1760건을 수용해 수용률 17.3%를 보였다. 이자감면액은 34억6000만원, 인하금리는 0.25%다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2023.08.22.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>새 출발하는 전경련…삼성증권은 가입 안 한다</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000348224?sid=101</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>국내 경제 단체 중 하나인 전국경제인연합회가 오늘(22일) 새 이름을 달고 새롭게 출범하는 가운데 삼성 계열사 중 한 곳은 결국 전경련에 재가입하지 않겠다는 의사를 밝혔습니다. BNK경남은행에서 발생한 500억원대 부동산 프로젝트파이낸싱 대출 횡령 사건의 핵심 인물인 중간 간부급 직원은 어젯밤 검찰에 체포됐습니다. 김정연 기자와 이야기 나눠보겠습니다. 결국 삼성 모든 계열사가 전경련에 복귀하지는 않는 거네요?전국경제인연합회는 오늘 임시 총회를 열어 한국경제연구원을 흡수·통합하고 기관명을 한국경제인협회로 변경하는 안건을 의결할 예정입니다.전경련이 출범한 지 55년 만이자, 지난 2016년 말 국정농단 사태로 4대 그룹이 모두 탈퇴한 지 7년 만입니다.이에 따라 전경련은 탈퇴했지만 한경연 회원사로는 남아있던 4대 그룹의 일부 계열사는 한경협 회원 자격이 자동으로 주어지는데요.삼성그룹에서는 삼성전자와 삼성SDI, 삼성생명, 삼성화재, 삼성증권이 대상인데, 이중 삼성증권은 이사회에서 한경협에 합류하지 않겠다는 의견을 낸 것으로 알려졌습니다."한경협의 정경유착 방지 장치가 미흡하다"는 점이 이유인 것으로 전해집니다.현대차그룹과 SK그룹, LG그룹도 내부적으로 한경협 가입 논의를 진행하고 있는데, 아직까지 추가로 거부 의사를 밝힌 기업은 없습니다.수백억원대 횡령 혐의를 받고 있던 BNK경남은행 직원이 잠적 한 달 만에 결국 붙잡혔다고요?서울중앙지검은 어제(21일) 오후 8시쯤 경남은행 투자금융부장 이 모 씨를 서울 자택 인근에서 체포했다고 밝혔습니다.이 씨는 지난 2007년부터 올해 4월까지 15년 동안 부동산 PF 업무를 담당하면서 총 562억원을 횡령·유용한 혐의를 받습니다.이 씨는 지난해부터 예금보험공사로부터 수사 의뢰를 받은 검찰의 수사를 받아왔는데, 지난달 횡령 정황이 드러나자 무단 결근하고 잠적했습니다.검찰은 이 씨를 조사한 후 구속영장 청구 여부를 결정할 방침입니다.어제 토스증권 앱에서는 1시간 가량 오류가 발생해 이용자들의 혼선이 빚어졌죠?어제 오후 5시부터 약 50분간 토스증권 앱에 뉴욕증시 상장 종목인 존슨앤존슨이 '상장 폐지'된 상태로 잘못 표시되는 서비스 장애가 발생했는데요.토스증권 측은 외부로부터 해당 종목 관련 정보를 수신하는 과정에서 오류가 발생한 것으로 보인다고 설명했습니다.현재는 정상적으로 거래가 진행되고 있습니다.토스증권은 현재까지 접수된 소비자 피해 신고는 없지만, 추후 피해 사례가 접수되면 보상할 예정이라고 밝혔습니다.옛 현대상선, HMM 인수전이 본격적으로 시작됐죠. 어제 예비입찰에는 몇 곳이 참여했습니까?어제 오후 5시경 HMM 매각을 위한 첫 단계인 예비입찰이 마감됐는데요.투자은행 업계에 따르면 입찰에 참여한 기업은 동원산업과 LX인터내셔널, 하림 컨소시엄과 독일 해운사 하팍로이드입니다.매각 대상은 HMM 주식 약 4억 주로, 잔여 전환사채 등까지 포함하면 HMM 인수를 위해서는 5조원 이상의 자금이 필요할 것으로 추산되는데요.입찰 참여 기업들의 자금력이 이번 인수전의 관건이 될 것으로 보입니다.김정연 기자, 잘 들었습니다. 당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2023.08.31.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>[최지혜의 트렌드 인사이트] "자, 이제 게임을 시작하지"</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004885899?sid=110</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>“저랑 맞팜하실래요?” 소비자들이 디지털 농사에 빠졌다. 모바일 앱에서 농작물을 키우고, 수확한 농작물은 실제 농산물로 받는다. 물론 이 과정에서 필요한 물, 양분 등을 얻기 위해 앱에서 다양한 미션을 수행해야 한다. 친구의 작물도 부지런히 관리한다. 친구 농장에 방문하면 물과 비료를 얻을 수 있기 때문이다. 친구를 등록하는 디지털 품앗이 ‘맞팜’은 일종의 유행어가 됐다. 출시 이후 1년9개월 만에 가입자 700만 명, 월간활성사용자 250만 명을 달성한 올웨이즈 ‘올팜’의 이야기다.올웨이즈처럼 게임에 빠진 모바일 플랫폼이 늘고 있다. 최근 컬리는 마이컬리팜을 출시했다. 출시 1주일 만에 20만 명이 게임에 참여했다. 지난 6월에는 공구마켓에서 ‘공팜’을 론칭하기도 했다. 농수산물 직거래 플랫폼 ‘팔도감도’ 앱에서 한우를 키워 차돌박이 상품을 받는 목장 게임을 최근 내놨다. 사실 중국의 대표적인 커머스 플랫폼 ‘핀둬둬’는 2015년부터 농작물 재배 게임을 운영해왔다. 핀둬둬는 망고와 레몬, 마카다미아, 호두 등의 과실 나무를 선택해 가상의 과수원에서 기르는 게임 ‘둬둬 과수원’을 운영하는데, 현재 중국에서 월간 7억 명 이상이 사용하는 것으로 알려졌다. 중국 경제 전문 매체 제일재경이 “알리바바와 징둥의 시대가 끝나고 핀둬둬의 시대가 왔다”고 보도할 만큼 성장 속도가 빠르다.마이컬리팜 게임에 빠진 모바일 플랫폼디지털 농사 외에도 플랫폼 안에 게임을 도입하는 사례가 늘고 있다. 병원 예약 앱인 ‘굿닥’, 금융 앱 ‘토스’, 헬스케어 플랫폼 ‘캐시워크’ 등이 대표적 예다. 게임 요소를 차용한 ‘당근마켓’ 같은 앱도 있다. 예를 들어 ‘매너온도’는 사용자의 칭찬, 후기, 비매너평가 제재 등을 기반으로 사용자 신뢰도를 온도로 표시해준다. 첫 온도는 사람의 체온인 36.5도로, 좋은 평가를 받으면 온도가 올라간다. 활동 배지시스템도 대표적인 게임 요소다.올팜많은 플랫폼이 앞다퉈 게임에 관심을 보이는 이유는 명확하다. 플랫폼 내에서 체류시간을 증가시킬 수 있기 때문이다. 실제로 올팜을 운영하는 올웨이즈의 이용자 월평균 사용일수는 18.6일로 쿠팡(15일)보다 많다. 하루 평균 사용 시간도 34분으로 쿠팡의 세 배 수준이다. 컬리 또한 마이컬리팜을 내놓은 지난 1일과 비교했을 때 9일 컬리팜 이용자의 컬리 앱 방문 횟수가 세 배가량 많았다. 소비자 시간 점유 싸움으로 진화KB금융지주 경영연구소 보고서에 따르면 글로벌 게이미피케이션 시장은 2022년 기준 134억달러(약 17조8900억원) 규모로 추산된다. 2030년에는 968억달러(약 129조2700억원)까지 성장할 전망이다. 게이미피케이션이란 이용자의 관심이나 행동을 유도하기 위해 게임이 아닌 분야에서 게임의 메커니즘, 사고방식, 디자인 요소 등을 적용하는 것을 뜻한다. 한국뿐 아니라 세계적으로 플랫폼 방문율을 높이기 위해 게임 요소를 적용하는 데 관심이 많다는 뜻이다.소비자가 자사의 플랫폼에 자주 방문하고, 오래 머무는 것은 중요하다. 소유에서 경험으로 소비 패러다임이 이동하면서 소비자의 지갑을 여는 일보다 시간을 점유하는 일이 더 어려워졌기 때문이다. 그렇다면 플랫폼에 자주, 오래 머무는 것이 늘 좋은 것일까. 그렇지 않다. 사용자가 우리 플랫폼에 머무르는 체류의 목적과 밀도를 분석해야 한다. 오래 머무르고 있다는 결과 자체는 동일하지만, 그 이유가 ‘마음에 드는 물건이 없어서’ ‘결제 오류가 자주 발생해서’ 등 부정적인 것일 수도 있기 때문이다. 자주 방문하는 경우도 마찬가지다. 프로모션 기간에만 반짝 방문하거나 쿠폰을 주는 상품만 구매하는 소비자는 아닌지 살펴볼 필요가 있다.최근 시장의 경쟁은 산업의 분야를 막론하고 소비자 혹은 사용자의 시간 점유 싸움으로 진화하고 있다. 경험은 겉으로 드러나는 소비자의 의도가 명확하지 않은 경우가 많기 때문에 데이터로 드러나는 결과의 뒷면을 해석할 수 있는 혜안이 필요한 때다.최지혜 서울대 소비트렌드분석센터 연구위원</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2023.08.21.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>토스증권 앱 오류…'상장폐지' 50분간 오표기</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001120503?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>21일 토스증권 애플리케이션에서 한 해외주식 종목이 상장폐지된 것으로 잘못 표기되는 오류가 발생했다.토스증권에 따르면 이날 오후 5시부터 약 50분간 뉴욕증시 상장 종목인 존슨앤존슨이 상장폐지된 상태로 잘못 표시돼 모바일트레이딩시스템(MTS) 사용자들 사이에서 혼선이 빚어졌다.이는 토스증권이 외부로부터 해당 종목 관련 정보를 수신하는 과정에서 오류가 발생하면서 생긴 일시적 장애였던 것으로 파악됐다.현재는 정상 거래 중이다.이 증권사는 자사 홈페이지를 통해 이날 오류에 대한 안내 공지문을 띄우고 피해를 본 고객이 있을 시 보상하겠다는 입장을 밝혔다.토스증권 관계자는 "해당 종목 한 개에 대해서만 오류가 발생했다"며 "오류 발생 시간 동안 해당 종목의 가격 변동이 거의 없어 현재까지 접수된 투자자 피해는 없다"고 설명했다.(사진=연합뉴스)</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2023.08.24.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>"제2 머지포인트 사태 방지"…선불업 등록·감독 기준 더 깐깐해진다</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0007008825?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>전자금융거래법 개정안 국회 본회의 통과'소액후불결제업무' 선불업자 겸영업무로 허용17일 서울 영등포구에 위치한 '머지포인트' 운영사 머지플러스 본사 모습. 머지포인트의 서비스 축소로 혼란이 이어지며 금융당국의 책임론도 커지는 가운데 금융감독원이 유사 사태를 막기 위한 실태 조사를 예고했다. 한편 머지플러스는 이날 환불 진행을 개시한다고 밝힌 상황이다. 2021.8.17/뉴스1 ⓒ News1 김명섭 기자(서울=뉴스1) 신병남 기자 = 지난 2021년 서비스를 기습 중단해 환불 대란을 일으킨 '머지포인트 사태'가 재연되지 않도록 위해 선불업 등록과 감독 기준이 보다 강화된다. 또한 네이버페이·비바리퍼블리카(토스) 등만 취급하던 소액후불결제 업무도 선불업자들에게 허용될 예정이다.금융위원회는 24일 이 같은 내용을 담은 '전자금융거래법'(전금법) 개정안이 이날 국회 본회의를 통과했다고 밝혔다. 개정안의 주요 내용은 △선불업 감독범위 확대 △선불충전금 별도관리 의무화 △선불업자 영업행위 규칙 신설 △소액후불결제 겸영 허용 등이다.먼저 선불업 감독 대상을 확대하고, 선불업자 등록 면제기준이 강화된다. 선불전자지급수단의 업종 기준이 삭제돼고, 전자식으로 변환된 지류식 상품권도 선불전자지급수단에 포함된다. 선불전자지급수단이 등록 의무 기준을 가맹점 수 10개에서 1개로 줄여 등록 대상 기업이 늘어난다. 다만 영세사업자 보호를 위해 발행 잔액 및 총발행액이 일정 규모 이하일 경우 등록 의무를 면제될 예정이다.이용자의 선불충전금에 대한 보호장치도 마련됐다. 이제부터 선불업자는 선불충전금의 50% 이상에 해당하는 금액으로서 대통령령으로 정하는 금액을 신탁, 예치 또는 지급보증보험의 방식으로 별도관리해야 한다. 아울러 선불업자가 지켜야 하는 영업행위 규칙을 신설됐다. 예컨대 가맹점을 정당한 이유 없이 이용자에게 불리하게 축소하거나 선불전자지급수단의 이용 조건을 변경하는 경우 선불충전금 잔액의 전부를 지급한다는 내용을 약관에 포함하고, 이용자에게 통지해야 한다.선불업자에 대한 영업 규제도 일부 완화됐다. 선불충전금이 부족한 경우 그 부족분에 대해 선불업자 스스로의 신용으로 가맹점에게 그 대가를 지급할 수 있도록 하는 '소액후불결제업무'가 겸영업무로서 허용된다.그간 혁신금융서비스를 통해 네이버파이낸셜·카카오페이·토스 3사는 규제 특례를 적용 받아 30만원(카카오페이는 15만원)의 한도 내에서 소액후불결제 서비스를 제공 중이었다. 앞으로는 해당 서비스를 선불업 회사들도 취급할 수 있다. 서비스 영위를 위한 세부 규정 등 필요 사안은 대통령령으로 정할 예정이다.금융위 관계자는 "법 개정을 통해 선불업 규제 사각지대를 축소하고, 이용자의 선불충전금을 안전하게 보호할 수 있을 것"이라며 "국회 본회의를 통과한 법 개정안은 정부의 법률 공포 절차를 거친 뒤 1년 후인 오는 2024년 9월쯤 시행될 예정"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2023.08.30.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>인뱅 ‘모임통장’ 경쟁 불붙었다… 年 10% 금리에 누구나 출금·결제</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000927875?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>인뱅 3사 모두 모임통장 출시여러 기능과 혜택 강화한 형태신규 고객 유치와 수익 안정화 기여그래픽=정서희        인터넷전문은행의 ‘모임통장’ 경쟁이 불붙고 있다. 모임통장은 각종 모임 내 비용 관리를 위해 개설할 수 있는 통장으로 이용자 간 거래 내역을 확인할 수 있는 게 특징이다. 인터넷전문은행은 모임통장을 통해 신규 고객을 유치하고 안정적으로 예금을 확보하려고 한다.30일 금융권에 따르면 케이뱅크는 지난 28일 모임통장을 출시했다. 케이뱅크 모임통장은 300만원까지 연 2.3% 금리를 주고 초과 금액에 대해서는 연 0.10% 금리가 적용된다. 모임통장은 모임비 플러스 기능을 제공하는데 모임 구성원들과 목표 금액을 모으면 최고 연 10% 금리를 제공한다. 구체적으로 기본 금리 연 2.00%에 전체 목표 금액에 성공하면 연 3.00%를 추가로 주고 성공한 인원이 한 명 추가될 때마다 0.50%의 우대금리가 더해진다. 최대 참여 가능 인원 10명이 참여하면 최고 연 10.00% 금리가 적용된다. 목표 금액은 1000만원까지 설정할 수 있다.토스뱅크는 지난 2월 모임통장을 출시했다. 토스뱅크 모임통장은 하루만 맡겨도 연 2.00%의 금리를 제공한다. 토스뱅크 모임통장은 모임원 누구나 공동 모임장이 될 수 있는 것이 특징이다. 통장 최초 개설자인 모임장과 공동 모임장은 모임카드 발급, 출금, 결제 권한을 가질 수 있다. 기존에 모임장 한 명에게 쏠린 통장 관리 부담을 덜어주자는 취지다. 토스뱅크는 지난 3일 모임통장에 연인이나 부부가 통장을 관리할 수 있는 커플통장 기능을 추가했다. 토스뱅크는 모임통장 출시 5개월 만에 가입자가 100만명을 넘어섰다고 밝혔다.카카오뱅크는 모임통장 분야 최강자다. 카카오뱅크 모임통장은 기본 연 0.10% 금리에 파킹통장인 ‘세이프박스’와 연결하면 연 2.10%까지 받을 수 있다. 모임통장은 지난 2018년 카카오뱅크가 처음으로 국내에 선보였다. 카카오뱅크는 관계사 카카오의 모바일메신저 카카오톡과 연계해 시너지 효과를 누렸다. 상반기 기준 카카오뱅크 모임통장 가입자는 920만명, 계좌 수는 463만좌다. 상반기 기준 카카오뱅크 모임통장 잔액은 5조9000억원으로 전체 수신잔액(43조6000억원)의 13.6%를 차지한다.일러스트=손민균        최근 인터넷전문은행이 여러 기능과 혜택을 강화한 모임통장을 출시하는 데는 모임통장이 은행 수익 안정화에 도움을 주기 때문이다. 모임통장은 특성상 계좌 하나를 만들면 여러 명의 타행 고객을 끌어들일 수 있는 점이 장점으로 꼽힌다. 특히 카카오뱅크는 모임통장을 통해 40~50대를 고객으로 끌어들일 수 있었다. 지난해 말 기준 카카오뱅크 모임통장 신규 이용자 가운데 40대 이상 중장년층이 43.6%였다. 각각 40대가 25.4%, 50대가 14.7%, 60대 이상이 3.5%였다.아울러 모임통장은 은행 수익 안정화에도 도움을 준다. 모임통장은 여러 명이 함께 쓰기 때문에 한 번 만들면 쉽게 움직이지 않는다는 특징이 있다. 금융상품을 수시로 비교하며 작은 금리 차이에도 ‘머니무브(대규모 자금 이동)’가 일어나는 일반 예·적금과 대비된다. 자금 이탈이 일어나지 않기 때문에 은행 입장에서는 이자를 많이 줄 필요도 없다. 특히 최근과 같은 고금리 상황에서 예금을 효율적으로 확보할 수 있는 상품이다.인터넷전문은행 관계자는 “모임통장 1개를 개설하면 관련된 이용자가 10명 가까이 모인다”며 “특히 모임통장 특성상 서비스를 간편하게 이용할 수 있는 인터넷전문은행으로 몰리고 있다”고 말했다. 그는 “다수의 고객이 회비를 모으며 안정적으로 현금이 유입되는 만큼 은행 입장에서는 비용이 적게 들면서 대량의 자금을 가지고 갈 수 있는 상품이다”라며 “인터넷전문은행 내 모임통장 경쟁이 치열해질 것으로 보인다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2023.08.24.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>마브렉스, 글로벌 블록체인 기업 앱토스와 파트너십</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005557683?sid=105</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>[이데일리 김정유 기자] 넷마블(251270)은 블록체인 전문 자회사 마브렉스가 글로벌 블록체인 기업 앱토스와 파트너십을 체결했다고 24일 밝혔다.앱토스는 안정성, 확장성, 신뢰성 등이 원칙으로 설계된 레이어1 블록체인으로, 전 세계 이용자들의 자유로운 블록체인 시장 참여를 돕기 위한 기술 등을 지원한다.마브렉스는 이번 파트너십을 기반으로 서로 다른 블록체인 생태계 간 서비스 교류를 가능케하는 ‘마브렉스 워프’ 서비스를 통해 앱토스 이용자들을 대상으로 MBX 생태계 내 게임, NFT(대체불가능토큰) 등의 서비스를 선보일 예정이다.마브렉스는 앞서 바이낸스, 니어 재단 등과 파트너십을 체결하면서 본격적인 멀티체인 확장에 나선 바 있다.문준기 마브렉스 본부장은 “이번 파트너십을 통해 앱토스 이용자와 마브렉스 이용자 간의 교류와 함께 확장성 부분에서 큰 시너지를 발휘할 수 있을 것으로 기대한다”고 밝혔다.바샤르 라자르 앱토스 재단 생태계 및 그랜트 책임자는 “전 세계 웹3 기반 게임 이용자들의 경험을 발전시키는 혁신을 가져올 것으로 기대한다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2023.08.31.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>이복현 “녹색금융 전문 인재양성 필요…경쟁력 확보해야”</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002744540?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>‘ESG 교육과정’ 개설 업무협약국제 컨퍼런스‧채용 설명회이복현 금융감독장ⓒ금융감독원[데일리안 = 이세미 기자] 이복현 금융감독원 원장이 녹색금융 경쟁력을 확보하기 위해선 이를 전문적으로 취급할 수 있는 인재 양성이 필요하다고 강조하고 나섰다.31일 금감원에 따르면 이 원장은 이날 오전 이화여대 ECC 이삼봉홀에서 5대 금융지주사(KB‧신한‧하나‧우리‧NH)와 함께 ‘금융권 ESG 교육과정’ 개설을 위한 업무 협약을 맺고 이같이 말했다. 이번 업무 협약은 금융권의 녹색금융 활성화를 위한 인프라 구축을 위해 마련된 장이다.이 원장은 우선 기후위기 시대를 살고 있는 바로 지금, 금융권의 녹색금융 활성화 노력의 필요성을 강조했다. 그는 “금융권은 온실가스를 줄이는 기술을 개발하기 위한 자금 즉, 녹색금융을 공급해 기후위기 대응에 중추적 역할을 담당할 수 있다”며 “녹색금융은 연기금 등 장기투자자의 투자위험을 관리할 수 있는 수단도 될 수 있다”고 말했다.그러면서 “녹색금융의 기준이 되는 녹색분류체계를 금융 현장에서 좀 더 쉽고 편리하게 적용하기 위해 녹색분류체계 적용시스템을 금융권 공동으로 개발 중”이라며 그간 진행되 온 금융권과 금감원의 노력을 소개했다.그는 “투자자들이 녹색금융과 관련된 투자 정보를 더 쉽게 얻을 수 있도록 기업 ESG 공시기준을 마련하는 등, 국내 금융권에서 녹색금융이 더욱 활성화될 수 있도록 다양한 노력을 경주해 나갈 예정”이라며 향후 감독정채 추진 의지도 표명했다.금감원과 5대 금융지주사는지속가능 금융 활성화 요구에 부응하기 위한 ESG 금융상품 개발, 기업 공시, 기후리스크 관리,통상 분야 등에대한 전문가 양성 필요성에 공감했다. 이에 따라 올해 중 세부 교육과정을 개설하고 금융회사 직원 외에중소기업 직원에게도 문호를 개방해 금융권의 사회적책임에 기여한다는 계획이다.이어진 금감원과 이대 공동 주관 국제컨퍼스에서는 총 7개 주제 발표로 진행됐으며, 참석자들이 글로벌 금융사들의 녹색금융 취급 사례 및 전략을 비교·분석하며 이해할 수 있도록 했다.황재학 금감원 수석조사역은 녹색금융 관련 글로벌 감독환경 변화 및 금융감독원 향후 감독방향에 대해 발표했으며, 이상훈 이대 교수는 금감원이 10개 금융사와 공동으로 개발중인 한국형 녹색분류체계 적용시스템 개발 경과를 소개했다. 오순영 KB국민은행 금융AI센터장은 생성형 AI 기술의 ESG금융 분야 적용 사례에 대해 발표했다.청년 채용설명회에서는 KB, 신한, 하나, 우리, NH 등 기존 금융사 뿐만 아니라, 카카오페이, 토스뱅크 등 디지털기업과 ING 등 글로벌 기업, 한화솔루션 등 신재생에너지 관련 기업도 참여해 채용 절차, 면접 준비팁 등 입사전략 등을 다양한 사례를 바탕으로 설명했다.청년 채용설명회는 청년들의 취업 지원 및 진로 컨설팅 등을 위해 국내외 기업이 참여하는 채용설명회와, 미래금융 아이디어 경진대회인 A.I. Challenge 대회 등으로 나눠 개최됐다.금감원 관계자는 “녹색금융 관련 글로벌 금융회사들의 현황 및 미래 전략들을 비교·분석해 국내 금융권에 적합한 대응방안을 모색하고, 금융권과 협력해 미래의 전문가를 집중적으로 양성하고, 녹색금융 분야의 경쟁력 확보해 나갈 것”이라고 말했다.이어 “청년층 구직 지원 및 혁신적 미래금융 아이디어 촉진을 통해 금융권의 차세대 육성 측면의 사회공헌을 실시할 것”이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2023.08.28.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>페루서 3천년전 성직자 추정 유해 발굴…“강력한 지도자였을 것”</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011553844?sid=104</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>남미 페루에서 3천년 전 안데스 지역 시대상을 엿볼 수 있는 유해가 발굴됐습니다. 로이터통신에 따르면 페루 문화부는 현지시간 26일 성명을 내고 “북부 카하마르카 파코팜파 고고학 유적지에서, 기원전 천년 경에 살았던 것으로 보이는 성직자의 유해를 찾았다”고 밝혔습니다. 일본·페루 공동발굴팀이 확인한 유해는 남성으로, 검은 흙이 섞인 6겹의 잿가루 아래에 매장돼 있었습니다. 주변에는 당시 엘리트 신분이었던 사람의 무덤에서 볼 수 있는 도자기와 도장을 비롯해, 뼈 주걱과 다른 제물 등이 함께 묻혀 있었다고 통신은 보도했습니다. 해당 무덤은 지름 3ｍ, 깊이 1ｍ의 원형이라고 통신은 전했습니다.  이 지역에서 18년 간 연구한 유지 세키는 “이 사람이 그 시대의 강력한 지도자였다고 보고 있다”며 “안데스 지역 종교 시설을 통제하며 일련의 제사를 지낸 첫 성직자 중 한 명이었을 것”이라고 추측했습니다. 페루 당국은 발굴된 지역명을 따 유해에 ‘파코팜파의 사제’라는 이름을 붙였습니다. 이 유해는 2009년과 2015년에 각각 발굴된 ‘파코팜파의 여인’과 ‘파코팜파의 뱀 재규어 사제’보다 5세기가량 앞선 것으로 보인다고 당국은 덧붙였습니다. 앞서 지난해 9월 일본·페루 발굴팀은 묻힌 지 3천년 이상 된 것으로 추정되는 ‘푸투토스의 사제’ 유해를 찾아내기도 했습니다. 해발 2천700ｍ 넘는 분지 지형인 카하마르카는 과거 잉카 제국 때 많은 사람이 살았던 곳으로 알려졌습니다.[사진 출처 : 로이터=연합뉴스 / 페루문화부 제공]■ 제보하기▷ 전화 : 02-781-1234, 4444▷ 이메일 : kbs1234@kbs.co.kr▷ 카카오톡 : 'KBS제보' 검색, 채널 추가▷ 네이버, 유튜브에서 KBS뉴스를 구독해주세요!</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2023.08.28.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>“최우등생은 카카오뱅크” 인뱅 3사, 상반기 포용금융 성적표 떴다</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005062791?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>카뱅, 상반기 중·저신용자 신용대출 역대 최대대출 비중도 최근 3달 새 2%p 끌어올려케뱅, 중·저신용자 대출 비중 최하위토스뱅크, 전년 대비 공급액 46% 감소 /사진=연합뉴스[파이낸셜뉴스]카카오뱅크가 올 상반기 중·저신용자에게 1조7000억원인 넘는 신용대출을 공급하며 인터넷은행 3사 중 최우수 성적표를 거머쥐었다. 반면 상반기 공급액이 카카오뱅크의 4분의1 수준에 그친 케이뱅크는 하반기 금리인하를 통해 반등을 노린다는 계획이다. 연말까지 준수해야 하는 중·저신용대출 목표치가 가장 높음에도 유일하게 비중이 감소한 토스뱅크는 하반기 허리띠를 더 조여 매야 하는 상황에 놓였다.     ■“인터넷은행 ‘맏형’ 답네” 카카오뱅크, 중·저신용자 대출 공급, 역대 최대   28일 금융권에 따르면 인터넷은행 3사 중 올 상반기에 가장 활발한 포용금융 활동을 펼친 곳은 카카오뱅크다. 카카오뱅크는 올해 상반기 중·저신용고객(KCB기준, 신용평점 하위 50%)에게 공급한 1조7503억원 규모의 신용대출을 공급했다. 이는 반기 기준 역대 최대 공급 규모이며 지난해 상반기 취급액(1조3362억원)보다 31% 증가한 수치다. 중·저신용자 대상 신용대출 규모도 전분기에 비해 2%p 상승해 연말 목표치(30%)를 2.3%p 남겨뒀다.   특히 카카오뱅크는 신용 하위 50%인 차주에게 일정 수준 이하의 금리로 공급하는 신용대출인 민간중금리대출을 올 상반기 8476억원 공급하며 연말 목표치(5095억원)을 166% 상회했다. 케이뱅크와 토스뱅크가 올 상반기 각각 2937억원, 7694억원을 공급하며 연간 목표치의 54.4%, 66.3%를 달성한 것과 대조적이다.     ■케이뱅크, 중·저신용자 대출 비중 최하위 “금리 인하해 하반기 공급 확대”  케이뱅크는 올해 상반기 4640억원의 중·저신용자 신용대출을 취급하며 공급액이 인터넷은행 3사중에 가장 저조했다. 전체 가계 신용대출 중 중·저신용자 대상 신용대출 비중도 2·4분기 기준 24%를 기록하며 전분기 대비 0.1%p 늘어나는데 그쳤다. 연말 목표치(32%)를 달성하기 위해서는 중·저신용자 비중을 하반기에 8%p 확대해야 한다.   케이뱅크는 주요 신용대출의 금리 인하를 통해 중·저신용자 대출 확대에 나선다는 입장이다. 케이뱅크는 이달 초 중·저신용자 상품인 ‘신용대출플러스’의 금리를 최대 연 1%p 인하하고 개인사업자 대상 상품인 ‘사장님 신용대출’의 금리도 최대 0.4%p 내렸다. 케이뱅크는 지난달 15일부터 중·저신용자대출 비중을 맞추기 위해 고신용자 대상 신규 신용대출, 마이너스 통장 취급을 중단한 상태다.   케이뱅크 관계자는 “7~8월에 중·저신용자 대출을 확대해 8월 말 중·저신용자 대출 비중이 25.1%까지 늘어났다”며 “남은 하반기에 중·저신용자, 개인사업자 등 다양한 고객층에 대출공급을 확대해 이자 부담을 덜어드리기 위해 노력할 것”이라고 설명했다.     ■“중·저신용자 비중, 유일하게 하락” 갈 길 먼 토스뱅크  건전성 관리에 나선 토스뱅크는 중·저신용대출 취급을 조절하고 있다. 토스뱅크의 올해 상반기 중·저신용 대출 취급액은 8408억원으로 집계돼 지난해 상반기(1조5600억원) 대비 46% 감소했다. 거시경제 불안정성에 대비하기 위해 대출 심사 및 내부 등급 기준을 고도화하고 5월 말부터 시작한 대환대출로 고신용자 대출이 늘어난 여파다. 출범 이후 21개월 만에 부실채권에 대한 상각을 진행하면서 중·저신용자 비중에서 중·저신용자 공급 대출 중 상각된 규모가 제외된 것도 영향을 끼쳤다.   특히 인터넷은행 3사 중 전분기 대비 중·저신용자 대출 비중이 유일하게 떨어졌다. 토스뱅크의 중·저신용자 대상 신용대출 잔액 비중은 지난 1·4분기 42.06%에서 2·4분기에 38.5%로 3.5%p 가량 감소했다. 토스뱅크는 올해 연말까지 비중을 인터넷은행 3사 중에서 가장 높은 목표치인 44%까지 끌어올려야 한다.   토스뱅크 관계자는 “지난 2021년 출범 이후부터 1금융권 중 높은 중·저신용자 포용 비중을 지속해 오고 있다”며 “자체 개발 신용평가모형 ‘TSS’를 한층 고도화해 지속가능한 중·저신용자 포용을 이어갈 것”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2023.08.30.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>α세대는 ‘시중은행’ ·Z세대는 ‘인뱅’ 선호…저축도 열심히 한다</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004232030?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>하나금융경영연구소 보고서Z세대 46%, 뱅킹앱 등에서 첫 거래 시작알파세대 부모 43% 자녀 돌 이전 상품 가입[서울경제] 1990년대 중반 이후 태어난 잘파세대(Z세대+α세대) 대다수가 용돈을 활용한 저축과 앱테크에 관심이 높은 것으로 조사됐다. 또 중고생인 Z세대의 경우 현재 모바일뱅킹 등에 강점을 지닌 인터넷전문은행을 주로 사용하지만 장기적으로는 신뢰도가 높은 시중은행으로 거래를 옮길 의향이 있는 것으로 나타났다.하나금융경영연구소는 30일 이 같은 내용을 담은 ‘잘파세대의 금융 인식과 거래 특징의 이해’ 보고서를 발간했다. 연구소가 서울·경기도 지역 및 6대 광역시의 초등학교 고학년 및 중고생·대학생, 초등학교 고학년 학부모 등 1200명을 조사한 결과 잘파세대 10명 중 8명은 용돈으로 앱테크를 하고 용돈 일부를 남겨 규칙적 또는 간헐적으로 저축을 생활화하고 있는 것으로 나타났다. 이들은 취미·문화생활·여행 비용, 전자기기 구입 등을 목표로 저축한다고 응답했다.특히 카카오뱅크 ‘미니’ 등 청소년 특화 서비스가 출시되면서 중고생인 Z세대의 금융거래는 인터넷전문은행을 중심으로 급변했다. Z세대의 46%는 인터넷전문은행이나 유스앱에서 처음으로 금융거래를 시작했고 금융거래 시 모바일뱅킹을 이용하는 비율도 70~80% 수준으로 높은 것으로 나타났다. 반면 초등학생인 알파세대의 경우 부모 43%가 자녀 돌 전에 금융 상품, 영아기에 청약이나 적금·투자 상품에 가입하며 첫 금융거래를 시작해 시중은행을 이용하는 비중이 높았다.이는 주요 소비 수단인 체크카드 사용 현황에서도 나타난다. 알파세대의 경우 시중은행 상품인 아이부자카드(하나은행)·쏘영체크카드(KB국민은행) 등을 주로 사용하는 반면 중고생들은 카카오뱅크 ‘니니즈카드(60.9%·이하 복수 응답)’, 토스 ‘유스카드(34.6%)’ 등의 사용 비중이 압도적으로 높다. 다만 어른·직장인이 돼 1억 원을 관리할 경우를 묻는 질문에는 초등학생과 중고생·대학생 모두 시중은행을 인터넷전문은행보다 더 선호한다고 밝혔다.은행 입장에서는 미래 고객 기반인 잘파세대를 시기별로 공략하는 전략이 필요하다는 분석이 나온다. 황선경 하나금융경영연구소 수석연구원은 이번 연구 결과에 대해 “부모의 영향력이 큰 알파세대의 경우에는 부모를 적극적으로 공략하는 한편 핀테크 앱이나 유스앱으로 많이 이탈한 중고생을 대상으로는 체크카드, 주식 투자 상품을 위주로 관심을 끌 수 있다”고 분석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2023.08.30.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>링커리어 "맞춤형 인턴·채용 공고 세분화로 취준생 주목”</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002303438?sid=105</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>2년 전 대비 개인 회원 91.7%·기업회원 77.7% 증가대학생·취준생 커리어 플랫폼 '링커리어'의 인턴 공고 서비스와 채용 공고 서비스가 직관적인 UI·UX(사용자 환경 및 경험), 편리한 공고 확인 기능으로 개인 및 기업 회원에게 주목받고 있다.30일 링커리어에 따르면 인턴 및 채용 공고 서비스 유입률은 2023년 7월 기준 2021년 9월 서비스 세분화 이전 대비 개인 회원이 약 91.7%, 기업 회원이 77.7% 증가했다.이는 공고 서비스 세분화 이후 인턴부터 채용에 이르기까지 모든 정보를 쉽고 간편하게 볼 수 있게 된 것이 주효했다는 평가다. 개인 회원과 기업 회원이 필요로 하는 게시글을 직관적인 카테고리를 통해 손쉽게 확인할 수 있는 편리한 UI·UX 도입과 인턴, 채용, 대외활동, 공모전, 동아리 등에 이르기까지 목적에 따른 맞춤형 정보 확인의 용이성이 이용자 유입을 이끌었다는 것이다.링커리어, 구직자 맞춤형 인턴·채용 공고 세분화로 취준생 사로잡다링커리어의 인턴 및 채용 공고 서비스는 2021년 9월 세분화된 서비스다. 기존에 하나의 공고 서비스에서 제공했으나, 대학생 및 신입 구직자의 이용률이 점차 증가하면서 개인 회원들이 각각의 공고를 빠르고 편리하게 확인하는 데 도움이 되고자 업데이트됐다.인턴 공고 서비스와 채용 공고 서비스가 세분화된 이후 대학생 및 신입 구직자들은 개개인이 원하는 공고를 한층 각각의 카테고리에서 상세하게 확인할 수 있게 됐다. 뿐만 아니라 기업 회원들 역시 인턴 또는 채용과 같은 구인 필요에 적합한 공고를 맞춤형 카테고리에 게시할 수 있게 됨으로써 원하는 인재를 채용할 수 있게 돼 유입률 증가로 이어졌다.노은돈 링커리어 대표는 "공고 서비스 세분화로 개인 및 기업 회원들의 편의성이 확대된 것을 확인한 만큼 앞으로도 모든 채용 정보를 쉽고 간편하게 볼 수 있는 링커리어가 되기 위해 노력할 것"이라고 말했다.잡테크 커넥팅 데이즈 이미지한편 지디넷코리아는 9월25일부터 27일까지 삼성동 코엑스A 홀에서 ‘잡테크 커넥팅 데이즈’ 채용 브랜딩 페스티벌을 연다. 대중들에게 사랑받는 다수 기업들이 참여해 자사의 기업문화와 필요로 하는 인재상, 복지정책과 일하는 방식 등을 소개할 예정이다.국내·외 정보통신기술(ICT)의 미래를 한자리에서 확인할 수 있는 ‘대한민국 디지털 미래혁신대전 2023’과 함께 열리는 이번 채용 행사에는 ▲원티드랩 ▲제네시스랩 ▲네이버 ▲무신사 ▲라인 ▲당근마켓 ▲토스CX ▲오늘의집 ▲야놀자 ▲직방 ▲나만의 닥터 등이 참여한다.채용 정보와 직무 교육 등에 있어 인사이트를 주는 다양한 강연도 열릴 계획이다. 각 회사 인사/교육 담당자를 비롯해 취준생, 이직러 등이 참여해 서로 간의 정보 교류도 기대된다. 취준생들은 여러 기업들의 채용 관련 팁, 일하는 문화와 방식, 기업 철학 등을 파악해 자신의 진로를 선택하는 데 도움을 받을 수 있다. 이직을 생각하는 직장인들도 새로운 직장으로 옮기기 위해 필요한 업무 스킬과 자격 요건 등을 파악하는 기회가 될 수 있다.취업을 앞둔 대학생이나 휴직생, 이직을 고려하는 직장인들 모두 무료로 참석할 수 있다. 채용 브랜딩이 필요한 기업들은 [☞디지털 미래혁신대전 운영 사무국]을 통해 신청하면 된다. 관련 대학 또는 기관 참여도 가능하다. 보다 자세한 참여 안내는 네이버 검색창에서 '디지털 미래혁신대전'을 입력 후, 웹사이트에 방문하면 확인 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2023.08.24.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>"연 10% 적금" 현역군인이 추천하면..낚시성 적금 쏟아지네</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005557975?sid=101</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>고금리시대 예적금 관심 증가금융권, 고금리 특판 상품 봇물‘1만보’ 걷기, 월 15만원 이상 구매 등조건 충족 어려워 볼멘 소리[이데일리 정병묵 기자] 최근 금리인상으로 예·적금에 대한 금융 소비자들의 관심이 높아지자 은행들이 고금리 특판 예·적금을 경쟁적으로 출시하고 있다. 그러나 우대금리 조건이 까다롭거나 현실적으로 달성하기 힘들어 큰 메리트가 없는 ‘낚시성’ 상품이 아니냐는 볼멘소리가 나온다. [이데일리 김정훈 기자]23일 우리종합금융이 넷플릭스 인기 드라마 ‘D.P.’ 원작자인 김보통 작가와 손잡고 출시한 ‘DP 정기적금’은 연 10%의 금리 혜택이 주어지는 개인고객 비대면 전용 특판 상품이다. 기본금리 연 2.0%에 우대금리는 최고 연 8.0%을 제공하지만 현역군인 또는 친구추천 3.0%, 마케팅 수신동의 1.0% 등 우대 조건을 갖춰야 연 10% 금리 혜택이 주어진다. 적금 만기는 6개월이고 가입금액도 최고 20만원에 불과하다.신한은행이 최근 선보인 ‘신한 SK LPG 쏠쏠한 행복 적금’은 기본금리 연 3.0%에 연 4.0% 우대금리를 더해 총 연 7.0%의 금리를 제공한다. 그러나 우대금리 충족 항목을 보면 SK LPG 행복충전멤버십 회원(0.5%), 매달 SK LPG 충전금액 15만원 이상(0.2%) 등의 조건을 충족해야 한다. 12개월 만기로 월 불입액도 30만원 수준으로 높지 않다는 불만이 나온다.우리은행이 출시한 ‘데일리 워킹 적금’ 상품은 최고 연 11.00%의 고금리를 제공하고 있지만 기본 금리가 1%에 그친다. 스마트폰 만보기 서비스를 통해 입금일에 1만보 이상 걷고 은행 앱에서 성공 버튼을 눌러야 나머지 금리가 추가된다.광주은행의 ‘행운적금’은 우대금리가 10%에 달해 눈길을 끌었으나 추첨을 통해 우대금리를 부여하는 방식이다. 기본금리 연 3.5%에 매주 추첨을 통해 당첨된 540명에게만 총 10% 우대금리를 몰아주는 식이다. 이에 금융 소비자들은 복잡한 조건 없이 고금리를 보장해 주는 상품으로 몰리고 있다. 시중은행보다 인터넷전문은행이 ‘단순한’ 조건으로 적금 가입을 유도하고 있다. 이달 9일 토스뱅크가 선보인 ‘토스뱅크 자유적금’이 9일 만인 21일 10만 계좌를 넘어섰다. 가입기간은 최소 3개월부터 최대 36개월까지로 복잡한 조건을 충족할 필요없이 월 납입한도는 최대 300만원 매달 꾸준히 저금하면 우대금리를 포함 최고 연 5%의 금리 혜택을 받을 수 있다. 카카오뱅크(323410)의 ‘26주적금’은 지난 2018년 출시 이래 현재까지 누적 개설 2000만좌를 달성한 스테디셀러다. 작년 한 해엔 500만좌, 올해는 8월 초 기준 380만좌가 신규 개설됐다. 최초 가입 금액에 따라 매주 납입 금액을 최초 가입 금액 만큼 늘려가는 방식의 적금 상품이다. 예를 들어 1000원을 선택하면, 첫 주 1000원, 2주차 2000원, 3주차 3000원과 같이 26주 동안 자동으로 증액해 납입되는 구조다. 기본 금리는 연 3.50%로, 26주간 자동이체를 통해 적금 납입에 성공하면 3.50% 포인트의 우대금리가 적용된다. 한편 금융당국은 예·적금 상품 우대금리 조건을 주시하고 있다. 금융감독원 관계자는 “고금리 시대에 다시 돈이 예·적금으로 몰리면서 다양한 상품이 출시되고 있지만 자세히 뜯어보지 않으면 현실적으로 우대금리 조건을 달성하기 힘든 상품이 종종 보인다”라며 “우대조건을 현실적으로 충족하지 못하면 시중금리보다 더 낮은 금리를 받을 가능성도 있어 신중한 가입이 요구된다”라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2023.08.21.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>토스뱅크 자유적금, 출시 9일만 10만 계좌 돌파</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012041020?sid=101</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]이주혜 기자 = 토스뱅크는 '토스뱅크 자유적금'이 출시 9일 만에 10만 계좌를 넘어섰다고 21일 밝혔다. 8초당 1명이 계좌를 개설한 셈이다.토스뱅크 자유적금은 9일 토스뱅크가 선보인 적금 상품이다. 고객들이 복잡한 조건을 충족할 필요없이 매달 꾸준히 저금하면 우대금리를 포함 최고 연 5%의 금리 혜택을 받을 수 있다. 가입기간은 최소 3개월부터 최대 36개월까지다. 월 납입한도는 최대 300만원으로 한도 범위 내에서 고객들이 자유롭게 추가 납입 가능하다. 기본금리는 가입기간에 따라 차등 적용된다. 12개월 이상 가입할 경우 우대금리를 포함 최고 연 5% 금리 혜택을 받을 수 있다. 토스뱅크는 '혜택의 자유로움'이 특히 MZ세대의 높은 호응으로 이어졌다고 설명했다. 토스뱅크 자유적금 가입 고객 가운데 2030이 58.6%에 달했다. 고객 3명 중 1명(32.3%)이 20대로 높은 비중을 차지했다. 토스뱅크 관계자는 "고객이 우대금리를 받기 위해 충족해야 했던 '복잡한 조건'을 덜어낸 결과 고객들, 특히 젊은 층을 중심으로 이례적으로 높은 호응을 끌어낼 수 있었다"며 "앞으로도 고객 관점에서 상품을 고민하고 최고의 혜택을 드릴 수 있도록 노력할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2023.08.25.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>카카오뱅크 중저신용자 대출 나홀로 증가</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005177647?sid=101</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>올 2분기 카카오뱅크가 중저신용자 대출 잔액을 5000억원 가까이 늘렸다. 토스뱅크와 케이뱅크는 1분기와 비슷한 수준이었다.25일 카카오뱅크는 2분기 말 중저신용자 대상 신용대출 잔액이 3조 9184억원으로 1분기(3조 4774억원)보다 4710억원 늘었다고 밝혔다. 가계 신용대출 대비 중저신용자 대출 비중도 27.7%를 기록하며 같은 기간 2.0%포인트 늘었다. 상반기 중저신용대출 공급 규모는 1조 7503억원으로 전년 동기간(1조 3362억원) 대비 31% 늘었다.토스뱅크는 2분기 말 중저신용대출 잔액이 3조 700억원으로 1분기보다 300억원 줄었다. 비중도 42.06%에서 38.5%로 줄었다. 토스뱅크는 “출범 21개월만에 최초로 부실채권에 대한 상각을 진행하며 기존 중저신용자에게 공급한 대출 중 상각된 양이 중저신용자 비중에서 제외됐다”며 “올해 5월 말 시작한 대환대출에서 고신용자 유입도 많았던 영향”이라고 설명했다. 또 토스뱅크는 “거시경제 불안정이 지속되는 상황에서 상환능력과 의지가 있는 ‘건전한’ 중저신용자를 발굴하는 것이 지속가능성 측면에서 어느 때보다 중요해졌다”고 덧붙였다.케이뱅크는 2분기 말 중저신용대출 비중이 24.0%로 전분기 대비 0.1%포인트 늘었다. 케이뱅크는 전과 달리 이번 분기 중저신용대출 잔액을 공개하지 않았다. 다만 근사치를 활용해 역산한 추정치는 2조원대 초반으로 전분기 2조 622억원과 큰 차이가 없다. 2분기 말 케이뱅크 가계 총여신은 12조 1404억원이고, 주택담보대출 잔액은 3조 7000억원이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2023.08.18.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>토스·카카오證 엇갈린 상반기 실적, 사용자 혜택이 갈랐다</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002185130?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>혜택늘린 카카오證, 적자폭↑토스증권 상반기 손실 줄여대형증권사들이 올해 상반기 주식 거래대금 증가로 견조한 실적을 거둔 가운데, 후발주자인 토스증권과 카카오페이증권의 실적은 엇갈렸다. 브로커리지(위탁매매)에 집중하는 수익 구조상 두 증권사 모두 위탁 수수료 수익이 크게 늘었지만, 사용자 혜택을 크게 확대한 카카오페이증권은 적자 폭이 소폭 증가했다.18일 금융투자협회 전자공시서비스에 따르면 토스증권의 상반기 매출액은 전년 동기 대비 91.38% 증가한 964억원으로 나타났다. 당기순이익은 40억원 적자를 기록해 지난해 상반기(168억원 적자) 대비 손실 폭이 크게 감소했다. 카카오페이증권의 상반기 매출액은 전년 동기 대비 23.99% 늘어난 378억원을 기록했지만, 당기순이익은 247억원 적자로 지난해 상반기보다 소폭 증가했다.두 증권사 모두 위탁매매 수수료 수익이 가장 큰 비중을 차지하는 만큼, 거래대금 증가에 따른 수혜를 누렸다. 토스증권의 유가증권시장 수탁 수수료는 전년 대비 63% 증가했고, 코스닥시장 수수료는 두 배 넘게 증가했다. 카카오페이증권의 유가증권시장과 코스닥시장 수탁수수료은 각각 3배, 13배 증가했다.특히, 해외주식 시장 점유율 확대에 힘쓰면서 외화증권 수탁 수수료가 크게 늘었다. 토스증권이 외화증권 위탁을 통해 얻은 수수료는 지난해 상반기 136억원에서 337억원으로 크게 늘었다. 카카오페이증권의 외화증권 수탁 수수료는 지난해 3분기(누적) 12억원을 넘긴 뒤 올해 상반기 20억원을 돌파했다.한편, 카카오페이증권은 사용자 혜택을 늘려 이용자 수 증가에도 그 수혜를 실적에 반영하지 못했다. 송금 수수료를 전면 무료화하고 고객에게 제공하는 예탁금 이자를 최대 5%까지 크게 늘리면서 적자 폭이 소폭 증가했다.카카오페이증권의 증금 예치금 이자는 올해 상반기 26억원에서 66억원으로 크게 뛰었지만, 투자자 예탁금 이용료는 6억원에서 40억원으로 더욱 크게 늘었다. 증권사는 고객이 맡긴 예탁금을 한국증권금융에 예치해 이자를 받고, 이 중 일부를 투자자에게 이자로 제공한다. 이에 따라 투자자 예탁금이 증가하면 증금 예치금 이자와 투자자 예탁금 이자가 함께 증가한다.카카오페이증권은 예탁금 증가로 한국증권금융 예치금 이자 수익이 크게 늘었지만, 투자자에게 제공한 예탁금 이용료가 크게 늘면서 예탁금 증가에 따른 수익 증가는 누리지 못했다.카카오페이증권은 “카카오페이증권의 예탁 자산은 7월 말 약 2조원까지 늘어났고, 모바일트레이딩시스템(MTS)의 유저 활동성은 지난 4분기 대비 2.4배 증가했다”며 “최근 카카오톡 내 주식 주문 기능을 탑재하고, 전문 주식 투자자들까지 이용할 수 있도록 주문 화면 구조 개편이 이루어지면서 하반기에는 더욱 빠른 성장을 기록할 것으로 예측한다”고 말했다.권제인 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2023.08.21.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>연 5% 토스뱅크 자유적금…9일만에 10만 계좌 돌파</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004881860?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>월 300만원 까지 3~36개월 가입 가능2030세대 가입자가 58.6% 달해토스뱅크는 ‘토스뱅크 자유적금’이 출시 9일 만에 10만 계좌를 넘어섰다고 21일 밝혔다. 8초당 1명 꼴로 계좌 개설이 이어진 것으로 복잡한 조건을 충족할 필요 없는 ‘혜택의 자유로움’이 MZ세대의 마음을 사로잡았다는 평가가 나온다.토스뱅크 자유적금은 지난 9일 선보인 적금 상품이다. 고객들이 복잡한 조건을 충족할 필요없이 매달 꾸준히 저금하면 우대금리를 포함 최고 연 5%의 금리 혜택을 받을 수 있다. 통상 예·적금 가입시 우대금리 혜택을 누리려면 카드 실적, 통신비 자동이체 등 까다로운 조건을 충족해야 하거나 제한된 일부 고객들만 혜택을 누릴 수 있었다.하지만 토스뱅크 자유적금은 이 같은 시중 금융상품과 차별화를 뒀다.고객의 선택권은 대폭 넓혔다. 가입 기간은 최소 3개월부터 최대 36개월까지다. 월 납입한도는 최대 300만원에 달한다. 한도 범위 내에서 고객들이 자유롭게 추가 납입 가능하다. 기본금리는 가입기간에 따라 차등 적용되지만 12개월 이상 가입할 경우 우대금리를 포함 최고 연 5% 금리 혜택을 받을 수 있다. 고객들은 상품 가입 전 자신이 받게 될 이자도 한 눈에 미리 확인할 수 있다. MZ세대 사이에서 높은 호응으로 이어졌다. 토스뱅크 자유적금 가입 고객 가운데 2030은 58.6%에 달했다. 특히 고객 3명 중 1명(32.3%)이 20대로 높은 비중을 차지했다. 토스뱅크 관계자는 “고객이 우대금리를 받기 위해 충족해야 했던 ‘복잡한 조건’을 모두 덜어낸 결과 젊은 층을 중심으로 이례적으로 높은 호응을 끌어낼 수 있었다”며 “앞으로도 고객 관점에서 상품을 고민하고, 최고의 혜택을 드릴 수 있도록 노력할 것”이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2023.08.28.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>인뱅 "중저신용 대출 목표치, 비중 대신 총액 기준 삼아야"</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005063406?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>전체 대출 가운데 30~44%중저신용자 대출로 채워야2년 만에 두배 상향… 부담 커"고신용 대출 줄이는 고육지책"  인터넷은행이 중·저신용자 대출 비중을 맞추기 위해 안간힘을 쓰고 있지만 기준에 미치지 못하고 있다. 중·저신용 대출 비중 목표치를 지난 2021년 16.6~23.9%에서 올해 30~44%로 2년 만에 두 배가량 상향 조정한 결과다. 올 상반기 인터넷은행 3사 모두 기준치에 미달한 가운데 인터넷은행업계는 중·저신용자 목표 대출 기준을 '비중'에서 '총액'으로 바꾸거나 목표치를 하향 조정하는 등 규제 완화가 필요하다는 입장이다. 금융당국은 인터넷전문은행의 설립 취지인 포용금융이 흔들릴 수 있다는 이유로 반대하고 있다.   ■"울며 겨자먹기" 고신용 대출 막아   28일 금융권에 따르면 인터넷전문은행이 올해 말까지 내줘야하는 중·저신용자 대상 신용대출 비중은 2년 전에 비해 2배가량 늘어났다. 카카오뱅크의 지난 2021년 말 중·저신용자 대출 목표치는 17.9%였는데 올해 30%까지 증가했다. 같은 기간 케이뱅크와 토스뱅크도 각각 16.6%, 23.9%에서 32%, 44%로 15.4%p, 20.1%p 확대됐다.   문제는 인터넷은행 3사가 공격적인 중·저신용자 대출 확장에 나서고 있음에도 목표치를 맞추기 어렵다는 점이다. 올 상반기 중·저신용자에게 반기 기준 역대 최대인 1조7503억원을 공급한 카카오뱅크의 상반기 중·저신용자 취급비중은 27.7%로 집계됐다. 지난해 상반기보다 취급액을 31% 늘렸음에도 신용대출 규모는 여전히 목표치에 2.3%p 못 미친다. 케이뱅크와 토스뱅크도 연말 목표치 달성을 위해서는 하반기에 각각 8%p, 5.5%p를 확대해야 한다.   이에 올해 하반기, 고신용자는 인터넷은행에서 대출받기 어렵게 됐다. 중·저신용자 대출 취급실적 목표를 맞추기 위해 인터넷은행이 고신용자 대출을 옥죌 수 밖에 없기 때문이다. 실제 카카오뱅크는 지난해 12월, 중·저신용자 대출 비중 목표치를 맞추기가 힘들어지자 고신용자 신용대출 상품의 신규 취급을 중단한 바 있다. 최근에는 케이뱅크가 지난달 15일부터 중·저신용자대출 비중을 맞추기 위해 고신용자 대상 신규 신용대출, 마이너스 통장 취급을 중단한 상태다.   ■당국 "포용금융 설립취지 위배"   인터넷은행 일각에서는 '비중' 확대에 의존하지 말고 '총액'을 기준으로 포용금융 성과를 측정하는 등 규제를 완화해야 한다는 목소리가 나온다. 공격적으로 중·저신용 대출을 늘려도 목표 달성이 어려운 현실을 감안해 달라는 주장이다.   실제 카카오뱅크의 중·저신용자 대상 신용대출 취급 규모는 2021년 말 1조7165억원에서 지난해 말 2조5975억원으로 51.33%(8810억원) 급증했다. 올해도 지난 1월부터 7월까지 2조142억원을 취급했다. 이 추세 대로면 2023년 말 취급 규모는 3조원에 달할 전망이다. 케이뱅크도 중·저신용자 대상 신용대출 규모가 2021년 말 7510억원에서 지난해 말 2조265억원으로 169.8%(1조2755억원) 불어났다.   인터넷은행 관계자는 "중·저신용 대출을 계속해서 늘리면서 연체율 관리도 하려면 비중이 아닌 총액을 기준으로 목표치를 설정해야 한다"며 "기존 시중은행과의 경쟁을 통해 은행산업을 발전시킨다는 이른바 '메기' 역할을 하려면 고신용자 대출을 추가 취급할 수 있어야 한다"고 주장했다.   그러나 금융당국은 일부 인터넷은행의 요구가 사실상 고신용자의 대출을 늘리기 위한 핑계일 뿐이라는 입장이다. 금융당국 관계자는 "고신용자의 경우 은행을 선택해서 대출을 받는 상황인 만큼 인터넷은행이 추가로 대출할 수 있게 규제를 풀어줘야 할 이유가 없다"며 "인터넷은행의 설립취지는 명확하게 포용금융"이라고 말했다. 그는 이어 "만약 비중 기준을 총액 기준으로 바꾼다면 고신용자의 대출 총액도 기준을 세워야 맞는데 그렇게 되면 사실상 비중 기준과 다를게 없다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2023.08.28.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>페루서 3천년전 성직자 추정 유해 발굴…"강력한 지도자였을 것"</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0014154769?sid=104</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>페루 파코팜파 유적지 무덤에서 발굴된 성직자 유해(파코팜파[페루]=로이터 연합뉴스) 25일(현지시간) 페루 파코팜파 유적지에서 발견된 원형 무덤에 3천년 전 종교 지도자의 것으로 추정되는 유해와 유물이 보인다. 2023.8.28 [페루 문화부 제공. 재판매 및 DB 금지](멕시코시티=연합뉴스) 이재림 특파원 = 남미 페루에서 3천년 전 안데스 지역 시대상을 엿볼 수 있는 유해가 발굴됐다.    27일(현지시간) 페루 안디나통신과 AFP·로이터통신에 따르면 페루 문화부는 전날 성명을 내고 "북부 카하마르카 파코팜파 고고학 유적지에서, 기원전 1천년 경에 살았던 것으로 보이는 성직자의 유해를 찾았다"고 밝혔다.    일본·페루 공동발굴팀이 확인한 유해는 남성으로, 검은 흙이 섞인 6겹의 잿가루 아래에 매장돼 있었다. 주변에는 당시 엘리트 신분이었던 사람의 무덤에서 볼 수 있는 도자기와 도장을 비롯해, 뼈 주걱과 다른 제물 등이 함께 묻혀 있었다고 안디나는 보도했다.    해당 무덤은 지름 3ｍ, 깊이 1ｍ의 원형이라고 AFP는 전했다.    팀 리더이자 이 지역에서 18년간 연구한 유지 세키는 "저희는 이 사람이 그 시대의 강력한 지도자였다고 보고 있다"며 "안데스 지역 종교시설을 통제하며 일련의 제사를 지낸 첫 성직자 중 한 명이었을 것"이라고 추측했다.    페루 당국은 발굴된 지역명을 따 유해에 '파코팜파의 사제'라는 이름을 붙였다.     이 유해는 2009년과 2015년에 각각 발굴된 '파코팜파의 여인'과 '파코팜파의 뱀 재규어 사제'보다 5세기가량 앞선 것으로 보인다고 당국은 덧붙였다.    앞서 지난해 9월 일본·페루 발굴팀은 묻힌 지 3천년 이상 된 것으로 추정되는 '푸투토스의 사제' 유해를 찾아내기도 했다. 조개껍데기로 주로 만드는 푸투토스는 트럼펫 같은 소리를 낼 수 있는 도구로, 옛 종교의식에 쓰였다고 한다. 당시 유해 주변에서 푸투토스가 함께 발견됐다.    해발 2천700ｍ 넘는 분지 지형인 카하마르카는 과거 잉카 제국 때 많은 사람이 살았던 곳으로 알려졌다. 아타우알파 잉카 황제가 스페인 출신 정복자 프란시스코 피사로에게 붙잡혀 처형된 곳으로도 유명하다.     walden@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2023.08.28.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>점핏, 백엔드 개발자 취업 콘서트 성료…당근마켓·토스 개발자 연사로</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003297099?sid=105</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>개발자 채용 플랫폼 점핏은 교보문고와 공동으로 주최한 개발자 취업 콘서트(이하 개취콘)를 성황리에 마쳤다고 28일 밝혔다.지난 27일 서울 강남 모나코스페이스와 영상 생중계로 온·오프라인에서 동시에 열린 이번 행사에는 주니어 개발자 1000여 명이 참석했다.주제는 '점핏 투 백엔드'로, 백엔드 개발자로 일하는 노하우와 기술 트렌드, 커리어 성장 방법 등을 공유했다.국내 정상급 IT 기업 출신 시니어 백엔드 개발자 4명이 연사로 나섰다.첫 번째 세션 '센스 있게 일하는 백엔드 개발자 되기'에서는 강남언니 개발 챕터 리드를 역임하고, 현재 서울 엘릭서 밋업 운영진을 맡고 있는 손진규 개발자가 인터페이스의 중요성을 역설했다.이어 토스뱅크의 박준하 CTO(최고기술책임자)·테크놀로지 헤드가 토스뱅크의 기업 문화와 성장하는 주니어 백엔드 개발자의 특징을 정리했다.두 번째 세션에서는 당근마켓 커뮤니티실의 박용권 개발자와 삼성SDS를 거쳐 LG유플러스 데브옵스 조직에서 근무 중인 심근우 팀장이 각각 코틀린과 컨테이너 인프라에 대해 강연했다.편혜은 점핏 매니저는 "앞으로도 개취콘을 포함해 주니어 개발자들의 커리어 성장을 돕는 다양한 활동을 전개해 나갈 계획"라고 말했다.정길준 기자 kjkj@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2023.08.31.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>토스뱅크, 104억 적자…"3분기엔 흑자 예상"</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004886260?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>2분기 실적 발표적자폭 3분의 1로 줄어여신 잔액, 10조원 첫 돌파순이자이익 1년새 10배로당국 "인뱅 담보대출 규제"연체율 뛰고 성장둔화 우려도인터넷전문은행 토스뱅크가 올해 2분기 적자 폭을 전분기보다 크게 줄이면서 실적 개선에 성공했다. 2021년 10월 출범한 신생 은행이지만 적자 폭이 빠르게 축소되면서 올 3분기엔 첫 분기 흑자 달성이 가능할 것이란 전망이다. 하지만 금융당국이 가계부채 관리를 이유로 대출 규제를 강화하고 있어 인터넷은행의 성장 둔화 우려도 나온다. ○지난달 첫 흑자 전환토스뱅크는 2분기 당기순손실이 104억원으로 집계됐다고 31일 발표했다. 2021년 4분기(-477억원) 이후 일곱 분기 연속 적자를 봤다. 다만 적자 규모가 빠르게 축소되고 있다. 올 2분기 손실은 작년 2분기(-619억원)와 비교하면 6분의 1로 줄었고, 직전 분기(-280억원)에 비해선 3분의 1 수준으로 감소했다.토스뱅크는 2분기 실적이 크게 개선된 이유로 여신 사업의 안정적인 성장을 꼽았다. 2분기 말 여신 잔액은 10조460억원으로 처음 10조원을 넘어섰다. 지난해 2분기(4조3000억원)와 비교하면 1년 만에 2.4배 규모로 불어났다. 예·적금 등 수신 잔액은 2분기 말 기준 21조5000억원을 기록했다.여신 사업의 성장세에 힘입어 토스뱅크의 순이자이익은 작년 2분기 260억원에서 올해 2분기 2438억원으로 10배 가까이 뛰었다. 비이자이익도 자산관리 서비스인 ‘목돈굴리기’와 체크카드 사업 성장에 힘입어 작년 2분기 169억원 적자에서 올해 2분기 114억원 적자로 적자 폭이 줄었다.토스뱅크는 3분기엔 분기 단위 흑자를 낼 수 있을 것으로 예상하고 있다. 지난 7월엔 출범 이후 21개월 만에 처음으로 월 단위 흑자를 기록할 정도로 실적 개선세가 뚜렷하기 때문이다.토스뱅크는 9월 전·월세보증금 대출을 새로 출시해 수익성을 끌어올릴 계획이다. 그동안 담보가 없는 신용대출 위주로 여신 사업을 해온 토스뱅크가 담보대출인 전·월세보증금 대출까지 내놓으면 이전보다 안정적으로 수익을 창출할 수 있을 것이란 분석이 나온다. ○정부 규제에 수익성 ‘빨간불’하지만 정부가 인터넷은행을 가계대출 확대의 주범으로 지목하면서 대출을 늘려 수익성을 높이려는 토스뱅크의 성장 전략에도 차질이 불가피할 전망이다. 이복현 금융감독원장은 최근 기자들과 만나 “인터넷은행은 신파일러(금융거래 이력 부족자)에게 자금을 공급한다는 정책적 목적이 있는데, 지금과 같은 주택담보대출 쏠림이 제도와 합치하는지 비판적 시각이 있다”며 인터넷은행에 경고장을 날렸다.이 금감원장의 공개 지적이 나온 이후 카카오뱅크는 50년 만기 주담대 대상자를 만 34세 이하 청년으로 제한했다. 곧이어 유주택자에 대한 주택 구입 목적의 주담대 판매도 무기한 중단했다. 정부 압박에 기존 주담대마저 대폭 축소되는 상황에서 토스뱅크가 공격적인 담보대출 확대 전략을 취하기는 쉽지 않을 것이란 관측이 많다. 토스뱅크는 당초 전·월세보증금 대출 출시를 시작으로 주담대 시장 진출도 추진하고 있었다.담보대출 확대 전략에 빨간불이 켜지면서 연체율 상승 등 인터넷은행의 건전성을 우려하는 목소리도 나온다. 토스뱅크의 2분기 연체율은 1.56%로 전년 동기(0.15%) 대비 1.41%포인트 뛰었다. 같은 기간 카카오뱅크 연체율은 0.33%에서 0.52%로, 케이뱅크도 0.52%에서 0.86%로 올랐다. 부실 우려가 제기되면서 대손충당금 적립 규모를 확대한 결과 카카오뱅크의 2분기 순이익은 전분기보다 19.5% 감소한 820억원을 기록했다. 케이뱅크는 147억원의 순이익을 냈다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2023.08.30.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>尹, 스타트업 해외진출 독려 "국내에만 안주하면 혁신 안돼"</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005064653?sid=100</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>尹대통령, 스타트업코리아 전략회의 참석"내수시장에 안주하는 타성 벗어나야""민간 주도하고, 정부는 세제지원 확대해야"기술탈취 문제에도 강력한 대응 시사 윤석열 대통령이 30일 청와대 영빈관에서 열린 스타트업 코리아 전략회의에서 발언하고 있다. (사진=대통령실통신사진기자단) /사진=뉴시스화상 [파이낸셜뉴스] 정부가 '세계 3대 창업대국'으로의 도약을 목표로 스타트업 지원 강화에 나선 가운데 윤석열 대통령은 30일 스타트업 육성에 대해 "민간이 투자를 주도하고 스스로 생태계를 키우고, 정부는 민간 모펀드에 대한 일정한 출자와 세제 지원 방식으로 확대해 나가야 된다"고 밝혔다.   정부의 직접적인 지원으로 그동안 진행됐던 창업자 수만 늘리는데 집중하기 보다, 시장 중심 벤처 스타트업 생태계 조성을 촉진하는 정부가 되겠다는 의지를 분명히 한 것이다.   특히 윤 대통령은 국내 스타트업 관계자들을 향해 "국내 시장에 안주하고 국내만 쳐다보고 있는다면 세계 시장에 접근하지도 못할 뿐 아니라 혁신도 안된다"며 해외 진출을 적극 독려했다.   윤 대통령은 이날 청와대 영빈관에서 열린 스타트업 코리아 전략회의에서 "정부 직접 지원을 통한 양적인 창업자 증가와 내수시장에 안주하는 타성에서 벗어나야 된다"며 이같이 말했다.   이를 위해 윤 대통령은 공학과 과학 첨단기술이 융합된 혁신기술을 개발하는 딥테크와 같은 전략 분야에 대기업, 금융권 등과 함께 2조원 규모의 스타트업 코리아 펀드 결성 등의 구체적인 방안을 언급했다.   이에 따라 정부는 신규 펀드를 조성해 벤처투자 규모를 지난해 12조5000억원에서 오는 2027년 14조2000억원으로 확대하고, 2027년까지 창업·벤처 생태계 순위를 7위로 끌어올리는데 이어, 글로벌 100대 유니콘 기업(기업가치 1조원 이상 비상장기업)을 5곳으로 육성한다는 계획이다. 현재 글로벌 100대 유니콘은 '토스' 운영사 비바리퍼블리카가 유일하다.   윤 대통령은 스타트업의 해외 진출과 세계화를 중요한 가치로도 제시했다.   윤 대통령은 "가장 중요한 것은 우리의 시야를 세계로 넓혀야 된다는 것"이라며 "세계 시장을 우리가 차지하겠다는 의지를 가져야 된다. 세계 최고 수준의 스타트업 인프라를 갖추도록 정부도 열심히 뒷받침하겠다"고 강조했다.   마무리 발언에서도 윤 대통령은 "디지털화로 인해 누구나 아이디어만 있으면 세계시장에 진출할 수 있는 상황"이라며 "기업들의 세계시장 진출과 관련해 수출과 더불어 해외자본이 우리나라로 들어오는 것도 중요하다"고 말했다.   이에 따라 윤 대통령은 국내 시장과 해외 시장을 싱글마켓으로 단일화시키도록 불필요한 규제들을 제거해 국제기준과 표준에 맞게 한국을 바꿀 것임을 다짐했다.   한편, 이날 회의 중 언급된 기술탈취 문제와 관련해 윤 대통령은 "기술탈취는 중범죄"라며 "단호하게 사법 처리해야 하고, 억울한 일을 당했을 때 신속하게 구제받을 수 있고 보복당하지 않게끔 국가가 지켜주겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2023.08.21.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>“8초에 1명 가입”...연 5% 토스뱅크 자유적금 10만 계좌 돌파</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000084056?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>8월 9일 출시 9일 만2030세대 가입자 58.6% 달해 토스뱅크 내부 전경. (토스뱅크 제공)토스뱅크는 연 5% 금리 혜택을 받을 수 있는 ‘토스뱅크 자유적금’이 9일 만에 10만 계좌를 돌파했다고 8월 21일 밝혔다. 8초당 1명이 계좌를 개설한 셈이다.토스뱅크 자유적금은 매달 저금하면 우대금리 포함 최고 연 5%의 금리 혜택을 받을 수 있다. 기본금리는 가입 기간에 따라 차등 적용되지만, 12개월 이상 가입하면 최고 연 5% 금리 혜택을 받을 수 있다. 고객들은 상품 가입 전, 자신이 받게 될 이자를 미리 확인할 수 있다.적금 가입을 위해 복잡한 요건을 충족할 필요가 없는 것이 차별점이다. 고객은 계좌 개설 후 매달 꾸준히 저축만 하면 우대금리 혜택을 받을 수 있다. 통상 예·적금 가입 시 우대금리 혜택을 누리려면 카드 실적, 통신비 자동이체 등 까다로운 조건을 충족해야 하거나 제한된 일부 고객들만 혜택을 누릴 수 있었어 불만의 목소리가 높았다.고객 선택권도 대폭 넓혔다. 가입 기간은 최소 3개월부터 최대 36개월까지다. 월 납입 한도인 최대 300만원 내에서 자유롭게 추가 납입할 수 있다.이런 혜택은 MZ세대(밀레니얼+Z세대, 1980~2004년생) 사이에서 높은 호응을 얻었다. 토스뱅크에 따르면 가입 고객 중 20~30대가 58.6%에 달한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2023.08.25.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>토스뱅크, 중저신용자 잔액 비중 38.5% '업계 1위'</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000049228?sid=101</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>올해 2분기 말까지 중저신용자 대출 4.8조 지원자체 개발한 신용평가모형 ‘TSS’ 통해 중저신용자 포용을 이어가토스뱅크 본사. [사진 연합뉴스][이코노미스트 이용우 기자] 토스뱅크가 올해 2분기 말 기준 가계 신용대출(무보증) 중 중저신용자(KCB 신용점수 기준 하위 50%) 고객의 잔액 비중이 38.5%로 나타났다고 25일 밝혔다. 1금융권 은행 중 가장 높은 중저신용자 포용 비중을 지속했다. 토스뱅크가 올해 2분기 말까지 건전한 중저신용자에게 공급한 대출규모는 총 4조7900억원이다. 2분기 말 잔액 기준으로는 3조700억원에 달했다. 특히 국내 양대 신용평가기관 중 하나인 NICE 신용점수를 기준으로 하면 토스뱅크의 중저신용자 비중은 50.3%까지로 늘어났다. KCB, NICE 둘 중에 하나라도 중저신용자로 포함되는 기준으로는 55.7%에 달했다. 차주의 신용을 정확히 판단하기 위해 대부분의 은행에서 양사의 기준을 동시에 활용하는 점을 고려할 때, 실질적으로 토스뱅크의 가계 신용대출 잔액 중 절반 이상이 중저신용자에게 공급된 것으로 볼 수 있다.  최근에는 인터넷전문은행 중 최초로 햇살론뱅크를 출시하여 6영업일만에 5100여명의 중저신용자 및 저소득층 등 금융소외계층에게 443억원의 자금을 지원했다. 햇살론뱅크 고객 중 중저신용자 비중은 92.5%에 달했다. 토스뱅크는 자체적으로 개발한 신용평가모형 'TSS(Toss Scoring System)'를 한층 고도화 해 나가며 지속가능한 중저신용자 포용을 이어갈 방침이라고 밝혔다. 토스뱅크 관계자는 "출범 이후 단 한 분기도 놓치지 않고 전 은행권 중 가장 높은 비중으로 중저신용자를 포용해오고 있다"며 "지속가능한 포용금융을 이뤄갈 수 있도록 앞으로도 최선을 다할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2023.08.17.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>토스뱅크, 저신용자 대출 상품 '햇살론뱅크' 출시</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002740700?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>토스뱅크 '햇살론뱅크' 출시 관련 포스터. ⓒ토스뱅크[데일리안 = 김효숙 기자] 토스뱅크는 서민금융진흥원에서 운영 중인 '햇살론뱅크'를 인터넷전문은행 최초로 출시한다고 17일 밝혔다.햇살론뱅크는 정책서민금융상품으로 정책서민금융상품을 이용했던 저신용·저소득자가 부채 또는 신용도 개선을 통해 은행권에 안착할 수 있도록 지원하는 징검다리 성격의 상품이다. 상품 출시 알림 신청에는 4만명이 넘는 고객이 신청하여 햇살론뱅크에 대한 높은 관심을 보여주고 있다.대상은 정책서민금융상품을 이용한 후 대출을 잘 갚아 신용도가 개선된 고객이다. 햇살론15, 햇살론17, 바꿔드림론, 안전망대출, 안전망대출II, 새희망홀씨, 미소금융, 근로자햇살론, 사업자햇살론, 햇살론유스 등 정책서민금융상품을 6개월 이상 이용했거나 현재 이용중인, 또는 정상 완제하고 부채 또는 신용도가 개선된 고객이 해당된다.햇살론뱅크의 한도는 최소 500만원 최대 2500만원으로 서금원 보증한도 내에서 취급 가능하다. 대출 기간은 3년 또는 5년으로 거치기간 1년이 선택 가능하여 필요에 따라 기간을 조정할 수 있고, 상환방법은 원리금균등분할상환이다.햇살론뱅크 이용자의 인지세와 중도상환해약금은 무료이고, 보증료는 연 2%이다. 여기서저소득 청년(24세 이하이면서 연소득 3500만원 이하) 연 0.5%포인트(p), 금융교육 및 컨설팅 이수자 연 0.1%p 인하한다.보증료가 포함된 대출금리는 이날 기준 최저 연 6.84% 에서 최고 연 13.24% 수준이다. 기준금리는 금융채3개월, 금융채6개월, 금융채12개월 중 선택할 수 있다. 선택한 기준금리의 매 변동주기 해당일의 기준금리에 연동하여 대출금리가 변동된다.신청은 토스앱 내 토스뱅크 상품찾기 탭에서 하면 된다. 단, 햇살론뱅크는 서금원에서 운영 중인 상품으로 주말 및 공휴일에는 신청이 불가하다.한편 토스뱅크는 인터넷전문은행 가운데 처음으로 코로나 19로 인해 어려움을 겪은 소상공인에게 실질적인 도움을 제공하겠다는 취지로 신용보증기금과 코로나19 사장님 대환대출 서비스에 참여한 바 있다.토스뱅크 관계자는 "햇살론뱅크는 소득과 신용이 낮아도 토스앱을 통해 쉽게 대출 신청할 수 있다"며 "토스뱅크와 서금원이 함께 포용금융에 한발 더 나아가는 계기가 되겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2023.08.17.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>토스뱅크, 인터넷전문은행 최초 햇살론뱅크 출시</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000924986?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>토스뱅크는 서민금융진흥원에서 운영 중인 햇살론뱅크를 출시한다고 밝혔다. /토스뱅크 제공        토스뱅크는 서민금융진흥원에서 운영 중인 ‘햇살론뱅크’를 출시한다고 17일 밝혔다. 이는 인터넷전문은행 가운데 최초다.햇살론뱅크는 정책서민금융상품으로 정책서민금융상품을 이용했던 저신용·저소득자가 부채 또는 신용도 개선을 통해 은행권에 안착할 수 있도록 지원하는 성격의 상품이다. 상품 출시 알림 신청에는 4만명이 넘는 고객이 신청하여 햇살론뱅크에 대한 높은 관심을 보여주고 있다.대상은 정책서민금융상품을 이용한 후 대출을 잘 갚아 신용도가 개선된 고객이다. ▲햇살론15 ▲햇살론17 ▲바꿔드림론 ▲안전망대출 ▲안전망대출II ▲새희망홀씨 ▲미소금융 ▲근로자햇살론 ▲사업자햇살론 ▲햇살론유스 등 정책서민금융상품을 6개월 이상 이용했거나 현재 이용중이거나 정상 완제하고 부채 또는 신용도가 개선된 고객이 해당한다.햇살론뱅크의 한도는 최소 500만원 최대 2500만원으로 서민금융진흥원 보증한도 내에서 취급 가능하다. 대출 기간은 3년 또는 5년으로 거치기간 1년이 선택 가능하여 필요에 따라 기간을 조정할 수 있고, 상환방법은 원리금균등분할상환이다.햇살론뱅크 이용자의 인지세와 중도상환해약금은 무료이고 보증료는 연 2%이다. 여기서  저소득 청년(24세 이하이면서 연소득 35백만원 이하) 연 0.5%, 금융교육 및 컨설팅 이수자 연 0.1% 인하 우대한다.보증료가 포함된 대출금리는 최저 연 6.84%에서 최고 연 13.24%수준이다. 기준금리는 금융채 3개월, 금융채 6개월, 금융채 12개월 중 선택할 수 있다. 선택한 기준금리의 매 변동주기 해당일의 기준금리에 연동하여 대출금리가 변동된다.신청은 토스 애플리케이션(앱) 내 토스뱅크 상품찾기에서 선택하면 된다. 단 햇살론뱅크는 서금원에서 운영 중인 상품으로 주말 및 공휴일에는 신청이 불가하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2023.08.22.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>일과 휴식의 공존…‘워케이션 시티 남해’ 뜬다</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/002/0002297495?sid=102</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>장충남 남해군수 “지역에 새 활력 불어넣을 수 있는 행정적 노력 기울이겠다”경남 남해군이 IT 업계 종사자들과 청년층을 중심을 ‘워케이션 성지’로 부상하고 있다. ‘워케이션’은 ‘일’과 ‘휴식’의 합성어로 코로나 19 이후 새롭게 떠오른 근무 트렌드다. 남해군은 2020년부터 ‘청년 촌라이프 실험 프로젝트’를 필두로 워케이션 환경 조성에 심혈을 기울여 왔고 많은 청년과 직장인들이 남해에서 진행한 워케이션에 호평을 쏟아내고 있다. 이에 발맞춰 각종 인프라 시설도 속속 갖춰지면서 명실상부한 ‘워케이션 시티’로 자리매김해 나가고 있는 모습이다. ▲남해 it 코워킹 플랫폼 조성사업 조감도. ⓒ남해군군은 ‘청년 촌라이프 실험 프로젝트’를 통해 도시 IT 기업 청년들에게 남해군을 소개했다. 지난 3년간 80여명의 청년이 남해에서 워케이션을 경험했다. 실제 한 참가자는 “일을 그대로 가지고 와서 연속적으로 할 수 있고 일 뿐만 아니라 다양한 체험도 즐길 수 있었다. 기회가 된다면 계속 참여하고 싶다”고 평가했다. 여기에 더해 금융서비스 제공 업체인 ‘㈜비바리퍼블리카(토스)’는 남해군 상주면에 소재한 양아바다힐링센터에서 서울 사무실과 동일한 조건의 근무환경을 조성해 워케이션을 추진 중에 있다. 매주 8~10명의 팀 단위로 현재까지 350여명의 직원들이 남해 워케이션에 참여하였으며 대기 순번이 있을 정도로 호응도가 매우 높다고 토스 관계자가 전했다. 남해군이 추진한 IT 업종 한달살기 프로그램은 지역내 커뮤니티 형성을 비롯한 다양한 가능성을 보여주고 있으며 이같은 성과에 힘입어 경남도는 남해군에 ‘IT 코워킹 플랫폼’을 조성하기로 결정한 바 있다. IT 코워킹 플랫폼은 남해군 이동면 신전리 앵강다숲 내에 2층 규모(연면적 833.53㎡)로 조성될 계획이다. 1층은 카페와 공유 오피스, 2층은 기업형 오피스가 입주 예정으로 올해 8월 착공해 내년 5월에 완공을 목표로 하고 있다. 또한 올해 상반기에는 남해군 내 다양한 부서에서 워케이션 사업을 추진했다.핵심전략추진단에서는 서울경제진흥원(SBA)과 업무협약을 통해 서울 소재 중소기업 재직자 대상 남해 워케이션 프로그램을 운영했다. 8월 3일 현재 34명이 참여 완료하였으며 66명이 9월부터 프로그램에 참여하기 위해 예약을 완료했다. 경제과에서 운영하는 남해 서울농장 워케이션 시범 운영에는 14명이 참여했다. 또한 남해군관광문화재단에서는 식품의약품안전처의 직원 24명을 대상으로 남해 워케이션 명소화 사업을 추진하고 있다. 하반기에는 워케이션 위성센터를 구축할 계획이다. 서면 유휴시설인 옛)서상여객선터미널을 리모델링해 공유 오피스를 조성, 10월 중 시범 운영할 계획이다. 시범운영을 통해 참여자들의 피드백을 바탕으로 개선할 점을 검토해 내년 IT 코워킹 플랫폼 조성 이후 운영에 참고할 계획이다. 또한 워케이션 프로그램 운영을 지속적으로 추진 예정이며 워케이션 프로그램 기획 운영 업체를 통해 남해군의 특색을 살린 공유오피스와 숙소 공간을 발굴할 계획이다. 남해 워케이션 프로그램에 참여하기 위해서는 용역업체 ㈜스트리밍하우스 홈페이지를 통해 신청하면 숙박비 지원을 받으며 남해 워케이션을 경험할 수 있다. 장충남 남해군수는 “많은 시군에서 워케이션 사업을 추진하고 있지만 남해군은 남해군만의 특색을 살린 워케이션 최적지를 끊임없이 발굴해 참여자들에게 선택의 다양성을 제공할 것”이라며 “워케이션 참여자들의 남해 방문이 남해군 정착으로 이어질 수 있도록 유도하는 등 지역에 새로운 활력을 불어넣을 수 있는 다양한 행정적 노력을 기울이겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2023.08.30.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>인뱅으로 몰리는 20대, 빚투·영끌족 신용대출 증가 괜찮나</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000235674?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>변동성 투자 많은 20대, 상환 능력 의심도최근 20대 신용대출이 인터넷은행에 몰리고 있는 것으로 나타난 가운데 저렴한 금리와 편의성이 이유로 꼽힌다. /더팩트 DB최근 20대 신용대출이 인터넷은행에 몰리고 있는 것으로 나타났다. 비대면으로 손쉽게 대출받을 수 있고 금리 상승 시기에 시중은행보다 저렴한 금리와 중저신용자대출을 취급한다는 이유에서다. 다만 청년 '영끌족'과 '빚투족' 등이 인터넷은행에 몰릴 경우 상환 능력이 의심되는 사회 초년생들에게 신용위험이 번질 수 있다는 시각도 있다.최근 청년 신용대출이 인터넷은행에 몰리고 있다. 특히 금리가 오른 지난 2년간 신규취급액이 7배 가까이 증가했다. 윤창현 의원실이 은행권에서 받은 자료를 토대로 분석한 결과, 인터넷은행 3사의 20대 대상 신용대출 신규취급액은 2020년 말 기준 5208억 원에서 2022년 3조5374억 원으로 2년 동안 7배 가까이 증가했다. 해당 기간 신규차주 중 20대 대출자도 2만6000명에서 32만1000명으로 16배 늘어났다.반면 시중은행들의 20대 신용대출 신규취급액은 큰 폭으로 줄었다. 5대 시중은행의 20대 신용대출 신규취급액은 2020년 말 6조6000억 원에서 2022년 말 1조9000억 원으로 71% 감소했다.인터넷은행으로 최근 20대 대출자가 몰리는 것에 대해 다양한 해석이 나오는 가운데 저렴한 금리와 편의성이 이유로 꼽힌다.시중은행과 달리 인터넷은행은 영업비용이 없어 신용대출 금리가 시중은행보다 저렴할 수밖에 없다. 인터넷은행들은 금융당국에 제시한 중저신용대출 목표 비중에 도달해야 하는 과제도 안고 있다.앞서 금융당국은 시중은행에서 돈을 빌리기 어려운 사람에 대출 공급을 확대한다는 인터넷은행 설립 취지에 따라 2021년부터 인터넷은행에 중저신용대출 비율 목표치를 공시하도록 하고 있다.25일 은행연합회 공시에 따르면 올해 2분기 기준 중·저신용자 대출 비중은 카카오뱅크 27.7%, 케이뱅크 24.0%, 토스뱅크 38.5%로 각각 집계됐다. 각각 목표치(카카오뱅크 30%, 케이뱅크 32%, 토스뱅크 44%)를 밑돌고 있어 더 끌어올려야 하는 상황이다.25일 은행연합회 공시에 따르면 올해 2분기 기준 중·저신용자 대출 비중은 카카오뱅크 27.7%, 케이뱅크 24.0%, 토스뱅크 38.5%로 각각 집계됐다. /더팩트 DB스마트폰으로 손쉽게 대출을 받을 수 있고 대면보다 비대면을 선호하는 젊은 층의 성향 때문이라는 분석도 나온다. 다만 청년 '영끌족'과 '빚투족' 등이 비대면으로 손쉽게 대출받을 수 있는 인터넷은행에 몰릴 경우 상환 능력이 의심되는 사회 초년생들에게 신용위험이 번질 수 있다는 시각도 있다.이와 관련 은행권 관계자는 "청년층은 향후 주거 문제나 결혼 등 목돈이 들어갈 상황이 많은데, 자금 용도와 상환 계획에 맞지 않는 무분별한 신용 대출은 결국 독이 되어 돌아올 것"이라며 "은행들도 청년층의 신규취급액이 늘어남에 따라 리스크 관리를 하는 것은 당연하고, 청년층에게 재무상담과 금융지식을 알려주는 금융 교육을 확대하는 노력이 필요하다. 새희망홀씨와 같은 서민지원 금융 상품에서 금융교육을 받으면 대출 금리를 인하해 주는 등의 유인책도 고려해 볼 만하다"고 말했다.전문가들은 20대의 신용대출 목적이 투자인지, 소비인지에 따라 다르게 해석할 수 있다고 진단했다.전성인 홍익대 경제학과 교수는 "청년층의 신용대출 목적이 소비인 경우 문제의 핵심은 청년층의 소득이 부족하다는 것"이라며 "최저 수준의 소비를 하기에도 소득이 부족해서 부득이 대출을 당겨 필수 소비를 한다면, 더 빚이 늘어나기 전에 하루빨리 개인파산, 개인회생으로 유도하는 것이 청년층의 소비 감소와 인적 자본 훼손을 방지하는 길"이라고 봤다.아울러 은행의 역할에 대해 "은행의 대출 그 자체를 비난하기는 어렵다. 은행의 과도한(불법적인) 채권 추심을 금지하고 채권 추심시 의 미란다 원칙을 정착시켜야 한다"면서 "원금 탕감을 포함하는 적극적인 '자체적인 채무재조정'에 앞장 서도록 해야 한다. 지금은 연체나 부도시 채무자를 욕하는 사회 분위기 때문에 은행은 위험도 높은 가계 대출을 줄여 나갈 유인이 없다"고 말했다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2023.08.21.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>토스뱅크 자유적금, 출시 9일만에 10만좌 개설…"MZ가 58.6%"</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0007000279?sid=101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>(토스뱅크 제공) /뉴스1(서울=뉴스1) 김정현 기자 = 토스뱅크가 '토스뱅크 자유적금' 출시 9일 만에 개설 계좌가 10만좌를 넘어섰다고 21일 밝혔다.토스뱅크 자유적금은 지난 9일 토스뱅크가 선보인 적금 상품이다. 복잡한 조건을 충족할 필요없이 매달 꾸준히 저금하면 우대금리를 포함해 최고 연 5%의 금리 혜택을 받을 수 있는 상품이다. 가입기간은 최소 3개월부터 최대 36개월까지다. 월 납입한도는 최대 300만원이다.토스뱅크 측은 특히 'MZ세대'에서 해당 상품이 높은 호응을 받았다고 설명했다. 가입자 중 58.6%가 2030이었으며, 특히 20대 비중이 32.3%를 차지했다. 토스뱅크 관계자는 "우대금리를 받기 위해 충족해야 했던 복잡한 조건을 모두 덜어내 특히 젊은 층을 중심으로 이례적으로 높은 호응을 끌어낼 수 있었다"며 "앞으로도 고객 관점에서 상품을 고민하고, 최고의 혜택을 드릴 수 있도록 노력할 것"이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2023.08.31.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>[단독]당근마켓 구주까지 사들인 알토스...실적 청신호에 추가 베팅</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004932163?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>[이 기사에 나온 스타트업에 대한 보다 다양한 기업정보는 유니콘팩토리 빅데이터 플랫폼 '데이터랩'에서 볼 수 있습니다.]△크래프톤 △비바리퍼블리카(토스) △우아한형제들(배달의민족) 등 국내 주요 유니콘(기업가치 1조원 이상 비상장사)을 발굴한 벤처캐피탈(VC) 알토스벤처스가 최근 당근마켓 구주를 매입했다. 당근마켓의 실적에 청신호가 커지면서 지분 확대에 나선 것으로 풀이된다.31일 벤처·스타트업 업계에 따르면 알토스벤처스는 이달 초 당근마켓 구주 약 12만여주를 매입한 것으로 전해졌다. 최근 증권플러스 비상장에서 거래된 당근마켓 1주당 가격(20만원)을 기준으로 했을 때 약 240억원이다. 알토스벤처스는 당근마켓의 주요 투자자로 2019년 400억원 규모의 시리즈C 투자 라운드에 이어 2021년 1789억원 규모의 시리즈D 투자 라운드에도 참여했다.한 벤처캐피탈(VC) 업계 관계자는 "기존 투자자가 구주를 매입한다는 건 그만큼 기업에 대한 미래 성장 가능성에 기대가 크다는 것"이라며 "향후 IPO(기업공개) 등을 고려해 지분을 늘린 것으로 해석된다"고 말했다.최근 당근마켓이 보여준 긍정적인 실적 흐름이 알토스벤처스의 이번 결정에 영향을 미친 것으로 풀이된다. VC 업계에 따르면 당근마켓은 올해 3월과 6월 두 차례 상각 전 영업이익(EBITDA) 기준으로 월간 흑자를 기록했다. 2015년 7월 설립 이후 9년만에 첫 흑자다.당근마켓 관계자는 "연간 사업보고서를 제외한 월 혹은 분기 단위별 실적을 공개가 어렵다"며 "다만 주요 매출원인 광고에서 의미있는 성과가 나오고 있다"고 말했다.당근마켓의 실적 개선 기대감은 2022년 사업보고서에서도 나타났다. 사업보고서에 따르면 2022년 당근마켓의 연간 영업비용은 1064억원으로 전년대비 74.8% 증가했다. 같은 기간 연간 매출은 500억원으로 94.6% 급증했다. 2021년 연간 영업비용과 매출의 증가율이 각각 142.4%, 118.4%로 영업비용 증가세가 더 컸던 걸 고려하면 비용 투입에 따른 매출 상승 효과가 개선됐다.숫자보다 중요한 건 당근마켓이 광고 플랫폼으로서의 기반을 단단하게 다졌다는 점이다. 당근마켓의 주간 활성 이용자 수(WAU)는 2021년 4월 1000만명을 돌파한 이후 꾸준히 증가해 지난해 4월 1200만명을 기록했다. 이후에도 1200만명 이상을 꾸준히 이어오고 있다.WAU는 일반적으로 플랫폼 활성화를 비교할 때 이용하는 월간 활성 이용자 수(MAU)와 달리 이용자가 실제 해당 플랫폼을 얼마나 적극적으로 이용하는지 볼 수 있는 지표다.국내에서 당근마켓보다 WAU가 높은 플랫폼은 '국민 메신저'로 자리잡은 카카오톡, 글로벌 가입자 수 16억명인 인스타그램 정도다. 그만큼 당근마켓이 일상에서 빼놓을 수 없는 서비스로 자리 잡았다는 뜻이다. 당근마켓이 중고거래 외 다양한 로컬 서비스를 론칭한 것도 이 때문이다.동네의 다양한 온·오프라인 활동을 연결해주는 '모임' 서비스부터 지역 내 다양한 일자리와 주민을 잇는 '당근알바', 지역 주민에게 공공기관의 정보를 전달하는 '공공프로필'까지 선보였다.꾸준한 WAU는 지역광고 확대로 이어지고 있다. 2022년 당근마켓의 광고수익은 495억원으로 전년동기 대비 약 2배(약 240억원) 증가했다. 반면 같은 기간 이용자 수 확대와 지역광고 마케팅을 위한 광고선전비는 227억원에서 262억원으로 35억원 늘어나는데 그쳤다.당근마켓은 지역광고 수요를 확대하기 위해 다양한 광고 서비스를 선보이고 있다. 최근 론칭한 '반경 타기팅 광고'가 대표적이다. 최소 300m에서 1.5㎞까지 광고 노출 범위를 직접 설정할 수 있는 기능이다. 광고 효과는 지난달 진행한 사전 테스트에서 검증됐다.해당 기능을 이용한 가게들의 광고 클릭률은 동 단위로 했을 때보다 20% 높게 나타났다. 고객이 광고 확인 후 전화나 채팅, 단골맺기 등 실질적일 모객효과로 이어지기까지 광고 비용도 30% 절감된 것으로 확인됐다. 당근마켓 관계자는 "반경 타기팅 광고는 당근마켓 지역광고만의 장점을 극대화한 기능"이라며 "앞으로도 로컬 기반 광고에 집중할 계획"이라고 말했다.[머니투데이 스타트업 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2023.08.24.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>“제2의 머지포인트 사태 예방” 선불충전금 50% 이상 별도 관리 의무화</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003244722?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>네이버페이(네이버파이낸셜), 카카오페이 등 선불업자는 내년부터 이용자 충전금의 절반 이상을 별도로 관리해야 하고 금융당국의 감독 대상과 등록 면제 기준도 강화된다. 2021년 8월 발생한 머지포인트 사태와 같은 환매 중단 사태를 막기 위해서다. 선불업자가 규제 특례를 적용받아 출시한 후불결제서비스(BNPL)는 정식으로 허용된다.금융위원회는 24일 이런 내용을 담은 전자금융거래법 개정안이 국회 본회의를 통과했다고 밝혔다.개정안은 선불업자가 이용자의 선불충전금의 50% 이상에 해당하는 금액으로서 대통령령으로 정하는 금액을 신탁·예치·지급보증보험의 방식으로 별도 관리하도록 하는 내용을 담았다. 지금까지는 법령이 아닌 행정지도로 관리 기준이 정해졌다.선불업자는 별도 관리하는 선불충전금을 안전자산으로 운용해야 하고, 경영상 어려움에 부닥치더라도 이를 상계·(가)압류·양도하거나 담보로 제공할 수 없다. 이용자는 선불업자가 파산이나 해산을 해도 별도 관리금으로 우선 변제받을 수 있다.금융당국은 선불업 감독 대상과 등록 면제기준도 강화하기로 했다. 개정안은 선불전자지급수단의 업종 기준을 삭제하고, 전자식으로 변환된 상품권도 선불전자지급수단에 포함했다. 선불전자지급수단이 가맹점 한 곳에서 사용될 때만 등록 의무를 면제했다.다만 선불업자는 선불전자지급수단의 발행 잔액과 총발행액이 일정 규모 이하이면 등록하지 않아도 된다. 구체적인 금액 기준은 추후 확정된다.금융위 관계자는 “구매 가능한 재화나 용역의 범위가 소매업 한 개라는 이유로 관리 대상에서 빠지거나 가맹점 수를 의도적으로 10개 이하로 조절해 등록 의무를 면제받는 선불업자가 있었다”면서 “법 개정으로 선불업 규제 사각지대가 줄어들 것으로 기대한다”고 말했다.후불결제서비스는 선불업자의 겸영업무로 정식 허용됐다. 후불결제서비스는 소비자가 물건을 살 때 토스 등 서비스업자가 가맹점에 먼저 대금을 지급하고, 소비자는 나중에 서비스업자에게 돈을 갚는 일종의 외상 서비스이다. 신용카드 발급이 어려운 학생·주부·사회초년생이나 신용불량자 등이 주로 이용한다.네이버페이(2021년 4월), 카카오페이(2022년 1월), 토스(2022년 3월)가 각각 지난해와 올해부터 규제를 최대 4년까지 유예받는 혁신금융서비스 승인을 받아 한도 30만원(카카오페이는 15만원) 상품을 출시했다.전자금융법 개정안은 정부의 법률 공포 절차를 거쳐 내년 9월쯤 시행될 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2023.08.27.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>'낚시성 적금' 쏟아지는데…조건 없는 인뱅 '이 상품'</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002743250?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>토뱅 月 300만원까지 5% 금리복잡 요건 없어 '재테크족' 인기'허들' 높은 시중은행과 대조적토스뱅크 자유적금 관련 포스터. ⓒ토스뱅크[데일리안 = 김효숙 기자] 은행권에서 최근 연 10%가 넘는 고금리 적금이 속속 나오고 있지만 까다로운 우대조건으로 실제로 높은 이자율을 적용받는 고객은 소수에 그치고 있다. 이 가운데 복잡한 조건 없이도 기본 높은 이자를 주는 인터넷전문은행 상품들이 재테크 족 사이에서 인기를 끌고 있다.27일 금융권에 따르면 토스뱅크가 지난 9일 선보인 '토스뱅크 자유적금'이 제테크 커뮤니티에서 주목을 받고 있다. 해당 상품은 다른 상품 대비 복잡한 조건이 없고, 만기와 한도도 넉넉하다는 평이다.토스뱅크 자유 적금은 우대금리를 포함 최고 연 5%의 금리 혜택을 받을 수 있다. 가입기간은 최소 3개월부터 최대 36개월까지인데, 가입 기간에 따라 연 1.5~3.0%의 기본 금리를 제공한다. 기본 금리는 가입 기간이 12~36개월인 경우엔 연 3.0%, 6~11개월은 연 2.0%, 3~5개월은 연 1.5%다.남은 2.0%포인트(p)는 우대 금리로 제공되지만, 만기 때까지 매월 저축에 꼬박꼬박 성공하면 받을 수 있다. 토스뱅크 계좌에서 자동이체를 걸어놔야 하는 것이 유일한 조건이지만 처음 가입 금액이 0원도 가능한 만큼 이체 금액 부담이 적다는 평이다.월 최대로 납입할 수 있는 금액은 300만원이다. 대개 4%대 이자율을 주는 적금 상품이 납입 한도가 30~50만원대임을 고려하면 한도가 높은 편에 속한다. 토스뱅크 자유적금은 출시 10여 일 만에 가입 계좌가 10만좌를 넘어섰다.예·적금 가입 시 복잡한 조건이 없는 것은 인터넷전문은행들의 장점이다. 카카오뱅크 의 자유적금도 최고 연 4.0%를 제공한다. 기본금리는 1년 이만인 경우 3.5%, 1년 부터는 3.8%로 자동이체 조건만 달성하면 0.2%p 우대금리를 준다. 자신이 정한 적금 납입월수의 절반만 자동이체에 성동하면 된다.케이뱅크의 '코드K 자유적금' 역시 우대금리 없이 최고 연 4.4% 금리를 제공한다. 만기는 6개월(3.6%), 1년(4.3%) 3년(4.4%) 등 자유롭게 가입 기간을 선택할 수 있고, 월 최대 30만원까지 부을 수 있다.DP 정기적금 포스터. ⓒ우리종합금융은행권에서도 고금리 적금 상품이 쏟아지고 있지만 현실적으로 우대금리 조건이 까다로워 현실적으로 혜택을 전부 받기 어렵다는 지적이 나온다.우리종합금융은 지난 23일 출시한 'DP 정기적금'은 연 최고 10%의 금리 혜택을 제공하지만 개인고객 비대면 전용 특판 상품이다.하지만 우대금리 달성 조건 다소 복잡하다. 기본금리 연 2.0%에 우대금리는 연 8.0%까지 제공하는데 ▲신규고객 (3.0%p) ▲현역군인 또는 친구추천 (3.0%p) ▲활동고객 연 (1.0%p) ▲마케팅 수신동의 (1.0%p) 등 조건을 다 달성하기에는 현실적으로 어렵다. 적금 만기는 6개월이고 가입금액도 최고 20만원에 그친다.신한은행이 최근 선보인 '신한 SK LPG 쏠쏠한 행복 적금'은 기본금리 연 3.0%에 연 4.0% 우대금리를 더해 최고 연 7.0%의 금리를 제공한다. 그러나 ▲SK LPG 행복충전멤버십 회원 0.5%p ▲매달 SK LPG 충전금액 15만원 이상(0.2%) 등 조건을 충족해야 한다. 12개월 만기로 월 납입 한도도 30만원이다.광주은행의 '행운적금'도 우대금리가 10%에 육박하지만 추첨을 통해 우대금리를 부여하는 방식이다. 기본금리 연 3.5%에 매주 추첨을 통해 당첨된 540명에게만 총 10% 우대금리를 몰아준다.또 최고 연 13% 금리를 제공하는 '광주은행 제휴적금 with 유플러스닷컴'은 고가의 모바일 요금제를 유지해야 우대금리를 받을 수 있다. 매월 납입한도는 20만원이다.BNK부산은행의 '너만Solo 적금'은 최고 8.9% 금리지만 기본 금리가 2.4%이고 가입기간 중 결혼을 해야 우대금리 5.0%p를 준다. 여기에 가입자간 결혼 시 0.5%p, 신규고객일 시 0.5%p, 당행 주택청약종합저축 보유 시 0.2%p, 입출금계좌 평잔 우대로 0.3%p를 준다.은행권 관계자는 "연 최고 10% 등 은행들의 평균 적금 금리를 과도하게 넘어서는 상품은 현실적으로 전부 달성하기는 어려운 조건들을 내건 미끼성 상품"이라며 "가입 시 우대금리 조건을 꼼꼼히 살펴봐야 한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2023.08.28.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>토스뱅크, ‘전국민 미라클 모닝 도전하기’ 서비스 오픈</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/468/0000974591?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>사진|토스뱅크[스포츠서울 | 홍성효기자] 토스뱅크가 올해 연말까지 다른 사람들과 아침에 일찍 일어나 정해진 출석체크를 인증하는 ‘전국민 미라클 모닝 도전하기’ 서비스를 실시한다고 28일 밝혔다.미라클 모닝은 평소 기상 후 본격적인 일과가 시작되기 전에 온전히 개인 스스로를 위한 시간을 뜻한다. 이 때 각자 하는 일은 다를 수 있다. 많은 사람들이 자신의 기상 시간과 아침 루틴을 공유하는 등 미라클 모닝은 소셜네트워크서비스(SNS)와 유튜브 등에서 쉽게 접할 수 있는 문화의 컨셉이다.‘전국민 미라클 모닝 도전하기’는 토스뱅크 상품찾기 또는 모으기 안에서 참여 가능하다. 고객이 매일 아침 정해진 시간에 일어나서 출석하는 방식으로 진행된다. 고객이 도전할 미라클 모닝 시간(6시, 7시, 8시, 9시)을 선택해 같은 시간에 도전하는 다른 사람들과 경쟁하며 미라클 모닝에 참여하면 된다.도전 기간 동안에는 인증 시간에 따라 점수가 누적된다. 고객이 설정한 시간 전에 출석할 경우 최대 10점, 당일 내 출석하면 5점, 출석하지 않을 경우에는 0점이 주어진다. 아울러 서비스 내에서 제시하는 추가 보너스 제도를 통해 추가 점수를 얻을 수 있다. 도전기간은 7일 단위로 운영되며, 매주 월요일마다 새로운 도전으로 시작된다.해당 서비스를 통해 얻은 점수와 랭킹은 다른 사람들과 함께 확인할 수 있다. 또한 ‘내 등수 자랑하기’를 통해 이미지를 저장하거나 친구나 SNS에 공유할수 있도록 해 재미요소와 동기부여를 유지할 수 있도록 했다.토스뱅크 관계자는 “고객들이 남은 2023년을 보다 알차게 보내실 수 있도록 이벤트를 기획했다”며 “다른 유저들과 함께 도전하며 서로의 랭킹을 확인하는 등 소소한 재미까지 더해 일상 속에서 토스뱅크를 보다 즐겁고 의미있게 이용하시길 바란다”고 말했다.shhong0820@sportsseoul.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2023.08.27.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>“나중에 갚으세요” 했더니 연체율 급증…‘혁신금융’ BNPL의 이면</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000049281?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>[BNPL, 먹거리냐 짐덩이냐] ②토스 2분기 말 연체율 7.76%로 가장 높아관련 규제 없는 후불결제 시장…“카드사와 단순 비교 어렵다”[제공 게티이미지뱅크][이코노미스트 윤형준 기자] 후불결제(BNPL·Buy now pay later)가 ‘신파일러’(Thin Filer·금융 이력 부족자)를 위한 대안으로 급부상했지만, 한편으로는 이용자들의 채무 문제가 발생하고 있다. 실제 국내 빅테크의 BNPL 연체율은 꾸준히 증가하는 추세다. 해외에서는 규제 움직임이 나타나고 있는 가운데 국내서도 관리에 나서야 한다는 목소리가 나온다.국회 정무위원회 소속 최승재 국민의힘 의원이 금융감독원을 통해 제출받은 자료에 따르면, BNPL 서비스를 제공하는 네이버파이낸셜, 카카오페이, 토스 3사의 올해 6월 말 기준 BNPL 연체율 평균은 5.8%로 집계됐다. 이는 3월 말 평균 4.4%와 비교하면 한 분기 만에 평균 1.2%p 증가한 수치다.BNPL은 물품 구매 시 대금을 나중에 결제하는 방식을 말한다. 빅테크 등 BNPL 서비스 제공 업체가 물품 대금을 우선 지급하고 향후 소비자에게 돌려받는 식이다. 선 구매 후 결제 대금을 나중에 상환한다는 점에서 신용카드와 유사하다. 하지만 BNPL은 신용카드 발급이 어려운 학생, 주부, 사회초년생 등 신파일러들도 이용할 수 있어 관련 시장이 점점 성장 중이다. 이런 이유로 해외에서는 BNPL이 이미 주요 결제수단으로 자리 잡았다.국내에서 BNPL은 금융당국 혁신금융서비스의 일환으로 도입됐다. 네이버파이낸셜은 2021년 4월, 카카오페이와 토스는 각각 지난해 1월과 3월부터 서비스를 시작했다. 서비스 개시 1년여 만에 누적 가입자가 총 300만명에 이를 정도로 사용자가 빠르게 늘었다.문제는 연체율 상승이다. 상대적으로 경제력이 약한 학생, 사회초년생, 주부들이 제 때 결제대금을 갚지 못하면서 연체율이 급등하고 있다. 특히 국내에서 BNPL 서비스 이용자 규모가 가장 큰 토스가 전체 연체율 평균을 크게 끌어올렸다. 지난 6월 말 기준, 토스의 BNPL 서비스 누적 가입자 수는 약 223만명으로 네이버파이낸셜(약 74만명)보다 3배가량 많다.올 2분기 토스의 연체채권은 17억1000만원으로 1분기(15억9000만원)보다 7.4% 증가했다. 연체율도 같은 기간 5%에서 7.76%로 늘었다. 이는 7개 전업 카드사(신한카드·삼성카드·현대카드·KB국민카드·롯데카드·우리카드·하나카드) 2분기 평균 연체율인 1.53%의 5배가 넘는다.토스는 연체율이 지속 증가세를 보이자 2분기부터 전체 채권을 회수하며 규모를 줄였다. 올해 1분기 말과 2분기 말 사이 토스의 총채권 규모는 30.8% 감소했다. 하지만 연체채권 규모는 이 기간 오히려 7.45% 늘었다. 채권 중 연체채권 회수는 저조했기 때문으로 풀이된다. 반면 네이버파이낸셜의 2분기 연체채권은 3억원으로 전분기(3억4000만원)보다 11.8% 줄었으며, 연체율 또한 2.7%에서 2.5%로 0.2%p 감소했다. 카카오페이의 경우 연체채권이 같은 기간 44% 증가했지만 금액이 90만~130만원 수준으로 소액에 불과했다. 연체율은 0.5% 수준이다.해외선 규제 움직임 본격화…국내도 필요성 대두 연체율 문제는 우리보다 앞장서 BNPL 서비스를 시작한 미국·호주 등 해외에서도 불거지고 있다. 미국 소비자금융보호국(CFPB)이 지난 3월 발표한 BNPL 보고서에 따르면 이용자들은 BNPL을 사용하지 않는 이들보다 30일 이상 연체 가능성이 11% 더 높았다.CFPB는 앞으로 BNPL 업계가 정확한 신용보고를 하는 방법을 개발할 예정이며, 카드사 수준의 감독도 받도록 할 방침이다. 호주 연방정부도 지난해 말 전국소비자신용보호법을 확대해 BNPL이 기존 신용상품처럼 해당 법에 적용받는 옵션을 검토한다고 밝혔다.호주 시드니의 한 상점 창에 호주의 BNPL 업체인 ‘애프터페이’와 ‘집’ 로고가 붙어 있다. [사진 로이터/연합뉴스]국내에서도 연체율 관리를 위해 본격적인 규제에 나서야 한다는 목소리가 커지고 있다. 최승재 의원은 “급증하는 연체율을 방치하다가 비상사태가 발생하기 전에 각종 금융서비스를 재점검하고, 건전성 확보를 위한 논의를 시작해야 한다”고 말했다.신경희 자본시장연구원 선임연구원은 “카드사는 금융당국으로부터 카드 수수료율, 대손충당금 등에 대한 강한 규제를 받지만, 전자금융업자들이 수행하는 BNPL에 관한 규제는 없는 상태”라며 “향후 BNPL 서비스의 발전 가능성과 경제주체 등 실생활에 미칠 영향 등을 종합 검토해 리스크에 대비할 수 있도록 합리적 규제체계 수립이 필요하다”고 지적했다.빅테크 “카드사와 동일비교 어렵다”이 같은 상황에서 국내 빅테크사들은 연체율 관리 필요성은 공감하지만, 카드사와 같은 선상에서 규제를 논하는 건 옳지 않다는 입장이다. 주요 이용자층이 신파일러이며 결제 한도도 소액이기 때문에 연체율이 높을 수밖에 없다는 얘기다.한 빅테크 관계자는 “금융당국에서도 BNPL을 열어준 건 중저신용자도 소액 신용기회를 누릴 수 있게 하자는 취지였다”며 “신용카드라는 비교적 고신용도의 금융상품과 BNPL을 단순 비교할 수는 없다”고 말했다.신 선임연구원도 “전자금융거래법에서 다루지 않는 영역은 신용카드업과 동일하게 여신전문금융업법 관련 규정을 준용하는 방안도 거론되지만, 과잉규제가 될 수 있으므로 명확한 적용 범위 확립이 필요하다”고 꼬집었다.한편 토스는 연체율 상승 해결을 위해 자구책을 마련했다. 토스 관계자는 “연체에는 이용자의 잔액 부족 문제가 있지만, 납부일 미인지로 연체가 발생하는 경우도 많다”며 “이에 관련 안내 알림을 보내고 있으며, 납부일 변경, 납부금액 선납부, 분할납부 등 사용자가 유동적으로 납부를 진행할 수 있는 기능들을 제공 중”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2023.08.25.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>인터넷은행 중저신용자 신용대출 비중 상승…토스뱅크만 내려</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0014152910?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>3사 2분기 실적, 연말 목표치 미달…"하반기 공급 확대하겠다"카카오뱅크 27.7%·케이뱅크 24.0%·토스뱅크 38.5% 인터넷전문은행 (PG)[구일모 제작] 일러스트    (서울=연합뉴스) 민선희 기자 = 카카오뱅크와 케이뱅크의 중·저신용자 대상 신용대출 비중이 2분기 소폭 확대됐다.     토스뱅크는 인터넷전문은행 3사 가운데 중·저신용자 대상 신용대출 비중이 가장 컸지만, 전 분기보다 비중이 축소됐다.    3사 모두 연말 기준으로 제시한 목표치에는 못 미쳐, 올해 하반기 중·저신용대출 공급을 더 늘려야 할 것으로 보인다.    25일 은행연합회 공시에 따르면 인터넷전문은행의 중·저신용자 대상 신용대출 비중(잔액 기준)은 카카오뱅크 27.7%, 케이뱅크 24.0%, 토스뱅크 38.5%로 집계됐다.     이 수치는 은행의 전체 가계 신용대출 잔액에서 KCB 기준 신용평점 하위 50%(KCB 860점 이하)에 대한 대출 잔액이 차지하는 비중을 의미한다.    금융당국은 지난 2021년 인터넷은행이 중·저신용층에 대한 대출 공급을 확대하겠다는 출범 취지에 맞게 영업하도록 매년 중·저신용자 대출 비중 목표치를 정해 공시하도록 했다.인터넷전문은행 중·저신용자 신용대출 비중[은행연합회 공시 캡처]    카카오뱅크의 중·저신용자 신용대출 비중은 1분기 말 25.7%에서 2분기 말 27.7%로 2%포인트(p) 높아졌다. 카카오뱅크의 올해 말 목표치는 30%다.    카카오뱅크는 올해 상반기 중·저신용자 신용대출을 1조7천503억원 공급했다며 반기 기준 역대 최대 규모라고 밝혔다.     2분기 말 기준 중·저신용자 신용대출 잔액은 3조9천184억원으로 집계됐다.    카카오뱅크 관계자는 "8월 기준 중·저신용자 대출 비중은 28%를 넘어섰다"며 "금융소외계층 대출 공급을 확대해 연말 목표치를 달성할 것"이라고 밝혔다.    케이뱅크의 중·저신용자 대출 비중은 1분기 말 23.9%에서 24.0%로 0.1%p 오르는 데 그쳤다.     케이뱅크의 올해 상반기 중·저신용자 신용대출 공급액은 4천640억원이다.    케이뱅크의 연말 비중 목표치는 32%로, 6개월 동안 중·저신용 대출 비중을 8%p 끌어올려야 하는 상황이다.    케이뱅크 관계자는 "7∼8월 중 중·저신용자 대출을 확대해 8월 말 현재 비중은 25.1%"라며 "하반기 중·저신용 대출 확대에 집중할 것"이라고 했다.    케이뱅크는 지난해 10월부터 저신용자 대출을 하지 않고 있는데, 지난 7월 일반 신용대출 신규 신청도 중단했다. 중신용자에게만 신용대출을 내주고 있는 셈이다.    케이뱅크는 7월부터 마이너스 통장 대출 대상도 중·저신용자로 한정했다.    토스뱅크의 중·저신용자 대출 비중은 1분기 말 42.06%에서 2분기 말 38.5%로 3.56%p 낮아졌다. 올해 말 목표치는 44%다.    토스뱅크의 올해 상반기 중·저신용자 대출 공급액은 8천408억원이며, 2분기 말 중·저신용자 대출 잔액은 3조700억원이다.    토스뱅크는 중·저신용자 대출 비중이 축소된 이유에 대해 "거시경제 불안정이 지속되면서 대출 심사·내부 등급 기준을 고도화하고 있는데, 이 과정에서 KCB 기준 비중이 감소했다"고 밝혔다.    이어 "대환대출에서 고신용자 유입이 있었고, 부실채권 상각 과정에서 비중이 줄어든 것도 있다"고 설명했다.    ssun@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2023.08.31.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>무용수 익살에 박장대소, 친근한 발레</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005180156?sid=103</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>국립발레단 해설 무대 '해적'3일까지 CJ토월극장 공연'해설이 있는 전막발레 해적' 무대. 국립발레단"이렇게 삭막하면 공연을 할 수가 없어요. 여러분의 '브라보' 소리가 필요합니다" "브라보! 와아~".발레 공연장에 웃음소리가 끊이지 않는다. 이 순서의 주인공은 극중 해적단 두목인 콘라드와 대립하는 악역 마젠토스 왕(김명규). 발레는 대사 없이 몸을 써 춤과 마임으로만 서사를 표현하지만, 마젠토스만은 마이크를 차고 관객과 직접 소통한다. 그가 막간에 무대에 올라와 결코 밉지 않은 박수를 유도하자 모두 호응한다. 마젠토스는 서사를 설명해주고, 무용수들의 테크닉을 짚어주고, 공연 중 '브라보'를 외치거나 커튼콜에 박수를 치는 등의 기본 매너도 알려준다.지난 30일 서울 예술의전당 CJ토월극장에서 막을 올린 '해설이 있는 전막발레 해적'은 국립발레단의 대표 클래식 레퍼토리로 자리 잡은 '해적(원제: 르 코르세르)'의 하이라이트 장면에 해설을 곁들인 70분짜리 기획 공연이다. 공연은 권선징악의 동화 같은 이야기로 남녀노소 즐기기에 부담이 없다. 바다 위 정의의 사도 콘라드와 아름다운 섬 플로리아나의 소녀 메도라의 사랑과 모험을 다룬다. 콘라드는 탐욕스러운 왕 마젠토스에게 납치된 메도라와 친구들을 구출하고, 자신을 배신한 옛 동료를 처단한다. 당초 아돌프 아당의 음악에 맞춰 1856년 파리 국립 오페라가 초연했고, 이후 안무가 마리우스 프티파가 개작했다. 국립발레단 레퍼토리는 안무가 송정빈이 2020년 재안무한 것으로, 내용과 안무 모두 원작에 많은 변주를 더했다.압권은 메도라·콘라드·알리가 꾸미는 '파드트루아'(3인무)다. 30일 공연에선 박슬기와 이재우, 양준영이 합을 맞췄다. 수석무용수 박슬기가 빠른 리듬에 맞춰 스무 바퀴 넘게 연속 회전을 하는 등 화려한 테크닉을 뽐내자 박수갈채가 쏟아졌다. 메도라 친구들 역할의 여성 무용수 4명이 각기 선보인 아름다운 독무, 남녀 무용수 20여 명이 어우러진 화려한 군무 등도 시선을 사로잡았다. 공연은 3일까지. [정주원 기자]</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2023.08.17.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>토스뱅크, '햇살론뱅크' 출시…인터넷은행 최초</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005553094?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>한도 최소 500만원에서 최대 2500만원(사진=토스뱅크)[이데일리 김국배 기자] 토스뱅크는 서민금융진흥원에서 운영 중인 ‘햇살론뱅크’를 인터넷 전문은행 가운데 처음으로 출시한다고 17일 밝혔다.햇살론뱅크는 정책 서민 금융상품을 이용했던 저신용·저소득자가 부채 또는 신용도 개선을 통해 은행권에 안착할 수 있도록 지원하는 징검다리 성격의 상품이다. 햇살론15, 햇살론17, 바꿔드림론 등 정책 서민 금융상품을 6개월 이상 이용했거나 완제하고 부채 또는 신용도가 개선된 고객 등이 대상이다.한도는 최소 500만원에서 최대 2500만원으로 서민금융진흥원 보증한도 내에서 취급할 수 있다. 대출 기간은 3년 또는 5년으로 거치 기간 1년을 선택할 수 있어 필요에 따라 기간을 조정하면 된다. 상환 방법은 원리금 균등 분할상환이다.중도상환 해약금은 무료이며 보증료는 연 2%다. 저소득층 청년(24세 이하이면서 연 소득 3500만원 이하)은 연 0.5%, 금융 교육과 컨설팅 이수자는 연 0.1% 금리를 낮춰준다. 보증료가 포함된 대출 금리는 연 6.84~ 연 13.24% 수준이다. 신청은 토스앱 내 토스뱅크 상품찾기 탭에서 하면 된다. 단, 서금원에서 운영하는 상품이라 주말·공휴일에는 신청할 수 없다.토스뱅크 관계자는 “햇살론뱅크는 소득과 신용이 낮아도 토스앱을 통해 쉽게 대출을 신청할 수 있다”라며 “토스뱅크와 서금원이 함께 포용 금융에 한발 더 나아가는 계기가 될 것 ”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2023.08.28.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>토스뱅크, ‘전국민 미라클 모닝 도전하기’ 서비스 실시</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002314123?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>올해 연말까지 토스뱅크 상품찾기 또는 모으기 안에서 참여 가능 출석할 때마다 점수 받고 다른 사람 랭킹도 확인해보는 재미요소까지 더해져토스뱅크 “일상 속 토스뱅크 즐겁고 의미 있게 이용하길 바라는 마음에 기획” ◆…토스뱅크는 올해 연말까지 다른 사람들과 아침에 일찍 일어나 정해진 출석체크를 인증하는 '전국민 미라클 모닝 도전하기' 서비스를 실시한다. 이미지=토스뱅크 제공토스뱅크는 올해 연말까지 다른 사람들과 아침에 일찍 일어나 정해진 출석체크를 인증하는 '전국민 미라클 모닝 도전하기' 서비스를 실시한다고 밝혔다.   미라클 모닝(Miracle Morning)은 평소 기상 후 본격적인 일과가 시작되기 전에 온전히 개인 스스로를 위한 시간을 뜻한다. 이 때 각자 하는 일은 다를 수 있다. 많은 사람들이 자신의 기상 시간과 아침 루틴을 공유하는 등 미라클 모닝은 소셜네트워크서비스(SNS)와 유튜브 등에서 쉽게 접할 수 있는 문화의 컨셉이다.   '전국민 미라클 모닝 도전하기'는 토스뱅크 상품찾기 또는 모으기 안에서 참여 가능하다. 고객이 매일 아침 정해진 시간에 일어나서 출석하는 방식으로 진행된다. 고객이 도전할 미라클 모닝 시간(6시, 7시, 8시, 9시)을 선택하여 같은 시간에 도전하는 다른 사람들과 경쟁하며 미라클 모닝에 참여하면 된다.   도전 기간 동안에는 인증 시간에 따라 점수가 누적된다. 고객이 설정한 시간 전에 출석할 경우 최대 10점, 당일 내 출석하면 5점, 출석하지 않을 경우에는 0점이 주어진다. 아울러 서비스 내에서 제시하는 추가 보너스 제도를 통해 추가 점수를 얻을 수 있다. 도전기간은 7일 단위로 운영되며 매주 월요일마다 새로운 도전으로 시작된다.   해당 서비스를 통해 얻은 점수와 랭킹은 다른 사람들과 함께 확인할 수 있다. 또한 '내 등수 자랑하기'를 통해 이미지를 저장하거나 친구나 SNS에 공유할 수 있도록 해 재미요소와 동기부여를 유지할 수 있도록 했다.   토스뱅크 관계자는 "고객들이 남은 2023년을 보다 알차게 보내실 수 있도록 이벤트를 기획했다"며 "다른 유저들과 함께 도전하며 서로의 랭킹을 확인하는 등 소소한 재미까지 더해 일상 속에서 토스뱅크를 보다 즐겁고 의미 있게 이용하시길 바란다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2023.08.23.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>[단독] 금리 오르며 ‘역대급 실적’ 5대 은행, 청년 대출부터 조여</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011551288?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>5대 시중은행이 금리가 오른 최근 2년간 30대 이하 신용대출을 10조 원 넘게 줄인 것으로 나타났습니다.금리 인상기에 은행 수익성은 좋아져 지난해 은행권 이자 이익은 2년 전보다 35.7% 늘어난 55조 9,000억 원(역대 최대치)을 기록했는데, 그 기간 청년의 은행 대출 문턱은 더 높아진 겁니다.30대 이하 청년 가계대출은 2년 사이 40조 원 넘게 늘어 은행에서 대출받지 못한 청년들은 다른 금융권에서 더 비싼 금리로 빚을 낸 것으로 분석됐습니다.■ 청년 신용대출 23.4%↓…전 연령 감소폭 두 배국민의힘 윤창현 의원실이 오늘(23일) 금융감독원으로부터 받은 자료를 보면 5대 시중은행(KB국민·신한·하나·우리·NH농협)의 20대~30대 신용대출 잔액은 지난해 말 35조 4,220억 원으로 2년 전(46조 2,271억 원)보다 23.4% 줄었습니다.같은 기간 5대 시중은행의 전 연령층 신용대출 잔액은 12.3% 줄어들어 청년층 신용대출 감소 폭이 두 배가량 높았습니다.■ 감소폭, 신한 &gt; 우리 &gt; 농협 &gt; 하나  &gt; KB 순은행별로는 신한은행(29.6%↓)과 우리은행(29.2%↓)이 30% 가까이 청년층 신용대출을 줄인 것으로 파악됐습니다.또 농협은행(18.9%↓)과 하나은행(17.3%↓), KB국민은행(17.2%↓)은 비슷한 수준으로 20대~30대 신용대출 잔액이 감소한 것으로 집계됐습니다.지난해 말 기준 은행권과 비은행권을 합친 청년 가계대출 규모는 514조 5,000억 원으로 2년 전(473조 2,000억 원)보다 41조 3,000억 원, 8.7% 증가했습니다.한국은행 경제통계시스템에 따르면 은행과 저축은행, 카드사 등을 포함한 30대 이하 가구당 평균 신용대출 보유액은 2020년 말 1,277만 원에서 2022년 말 1,581만 원으로 23.8% 늘었는데, 같은 기간 전 연령층 상승률(16.1%)을 웃돌았습니다.물가와 집값 등 상승으로 청년층 대출 수요는 더 커졌지만, 5대 시중은행의 대출 문턱은 높아지면서 인터넷은행이나 2금융권 등에서 더 높은 금리로 대출을 받는 청년층이 크게 늘어난 것으로 보입니다.■ 청년 중·저신용자 신용대출, 인터넷은행서 9배↑실제로 지난해 말 인터넷은행 3사(카카오뱅크·케이뱅크·토스뱅크)의 20대~30대 신용대출 잔액은 10조 6,317억 원으로 2년 전(6조 678억 원)보다 75.2% 늘었습니다.특히, 인터넷은행의 청년 중·저신용자(신용점수 1점~849점) 신용대출은 2020년 말 4,649억 원(당시 토스는 개업 이전으로 제외)에서 2022년 말 4조 1,391억 원으로 9배 가까이 증가한 것으로 나타났습니다.지난해 말 기준 인터넷은행 3사의 청년 신용대출 잔액에서 중·저신용자가 차지하는 비중은 38.9%로, 5대 은행에서 중·저신용자에게 나간 청년 신용대출 잔액 비중(15.3%)보다 두 배 이상 높았습니다.■ 중·저신용자 청년 대출 늘려도 건전성 영향 미미이렇듯 인터넷은행이 중·저신용자 청년들의 대출을 늘렸지만, 연체율은 은행과 큰 차이가 나지 않는 것으로 나타났습니다.올해 6월 말 기준 20대 중·저신용자 가계대출 연체율을 은행별로 살펴보면, KB국민은행은 1.39%이었고 카카오뱅크는 1.64%였습니다.30대 중·저신용자 가계대출 연체율의 경우 카카오뱅크(1.61%)가 KB국민은행(1.64%)보다 오히려 낮았습니다.청년 취약 차주에 대한 대출이 건전성에 영향을 덜 끼치고, 은행들 수익성이 금리 인상기를 거치며 크게 개선된 만큼 청년들이 은행에서 낮은 금리를 이용할 수 있어야 한다는 지적이 나옵니다.윤 의원은 "경기침체기의 일시적 어려움만으로도 청년들은 전 생애를 힘겨워 할 수 있다는 점을 고려해 은행들은 청년 포용금융을 확대하고 청년 자립에 버팀목 역할 등 공적 책임을 다해야 할 것"이라고 말했습니다.■ 제보하기▷ 전화 : 02-781-1234, 4444▷ 이메일 : kbs1234@kbs.co.kr▷ 카카오톡 : 'KBS제보' 검색, 채널 추가▷ 네이버, 유튜브에서 KBS뉴스를 구독해주세요!</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2023.08.27.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>“푼돈이라 무시 마라”… ‘디지털 폐지 줍기’ 짠테크族 는다 [심층기획-‘짠테크族’ 전성시대]</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003849191?sid=101</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>핀테크 앱 서비스 이용해 재테크걸으며 10원, 광고 보고 20원…스마트폰으로 소액 모으기 대세‘출석체크’ 대가 등 대부분 소액 보상하루 평균 수익 312원에 불과하지만10명 중 8명 “대단하다” 긍정적 인식알뜰교통카드·알뜰폰 이용자도 급증일각선 개인정보유출·사기 피해 우려전문가 “회원제 투자 유도 등 주의를”  #. 직장인 A씨는 7월 한 달간 월급 외에 2만2000원을 추가로 벌었다. 하루 1만보를 걸으면서 최대 140원을 벌고, 광고를 보면 무료로 받을 수 있는 포인트를 하루에 10원 이상 꾸준히 모으는 등 6가지가 넘는 방법으로 틈틈이 ‘티끌 모아 태산’을 만든 것이다. A씨는 “이렇게 모아 언제 부자가 되냐는 말도 듣는다”면서도 “물가가 오르고 경기도 어렵다 보니 절약하는 습관을 들일 겸 꾸준히 (앱테크를) 하고 있다”고 말했다.        고금리·고물가 시대와 함께 애플리케이션(앱)을 중심으로 한 핀테크(정보기술을 기반으로 한 금융서비스)가 활성화하면서 이른바 ‘짠테크’족(族)이 늘어나고 있다. 인색하다는 뜻의 ‘짜다’는 말과 재테크의 합성어로, 소액을 모아 자산을 불리는 재테크를 가리킨다. 핀테크 앱의 서비스를 이용해 걸음을 걷는 만큼 일정 금액을 지급받거나, 회원가입·광고 시청 등의 ‘미션’을 완수하면 포인트가 적립되는 방식이 대표적이다.     대부분 보상이 10원 단위에 그치는 푼돈이기 때문에 온라인상에서는 ‘디지털 폐지 줍기’라는 농담 섞인 단어로도 불린다. 거리에 버려진 박스나 종이를 주워 모아 고물상에 팔아넘기는 행위에 비유한 것이다. 걸으며 교통비를 절약하는 ‘알뜰교통카드’를 이용하거나, 통신비를 줄이기 위해 알뜰폰(MVNO)에 가입하는 흐름도 커지고 있다.    취업사이트 인크루트가 최근 성인남녀 1707명 대상으로 조사한 결과에 따르면 앱테크(스마트폰 앱을 이용한 재테크) 이용자의 하루 수익은 평균 312원이었다. 단순 계산해 보면 매일 꾸준하게 짠테크를 실천했을 경우 월 9360원, 연 11만2320원의 수익을 기대할 수 있는 셈이다.     한 달에 1만원 안팎은 ‘푼돈’이라며 무시할 수도 있는 금액이기는 하다. 그러나 물가 상승으로 소비생활이 팍팍해지면서 짠테크를 바라보는 시각에 비교적 긍정적인 인식이 엿보이기 시작했다. 시장조사전문기업 엠브레인 트렌드모니터에 따르면 짠테크를 실천하는 사람들을 안쓰럽거나(14.7%, 동의율) 궁상맞다(14.6%)고 생각하기보다는 대단하고(81.3%) 현명한(77.6%) 사람으로 여기는 경향이 강했다. 업체 측은 “티끌 모아 태산이라는 신념에 절반 넘게 동의하는 등 짠테크에 대해서는 대체로 긍정적인 인식이 많은 편으로 나타났다”고 설명했다.       짠테크의 대표적인 방법은 금융서비스 앱을 통한 앱테크다. 항상 몸에 지니고 다니는 스마트폰을 이용해 틈틈이 소액을 모으는 형태가 일반적이다. 인크루트 조사에서는 응답자의 75%가 현재 앱테크를 하고 있다고 답했다.     핀테크 플랫폼인 토스는 대표적인 앱테크 수단으로 자리 잡았다. 걸음 수와 방문지에 따라 포인트를 제공하는 ‘토스 만보기’가 대표적이다. 이용자는 하루 최대 140원의 토스 포인트를 수령할 수 있다. 이용자는 출시 2년도 안 돼 900만명까지 늘어났다. 또 다른 리워드형 제품인 ‘함께 토스 켜고 포인트 받기’는 올해 1월 선보여 지난달 기준 이용자 660만명을 넘어섰다. 토스 앱을 실행한 사용자 근처에 토스 앱을 켠 다른 사용자가 있을 때 해당 사용자의 아이콘을 클릭해 토스 포인트 10원을 받을 수 있는 서비스다.     네이버페이도 유명 앱테크 수단이다. 페이지를 클릭하거나 특정 페이지를 구독하거나 제휴사 회원가입 등을 통해 네이버페이 포인트를 수령할 수 있다. 네이버페이 포인트는 이용자가 많은 네이버쇼핑에서 이용할 수 있는 등 저변이 넓어 주목을 끌고 있다. 지난해에는 1년간 1만4000번 넘게 네이버페이 혜택에 참여해 총 300만이 넘는 포인트를 받은 이용자가 나와 화제가 되기도 했다.       교통비, 통신비 등 일상 속 필수비용을 줄이는 방법으로 짠테크를 실천하는 사람들도 있다.     ‘알뜰교통카드’는 대표적인 교통비 절약 수단이다. 대중교통을 이용하기 위해 걷거나 자전거로 이동한 거리만큼 마일리지를 적립해 주는 제도다. 집에서 지하철역을 이용하기 위해 걸으며 할인혜택을 받을 수 있는 것이다. 대중교통요금이 2000원 미만일 경우 250원을 할인받을 수 있다. 청년층(34세 미만), 저소득층은 할인폭이 더 크다. 7월부터는 마일리지 혜택을 늘리고 카드사 추가 할인을 더한 ‘알뜰교통플러스’ 서비스가 시행 중이다. 최근 버스, 지하철 등 대중교통비가 인상되면서 주목을 받아 2021년 29만명 수준이었던 이용자는 지난 6월 67만명으로 두 배 넘게 늘었다.     통신비 부담에 알뜰폰 이용자도 늘어나고 있다. 2020년 말 609만명이었던 알뜰폰 고객 수는 지난 6월 809만명으로 처음으로 800만명을 넘겼다. 시장에서 비중도 11%에서 14.4%로 늘었다. 기존 통신 3사 대비 30%가량 저렴한 요금으로 가격에 민감한 젊은 세대의 주목을 받고 있다는 분석이다. KB국민은행의 알뜰폰 브랜드 ‘리브모바일’ 통계에 따르면 가입자 중 61%가 2030세대인 것으로 나타났다.     ‘고수 짠테커’는 일상 속 행동으로 높은 우대금리를 누릴 수 있거나 생활 속 혜택을 받을 수 있는 금융상품에 가입하기도 한다.     ‘워킹 적금’은 대표적인 짠테크 적금 상품이다. 우리은행의 ‘데일리 워킹 적금’은 매일 1만보 이상 걷고 난 뒤 앱에서 ‘미션 성공’ 버튼을 누르면 최대 연 11%에 달하는 고금리 혜택을 누릴 수 있다. KB국민은행의 ‘KB 온국민 건강적금’은 매월 10만보를 걸으면 우대금리 3%를 적용해 최대 연 8% 금리를 제공한다. 웰컴저축은행의 ‘웰뱅 워킹 적금’은 연간 500만보 이상을 걸으면 연 8.0%의 추가 우대금리가 제공된다.       카카오뱅크는 ‘26주 적금’ 상품에 유통, 콘텐츠, 편의점 등 다양한 업계의 파트너사와 제휴를 맺어 파트너적금을 출시해 왔다. 일정 적금 회차 납입에 성공할 경우 파트너사의 쿠폰, 캐시백 등의 혜택을 추가로 제공해 생활에서 이용할 수 있다. 페퍼저축은행은 편의점 CU와 제휴한 적금 상품인 ‘페퍼스 제휴적금 위드 CU’를 출시했다. 이 적금은 가입 시와 만기가 됐을 때 각각 CU 할인쿠폰 3000원씩을 받을 수 있다.     짠테크를 시작해 보려는 ‘짠테크 입문자’에게 전문가들은 자신이 이용 중인 금융사나 핀테크 앱의 서비스를 우선 살펴볼 것을 추천한다. 처음부터 많은 종류의 혜택을 한꺼번에 받으려 하기보다는 기존에 설치된 소수의 앱으로 적응기간을 가질 필요가 있다는 것이다. 이미 금융서비스를 제공하는 앱의 상당수가 앱테크 기능을 제공하고 있기 때문에 비교적 익숙하게 이용할 수 있다는 장점이 있다.       박지홍 하나금융경영연구소 연구위원은 “자주 방문하는 온라인 쇼핑몰의 출석체크 이벤트 등에 참여해 보는 것도 방법”이라며 “실제 활용 가능한 보상을 주는 앱을 선별해 참여하는 것이 바람직하다”고 설명했다.     다만 짠테크 과정에서 주의가 필요하다는 목소리도 있다. 특히 앱테크의 경우 소액을 미끼로 개인정보를 요구하는 경우가 많아 과도한 개인정보 노출 등의 피해를 볼 수도 있다는 지적이다. SNS 등을 통해 ‘한 달 만에 손쉽게 큰 돈을 벌 수 있다’고 유혹하거나 투자 금액이 커질수록 많은 혜택을 제공한다며 회원 가입을 유도하는 경우 다단계 방식의 폰지사기(다단계 금융사기)도 의심해 볼 필요가 있다. 소규모 업체의 경우 적립금의 이용처가 적거나 유효기간이 짧은 경우가 많아 효용가치가 떨어질 수도 있다.     박 연구위원은 “가장 유의해야 할 점은 앱테크 자체로 큰 금전적 이익을 볼 수는 없다는 것”이라며 “회원제 투자 유도, 과도한 추천인이나 개인정보를 요구하는 앱도 주의할 필요가 있다”고 조언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2023.08.25.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>강원 시중은행 6월 수신액 1조4771억원 '고금리 효과'</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/654/0000050243?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>총 39조5234억원 전년비 13%↑수신금리 상승·규모 확대 전망1금융권 4%대 정기예금 재등장▲ 5만원권. [강원도민일보 자료사진]시중은행, 저축은행 등 금융권이 수신(예·적금)잔액 확보를 위해 수신금리를 올리면서 지난 6월 한달간 강원지역 시중은행에 수신액 1조4771억원이 몰렸다.24일 한국은행 강원본부가 발표한 6월 중 강원지역 금융기관 여수신 동향을 보면 지난 6월 예금은행(시중은행) 수신 증가액은 1조4771억원을 기록했다. 금액별로는 기업 자유예금이 8604억원 증가했고 보통예금이 6898억원 늘었다.올 상반기(1~6월) 누적 수신증가액은 4조3838억원 늘어나며 총 잔액은 6월말 기준 39조5234억원을 기록, 지난해 같은기간 대비 13.3% 증가했다.올 상반기 예·적금 등의 수신액이 크게 늘어난 것은 은행의 수신금리 인상 영향으로 풀이된다. 예금은행의 수신금리는 지난 5월 3.5%에서 6월에는 3.65%로 상승했다.특히 올 하반기에도 수신금리가 잇따라 오르면서 예·적금 규모는 더욱 커질 것으로 예상된다.최근 1금융권인 시중은행에서도 4%대 정기예금이 다시 등장했다.SC제일은행의 'e-그린세이브예금'은 기본금리가 3.80%로 우대금리를 더하면 최대 4.10%의 금리가 적용된다. 또 우리은행의 '우리 첫거래우대 정기예금'도 최대 4.10%의 금리를 받을 수 있다.토스뱅크는 최고 연 5%의 금리를 주는 '토스뱅크 자유적금' 상품을 내놨고 수협중앙회는 국내 수산물을 구매하면 0.5~1%p의 금리를 추가로 적용해 최대 연 5% 이자를 주는 '바다가득(得) 정기예금'을 1000억원 한도로 특별 판매했다.저축은행 업계에선 연 4.5%의 정기예금이 다시 등장하기도 했다.김호석 kimhs86@kado.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2023.08.21.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>"8초에 하나씩 새 계좌 개설" 토스뱅크 자유적금, 출시 9일 만에 10만 계좌 돌파</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005059511?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>토스뱅크 제공.[파이낸셜뉴스]토스뱅크가 ‘토스뱅크 자유적금’이 8초당 1명 꼴의 계좌 개설이 이어지며 출시 9일 만에 10만 계좌를 넘어섰다고 21일 밝혔다  토스뱅크 자유적금은 이달 9일 토스뱅크가 선보인 적금 상품으로 매달 꾸준히 저금하면 우대금리를 포함 최고 연 5%의 금리 혜택을 받을 수 있는 상품이다. 통상 예·적금 가입 시 우대금리 혜택을 누리려면 카드 실적, 통신비 자동이체 등 까다로운 조건을 충족해야 했으나 복잡한 우대 조건을 생략해 누구나 혜택을 누릴 수 있게 만든 것이 특징이다.   고객의 선택권은 대폭 넓혔다. 가입기간은 최소 3개월부터 최대 36개월까지다. 월 납입한도는 최대 300만원으로, 한도 범위 내에서 고객들이 자유롭게 추가 납입 가능하다.   기본금리는 가입기간에 따라 차등 적용되지만, 12개월 이상 가입할 경우 우대금리를 포함 최고 연 5% 금리 혜택을 받을 수 있다. 고객들은 상품 가입 전, 자신이 받게 될 이자도 한 눈에 미리 확인할 수 있다.   특히 MZ세대 사이에서 높은 호응으로 이어지며 자유적금 가입 고객 가운데 20·30은 58.6%에 달했고 고객 3명 중 1명(32.3%)은 20대였다.   토스뱅크 관계자는 “고객이 우대금리를 받기 위해 충족해야 했던 ‘복잡한 조건’을 모두 덜어낸 결과 고객들, 특히 젊은 층을 중심으로 이례적으로 높은 호응을 끌어낼 수 있었다”며 “앞으로도 고객 관점에서 상품을 고민하고, 최고의 혜택을 드릴 수 있도록 노력할 것”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2023.08.17.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>토스뱅크, 인터넷은행 최초로 ‘햇살론뱅크’ 출시</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/468/0000971762?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>사진|토스뱅크[스포츠서울 | 홍성효기자] 토스뱅크가 서민금융진흥원(이하 서금원)에서 운영 중인 ‘햇살론뱅크’를 인터넷전문은행 최초로 출시한다고 17일 밝혔다.햇살론뱅크는 정책서민금융상품으로 정책서민금융상품을 이용했던 저신용·저소득자가 부채 또는 신용도 개선을 통해 은행권에 안착할 수 있도록 지원하는 ‘징검다리’ 성격의 상품이다. 상품 출시 알림 신청에는 4만 명이 넘는 고객이 신청했다.대상은 정책서민금융상품을 이용한 후 대출을 잘 갚아 신용도가 개선된 고객이다. 햇살론15, 햇살론17, 바꿔드림론, 안전망대출, 안전망대출II, 새희망홀씨, 미소금융, 근로자햇살론, 사업자햇살론, 햇살론유스 등 정책서민금융상품을 6개월 이상 이용했거나 현재 이용중인, 또는 정상 완제하고 부채 또는 신용도가 개선된 고객이 해당된다.햇살론뱅크의 한도는 최소 500만원 최대 2500만원으로 서금원 보증한도 내에서 취급 가능하다. 대출 기간은 3년 또는 5년으로 거치기간 1년이 선택 가능하여 필요에 따라 기간을 조정할 수 있고, 상환방법은 원리금균등분할상환이다.햇살론뱅크 이용자의 인지세와 중도상환해약금은 무료이고, 보증료는 연 2%이다. 여기서 저소득 청년(24세 이하이면서 연소득 3500만원 이하) 연 0.5%, 금융교육 및 컨설팅 이수자 연 0.1% 인하 우대한다.신청은 토스앱 내 토스뱅크 상품찾기 탭에서 하면 된다. 단, 햇살론뱅크는 서금원에서 운영 중인 상품으로 주말 및 공휴일에는 신청이 불가하다.토스뱅크 관계자는 “햇살론뱅크는 소득과 신용이 낮아도 토스앱을 통해 쉽게 대출 신청할 수 있다”며 “토스뱅크와 서금원이 함께 포용금융에 한발 더 나아가는 계기가 될 것”이라고 말했다.shhong0820@sportsseoul.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2023.08.23.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>가입자 4000만명 시대, 서프라이즈 ‘인뱅’</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000084107?sid=101</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>낮은 대출 금리·튀는 상품 호평애들 통장? 4050도 ‘클릭 클릭’국내 인터넷전문은행이 가입자 4000만명 시대를 눈앞에 뒀다. 10~30대 중심으로 가입자를 늘려왔던 국내 인터넷은행 3사가 중장년층으로 고객층을 넓혔다는 평가다. 카카오뱅크는 올해 2분기 기준 가입자 수 2174만명을 기록했다. 케이뱅크와 토스뱅크도 각각 900만명, 700만명을 돌파했다. 3사 합산 3774만명으로 연내 4000만명을 달성할 것이라는 관측이 지배적이다. 지난해 6월 누적 고객 3000만명을 넘어선 지 1년여 만의 급성장이다.전문가들은 인터넷은행 금융 소비자층이 넓어진 것에 주목한다. 일례로, 케이뱅크는 2021년 말 16% 수준이었던 50대 이상 비중이 7월 말 기준 21%로 크게 늘었다. 인터넷은행이 단기간 고객을 끌어모을 수 있었던 건 대출 금리 경쟁력과 편의성 덕분이다. 이들은 시중은행보다 낮은 금리를 내세운 주택담보대출로 인기를 얻었다.40대 가정주부 박희수 씨는 최근 토스뱅크에 가입했다. 박 씨의 마음을 사로잡은 금융 상품은 ‘이자를 먼저 주는 정기예금’이었다. 말 그대로 돈을 예치해두면 소비자가 원하는 때에 이자를 주는 상품이다. 이자는 무조건 나중에 지급한다는 기존 은행권 상품의 고정관념을 깼다. 그는 1200만원을 넣고 연 3.5% 이자인 10여만원을 먼저 챙겼다.토스뱅크 아이디어에 ‘감동한’ 박 씨는 최고 연 5%의 자유적금까지 가입했다. 통상 우대금리를 받기 위해 충족해야 할 카드 실적, 통신비 자동이체 등 복잡한 조건을 없앴다는 점이 끌렸다. 그는 “10대인 자녀가 토스뱅크를 쓰다 보니 젊은 층 전용이라고만 생각했는데 다양한 아이디어에 놀랐다”며 “주거래 은행도 토스뱅크로 옮길까 생각 중”이라고 밝혔다.낮은 금리에 대출 급증급여 통장 유치 사례 늘어 30대 직장인 우현철 씨는 최근 하나은행이었던 급여 계좌를 카카오뱅크로 옮겼다. 그는 카카오뱅크 계좌를 카카오톡 송금이나 선물용의 ‘서브’ 계좌로 여겼다. 하지만 최근 낮은 금리로 카카오뱅크에서 대출을 받으며 한눈에 관리하기 쉬운 카카오뱅크로 급여 통장 자체를 옮겼다.국내 인터넷은행 가입자 4000만 시대를 눈앞에 뒀다. 새로운 아이디어 상품을 잇달아 내놓으며 가입자 수가 급등했다. 카카오뱅크는 올해 2분기 기준 가입자 수 2174만명을 기록했다. 케이뱅크와 토스뱅크도 8월 각각 900만명, 700만명을 돌파했다. 3사 합산 3774만명으로 연내 4000만명을 달성할 것이라는 관측이 지배적이다.은행권에서는 국내 인터넷은행 가입자 저변이 넓어졌다는 점에 주목한다. 과거 20·30대 고객이 주를 이뤘지만 최근 40·50대 비중이 크게 늘었다.인터넷은행들이 단기간 고객을 끌어모은 비결은 대출 금리 경쟁력과 각종 편의성이다. 이들은 시중은행보다 낮은 금리를 내세운 주택담보대출로 특히 인기를 얻었다. 은행연합회 공시에 따르면, 카카오뱅크의 지난 6월 취급된 분할상환식 주담대 금리는 연 4.02%(신용점수 951점 이상)로 은행권 전체에서 가장 낮았다. 케이뱅크가 연 4.09%로 뒤를 이었다. KB국민·신한·하나·우리·NH농협은행 등 5대 시중은행은 연 4.3~4.74% 수준이다. ‘먼저 받는 정기예금’ ‘모임통장’ 등 기존 은행권 관습에서 벗어난 수신 상품을 선보인 것 역시 다양한 고객층을 확보하는 동력이 됐다.직장인 사이에서 급여 통장을 인터넷은행으로 바꾸는 트렌드도 뚜렷하다. 카카오뱅크에 따르면 급여 계좌 고객 수는 매년 32%씩 증가 추세다. 카카오뱅크 급여 계좌는 적요(수취인·송금인 등 메모)에 ‘급여’를 기재한 기준이다. 카카오뱅크의 요구불예금 잔액 역시 2분기 기준 25조원으로 전년 대비 약 5조원이 증가했다. “최근 3년간 1인당 요구불 계좌 잔액은 연평균 14% 증가했다”는 게 카카오뱅크 설명이다. 케이뱅크를 급여 계좌로 설정한 고객 수는 2020년 대비 2.5배 증가했다. 급여 계좌 금액은 5배 증가했다. 카카오뱅크와 마찬가지로 적요란에 급여, 월급 등 단어를 기재한 기준이다. 대부분 금리 0.1% 수준인 시중은행 통장에 매력을 못 느끼는 가운데 인터넷은행이 대출 금리를 낮춘 점이 주효했다는 평가다.그러나 인터넷은행 최근 영업 행태가 애초 출범 취지였던 중·저신용자 포용과 거리가 멀다는 비판도 나온다. 금융위원회는 2017년 4월 카카오뱅크에 은행업 인가를 내주면서 이 은행의 핵심 서비스가 ‘중금리 개인 신용대출’ ‘간편 심사 소액대출’ 등이라고 밝혔다. 인터넷은행의 지난 2분기 중·저신용자 대출 비중은 카카오뱅크 27.7%, 케이뱅크 24%, 토스뱅크 42.06%(1분기) 등이다. 금융당국에 제출한 연말 목표치(30%·32%·44%)에는 한참 못 미친다.[본 기사는 매경이코노미 제2223호 (2023.08.23~2023.08.29일자) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2023.08.23.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>[뉴스'까'페] '30대 희망퇴직' 속 열린 금융권 채용박람회…누구 뽑나 봤더니</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000348504?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>[2023 금융권 공동채용 박람회. (사진=SBS Biz)]64개 금융사가 참여하는 '2023 금융권 공동채용 박람회'가 오늘(23일) 서울 동대문디자인플라자(DDP)에서 개최됐습니다.오전에만 1천여 명 넘게 입장했고, 이날 하루만 박람회에는 수천 명이 찾은 것으로 파악됩니다.금융권에서는 내일(24일)까지 열리는 박람회에 청년 2만여 명이 참여할 것으로 내다보고 있습니다.금융권 취업 박람회 올해로 7회째…인터넷은행 '불참'이번 박람회에는 5개 지방은행을 비롯해 은행 13곳 등 대형 금융사들이 대거 참여했습니다.하나은행은 이달 말부터 다음 달 중순까지 150~200명 채용을 시작합니다. 신한은행의 올 하반기 채용 규모는 250명 내외입니다. 우리은행도 200~250명을 채용할 계획입니다. 농협은행도 100명 이내 수준의 하반기 채용을 앞두고 있습니다. 또 KDB산업은행은 이달 말부터 다음 달 초까지 신입행원을 80명 내외로 채용할 예정입니다. 이어 IBK기업은행은 다음 달부터 약 170명의 하반기 채용을 시작합니다. 지방은행의 경우, BNK경남은행과 DGB대구은행 다음 달 중으로 10명~15명의 신입사원을 채용합니다. 광주은행도 최소 20명 수준의 하반기 채용을 다음 달부터 실시합니다. 전북은행도 최소 20명에서 최대 25명 수준으로 채용할 계획입니다.금융공기업의 경우, 신용보증기금은 오는 31일부터 채용을 시작해 하반기 76명을 채용합니다. 이달 중으로 하반기 채용을 앞둔 한국주택금융공사는 신입직원을 모두 26명 채용할 계획입니다. 예금보험공사도 최소 20명에서 최대 30명까지 하반기 채용을 이르면 이달부터 실시합니다. 한국자산관리공사(캠코)는 이달 중으로 50명 내외의 인턴을 채용합니다.다만 케이뱅크, 카카오뱅크, 토스뱅크 등 인터넷전문은행의 부스는 찾아볼 수 없었습니다.한 인터넷은행 관계자는 "하반기 예정된 채용이 없다 보니 참여해도 은행을 소개하는 수준에 그쳐 채용 박람회 목적과 다르다"면서 "해당 박람회에는 대학 졸업 예정자 등 신입 위주로 오다 보니 또 성격이 맞지 않는 부분이 있다"고 전했습니다.인터넷은행의 경우 주로 경력자 중심의 수시 채용을 하기 때문인데, 올 상반기만 지방은행 채용 규모를 넘어섰다는 관측도 나옵니다.특히 지난달 토스뱅크는 출범 후 첫 대규모 공개 채용에 나섰는데, 10개 직군 40여 직무에 두 자릿수 채용을 실시합니다. 앞서 케이뱅크도 올 상반기 두 자릿수 규모의 경력직 공개채용을 진행한 바 있습니다.서울 강서구에서 박람회를 찾은 취업준비생 방기훈(25)씨는 "금융권 취업을 준비하는데, 서류 전형 면제 혜택이라는 좋은 기회가 있어 감사하고, 실제 면접 볼 수 있는 기회가 있어 공채를 어떻게 준비하면 될지 방향성을 잡을 수 있는 시간이었다"라고 말했습니다.방 씨는 "인터넷은행은 영업점 제한도 있고 확장해야 하는 부분이 많긴 하지만, 많은 취업준비생이 시중은행뿐 아니라 모든 은행을 준비하고 있기 때문에 같이 부스가 마련돼 있으면 좋겠다"고 아쉬움을 나타내기도 했습니다.은행권에서는 '희망퇴직' 열풍…30대까지 짐 싼다이번 역대 최대 규모 금융권 공동채용 박람회는 금융권의 대규모 희망퇴직 진행 중에 열렸습니다.은행들은 최근 수년간 역대 가장 많은 이익을 냈지만, 역설적으로 만 30대 젊은 은행원들까지 희망퇴직을 통해 자발적으로 짐을 싸고 있습니다.급증한 이익을 기반으로 좋은 희망퇴직 조건을 내걸고, '인생 2막' 설계를 서두르는 '파이어족' 증가 등이 겹쳤습니다.주요 은행들이 영업점을 줄이면서 기존 30~40대 젊은 은행원들까지 희망퇴직에 동참하고 있습니다.신한은행은 지난 18일부터 어제(22일)까지 희망퇴직 신청을 받았습니다. 근속연수 15년 이상, 1983년 이전 출생의 부지점장급 이하 직원이 신청 대상입니다.한 은행권 관계자는 "영업점은 줄었는데 지점장급은 많은 역피라미드 (인력 구조)"라며 "은행 산업은 급여를 많이 받는 15년 이상의 직원들이 희망퇴직을 해줘야 새로운 직원을 뽑을 수 있는 구조여서 매년 모든 시중은행이 희망퇴직을 받는다"고 설명했습니다.금융권도 IT 직무 채용 집중…"전 직원 디지털 역량 필요"디지털 전환 속에서 기존 인력을 줄이고 신입 행원으로 부족한 IT부문 인력을 충원하는 움직임이 계속되고 있습니다.이번 박람회에 참가한 국민은행의 HR부 관계자는 "ICT 직무는 별도로 채용을 진행한다"면서도 "은행 디지털 (업무) 자체가 특정 업무라기보다 전반적으로 디지털화되고 있는 과정이어서 일반 행원들도 디지털 역량을 갖도록 교육하고 있다"고 말했습니다. 이어 기업은행 인사부 관계자도 "채용할 때 디지털 (역량)이 중요하다 보니까 디지털 직무를 신경 써서 계속 채용을 진행하고 있다"며 "어느 부서에 가도 디지털 역량이 필요하다"고 강조했습니다.이날 박람회에는 IT를 전공했거나 금융DT 자격증을 소지한 지원자들이 모의면접을 보기 위해 몰렸습니다.실제 모의면접을 진행한 BNK경남은행 인사부 관계자는 "지원 계기 등을 물어보니 대부분 지원자가 경남은행이 디지털뱅크로의 전환을 집중해서 하고 있다는 점을 봤다고 말했다"면서 "디지털이 대세이다 보니 전문인력을 계속 채용하고 있고, 공채 때도 디지털 관련 자격증을 가점하는 등 우대하고 있다"고 밝혔습니다.특히 디지털 관련 직무의 채용 규모도 지난해보다 확대해 채용을 진행하고 있다고 덧붙였습니다.금융공기업도 디지털 관련 직무의 채용 규모를 늘리는 추세에 동참했습니다. 한국주택금융공사 관계자는 기존에는 전체 채용 인원의 10% 미만으로 채용했던 규모를 지난해부터는 10% 이상으로 확대해 채용하고 있다고 전했습니다. 그러면서 "IT 분야는 이직이 잦고, 모든 사업 분야에 IT 인력이 투입돼 인력이 모자라 각 부서에서 요청이 많이 들어오는 상황"이라고 설명했습니다.당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2023.08.17.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>토스뱅크, 인뱅 최초 ‘햇살론뱅크’ 출시…최저 연 6.84% 금리 적용</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002184724?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>[토스뱅크 제공][헤럴드경제=김광우 기자] 토스뱅크는 서민금융진흥원(서금원)에서 운영 중인 ‘햇살론뱅크’를 인터넷전문은행 최초로 출시한다고 17일 밝혔다.햇살론뱅크는 정책서민금융상품으로 저신용·저소득자가 부채 또는 신용도 개선을 통해 은행권에 안착할 수 있도록 지원하는 ‘징검다리’ 성격의 상품이다. 대상은 정책서민금융상품을 6개월 이상 이용했거나 현재 이용 중인, 또는 정상 완제하고 부채 또는 신용도가 개선된 고객이다.한도는 최소 500만원에서 최대 2500만원으로 서금원 보증한도 내에서 취급 가능하다. 대출 기간은 3년 또는 5년으로 거치기간 1년을 선택할 수 있다. 상환방식은 원리금균등분할상환이다.햇살론뱅크 이용자의 인지세와 중도상환해약금은 무료이고, 보증료는 연 2%이다. 저소득 청년(24세 이하이면서 연소득 3500만원 이하)의 경우 연 0.5%, 금융교육 및 컨설팅 이수자는 0.1%의 우대금리가 적용된다.이날 기준 보증료가 포함된 대출금리는 최저 연 6.84%에서 최고 연 13.24% 수준이다. 기준금리는 금융채 3·6·12개월 중 선택할 수 있다. 선택한 기준금리의 매 변동주기 해당일의 기준금리에 연동해 대출금리는 변동된다.토스뱅크 관계자는 “햇살론뱅크는 소득과 신용이 낮아도 쉽게 대출 신청할 수 있다”라며 “토스뱅크와 서금원이 함께 포용금융에 한발 더 나아가는 계기가 될 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2023.08.21.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>조건 없는 고금리 예·적금 상품 인기</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003782715?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>복잡한 조건 없이도 높은 기본 이자를 주는 예·적금 상품이 주목받고 있다. 최근 금융사들이 치열한 수신 경쟁 속에 고금리 상품을 출시하고 있지만, 대부분 카드 사용 실적이나 앱 출석 체크 등 까다로운 우대 조건을 내거는 경우가 많아서다. 소비자들이 이런 복잡한 조건을 충족하기란 쉽지 않다는 점을 파고든 ‘역발상’ 상품들이 그것이다.토스뱅크는 최근 매월 꾸준히 저금만 하면 최고 연 5% 금리 혜택을 받을 수 있는 ‘토스뱅크 자유 적금’을 출시했다. 이 상품은 가입 기간에 따라 연 1.5~3.0%의 기본 금리를 제공한다. 기본 금리는 가입 기간이 12~36개월인 경우엔 연 3.0%, 6~11개월은 연 2.0%, 3~5개월은 연 1.5%다. 2.0%포인트는 우대 금리로 제공되지만, 매월 자동이체만 꼬박꼬박 성공하면 받을 수 있다. 가입 기간은 최소 3개월부터 최대 36개월까지고, 월 납입 한도는 최대 300만원이다. 자동이체 금액 외에도 월 300만원 범위 내에서 자유롭게 추가 저금이 가능하다.케이뱅크도 “누구에게나 유리한 금리를 준다”는 ‘코드K 자유적금’을 판매하고 있다. 기본 금리는 가입 기간마다 다르지만, 우대 금리 조건 없이 1년 기준 연 4.30%, 6개월 기준 연 3.60% 등의 금리를 받을 수 있다. 이 상품은 1개월, 3개월, 6개월, 1년, 2년, 3년 등 비교적 자유롭게 가입 기간을 선택할 수 있고, 월 최대 30만원까지 부을 수 있다.저축은행 업계도 우대 조건 없는 상품을 속속 출시하고 있다. OK저축은행은 이달 별도의 우대 조건 없이 연 4.41%의 금리를 제공하는 ‘OK e-안심앱플러스 정기예금 6′을 출시했다. 이 상품은 6개월마다 금리가 변동되는 ‘3년 만기 회전식 정기예금’ 상품으로, 가입 기간이 6개월만 넘어도 중도 해지 손해 없이 약정 이율을 받을 수 있다. 상상인저축은행·상상인플러스저축은행도 이달 9개월 만기에 별도의 우대 금리 조건 없이 연 4.2%의 금리를 제공하는 ‘9개월 회전정기예금’을 선보였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2023.08.30.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>인뱅 중·저신용 대출 '제자리걸음'…포용금융 '딜레마'</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002744123?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>연체율 치솟자 관리 강화정부 목표치까지 '하세월'"총 공급액으로 평가해야"케이뱅크(왼쪽부터)와 카카오뱅크, 토스뱅크 본사 전경. ⓒ각 사[데일리안 = 김효숙 기자] 인터넷전문은행의 중·저신용자 신용대출 비중이 제자리걸음을 하고 있다. 금융당국이 제시한 목표치를 달성하려면 관련 대출을 적극 늘려야 하지만, 치솟는 연체율을 관리하기 위해서는 문턱을 높일 수밖에 없는 입장이다. 인터넷은행들이 포용금융 역할을 둘러싸고 딜레마에 빠지는 모습이다.30일 은행연합회에 따르면 카카오·케이·토스뱅크의 올해 6월 말 기준 평균 중·저신용자 대출 비중은 30.1%로 지난해 말보다 0.2%포인트(p) 낮아졌다.은행별로 보면 토스뱅크가 38.5%로 같은 기간 대비 1.9%p 내려갔다. 케이뱅크도 24.0%로 1.1%p 하락했다. 카카오뱅크만 27.7%로 2.3%p 올랐다.토스뱅크 관계자는 "거시경제 불안정이 지속하면서 대출 심사·내부 등급 기준을 고도화하고 있는데, 이 과정에서 코리아크레딧뷰로 기준 비중이 감소했다”며 "5월 말 대환대출에서 신용등급에 따른 고객 차별이 없도록 했는데 이 과정에서 고신용자의 유입 영향도 컸다"고 설명했다.앞서 금융당국은 2021년 인터넷은행이 법과 도입 취지에 맞게 디지털 혁신에 기반해 포용금융에 기여해야 한다며 중·저신용자 대상 신용대출을 적극적으로 공급하도록 주문했다.인터넷은행들은 매년 비중 목표치도 구체적으로 설정했다. 올해 중·저신용자 대출 비중 목표치는 케이뱅크 32%, 카카오뱅크 30%, 토스뱅크 44%다. 목표치에 도달하기 위해서는 각각 8%p와 2.3%p, 5.5%p가 모자라다.인터넷은행들이 중·저신용 대출이 주춤한 것은 건전성 지표가 나빠져서다. 금융당국과 약속한 목표치를 달성하기 위해 중·저신용 대출 공급을 늘린 와중, 금리가 상승하면서 취약차주들의 상환 능력이 떨어지고 연체율이 급등한 탓이다.케이뱅크의 지난 6월 말 고정이하여신(NPL)비율은 0.98%로 지난해 같은 달보다 0.38%p 상승했다. 카카오뱅크의 NPL비율 역시 0.42%로 0.15%p 올랐다. NPL비율은은 연체가 3개월 넘은 부실채권 비율을 뜻한다.연체율로 보면 케이뱅크의 연체율은 0.86%로 0.34%p 상승했다. 카카오뱅크도 0.52%로 0.19%p 올랐다.토스뱅크는 아직 실적을 발표하지 않았다. 다만 중·저신용 대출 비중이 세 곳 중 가장 크고, 올해 3월 말 NPL비율이 1.04%, 연체율이 1.32%로 세 곳 중 가장 높았다는 점을 고려하면 건전성 지표 역시 악화했을 가능성이 크다.인터넷은행들은 중·저신용 대출을 중단하거나 고신용자 대출을 늘리는 방향으로 연체율 관리에 나서고 있다. 하지만 최근 금융당국이 인터넷은행들에게 포용금융 역할에 집중할 것을 요구하면서 고민이 깊어지는 형국이다.금융당국은 최근 증가하는 가계부채의 원인으로 인터넷은행의 주담대를 꼽고 비대면을 통해 공격적으로 주담대를 늘리는 영업 행태가 설립 취지에 맞지 않는다고 지적했다. 다만 인터넷은행 입장에서는 중저신용 대출을 확대하면 연체율이 급등하고, 대출을 줄이면 목표치를 달성하기 힘들어진다.인터넷은행 관계자는 "금리상승기 중·저신용 대출을 계속해서 늘리면 연체율이 올라가는 것은 자연스러운 흐름"이라며 "단순히 해당 대출 비중으로 판단한 것이 아니라 실제 얼마나 공급했는지 총액 기준으로 평가해야 한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2023.08.29.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>HS애드, 토스와 손잡고 고객 브랜드 경험 확대 노린다</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005306253?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>LG계열 광고회사 HS애드가 모바일금융플랫폼 토스와 업무협약을 체결했다고 29일 밝혔다. 고객의 브랜드 경험을 온라인에서 오프라인으로 연계하는 차별화된 사업 모델과 서비스를 제공해 나가겠다고 복안이다.(왼쪽)토스 김규하 사업총괄 부사장과 (오른쪽)박애리 HS애드 대표이사는 고객 브랜드 경험을 온라인에서 오프라인으로 연계하는 사업모델을 개발하기로 업무협약을 맺었다.[사진제공=HS애드]HS애드와 토스는 브랜드 경험 공간에 대한 정보와 미션 수행에 따른 포인트 혜택이 동반된 고객 경험 솔루션을 기획해 차별화된 브랜드 경험 서비스를 제공한다는 계획이다.이번 협약으로 HS애드에 의뢰해 오프라인 브랜드 공간을 알리기를 원하는 기업들은 개별 브랜드를 위한 마이크로사이트를 토스앱 내에 만들 수 있다. 이를 통해 소비자들은 토스앱으로 각 공간의 정보를 확인한 후 오프라인 공간에 찾아가게 된다. 토스앱 인증 등을 통해 미션을 수행하면 미션의 결과를 토스포인트로 받을 수도 있다.양사는 이를 통해 기존 고객 경험공간이 가지고 있는 효과 측정의 어려움을 극복하고, 고객 방문과 참여 여부에 대한 효과 측정은 물론, 인구통계학적 정보와 행동 데이터 확보도 가능할 것으로 기대하고 있다.HS애드는 LG전자 금성전파사, 신한투자증권 팝업스토어 ‘핑계고’ 등 다양한 오프라인 고객경험 공간의 조성을 실행한 전문성을 갖고 있으며, 토스는 모바일 경험을 오프라인 공간에 연결할 수 있는 플랫폼 파워를 보유하고 있다.박애리 HS애드 대표는 “오프라인 고객 경험공간들이 기업 팬덤 문화의 장으로 떠오르고 있다”며 “솔루션을 통해 확보된 고객경험 데이터를 기반으로 앞으로 더욱 새로운 고객경험과 아이디어를 선보이겠다”라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2023.08.25.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>핀테크, “혁신금융 기반 기술 만들자”...대안신용평가모델 개발 박차</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003129202?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>핀테크업계가 대안신용평가모델 개발·고도화에 속도를 내고 있다. 후불결제, 대출 등 서비스 정밀도를 높이고, 향후 혁신 금융 서비스 모델 기반으로 경쟁력을 강화한다는 취지다.대안신용평가는 온라인 구매 정보, 요금 납부 이력 등 비금융정보를 활용해 신용등급과 점수 등을 산정하는 신용평가 방식이다. 금융정보만으로 확보하지 못했던 고객군에 서비스를 제공할 수 있어 제휴 금융상품 차별화 전략을 위한 금융 플랫폼 핵심 기술 경쟁력으로 꼽힌다.네이버페이는 지난 24일 열린 '팀네이버 컨퍼런스 단23'에서 '스마트스토어 사업자 대출'에 적용중인 대안신용평가(ACS)를 고도화해 여러 금융상품에 적용하는 방안을 추진한다고 밝혔다. 네이버페이는 온라인 소상공인을 대상으로 매출 흐름과 단골 고객 비중, 고객 리뷰, 반품률 등 데이터를 활용해 중소소상공인 대출 문턱을 낮춰주는 서비스를 제공하고 있다. 향후 소상공인뿐만 아니라 씬파일러 등 다양한 고객층과 서비스에 해당 모델을 적용, 제휴 금융상품 차별화를 꾀한다는 전략이다.토스는 최근 신한카드와 업무협약(MOU)을 체결하며 금융 소외 계층을 위한 대안신용평가모델을 개발하기로 했다. 토스 플랫폼 데이터를 활용해 기존 신용평가 시스템을 보완할 신용평가 모델 기반을 만들고, 신한카드가 고객 소비 행동 패턴 정보, 디지털 로그 데이터 등을 제공하는 방식이다. 금융이력뿐 아니라 다양한 비금융 활동까지 반영해 최적의 신용평가를 제공하겠다는 포부다. 토스는 전문 개인신용평가업(CB) 진출도 준비 중이다.카카오뱅크는 지난해 하반기 롯데멤버스, 교보문고 등 11개 기관, 3700만건 가명 결합 데이터를 활용해 독자적인 대안신용평가모형 '카카오뱅크 스코어'를 제시했다. 이를 기반으로 중·저신용자 대출은 최대로 공급하면서 연체율은 최소를 기록하는 성과를 거둬, 중·저신용자 대출 공급액이 조만간 9조원을 넘어설 것으로 관측된다. 카카오뱅크는 향후 대안신용평가 모델 고도화를 통해 연체율, 건전성관리에 힘쓰고 다양한 기관과 데이터 결합을 추진할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2023.08.18.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>토스·카카오證 상반기 실적 희비…똑같이 거래량 늘었는데 왜? [투자360]</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002185025?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>[헤럴드경제=권제인 기자] 대형증권사들이 올해 상반기 주식 거래대금 증가로 견조한 실적을 거둔 가운데, 후발주자인 토스증권과 카카오페이증권의 실적은 엇갈렸다. 브로커리지(위탁매매)에 집중하는 수익 구조상 두 증권사 모두 위탁 수수료 수익이 크게 늘었지만, 사용자 혜택을 크게 확대한 카카오페이증권은 적자 폭이 소폭 증가했다.18일 금융투자협회 전자공시서비스에 따르면 토스증권의 상반기 매출액은 전년 동기 대비 91.38% 증가한 964억원으로 나타났다. 당기순이익은 40억원 적자를 기록해 지난해 상반기(168억원 적자) 대비 손실 폭이 크게 감소했다. 카카오페이증권의 상반기 매출액은 전년 동기 대비 23.99% 늘어난 378억원을 기록했지만, 당기순이익은 247억원 적자로 지난해 상반기보다 소폭 증가했다.두 증권사 모두 위탁매매 수수료 수익이 가장 큰 비중을 차지하는 만큼, 거래대금 증가에 따른 수혜를 누렸다. 토스증권의 유가증권시장 수탁 수수료는 전년 대비 63% 증가했고, 코스닥시장 수수료는 두 배 넘게 증가했다. 카카오페이증권의 유가증권시장과 코스닥시장 수탁수수료은 각각 3배, 13배 증가했다.특히, 해외주식 시장 점유율 확대에 힘쓰면서 외화증권 수탁 수수료가 크게 늘었다. 토스증권이 외화증권 위탁을 통해 얻은 수수료는 지난해 상반기 136억원에서 337억원으로 크게 늘었다. 카카오페이증권의 외화증권 수탁 수수료는 지난해 3분기(누적) 12억원을 넘긴 뒤 올해 상반기 20억원을 돌파했다.한편, 카카오페이증권은 사용자 혜택을 늘려 이용자 수 증가에도 그 수혜를 실적에 반영하지 못했다. 송금 수수료를 전면 무료화하고 고객에게 제공하는 예탁금 이자를 최대 5%까지 크게 늘리면서 적자 폭이 소폭 증가했다.카카오페이증권의 증금 예치금 이자는 올해 상반기 26억원에서 66억원으로 크게 뛰었지만, 투자자 예탁금 이용료는 6억원에서 40억원으로 더욱 크게 늘었다. 증권사는 고객이 맡긴 예탁금을 한국증권금융에 예치해 이자를 받고, 이 중 일부를 투자자에게 이자로 제공한다. 이에 따라 투자자 예탁금이 증가하면 증금 예치금 이자와 투자자 예탁금 이자가 함께 증가한다.카카오페이증권은 예탁금 증가로 한국증권금융 예치금 이자 수익이 크게 늘었지만, 투자자에게 제공한 예탁금 이용료가 크게 늘면서 예탁금 증가에 따른 수익 증가는 누리지 못했다.카카오페이증권은 “카카오페이증권의 예탁 자산은 7월 말 약 2조원까지 늘어났고, 모바일트레이딩시스템(MTS)의 유저 활동성은 지난 4분기 대비 2.4배 증가했다”며 “최근 카카오톡 내 주식 주문 기능을 탑재하고, 전문 주식 투자자들까지 이용할 수 있도록 주문 화면 구조 개편이 이루어지면서 하반기에는 더욱 빠른 성장을 기록할 것으로 예측한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2023.08.27.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>"조건 없이 年 4% 금리 드립니다"…알짜 예·적금의 유혹</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004884372?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>'꼼수 없앤' 상품 인기토스뱅크 자유적금 12개월 이상 가입 年 5%케이뱅크는 1년 4.3%상상인, 회전정기예금9개월 만기 年 4.2%까다로운 우대 조건 없이도 높은 기본금리를 제공하는 예·적금 상품이 인기를 끌고 있다. 최근 예·적금 우대금리 혜택을 받으려면 통신비 자동이체, 카드 실적 등 복잡한 조건을 충족해야 하는 경우가 적지 않다. 인터넷은행·저축은행들은 상품 가입만 하면 최고 금리를 받을 수 있는 상품을 내놓으면서 차별화를 꾀하고 있다. 월 최대 300만원까지 납입 가능토스뱅크는 지난 9일 연 최고 5% 금리 혜택을 받을 수 있는 ‘토스뱅크 자유적금’을 내놨다. 12개월 이상 가입하면 누구나 연 5% 금리를 받을 수 있는 게 특징이다. 기본금리는 가입 기간이 12~36개월이면 연 3%, 6~11개월 연 2%, 3~5개월 연 1.5%다. 2%포인트 우대금리는 매월 적금 자동이체만 달성하면 받을 수 있다. 월 납입 한도도 최대 300만원으로 넉넉한 편이다.케이뱅크도 우대 조건 없이 연 4%대 금리를 주는 ‘코드K 자유적금’을 판매 중이다. 최고 금리는 연 4.4%(만기 3년)다. 1년 기준으로 연 4.3%, 6개월 기준 연 3.6% 이자를 준다. 월 최대 30만원까지 납입할 수 있다. 가입 기간에 최대 2회 부분 출금도 가능하다.저축은행들도 우대 조건 없이 고금리를 주는 수신상품을 잇달아 출시하고 있다. 상상인저축은행·상상인플러스저축은행은 지난 1일 업권 최초로 9개월 만기에 특별한 조건 없이 연 4.2% 금리를 제공하는 ‘9개월 회전정기예금’을 내놨다. 지점을 방문하지 않아도 변동 금리에 따라 자동 갱신되는 상품이다. 만기 후 중도 해지하면 약정금리가 보장돼 손해가 없다.OK저축은행은 7일 별도 조건 없이 연 4.41% 금리를 제공하는 ‘OK e-안심앱플러스 정기예금’을 선보였다. 6개월마다 금리가 바뀌는 3년 만기 회전식 예금이다. 가입 기간 6개월만 넘기면 중도 해지 손해 없이 약정 이율을 모두 받을 수 있다. 비대면 전용 상품으로 OK저축은행 모바일 앱으로 가입할 수 있다. 최소 가입 금액은 10만원이다. 만기만 채우면 우대금리 제공일정 기간을 넘기는 등 간단한 조건만 충족하면 우대금리를 제공하는 상품도 있다. 우리은행은 16일 연 최고 6% 금리를 제공하는 ‘N일 적금’을 출시했다.인기 웹툰 ‘유미의 세포들’과 제휴해 적금 납입 시 주인공 ‘유미’의 감정을 의인화한 ‘감정 스탬프’를 감정다이어리에 적립할 수 있다. 기본금리는 연 2%로 낮지만 가입 기간의 절반 이상을 납입하고 감정다이어리를 가입 기간의 4분의 3 이상 채우면 3%포인트 금리를 추가로 제공한다.남은 금리 1%포인트는 가입 시점에 우리은행 예·적금 상품에 가입하지 않았다면 받을 수 있다. 납입 금액은 매일 최대 3만원이다. 만기는 31일·100일·200일이다. 비대면 전용 상품으로 모바일 앱 ‘우리 원 뱅킹’을 통해 가입할 수 있다.SC제일은행의 수시입출식 상품 ‘제일EZ통장’은 첫 거래 고객이면 개설 후 6개월간 1%포인트 우대금리를 적용해 연 최고 3.6% 금리를 제공한다. 전북은행도 ‘JB플러스 정기 예·적금’ 신규 가입 고객을 대상으로 0.2~0.3%포인트 우대금리를 준다. 최고 금리는 예금 연 3.87%(만기 9개월), 적금 연 4.2%(만기 1년)다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2023.08.24.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>머지포인트 사태 재발 막는다…선불업 감독 강화</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004883605?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>전자금융거래법 개정안 통과내년 9월부터 시행 예정서비스를 기습 중단해 환불 대란을 일으킨 ‘머지포인트 사태’ 재발을 막기 위해 금융당국이 선불전자지급업의 감독과 관리를 강화한다. 네이버페이 토스 등만 취급하던 소액 후불결제 업무도 선불업자에게 허용된다.금융위원회는 전자금융거래법 개정안이 24일 국회 본회의를 통과했다고 밝혔다. 선불업 감독 범위 확대, 선불충전금 별도 관리 의무화, 선불업자 영업행위 규칙 신설 등의 내용을 담고 있다. 정부의 법률 공포 절차를 거친 뒤 내년 9월부터 시행될 예정이다.개정안은 선불업 감독 대상을 확대하고, 선불업자 등록 면제 기준을 강화했다. 선불전자지급수단의 업종 기준을 없애고 전자식으로 변환된 지류식 상품권도 선불전자지급수단에 포함되도록 했다. 선불전자지급수단이 한 개의 가맹점에서 사용될 경우에만 등록 의무를 면제해 등록 대상을 넓혔다.다만 영세 사업자까지 감독 대상이 되는 것을 방지하기 위해 선불전자지급수단의 발행 잔액 및 총발행액이 일정 규모 이하일 경우 등록 의무를 면제한다. 구체적인 금액 기준은 향후 업계 실태 조사 및 의견 수렴 등을 거쳐 정해진다.이용자의 선불충전금 보호장치도 마련했다. 선불업자는 선불충전금의 50% 이상에 해당하는 금액을 신탁, 예치 또는 지급보증보험 방식으로 별도 관리해야 한다. 별도 관리하는 선불충전금은 안전자산 등으로 운용하도록 하고, 선불업자는 가맹점을 정당한 이유 없이 축소하거나 선불전자지급수단의 이용 조건을 변경하는 경우 선불충전금 잔액의 전부를 지급한다는 내용을 약관에 포함해야 한다.이용자의 선불충전금이 부족한 경우 부족분에 대해 선불업자 자체의 신용으로 가맹점에 그 대가를 지급할 수 있도록 하는 소액 후불결제도 겸영 업무로 허용했다. 지금까지 소액 후불결제는 규제 샌드박스를 통해 네이버파이낸셜과 카카오페이, 비바리퍼블리카(토스)가 30만원 한도로 한시적으로 운영하고 있었다.금융위 관계자는 “법 개정을 통해 선불업 규제 사각지대를 축소하고 이용자의 선불충전금을 안전하게 보호할 수 있을 것으로 기대한다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2023.08.21.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>토스증권 앱, 뉴욕증시 '존슨앤존슨' 상장폐지 50분간 잘못 표기</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/437/0000356394?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>〈사진=토스증권 홈페이지 캡처〉   토스증권 애플리케이션에서 뉴욕증시 상장 종목인 존슨앤존슨을 상장 폐지로 잘못 표시해 거리해 혼선을 일으켰습니다.   오늘(21일) 토스증권에 따르면 오후 5시부터 약 50분간 존슨앤존슨을 상장폐지한 상태로 잘못 표시해 모바일트레이딩시스템(MTS) 사용자들 사이에서 혼선이 일었습니다.   해당 오류는 토스증권이 외부로부터 해당 종목 관련 정보를 수신하는 과정에서 발생했습니다. 이 장애는 현재 복구돼 종목 거래가 정상적으로 이뤄지고 있습니다.   토스증권은 홈페이지를 통해 "이용에 불편을 드려 죄송하다"며 "원인 파악이 완료돼 정상 거래가 가능하다"고 공지했습니다.   토스증권 오류 발생 시간 동안 해당 종목의 가격 변동이 거의 없어 현재까지 접수된 피해 사례는 없는 것으로 알려졌습니다.   토스증권 관계자는 JTBC 취재진에 "피해를 본 고객이 있다면 관련 부서를 통해 사안을 살펴본 뒤 보상 등 조치가 있을 것"이라고 말했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2023.08.17.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>윤호영 카뱅 대표 "전체 주담대 중 2%뿐…가계대출 증가 주범 아냐"</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005552933?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>17일 은행장 간담회서, 금감원 지적에 입장 밝혀"고객이 찾는 만큼 지속…중저신용자 비율 맞추는 중"당국, 가계대출 증가로 '인뱅 주담대' 예의주시 중[이데일리 정병묵 김국배 기자] 금융당국이 가계대출 폭증 ‘주범’으로 인터넷은행의 주택담보대출(주담대) 상품을 예의주시하고 있다고 밝히자, 윤호영 카카오뱅크(323410) 대표가 정면 반박하고 나섰다. 윤호영 대표는 17일 오전 서울 중구 은행연합회에서 금융감독원 주최로 열린 ‘내부통제 및 가계대출관리 강화를 위한 은행장 간담회’에서 기자들과 만나 “전체 주담대에서 우리(카카오뱅크)가 차지하는 비중은 2%도 안 된다”며 “우리가 (가계대출 증가의) 주범이라고 생각하지 않는다”고 말했다.윤호영 카카오뱅크 대표(사진=연합뉴스)또 인터넷은행이 본연의 업무인 중·저신용자 대출보다 고신용자 비중이 높은 주담대에 집중하는 데 대해 윤 대표는 “(비대면 주담대)상품이 나왔으니 고객이 찾아주시는 만큼 지속하겠다”며 “중저신용 대출자 비율은 맞춰 가고 있다”고 강조했다.인터넷은행은 신용점수 하위 50%인 중·저신용자를 대상으로 중금리 대출을 활성화한다는 취지로 설립됐다. 2021년에는 이러한 설립 취지를 지키기 위해 의무비율 규제를 만들었다. 이에 따라 올해 말 기준 카카오뱅크와 케이뱅크, 토스뱅크는 각각 전체 신용대출의 30%, 32%, 44%를 중·저신용자 대출로 채워야 한다. 하지만 현재 3사 모두 기준치에 미달이다. 6월 말 기준 카카오뱅크는 27.7%, 케이뱅크 24.0%, 토스뱅크 42.06%(3월 말 기준)를 기록하고 있다.금융당국은 주담대의 온라인 전환 시행 이후 가계대출이 급증하면서 인터넷은행의 공격적 영업이 영향을 끼쳤다고 판단하고 있다. 김주현 금융위원장은 16일 비대면 대출, 즉 인터넷은행 주담대를 지목하며 “소득확인이 제대로 이뤄지지 않고 있다”고 꼬집었다.인터넷은행들은 올해 파격적인 금리를 제공하며 공격적으로 주담대 영업을 펼쳤다. 그 결과 올 상반기 카카오뱅크와 케이뱅크의 주담대는 지난해 말 대비 5조원 넘게 증가했다. 6월 말 기준 카카오뱅크의 주담대 잔액은 17조3000억원으로 작년 말 대비 30% 늘었다. 같은 기간 케이뱅크는 61.5% 급증한 3조7000억원을 기록했다.당국은 현장 점검을 통해 실태 조사에 착수하기로 했다. 이복현 금융감독원장은 16일 “인터넷은행은 신파일러(금융거래 이력 부족자)에게 자금 공급한다는 정책적 목적이 있는데 지금과 같은 주담대 쏠림이 제도와 합치가 되는지에 대해 비판적 시각이 있다”며 일침을 가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2023.08.30.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>“해외 창업까지 지원”…정부 ‘스타트업 코리아 종합대책’ 공개</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003850336?sid=101</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>2024년 15억원 투입해 ‘스페이스-K’ 구축2027년까지 2조원 규모 펀드 조성“세계 3대 창업대국으로 도약 목표”정부가 2027년까지 글로벌 100대 유니콘(기업가치 10억달러 이상인 스타트업)을 5개로 확대하겠다는 야심을 담은 ‘스타트업 코리아 종합대책’을 공개했다.     중소벤처기업부는 30일 ‘스타트업 코리아 전략회의’에서 향후 중장기 창업정책 방향을 담은 ‘스타트업 코리아 종합대책‘을 발표했다. 회의는 청와대 영빈관에서 윤석열 대통령이 직접 주재했다. 이번 대책은 변화된 환경에 맞춘 새로운 창업정책 패러다임이 필요하다는 공감대를 토대로 마련됐다.      이영 중기부 장관이 지난 29일 서울 종로구 정부서울청사에서 ‘스타트업 코리아 종합대책’ 사전 브리핑을 하고 있다. 연합뉴스    주요 내용은 크게 △글로벌화 △벤처투자 민간전환 △지역 창업·벤처 생태계 활성화 △규제 완화 △도전적 창업 분위기 조성으로 요약된다. 중기부뿐 아니라 과학기술정보통신부, 산업통상자원부, 교육부 등 정부 각 부처가 새로운 창업정책 패러다임 조성을 위해 힘을 합치는 게 핵심이다.     ◆수도권에 글로벌 창업허브 구축     중기부가 가장 집중한 부분은 글로벌화다. 정책 지원 대상을 해외 현지 창업까지 넓히는 데 초점이 맞춰졌다. 일정 요건을 갖춘 한국인 창업 해외법인에 대해 지원 근거를 마련하고, 일정 규모 이상의 해외 벤처캐피탈(VC)로부터 투자를 받은 스타트업은 정부가 매칭 지원하는 ‘글로벌 팁스’을 신설할 계획이다. 내년에 총 20개사를 대상으로 하며 글로벌 인큐베이팅을 통해 초기 단계부터 해외시장을 타겟으로 한 스타트업이 지원을 받는다.     외국인이 한국에서 쉽게 창업하고 스타트업에 취업할 수 있도록 제도 개선도 추진한다. 전문인력(E-7) 비자 발급 요건을 완화하고, 기술성과 사업성 등을 갖춘 경우 창업비자 부여 및 사업화 자금을 지원받을 수 있도록 검토할 예정이다.      내년 상반기에는 글로벌 창업허브 구축에 착수한다. 전 세계 청년들이 자유롭게 소통·교류할 수 있는 ‘스페이스-K’를 수도권에 조성할 계획으로 내년도 관 예산에 15억원을 편성했다. 이곳에서 국내 스타트업의 해외 진출에 더해 해외 스타트업의 국내 안착을 지원한다.      창업의 물리적 제약을 없애기 위해 가상 스타트업 생태계 ‘K-스타버스’를 올해 하반기부터 시범 추진한다. 디지털 가상공간에서 자유롭게 교류할 수 있는 플랫폼을 마련한다는 취지다.     지역 창업생태계를 활성화를 위해 내년 상반기에 ‘지방 스페이스-K’(가칭)를 스타트업 파크 사업으로 조성한다. 이를 중심으로 앵커기업·대학·연구소 등이 밀집된 ‘스타트업 클러스터’로 확대할 계획이다.     스타트업 코리아 종합대책 인포그래픽. 중기부 제공    ◆벤처투자, 민간으로 무게중심 이동     벤처투자의 민간전환에 속도를 낼 방침이다. 민간과 정부가 함께 출자해 내년부터 2027년까지 총 2조원 규모의 ‘스타트업 코리아 펀드’를 조성한다. 금융권, 성공 벤처기업, 대기업 등과 정부 모태펀드가 함께 출자하는 방식이다. 해당 펀드는 △딥테크 △글로벌 진출 △회수(세컨더리)에 집중 투자한다.     개방혁 혁신과 규제 개혁에 집중한다. 대기업-스타트업 상생협력 프로그램을 초격차 10대 분야로 확대하고, 대기업의 스타트업에 대한 전략적 투자를 유도할 수 있도록 일반지주회사 보유 기업형 벤처캐피탈(CVC)에 대한 외부 출자 및 해외투자 한도 등 규제 완화도 검토한다. 네거티브 규제가 적용되는 ‘글로벌 혁신 특구’도 하반기에 2곳 이상 지정할 예정이다.     창업 저변 확대에도 힘을 쏟는다. 2025년 고교학점제 도입에 맞춰 교육청과 협의해 ‘기업가정신’ 관련 인정 도서를 개발을 추진한다.     대학에는 창업 친화적 학사제도 도입을 촉진한다. 향후 대학이 대상인 창업 관련 사업의 기관 공모시 창업 관련 학사·인사제도의 운영여부·실적 등을 선정 평가에 반영할 계획이다. 이 외에도 군 복무 제도를 활용해 창업을 촉진하는 방안을 국방부와 내년부터 협의한다.     이영 중기부 장관은 글로벌 100대 유니콘에 K-스타트업을 2027년까지 5개로 키울 계획이라고 강조했다. 현재 글로벌 100대 유니콘 중 한국 스타트업은 토스(비바리퍼블리카)가 유일하다. 이 장관은 “스타트업 코리아 달성을 위해 관계부처가 역량을 모아 종합대책을 마련하게 됐다”며 “벤처투자 확대 등으로 대한민국을 아시아 넘버1, 세계 3대 창업대국으로 도약시킬 것”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2023.08.17.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>네오위즈 '인텔라X', 앱토스 재단과 맞손</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012035423?sid=105</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>'앱토스 재단' 블록체인 기술 및 글로벌 커뮤니티 등 활용네오위즈는 웹3 블록체인 게임 플랫폼 ‘인텔라 X(Intella X)’가 글로벌 레이어1 블록체인 회사 ‘앱토스 재단'과 파트너십을 체결했다고 17일 밝혔다.(사진=네오위즈) *재판매 및 DB 금지[서울=뉴시스]최은수 기자 = 네오위즈는 웹3 블록체인 게임 플랫폼 ‘인텔라 X(Intella X)’가 글로벌 레이어1 블록체인 회사 ‘앱토스 재단'과 파트너십을 체결했다고 17일 밝혔다.‘앱토스 재단’은 레이어1 기반의 블록체인 사업을 운용하는 회사로, 전 세계 이용자들의 자유로운 블록체인 시장 참여를 돕기 위한 분산 네트워크를 구축하고, 블록체인 기술 등을 지원한다. 지난해 뛰어난 안정성과 높은 자유도 및 확장성을 자랑하는 레이어1 블록체인 메인넷 ‘앱토스(Aptos)’를 출시했다. 이번 파트너십을 통해 재단의 한국 게임 개발사 네트워크를 확대해 나간다는 계획이다.양사는 추후 ‘인텔라 X’ 생태계 확장 및 성공적인 웹3 사업을 위한 기술 및 사업자문을 포함, 다양한 방면의 협업을 검토해 나갈 예정이다.한편, 웹3 블록체인 게임 플랫폼 ‘인텔라 X'는 글로벌 웹3 시장에서 누구나 쉽게 즐기는 이용자 친화적인 플랫폼을 지향한다. 게임뿐만 아니라 자체 플랫폼 서비스인 DEX(탈중앙화거래소), NFT(대체불가토큰) 런치패드, NFT 거래소 등 다양한 서비스를 제공한다. 현재 안드로이드 및 웹 버전의 ‘인텔라 X 월렛(IX Wallet)’을 소프트 런칭하며 생태계 확장을 위한 준비를 마쳤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2023.08.30.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>LG그룹·현대차·GS리테일 등 대기업 하반기 채용 시작</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002303443?sid=105</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>8월 다섯째 주 대기업 인턴·신입 채용 소식취업콘텐츠 플랫폼 진학사 캐치가 대기업 인턴·신입 채용이 시작됐다고 30일 밝혔다. 대표적인 기업으로는 LG그룹, 현대자동차, GS리테일 등이 있다.LG에너지솔루션에서 내달 9일까지 '하반기(9월) 분야별 수시 채용'을 진행한다. 모집직무는 영업/마케팅, 품질, R&amp;D, 생산기술이며 전형 절차는 직무별로 상이하다. 생산기술을 제외한 직무는 공인어학성적(OPIc IH 혹은 토익스피킹 160점 이상) 보유자에 한해 지원 가능하다. 채용절차는 ▲서류전형 ▲인적성검사 ▲건강검진 ▲1DAY면접 ▲입사 순이다. 영업/마케팅 직무 지원자는 1DAY면접 후 인턴십 과정을 거치며 인턴십 평가를 통해 최종 합격 여부가 결정된다.LG전자에서 내달 24일까지 '하반기 직무별 사원 채용'을 진행한다. 모집부문은 R&amp;D, 품질, 생산, 디자인, 영업, Staff등 총 6개이다. 채용절차는 ▲서류전형 ▲LG Way Fit Test ▲SW코딩테스트 혹은 AI면접 ▲1차면접 ▲2차면접 ▲건강검진 ▲최종입사 순이다. SW관련 직무는 SW코딩테스트를, 이외의 직무는 AI면접을 진행할 예정이다.8월 다섯째 주 채용 소식LG마그나이파워트레인에서 내달 24일까지 '하반기 사원 채용'을 진행한다. 모집부문은 R&amp;D, Manufacturing, Quality, Product, 업무혁신, HR 등 총 6개이다. 근무지는 인천광역시 서구이며 필요 어학 공인 성적은 직무별로 상이하다. 채용절차는 ▲서류전형 ▲인적성검사 ▲1차면접 ▲2차면접 ▲건강검진 ▲최종입사 순이다. 1, 2차 면접 이전에 영어 인터뷰를 실시할 예정이며 10~15분간의 전화면접으로 진행된다.LG화학에서 내달 14일까지 '9월 학/석사 채용'을 진행한다. 모집부문은 양극재, DX추진담당, 생산총괄, IP총괄이며 근무지역은 직무에 따라 상이하다. 채용절차는 ▲서류전형 ▲온라인인적성검사 및 AI면접 ▲1차면접 ▲2차면접 ▲인턴십 ▲입사 순이다. 전형 일정은 회사 상황에 따라 변경될 수 있으며 각 면접 전형은 온라인 화상 면접으로 진행될 수 있다.현대자동차에서 내달 1일부터 14일까지 '9월 각 직무별 채용'을 진행한다. 모집부문은 연구개발, 디자인, 생산/제조, 사업/기획, 경영지원, IT 등 총 6개다. 온/오프라인 채용설명회는 내달 3일까지 신청이며 온라인 채용설명회는 5~6일, 오프라인 채용설명회는 8~10일에 진행 예정이다. 채용절차는 ▲서류전형 ▲AI면접 및 인성검사 ▲면접전형 ▲신체검사 ▲최종합격 순이며 코딩테스트 대상 직무의 경우, 코딩테스트를 별도로 진행할 예정이다.GS리테일에서 내달 11일까지 '하반기 개발사업부문 채용연계형 인턴 채용'과 '편의점사업부 대졸 채용'을 진행한다. 모집부문은 각각 부동산 투자개발 및 자산관리, 영업관리(OFC)며 직무에 따라 근무지역은 상이하다. 채용절차는 ▲서류접수 ▲AI역량검사 ▲1차면접 ▲2차면접 ▲최종합격 순이다. 부동산 투자개발 및 자산관리 직무는 6주간의 인턴십을 진행할 예정이다.잡테크 커넥팅 데이즈 이미지한편 지디넷코리아는 9월25일부터 27일까지 삼성동 코엑스A 홀에서 ‘잡테크 커넥팅 데이즈’ 채용 브랜딩 페스티벌을 연다. 대중들에게 사랑받는 다수의 테크 기업들이 참여해 자사의 기업문화와 필요로 하는 인재상, 복지정책과 일하는 방식 등을 소개할 예정이다.국내·외 정보통신기술(ICT)의 미래를 한자리에서 확인할 수 있는 ‘대한민국 디지털 미래혁신대전 2023’과 함께 열리는 이번 채용 행사에는 ▲원티드랩 ▲제네시스랩 ▲네이버 ▲무신사 ▲라인 ▲당근마켓 ▲토스CX ▲오늘의집 ▲야놀자 ▲직방 ▲나만의 닥터 등이 참여한다.채용 정보와 직무 교육 등에 있어 인사이트를 주는 다양한 강연도 열릴 계획이다. 각 회사 인사/교육 담당자를 비롯해 취준생, 이직러 등이 참여해 서로 간의 정보 교류도 기대된다. 취준생들은 여러 기업들의 채용 관련 팁, 일하는 문화와 방식, 기업 철학 등을 파악해 자신의 진로를 선택하는 데 도움을 받을 수 있다. 이직을 생각하는 직장인들도 새로운 직장으로 옮기기 위해 필요한 업무 스킬과 자격 요건 등을 파악하는 기회가 될 수 있다.취업을 앞둔 대학생이나 휴직생, 이직을 고려하는 직장인들 모두 무료로 참석할 수 있다. 채용 브랜딩이 필요한 기업들은 [☞디지털 미래혁신대전 운영 사무국]을 통해 신청하면 된다. 관련 대학 또는 기관 참여도 가능하다. 보다 자세한 참여 안내는 네이버 검색창에서 '디지털 미래혁신대전'을 입력 후, 웹사이트에 방문하면 확인 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2023.08.23.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>인뱅 파킹통장도 매력 ‘뚝’…여·수신 경쟁력 다 잃었네</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005557134?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>인뱅 3사 파킹통장 금리 2% 초반대서 요지부동카뱅 '세이프박스' 금리, 올해 세 차례 걸쳐 0.5%p↓케뱅 '플러스박스' 금리 반년만에 연 3%→연 2.3%당국 눈치에 주담대 금리 4%대 오르며 경쟁력 실종[이데일리 정두리 기자] 인터넷은행의 여·수신 금리 경쟁력이 모두 낮아지고 있다. 출범 초기 흥행을 이끌던 파킹통장(수시입출금 통장) 금리는 서서히 내림세를 보이다 현재 2% 초반대에서 요지부동이고, 업계 최저 금리를 자랑하던 주택담보대출은 상승 국면으로 전환하는 모양새다.수시입출금 수신금리 3→2%대로 내리고23일 금융권에 따르면 인터넷은행의 파킹통장 금리는 올해 초 최대 3%까지 올라섰다가 현재는 2%대 초반대로 내려왔다. 이날 기준 토스뱅크와 카카오뱅크, 케이뱅크의 파킹통장 금리는 각각 연 2.0%, 2.1%, 2.3%를 제공하고 있다.카카오뱅크는 지난달 말 파킹통장인 ‘세이프박스’(한도 최대 1억원) 금리를 기존 연 2.2%에서 연 2.1%로 0.1%포인트(p) 낮췄다. 카카오뱅크는 앞서 지난 4월과 6월에도 세이프박스 금리를 각각 0.2%포인트씩 인하한 바 있다. 연 2.6% 수준이던 세이프박스 금리가 석 달 만에 세 차례에 걸쳐 0.5%포인트 낮아진 것이다. 케이뱅크의 경우 올해 2월 초까지 연 3%였던 파킹통장 ‘플러스박스’(한도 최대 3억원) 금리를 현재 연 2.3%로 반 년만에 0.7%포인트 내렸다. 토스뱅크는 지난해 말 ‘토스뱅크 통장’(한도 무제한)의 금리를 연 2.3%로 제공하는 가운데 5000만원 초과 금액에 대해선 연 4% 금리 혜택까지 줬으나 현재 연 2.0% 금리로 주저앉은 뒤 머물고 있다. SBI저축은행의 파킹통장이 1억원까지 연 3.5% 이자를 지급하고 있는 것을 감안하면 저금리 시기에 주목받았던 인터넷은행의 파킹통장 금리 매력이 저축은행보다 떨어진 상황이다. 인터넷은행들은 최근 수신경쟁을 자제하며 숨 고르기에 나서고 있는데 반해 저축은행들은 잇달아 금리를 올리며 투자처를 잃은 돈을 끌어들이고 있다.서지용 상명대 경영학부 교수는 “인터넷은행이 과거 출혈을 감수하며 고금리 경쟁에 나섰지만, 조달금리가 높아진 현 상황에서 마진을 내기 위해서는 수신 금리를 예년처럼 올리기는 부담스러운 상황일 것”이라면서 “당분간 파킹 통장 금리를 올리기는 쉽지 않아 보인다”고 말했다. 주담대 여신금리 3→4%대로 올리고반면 최근까지 최저 3%대 금리를 내세우던 인터넷은행의 주담대 금리 하단은 4%대로 올라섰다. 카카오뱅크의 주담대 고정 금리(5년 고정 후 변동금리로 전환·혼합형)는 이날 기준 4.167~6.766%로 집계됐다. 금리 하단의 경우 지난 18일 3.983%에서 21일 0.059%포인트 오른 데 이어 22일(0.065%포인트), 23일(0.06%포인트)도 오르며 매일 상승세다.인터넷은행은 최근 금융당국으로부터 가계대출 급증의 주범으로 지적받으면서 기존처럼 공격적인 금리 정책은 펼치기가 부담스러운 상황이다. 카카오뱅크와 케이뱅크의 지난달 주담대 순증액은 1조2900억원으로, 이는 5대 시중은행 증가분(1조4900억원(정책모기지 제외))과 맞먹는 수준이다. 인터넷은행의 주담대 비중이 은행권 내에서도 높은 것으로 파악되자 이들 은행의 주담대 운용 전략이 보수적으로 전환한 것 아니냐는 해석이 나온다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2023.08.25.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>"'가뭄' 파나마운하 통과 제한 최소 10개월 더"…물류비↑</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0014151631?sid=104</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>파나마 운하 주변에서 통항 대기 중인 선박(파나마시티 EPA=연합뉴스) 지난 22일(현지시간) 파나마 운하 주변 주변에 통항 대기 중인 선박들이 몰려 있다. 2023.8.25(멕시코시티=연합뉴스) 이재림 특파원 = 태평양과 카리브해를 연결하는 글로벌 물류의 동맥인 파나마 운하에서 유례없는 가뭄에 따른 수량 부족 우려로 선박 통항 제한이 당분간 더 이어질 것이라는 전망이 나왔다.    24일(현지시간) 로이터통신에 따르면 일리아 에스피노 파나마운하청(ACP) 부청장은 이날 "일일 통항 선박 대수 제한이 최소 10개월 이상 유지될 것으로 예상된다"며 최대 흘수(물속에 잠긴 선체 깊이) 제한 역시 계속될 것이라고 밝혔다.    파나마운하청은 다만, 홈페이지에 공식적으로 업데이트하는 통항 정보에는 선박 제한 기간을 명시하지는 않았다. 지난 10일 낸 보도자료에는 '향후 수 개월 간'(in the coming months)이라고 표현했다.    현재 파나마 운하를 통과할 수 있는 선박 총수는 하루 32척이다. 이는 지난 달 30일 36척에서 줄어든 것이다.    파나마운하 네오파나막스 화물 선박(2016년 6월 파나마운하 확장 후 통과할 수 있는 선박)의 최대 흘수 역시 13.41ｍ(44.0피트)로, 5월과 비교해도 0.31ｍ(45.0피트) 감소했다.    파나마운하청은 운하를 구성하는 가툰 호수의 수량이 강수량 부족으로 줄었기 때문에 이번 조처를 시행하는 것이라고 설명했다.    통항 선박에 제한이 생기면서 파나마 운하 주변에는 병목 현상이 이어지고 있다. 로이터는 이날 기준 115척의 선박이 통항을 위해 운하 주변에 대기 중이라고 보도했다.    에스피노 ACP 부청장은 "통항 제한 연장에 따라 다음 우기 전까지 운하의 물을 가둬둘 수 있는 여유가 생긴다"며 "크리스마스 물류 성수기를 앞두고 통항을 원하는 선박이 점점 늘고 있기 때문에 병목현상이 심화할 수 있다"고 내다봤다.    이에 따라 물류비용 상승 압박은 지속할 전망이다. 물류정보업체 프레이토스의 주간 해상 컨테이너 운임지수(FBX)를 보면 아시아∼미국 동부(USEC)의 경우 40피트 컨테이너 기준 운송비 지수는 6월 30일 2천203달러(291만원)에서 가파르게 상승해, 지난 18일 2천991달러(396만원)까지 뛰었다.    walden@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2023.08.21.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>‘3인 3색’ 주목받는 동시대 미국 작가들의 회화를 만난다</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011549418?sid=103</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>세계 미술 시장에서 주목받고 있는 미국 작가 3명의 작품을 국내에 소개하는 그룹전이 다음 달 1일(금)부터 23일(토)까지 서울시 강남구 지갤러리에서 열립니다. 지갤러리가 미국 뉴욕의 미첼이네스 앤 나쉬 갤러리와 함께 마련한 이번 전시에서는 미국을 중심으로 주요 미술기관과 유수의 아트페어에서 주목받고 있는 작가 켈티 페리스(Keltie Ferris), 제라시모스 플로라토스(Gerasimos Floratos), 크리스 요한슨(Chris Johanson)의 신작을 선보입니다. 켈티 페리스는 이번 전시를 통해 특유의 풍부한 색채가 돋보이는 신작 4점을 공개합니다. 퀼트와 같은 패턴을 직접 그린 이미지 위로 드문드문 찍힌 스프레이 페인트의 점선과 강렬한 오일 스틱 자국이 번갈아 중첩됩니다. 신체의 움직임을 따라 반복되는 패턴은 활기차고 본능적이면서도 절제되고 사려 깊은 이미지를 만들어냅니다. 제라시모스 플로라토스는 드로잉, 심리지리학, 그래피티, 미술사에서 영향을 받아 제스처가 드러나는 독특한 스타일로 잘 알려졌습니다. 평생을 뉴요커로 살아온 작가는 뉴욕에서의 삶을 작품에 그대로 반영해 현대 도시 생활의 신체적, 정서적 경험을 바탕으로 선과 형태, 재현과 추상, 형상과 대지 등 회화의 영원한 질문을 다루고 실험합니다. 오랜 시간을 들여 신중한 태도로 작업하는 크리스 요한슨의 작품은 지난 30년간 연마한 명상의 연장선에서 탄생합니다. 인간의 삶에서 발화하는 물질적 흔적에 대해 성찰하며 요한슨은 기성의 재료가 아닌 자연친화적으로 발견할 수 있는 버려진 물수건과 옷가지, 자연적 안료 등을 이용해 고대 프레스코화나 만다라 그림을 연상시키는 세심한 회화 작품을 제작합니다. 지갤러리는 “이들 작가에 의해 평면 위를 때로는 힘차게, 때로는 스치듯이 머물거나 지나는 붓의 흔적은 신체의 움직임을 그대로 따르고, 생각의 과정을 기록하며, 나아가 삶의 궤적을 반영한다”면서, “이번 전시를 통해서 세 화가의 신체와 정신, 삶을 관통하는 텍스처를 캔버스 위로 옮김으로써 중첩된 레이어로부터 다차원적 감각으로 연결되는 지각적 경험을 느껴볼 수 있을 것”이라고 전했습니다.■ 제보하기▷ 전화 : 02-781-1234, 4444▷ 이메일 : kbs1234@kbs.co.kr▷ 카카오톡 : 'KBS제보' 검색, 채널 추가▷ 네이버, 유튜브에서 KBS뉴스를 구독해주세요!</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2023.08.30.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>5대 은행 예대금리차 상승 전환했지만…두달 연속 1%p 하회</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005562867?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>대출금리 대비 수신금리 하락폭 확대5대 은행 평균 신규 0.934%p…농협 '최고'7월 전체 은행 신규 예대차 평균 1.688%p[이데일리 유은실 기자] 지난달 5대 시중은행의 가계부문 예대금리차(대출금리-저축성수신금리)가 5개월 만에 상승 전환했다. 대출금리와 수신금리 모두 하락했지만 수신금리 하락 폭이 더 컸다. 다만 2개월 연속 1%포인트를 하회했다. 이들 은행 중 햇살론 등 정책서민금융을 제외한 가계 예대금리차가 높은 곳은 농협은행이었고, 전체 은행권 중엔 전북은행, 토스뱅크가 상위권을 차지했다. (사진=연합뉴스)30일 은행연합회에 따르면 7월 기준 17개 은행(산업·기업은행 제외)의 정책서민금융(햇살론뱅크·햇살론15·안정망대출) 제외 신규 가계 예대금리차는 평균 1.688%포인트로 집계됐다. 전체 은행권에선 전북은행(5.76%포인트)의 정책서민금융을 뺀 예대금리차가 가장 컸고 토스뱅크(3.39%포인트)와 광주은행(3.26%포인트)가 뒤를 이었다.   국내 5대 시중은행(KB국민·신한·하나·우리·NH농협)의 정책서민금융을 제외한 평균 신규 가계 예대금리차는 0.934%포인트다. 예대금리차가 가장 벌어진 곳은 NH농협은행(1.11%포인트)이었다. 이어 KB국민은행(0.92%포인트), 신한은행(0.91%포인트), 우리은행(0.90%포인트), 하나은행(0.83%포인트) 순으로 나타났다.이들 5대 은행의 예대금리차(정책 서민금융 상품 제외)는 지난달(0.93%포인트)에 비해 소폭 오르며 5개월 만에 상승 전환했다. 다만 개별사로 보면 전월 대비 상·하향 그래프가 갈렸다. 농협·신한은행의 7월 예대금리차는 줄었고, 국민·하나·우리은행은 늘었다. 예대금리차가 커지면 은행의 이익은 늘어나게 된다. 농협은행 관계자는 “농협은행은 정부정책자금을 주로 취급하며, 정부정책자금은 당행 수신의 높은 비중을 차지하고 있다”며 “정부정책자금은 주로 1~3개월 초단기 정기예금으로 예치되고 있기 때문에 저축성 수신금리가 낮아 타행 대비 예대금리차가 비교적 높게 나타난다”고 설명했다.지난달부터 공시를 시작한 잔액 기준 가계 예대금리차는 17개 은행(산업기업은행 제외) 중 토스뱅크(5.46%포인트)가 가장 컸다. 이어 전북은행(4.28%포인트), 광주은행(4.06%포인트), 케이뱅크(3.65%포인트), 카카오뱅크(323410)(3.13%포인트)가 뒤를 이었다. 5대 시중은행 중에선 국민은행의 잔액 기준 가계 예대금리차가 2.54%포인트를 보이며 1위를 차지했다. 농협은행(2.45%포인트), 신한은행(2.38%포인트), 우리은행(2.18%포인트), 하나은행(2.08%포인트) 등 모두 2%대의 예대금리차를 보였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2023.08.29.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>모바일 운전면허증으로도 형사사법포털 본인인증 가능</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004885026?sid=102</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>사진=뉴스1법무부가 30일부터 모바일 운전면허증을 통해 형사사법포털 본인인증이 가능하도록 하는 서비스를 시행한다고 29일 밝혔다.형사사법포털에서는 경찰·해양경찰(수사)→검찰(수사․처분)→법원(재판)→법무부(형 집행)에서의 수사와 재판 정보를 확인할 수 있다. 사건 진행 상황 조회, 벌과금 납부 조회, 온라인 민원 신청 등 서비스를 이용할 수 있다.법무부는 작년 7월부터 기존의 본인인증 방법인 공동인증서와 지문인증 외에 네이버, 카카오톡 등 7개의 간편인증 서비스를 도입했고, 올해 6월 토스, 하나은행, 뱅크샐러드, NH농협 간편인증을 도입했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2023.08.17.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>토스뱅크, 인터넷은행 최초 ‘햇살론뱅크’ 출시</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004227467?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>[서울경제] 토스뱅크는 ‘햇살론 뱅크’를 인터넷은행 중 처음으로 출시한다고 17일 밝혔다. 햇살론 뱅크는 부채 상환이나 신용도 개선 노력을 한 저소득자에게 상대적으로 낮은 금리로 은행권 대출을 취급하는 정책금융상품이다. 한도는 최소 500만원 최대 2500만원으로 서민금융진흥원 보증한도 내에서 취급 가능하다. 대출 기간은 3년 또는 5년으로 거치기간 1년이 선택 가능하다. 상환방법은 원리금균등분할상환이다.중도상환해약금은 무료이며 보증료는 연 2%이다. 보증료가 포함된 대출금리는 최저 연 6.84%에서 최고 연 13.24% 수준이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2023.08.30.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>예대금리차 다시 확대… 농협·국민·신한銀 순</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002822381?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>5대 은행(KB국민·신한·하나·우리·NH농협)의 가계 예대금리차가 5개월 만에 확대된 것으로 나타났다. 30일 은행연합회 소비자포털에 공시된 '예대금리차 비교' 통계에 따르면 신규 취급액 기준 7월 평균 가계 예대금리차(정책서민금융 제외)는 0.934%포인트(p)로 집계됐다. 전월 평균(0.928%p) 대비 0.006%p 확대됐다.예대금리차는 저축성 수신금리에서 대출금리를 뺀 값이다. 은행의 수익성을 나타내는 지표로 쓰인다. 예대금리차가 상대적으로 크다는 것은 산술적으로 대출·예금 금리 격차에 따른 마진(이익)이 많다는 뜻이다.은행별로보면 농협은행이 1.11%p로 가장 높았다. 다만 전월 대비 0.08%p 낮아졌다. 농협은행 다음으로 KB국민은행(0.92%p), 신한은행(0.91%p), 우리은행(0.90%p), 하나은행(0.83%p) 순이었다.  5대 은행, 인터넷은행, 지방은행, 외국계 은행을 포함해 이날 공시에 참여한 19개 은행 중 가계 예대금리차가 가장 큰 곳은 전북은행(5.76%p)이었다. 토스뱅크(3.39%) 인터넷은행, 지방은행, 외국계 은행을 포함해 이날 공시에 참여한 19개 은행 가운데 정책서민금융 제외 가계 예대금리차가 가장 큰 곳은 전북은행(5.76%p)이었고, 토스뱅크(3.39%p)가 뒤를 이었다.기업 대출까지 포함한 전체 은행의 예대금리차(대출금리-저축성수신금리)의 경우 5대 은행 중 농협은행(1.53%p)이 1위를 차지했다. 2위에는 신한은행(1.36%p)이 이름을 올렸다. 신규 대출이 아닌 대출 잔액 기준으로 5대 은행 가운데 정책서민금융을 제외한 가계 예대금리차가 가장 큰 곳은 KB국민은행(2.54%p)으로 나타났다. 농협은행(2.45%p)·신한은행(2.38%p)·우리은행(2.18%p)·하나은행(2.08%p)이 뒤를 이었다.사진 연합뉴스.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2023.08.19.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>"땅 파도 안 나와" 걸어서 20원씩 줍줍…짠내나는 앱테크에 빠진 이유</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004927143?sid=101</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>[우리만 아는 금융꿀팁] 상품·서비스[편집자주] 금융, 이것만 읽으면 쉽습니다. 쉽게 설명해주고 도움되는 정책과 상품, 서비스를 소개합니다. 보이스피싱 등 범죄로부터 내 돈을 지키는 방법을 알려드립니다."오늘 1만보 걸었으니까. 토스에서 40원, 우리은행에서 이자 235원. 카카오페이에 출석해서 6원도 받아야지."티끌 모아 태산이다. 거지방(절약을 목표로 지출내역을 공개하는 채팅방)까지 가입하는 MZ세대에게 자투리 시간을 활용한 '앱테크'가 필수로 자리 잡았다. 앱테크는 애플리케이션과 재테크의 합성어로 스마트폰 앱에서 특정 행동을 하고, 금전적 보상을 받는 것을 의미한다. 매일 '온라인 폐지'를 줍는 소소한 행복에 짠테크족이 빠졌다. 하나금융경영연구소에서 낸 '소소하게 돈 버는 재미, 앱테크의 모든 것'에 따르면 앱테크는 초기 간단한 광고시청으로 포인트를 받아 현금처럼 이용할 수 있는 리워드 앱이 주류였으나 잠금화면, 만보기, SNS 구독, 앱설치, 앱실행 등 다양한 형태로 발전했다. 앱테크의 주요 방식에는 △만보기 △출석체크 △오퍼월 광고 △설문조사 등이 있다. 이중 만보기와 출석체크 형태가 주로 쓰인다. 만보기는 이용자의 걸을 수를 측정해 일정 조건을 만족하면 금전적 보상을 주는 방식이다. 열심히 걸으면 된다는 단순함 때문에 많은 사람이 관심을 갖는다. 대표적인 게 '토스 만보기'다. 하루에 1만보를 걸으면 현금화할 수 있는 토스포인트 40포인트(40원)를 얻을 수 있다. 또 특정 장소를 방문하면 장소당 20포인트씩 최대 100포인트를 받을 수 있다. 걷기를 통해 하루에 최대 140원을 '줍줍'할 수 있다. 만보기를 적금에 적용한 사례도 있다. 우리은행의 '데일리 워킹 적금'은 매 1만보 이상 걷고, 우리은행 앱 상품 전용 페이지에서 '성공' 버튼을 누르면 최대 연 11%의 금리(만기까지 마케팅 동의 필요)를 받을 수 있다. 하루 최대 1만원을 저금을 할 수 있다.  6개월 만기 동안 매일 미션을 달성하면 약 5만원의 이자를 받을 수 있다. 세금을 제외하면 하루 평균 235원가량의 이자를 받는 셈이다. 토스 만보기(1만보에 40원)와 함께 쓰면 걷기만으로 하루 275원의 소소한 수익을 낼 수 있다. 웰컴저축은행도 걸음 수에 따라 우대금리를 지급하는 '웰뱅 워킹 적금'을 운영 중이다. 연간 500만보 이상을 걸으면 최대 연 10%의 금리를 적용받을 수 있다. 데일리 워킹 적금과 웰뱅 워킹 적금을 동시에 가입하는 사람도 있을 정도다. 출석체크는 매일 앱에 접속하거나 접속 후 특정행동을 하면 보상을 주는 방식이다. 은행, 카드, 핀테크 등 대부분의 금융사에서 출석이벤트 등을 운영하고 있다. 카카오페이는 매일 앱에서 출석 체크를 하면 현금처럼 쓸 수 있는 카카오페이포인트를 6원 상당 준다. 앱테크에 입문하기 전에는 평소 생활습관, 여유 시간, 개인 성향 등이 앱테크에 적합한지 판단해볼 필요가 있다. 특히 보상 금액이 많지 않다는 점에 유의해야 한다. 큰 수익보다는 소소한 벌이에 만족하는 유형이라면 앱테크가 적합할 수 있다. 앱테크 초반에는 많은 수의 앱을 한 번에 설치하는 것보다 기존에 설치된 앱을 활용하는 편이 좋다. 우선 적응하는 기간을 갖는 셈이다. 다만 SNS를 통해 많은 이익을 얻을 수 있다고 홍보하는 앱테크는 조심해야 한다. 일반적으로 효율이 높다고 알려진 리워드 앱이 월평균 1만원 내외 정도 수준을 제공하는데, 이것도 앱 안에서 다양한 앱테크를 꾸준히 했을 때 가능한 금액이다. 특히 멤버십 형태의 투자 유도, 과도한 추천인과 개인정보를 요구하는 앱도 주의해야 한다. 일정금액을 넣어두면 매일 이자처럼 이익을 얻을 수 있다고 홍보하는 사례들 있는데, 대부분 다단계 폰지 사기일 가능성이 높다. 또 앱테크를 통해 적립한 포인트 등의 사용성도 사전에 파악하면 좋다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2023.08.21.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>토스뱅크, 최대 연 5% 자유적금 ‘10만 계좌’ 돌파</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/468/0000972550?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>사진|토스뱅크[스포츠서울 | 홍성효기자] 토스뱅크는 지난 9일 출시한 ‘토스뱅크 자유적금’이 10만 계좌를 넘어섰다고 21일 밝혔다.토스뱅크 자유적금은 고객들이 복잡한 조건을 충족할 필요없이, 매달 꾸준히 저금하면 우대금리를 포함해 최고 연 5% 금리 혜택을 받을 수 있다.통상 예적금 가입 시 우대금리 혜택을 누리려면 카드 실적, 통신비 자동이체 등 까다로운 조건을 충족해야 하거나 제한된 일부 고객들만 혜택을 누릴 수 있었다. 하지만 토스뱅크 자유적금은 이 같은 시중 금융상품과 차별화를 뒀다.특히 고객 선택권을 대폭 넓혀 가입기간은 최소 3개월부터 최대 36개월, 월 납입한도는 최대 300만원으로 한도 범위 내 자유로운 추가 납입이 가능하다.기본금리는 가입기간에 따라 차등 적용되지만, 12개월 이상 가입할 경우 우대금리를 포함 최고 연 5% 금리 혜택을 받을 수 있다. 고객들은 상품 가입 전, 자신이 받게 될 이자도 한 눈에 미리 확인할 수 있다.이 같은 ‘혜택의 자유로움’은 MZ세대 사이 높은 호응으로 이어졌다. 토스뱅크 자유적금 가입 고객 가운데 2030세대는 58.6%에 달했다. 특히 고객 3명 중 1명(32.3%)이 20대로 높은 비중을 차지했다.토스뱅크 관계자는 “고객이 우대금리를 받기 위해 충족해야 했던 ‘복잡한 조건’을 모두 덜어낸 결과 고객들, 특히 젊은 층을 중심으로 이례적으로 높은 호응을 끌어낼 수 있었다”며 “앞으로도 고객 관점에서 상품을 고민하고, 최고의 혜택을 드릴 수 있도록 노력할 것”이라고 말다.shhong0820@sportsseoul.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2023.08.22.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>역동적인 몸짓 가득한 회화…미국 작가 3인 3색전</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005175886?sid=103</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>에디 마르티네즈 키운 화랑뉴욕 미첼이네스 앤 나쉬 청담동 지갤러리 협업 전시 Gerasimos Floratos, ‘T.B.T.’(2023) Oil on canvas, 152.4 x 121.9 cm©Gerasimos Floratos Courtesy of the artist and Mitchell-Innes &amp; Nash, New York역동적인 몸짓이 인상적인 미국 유망 화가 3인방이 9월 청담동에 뜬다.서울 강남구 청담동 지갤러리는 뉴욕 화랑 미첼이네스 앤 나쉬 갤러리와 협업한 전시 ‘physical spiritual gesture’를 9월 1일부터 23일까지 개최한다.1997년 루시와 데이비드 부부가 각자 성을 따서 설립한 이 갤러리는 에디 마르티네즈, 사라 브라만 등을 키운 곳으로 유명하다. 특히 추상표현주의와 그라피티를 독창적으로 소화해 인기있는 1977년생 화가 마르티네즈는 지난 2019년 크리스티 홍콩 경매에서 200만달러(약 26억원) 낙찰 기록을 올렸다. 그처럼 생동감 넘치는 붓질로 통하는 동시대 화가 제라시모스 플로라토스, 켈티 페리스, 크리스 요한슨이 신작을 함께 소개한다. Gerasimos Floratos, T.B.T.(2023), Oil on canvas, 152.4x122.2 cm©Gerasimos Floratos Courtesy of the artist and Mitchell-Innes &amp; Nash, New York뉴욕 출신 제라시모스 플로라토스(37)는 드로잉과 심리지리학, 그라피티, 미술사 영향을 받은, 제스처가 드러나는 회화가 독특하다. 뉴요커로서 현대 도시 생활의 신체적, 정서적 경험을 바탕으로 물질적 몸과 심리적 몸의 관계를 선과 형태, 재현과 추상 등으로 탐구한다. 종종 붓 대신 손이나 빗자루를 사용해 즉각성이 돋보인다. 알민 레시, 타데우스 로팍 등에서 전시했고 중국 상하이 유즈미술관 단체전에 참여하고 있다. Keltie Ferris, T.B.T(2023) 121.9 x 121.9 cm© Keltie Ferris Courtesy of the artist and Mitchell-Innes &amp; Nash, New York켄터키주 루이빌 출신 켈티 페리스(46)는 퀼트 같은 패턴을 직접 그린 이미지 위에 드문드문 찍힌 스프레이 페인트 점선과 강렬한 오일스틱 자국을 중첩해 색채가 풍부한 그림이 인상적이다. 신체 움직임을 따라 반복되는 패턴은 활기차고 본능적이면서도 절제되고 사려 깊은 이미지로 완성됐다. 역동적으로 진동하는 추상화는 보는 이의 시선을 한쪽 끝에서 반대편으로 이끌며 지각적 인지를 유도한다. 최근 미국 예술문학아카데미로부터 로젠탈재단상을 받았다. 브루클린미술관 등에서 전시하고, 아모레퍼시픽 미술관에 소장됐다. Chris Johanson,  ‘Is With And 1’(2021~2023) Acrylic and house paint on recycled canvas, 98.7X133.3 cm©Chris Johanson Courtesy of the artist and Mitchell-Innes &amp; Nash, New York캘리포니아주 새너제이 출신 크리스 요한슨(55)은 30년간 신중한 명상의 산물인 회화를 선보인다. 그는 버려진 물수건과 옷가지, 자연적 안료 등을 이용해 인간의 삶에서 발화하는 물질적 흔적에 대해 성찰하며 고대 프레스코화나 만다라 그림을 연상시키는 섬세한 회화다. 무상함이나 유동성, 존재의 덧없는 본질에 대한 고찰을 소용돌이치는 비정형의 우주적 이미지로 표현한다. 2002년 휘트니비엔날레 설치로 유명하고, 해머미술관과 샌프란시스코현대미술관 등에 소장됐다.지갤러리 관계자는 “이번 전시에서 세 명의 작가가 신체와 정신, 삶을 관통하는 텍스처를 캔버스 위로 옮겨서 중첩된 레이어로부터 다차원적 감각으로 연결되는 지각적 경험을 느껴볼 수 있을 것”이라고 밝혔다. 청담동 지갤러리에서 열리는 뉴욕 미첼이네스 앤 나쉬갤러리 3인전 전경. &lt;지갤러리&gt; 청담동 지갤러리에서 열리는 뉴욕 미첼이네스 앤 나쉬갤러리 3인전 전경. &lt;지갤러리&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2023.08.29.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>[단신]KB국민은행, ‘장병 소원성취 프로젝트’ 개최 外</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003517536?sid=101</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>■ KB국민은행, ‘장병 소원성취 프로젝트’ 개최 KB국민은행은 10월 15일까지 군 장병 대상 소원 실현 프로그램인 ‘2023 장병 소원성취 프로젝트’의 사연을 응모 받는다고 밝혔다. 올해로 14회를 맞는 장병 소원성취 프로젝트는 국방부와 KB국민은행이 공동으로 주최하는 사회공헌 프로그램으로, 군 장병의 소원을 들어주고 응원의 메시지도 전달한다. 국방부 인트라넷 및 나라사랑포털에서 양식을 다운받아 KB국민은행 응모 메일, 국방부 인트라넷 등을 통해 신청할 수 있다. ■ 카카오뱅크, ‘내 자산 속 숨은 보물 찾기’ 이벤트 카카오뱅크는 ‘내 자산 속 숨은 보물 찾기’ 이벤트를 진행한다고 28일 밝혔다. 이번 행사는 카카오뱅크 입출금계좌 또는 카카오뱅크mini를 보유한 만 17세 이상 고객을 대상으로 진행된다. 카카오뱅크 애플리케이션(앱)에서 다른 금융 계좌를 최초 등록(오픈뱅킹)하면 추첨을 통해 황금열쇠와 골드바, 와인고블렛세트 등 다양한 경품을 받을 수 있다. 이벤트는 이날부터 12월 22일까지 진행되며 경품 추첨 상황에 따라 조기 종료될 수 있다. ■ 케이뱅크, 신개념 생활·모임통장 출시 케이뱅크는 수시입출금 통장에 높은 금리 혜택과 다양한 생활 관련 서비스를 더한 ‘생활통장’과 ‘모임통장’을 출시한다고 28일 밝혔다. 생활통장은 300만 원까지 연 3%의 고금리 혜택을 누릴 수 있다. 적립금 환급 할인 쿠폰 서비스를 비롯해 장보기 물가, 환율 알림 서비스 등 일상생활에 유용한 정보를 함께 제공한다. 구성원들과 목표 금액을 모으면 최고 연 10%의 금리를 제공하는 모임통장의 ‘모임비 플러스’ 기능은 여러 사람이 모일수록 더 큰 금리 혜택을 받을 수 있다. ■ 토스뱅크, ‘전 국민 미라클 모닝 도전하기’ 서비스 토스뱅크는 올해 말까지 일찍 일어나 정해진 출석체크를 인증하는 ‘전 국민 미라클 모닝 도전하기’ 서비스를 실시한다고 28일 밝혔다. 이 서비스는 토스뱅크 상품찾기 또는 모으기 안에서 참여 가능하다. 고객이 매일 아침 정해진 시간에 일어나 출석하는 방식으로 진행된다. 고객이 도전할 미라클 모닝 시간(6시·7시·8시·9시)을 선택해 같은 시간에 도전하는 다른 사람들과 경쟁하는 방식으로 참여하면 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2023.08.21.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>토스증권 앱 오류 발생…존슨앤존슨 '상장폐지' 50분간 오표기</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/448/0000423981?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>토스증권 애플리케이션에서 한 해외주식 종목이 상장폐지된 것으로 잘못 표기되는 오류가 발생했던 것으로 21일 확인됐다.토스증권에 따르면 이날 오후 5시부터 약 50분간 뉴욕증시 상장 종목인 존슨앤존슨이 상장폐지된 상태로 잘못 표시돼 모바일트레이딩시스템(MTS) 사용자들 사이에서 혼선이 빚어졌다.이는 토스증권이 외부로부터 해당 종목 관련 정보를 수신하는 과정에서 오류가 발생하면서 생긴 일시적 장애였던 것으로 파악되며,현재는 정상 거래 중이다.현재 이 증권사는 홈페이지를 통해 이날 오류에 대한 안내를 띄우고 피해를 본 고객이 있을 시 보상하겠다고 밝혔다.토스증권 관계자는 "해당 종목 한 개에 대해서만 오류가 발생했다"며 "오류 발생 시간 동안 해당 종목의 가격 변동이 거의 없어 현재까지 접수된 투자자 피해는 없다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2023.08.29.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>모바일 운전면허증으로 형사사법포털 본인인증 가능해진다</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003806434?sid=102</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>핵심요약법무부, 30일부터 서비스 시행연합뉴스법무부는 오는 30일부터 모바일 운전면허증으로도 형사사법포털 본인인증을 할 수 있도록 하는 서비스를 시행한다고 29일 밝혔다.현재 공동인증서, 지문인증, 민간 인증서를 통해서 할 수 있었던 형사사법포털 본인인증을 확대하는 조치다.형사사법포털에서는 경찰·해양경찰(수사)→검찰(수사·처분)→법원(재판)→법무부(형 집행)로 이어지는 수사·재판 정보를 확인할 수 있다.본인인증을 거쳐 사건 진행 상황 조회, 벌과금 납부 조회, 온라인 민원 신청 등 서비스도 이용할 수 있다.법무부는 지난해 7월 기존 본인인증 방법인 공동인증서와 지문 인증 외에 네이버, 카카오톡 등 7개 간편인증 서비스를 도입한 데 이어 올해 6월에는 토스, 하나은행, 뱅크샐러드, NH농협 간편인증 등을 추가했다.법무부 관계자는 "형사사법포털이 편리한 형사사법 대국민 서비스 포털이 될 수 있도록 지속적으로 개선해 나가겠다"고 말했다.※CBS노컷뉴스는 여러분의 제보로 함께 세상을 바꿉니다. 각종 비리와 부당대우, 사건사고와 미담 등 모든 얘깃거리를 알려주세요.이메일 : jebo@cbs.co.kr카카오톡 : @노컷뉴스사이트 : https://url.kr/b71afn</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2023.08.30.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>네이버파이낸셜의 '출사표'…금융권 유독 긴장하는 이유</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000019096?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>네이버 파이낸셜, 금융플랫폼 '진화' 본격 선언'네이버' 인프라…회원수부터 서비스까지 '고래'철저한 중개자 자처…막강한 규제에서 '자유'네이버 파이낸셜이 본격적인 금융산업 정복을 위한 출사표를 던졌다. 네이버 앱을 통해 개인 고객의 금융서비스를 모두 누릴 수 있는 '원 스톱 금융 플랫폼'을 만들겠다는 포부다. 전통적인 금융회사들은 긴장한 모습이 역력하다. 네이버가 강력한 플랫폼 경쟁력을 바탕으로 고객을 흡수하기 시작하면 금융회사들은 철저한 상품 공급자로 전락할 수 있어서다. 금융, 모두 네이버 페이로 헤쳐모여 지난 24일 박상진 네이버 파이낸셜 대표는 서울 강남구 그랜드 인터컨티넨탈 서울 파르나스에서 진행된 '팀 네이버 컨퍼런스 단 23'에 참석해 네이버 페이 서비스를 바탕으로 본격적인 금융 플랫폼의 진화를 선언했다. ▷관련기사 : 네이버페이, 이제는 '금융비서' 넘본다 박상진 대표가 그린 청사진은 네이버 앱 안에서 모든 금융 서비스를 누릴 수 있는 생태계를 조성하는 것이다. 내 금융자산이 어떻게 관리되고 있는지, 새로운 금융서비스에 대한 가입 등 금융뿐만 아니라 부동산, 자동차 등 금융과 연관이 깊은 자산까지 한 번에 관리할 수 있는 것이 핵심이다. ? 네이버 페이가 제공중인 금융 서비스. 자산관리, 결제, 금융상품 가입, 증권 정보 및 부동산 정보 열람 등을 제공중이다. ?현재까지 박 대표가 그린 청사진 80%가량의 서비스는 이미 제공중이다. 네이버 페이에서는 결제 서비스는 물론 이제는 금융앱의 기본으로 자리 잡은△신용정보 변동 △결제내역 조회 △금융자산 조회 등을 제공 중이다. 아울러 △보험금 청구 △금융상품 가입 △부동산 자산 관리 △자동차 자산 관리 등의 서비스를 제공하고 있다.네이버 페이가 앞으로 힘 주는 부분은 새로운 금융상품 가입이다. 지금은 예·적금, CMA 등 여러 금융회사 수신상품을 비교해 가입할 수 있다. 여신상품 역시 일부 금융회사의 신용대출과 전월세보증금 대출 등을 비교해 보고 가입할 수 있다.여기에 내년 상반기까지 주택담보대출 비교 가입, 보험 비교 가입, 주식매매 연결 서비스 등을 추가한다는 계획이다. 전통적인 금융회사의 대표 앱인 '뱅킹앱'에서 계열사간 정보 공유 제한 등으로 인해 제공하지 못하는 '원 앱' 금융서비스를 네이버라는 플랫폼에서 모두 제공하겠다는 얘기다.특히 이 과정에서 고객 편의성을 극대화 하기 위해 네이버의 근간이나 다름없는 검색 서비스를 적극 활용한다. 생성형 인공지능(AI) 검색 기능을 도입해 소비자가 원하는 정보를 빠르고 정확하게 제공해 금융 서비스 가입의 문턱을 낮추겠다는 계획이다. 위협적인 이유①…'고래' 네이버 사실 네이버 파이낸셜이 내건 출사표는 이른바 '빅테크'들이 내걸었던 목표와 크게 다르지 않다. 다만 기존 금융회사들이 긴장하는 정도는 다른 회사들이 목표를 내걸었을 때와 사뭇 다르다. 가장 큰 이유는 모기업인 '네이버'의 플랫폼 경쟁력에서 기인한다. 앱 통계 분석 플랫폼 모바일인덱스에 따르면 지난달 네이버의 월간활성화 사용자 수(MAU)는 3907만명에 따른다. 너나 할 것 없이 네이버를 사용한다는 의미다. 네이버 파이낸셜의 고객은 바로 이 네이버 사용자를 바탕으로 한다. 다른 빅테크들과 달린 네이버 회원이라면 네이버 파이낸셜이 제공하는 서비스의 가입자가 될 수 있다는 의미다. 플랫폼 기업의 핵심인 '고객 확보' 측면에서 경쟁사들에 비해 인력과 비용이 적게 들어갈 수 밖에 없다는 얘기다.네이버 페이가 3300만명의 회원, 370만개의 사용처, 누적결제액 200조원이라는 기록적인 결과를 달성하는 데 10년도 걸리지 않은 것이 이를 방증한다. 네이버 페이는 지난 2015년부터 서비스를 개시했다. 네이버 파이낸셜과 시너지를 극대화 할 수 있는 네이버 부동산, 네이버 증권 등은 이미 업계에서 자리를 잡았다. MAU만 1000만명에 달한다. 금융서비스를 누리기 위해 필수로 요구되는 '인증' 서비스 역시 네이버 자체에서 관련 서비스를 제공하면서 다른 앱을 방문하는 절차없이 소화하고 있다. 특히 금융당국이 지속해서 추진하고 있는 금융상품 비교 부문에서 네이버라는 플랫폼이 지니고 있는 경쟁력이 크게 발휘될 것으로 관측된다. 바로 검색이다. 네이버 파이낸셜은 직접 상품을 제작해 공급하지 않더라도 고도화 된 인공지능 검색 서비스를 바탕으로 '초개인화' 금융 서비스를 제공한다는 계획이다. 한 금융회사 디지털 전략부 관계자는 "금융상품을 한 눈에 비교하고 가입할 수 있는 서비스가 제공되면서 핵심이 되는 경쟁력은 얼마나 많은 사용자가 유입되는가와 얼마나 쉽게 정보를 찾을 수 있느냐로 보인다"라며 "네이버는 이미 국민이 궁금하면 가장 먼저 찾는 플랫폼의 자리를 선점하고 있는 만큼 이 부분에서 우위를 점할 수 밖에 없다"라고 말했다.위협적인 이유②…철저한 '중개자' 전략네이버는 금융산업을 핵심 먹거리중 하나로 선언한 카카오, 토스 등 다른 빅테크 기업들과 비교하면 중개인의 역할에 주력하는 전략을 펼친다.카카오가 △카카오뱅크 △카카오페이손해보험 △카카오페이증권, 토스가 △토스뱅크 등 금융회사를 직접 지배하는 것과 달리 네이버는 전자금융업자인 네이버 파이낸셜 외에는 금융회사를 지배하지 않는다. 타 금융회사의 상품을 철저하게 '중개'만 하는 구조다.이 전략의 핵심은 바로 규제에서 자유롭다는 점이다. 금융산업은 우리나라 산업군중 가장 규제가 강력한 업권으로 분류된다. 서비스를 제공하는 데 있어 금융 규제에서 자유롭고 책임질 영역도 극히 줄어든다. 좀 더 다양한 시도를 할 수 있는 배경이 된다. 아울러 이는 모기업으로부터 적극적인 투자 등을 받을 수 있는 요인이 된다. 금융지주 회사가 아닌 비금융 주력자 기업집단중 지배하고 있는 금융회사의 규모가 클 경우 관리·감독이 강화되는 '금융복합기업집단' 선정이 가장 대표적이다. 금융당국은 매년 금융복합기업집단을 지정해 금융회사가 아니더라도 직접 관리·감독한다. 선정 여건은 △여수신, 보험, 금융투자업중 2개 이상의 금융업을 영위하는 기업집단 △금융위 인허가·등록 회사 1개 이상 △자산총액 5조원 이상인 기업집단이다. 올해에는 △삼성 △한화 △미래에셋 △교보 △현대차 △DB △다우키움 등 7개 기업집단이 선정된 바 있다. 금융권은 매년 카카오의 금융 자회사들이 빠르게 성장하고 있는 만큼 카카오 역시 금융복합기업집단에 속해 금융당국의 관리를 받게 될 가능성이 높다고 본다. 반면 같은 빅테크이면서 라이벌인 네이버는 가능성이 0에 수렴한다고 평가한다. 네이버가 직접적으로 지배하고 있는 금융회사가 없기 때문이다. 은행 관계자는 "철저하게 금융상품을 중개하는 플랫폼이기 때문에 계열사 금융상품 판매에 좀 더 무게추를 둬야 하는 다른 플랫폼 기업보다는 경영방침이 더 유연할 것"이라며 "규제에서도 자유로운 편이기 때문에 부동산, 자동차 등과 같은 다른 이종업권과도 연계가 더 수월하다는 장점이 있다"고 설명했다.다른 은행 관계자는 "금융산업에 직접 진출하지는 않고 중개자 역할만 한다지만 워낙 영향력이 크기 때문에 금융회사가 상품을 공급하고 직접 판매하는 금융서비스 소비 루트에 변화를 가져올 가능성이 크다고 본다"라며 "당장 일반적인 쇼핑 등 커머스의 판도를 바꿔놓은 것이 대표적인 사례가 될 것"이라고 말했다.이어 "금융회사는 금융상품 공급만을 담당하게 되는 구도가 가속화될 수도 있다"며 "금융회사 역시 생존을 위해 고객이탈을 방지하는 방안을 고민중"이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2023.08.30.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>尹 “스타트업 민간 중심으로… 2조원 펀드 조성”</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003850504?sid=100</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>전략회의 주재… “글로벌 허브로”  2027년 기업·금융과 ‘코리아 펀드’ ‘100대 유니콘’ 5개로 확대 계획정부가 2027년까지 글로벌 100대 유니콘(기업가치 10억달러 이상인 스타트업)을 5개로 확대하겠다는 내용을 담은 ‘스타트업 코리아 종합대책’을 공개했다.  윤석열 대통령은 30일 청와대 영빈관에서 스타트업 코리아 전략회의를 주재하고 “스타트업 생태계를 민간 중심, 시장 중심으로 과감히 바꿔야 한다”고 밝혔다. 이어 “(한국이) 세계 최고 수준의 스타트업 인프라를 갖추고 글로벌 스타트업 허브로 커나가야 할 것”이라며 “전 세계 청년이 대한민국으로 모이고, 우리 스타트업들이 혁신가들과 연대해 마음껏 도전할 수 있도록 정부가 든든한 지원군이 될 것”이라고 했다.     윤석열 대통령이 30일 청와대 영빈관에서 열린 스타트업 코리아 전략회의에서 발언하고 있다. 윤 대통령은 이날 “정부가 주도하는 스타트업 생태계를 민간 중심, 시장 중심으로 과감히 바꿔야 한다”고 당부했다.뉴시스    종합대책 주요 내용은 △글로벌화 △벤처투자 민간전환 △지역 창업·벤처 생태계 활성화 △규제 완화 △도전적 창업 분위기 조성으로 요약된다. 중기부뿐 아니라 교육부, 법무부 등 정부 각 부처가 새로운 창업정책 패러다임 조성을 위해 힘을 합치는 게 핵심이다.  가장 눈여겨볼 부분은 글로벌화다. 중기부는 한국인 창업 해외법인에 대해 지원 근거를 마련하고, 일정 규모 이상의 해외 벤처캐피털(VC)로부터 투자를 받은 스타트업은 정부가 매칭 지원하는 ‘글로벌 팁스’를 신설할 계획이다. 글로벌 팁스는 내년에 총 20개사를 대상으로 한다.  외국인이 한국에서 쉽게 창업하고 스타트업에 취업할 수 있도록 제도 개선도 추진한다. 중기부와 법무부는 전문인력(E-7) 비자 발급 요건 완화를 검토할 예정이다. 시스템 소프트웨어(SW) 개발자 등 스타트업 인력 수요가 높은 업종이 대상이다.  내년 상반기에는 글로벌 창업허브 구축에 착수한다. 전 세계 청년들이 자유롭게 소통·교류할 수 있는 ‘스페이스-K’를 수도권에 조성할 계획인데, 내년도 관련 예산에 15억원을 편성했다.  대기업, 금융권 등과 2027년까지 2조원 규모의 ‘스타트업 코리아 펀드’를 결성해 벤처투자의 민간 전환에 속도를 낼 방침이다. 해당 펀드는 △딥테크 △글로벌 진출 △회수(세컨더리)에 집중 투자한다.  이영 중기부 장관은 글로벌 100대 유니콘에 K스타트업을 2027년까지 5개로 키울 계획이라고 강조했다. 현재 글로벌 100대 유니콘 중 한국 스타트업은 토스(비바리퍼블리카)가 유일하다. 이 장관은 “대한민국을 아시아 넘버1, 세계 3대 창업대국으로 도약시킬 것”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2023.08.30.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>진화하는 인터넷전문은행 모임통장</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002303501?sid=105</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>단순 회비서 커플·생활비까지 관리 가능…"돈 함께 나눠쓰는 수요 해결"인터넷전문은행 3사(케이뱅크·카카오뱅크·토스뱅크)의 '모임통장'이 단순 회비 관리 차원에서 커플의 데이트 비용이나 가족의 생활비 분담 기능으로 확대되고 있다.30일 인터넷전문은행 3사에 따르면, 돈을 함께 모으고 지출 내역을 볼 수 있는 성격의 모임통장을 모두 출시했으며 영역을 더욱 확장하고 있다.가장 먼저 출시한 곳은 카카오뱅크다. 카카오뱅크는 2018년 12월 이 서비스를 선보였으며 현재 중복을 제외한 가입자 수는 920만명으로 타 은행에 비해 독보적이다. 올해 상반기말 카카오뱅크의 모임통장 잔액은 5조9천억원으로 전체 수신 잔액(43조6천억원)의 13.6%다.(사진=이미지투데이)카카오뱅크는 기존 모임통장에 지난 1월부터 '생활비 관리 기능'을 추가했다. 생활비 관리 기능은 한 달 '목표 생활비'를 설정하면 예산 대비 지출 현황을 실시간으로 제공하는 기능이다.카카오뱅크 관계자는 "카카오톡을 이용해 모임원을 초대하는 등 간편한 모임 구성이 가능하고, 모든 멤버가 실시간으로 회비 현황을 살필 수 있어 편의성이 높다"고 인기 배경을 설명했다.토스뱅크는 기존 모임통장을 한 명만 관리해야 했던 불편함을 개선했다. 토스뱅크는 부부, 친구, 동아리 등 모임의 비용을 한 곳에 모아서 모임에 참여하는 누구나 출금 및 카드 발급, 결제까지 가능하도록 했다.지난 2월 1일 출시된 토스뱅크 모임통장은 연 2%의 금리를 제공해 카카오뱅크(기본금리 0.1%, 세이프박스 연결 시 연 2.1%)의 금리에 다소 아쉬움을 느끼는 모임의 욕구를 해소했다.토스뱅크 역시도 최근 연인과 부부를 대상으로 한 커플통장 서비스를 제공하면서 올해 7월말 기준 가입자 수가 100만명을 넘어섰다.케이뱅크는 300만까지 연 2.3%를 주고 초과 금액은 0.1% 금리를 적용하는 모임통장을 운영하고 있다. 케이뱅크의 경우 목표 금액을 모을 경우 우대금리를 주는 '모임비 플러스' 기능을 추가적으로 제공하고 있다.모임비 플러스는 기본 금리 연 2.0%에 전체 목표금액을 성공하면 3.0%p, 성공한 인원 1명이 추가될 때마다 0.5%p 우대금리가 더해진다. 최대 참여 가능 인원인 10명이 참여하면 최고 연 10% 금리가 적용되는 것이다. 목표금액은 최대 1천만원까지 설정할 수 있다.최근 모임 트렌드를 반영한 기능도 추가했다. 모임원의 실명을 공개하지 않고 별명이나 익명으로 이뤄지는 팬카페, 오픈채팅방 모임 등의 특성을 고려해 실명이 아닌 별명으로 활동 가능하다.토스뱅크 관계자는 "2003년 첫 출시됐던 모임통장이 편리하지 못해 외면받았다가 기술 기반의 인터넷전문은행 출현으로 모임통장이 다시 각광을 받고 있다"며 "함께 돈을 관리하거나 내역을 살펴보는 등 돈을 나눠쓰고자 하는 수요를 충족한 인터넷전문은행의 모임통장이 계속 발전하고 진화하고 있다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2023.08.21.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>‘존슨앤존슨’ 상장폐지?…토스증권 앱 오류 발생</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002741667?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>여의도 전경, 증권가 모습 ⓒ연합뉴스[데일리안 = 오수진 기자] 토스증권 애플리케이션에서 한 해외주식 종목이 상장폐지된 것으로 잘못 표기되는 오류가 발생했다. 이로 인해 모바일트레이딩시스템(MTS) 사용자들 사이에서 혼선이 빚어졌다.21일 토스증권에 따르면 이날 오후 5시부터 약 50분간 뉴욕증시 상장 종목인 존슨앤존슨이 상장폐지된 상태로 잘못 표시된 것으로 나타났다.이는 토스증권이 외부로부터 해당 종목 관련 정보를 수신하는 과정에서 오류가 발생하면서 생긴 일시적 장애였던 것으로 파악됐다. 현재는 정상 거래 중이다.토스증권은 자사 홈페이지를 통해 이날 오류에 대한 안내 공지문을 띄웠으며 피해를 본 고객이 있을 시 보상하겠다는 입장이다.토스증권 관계자는 "해당 종목 한 개에 대해서만 오류가 발생했다"며 "오류 발생 시간 동안 해당 종목의 가격 변동이 거의 없어 현재까지 접수된 투자자 피해는 없다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2023.08.21.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>콘텐츠에 진심… 토스의 '토스피드' 누적 조회 수 3천만 돌파</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002154896?sid=105</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>[ⓒ토스][디지털데일리 이상일기자] 모바일 금융 서비스 ‘토스’를 운영하는 비바리퍼블리카(이하 ‘토스’)는 자사의 콘텐츠 플랫폼 ‘토스피드’가 누적 조회 수 3천만을 넘어섰다고 21일 밝혔다.토스피드는 토스 사용자를 비롯해 금융 소비자라면 꼭 알아야 할 정보 제공을 목표로, 2018년 5월 기업 공식 블로그로 시작됐다. 이후, ▲오리지널 콘텐츠 확장 ▲금융·경제 전문가 필진 확보 ▲타 기업·브랜드와의 콘텐츠 협업 등을 통해, 금융에 대한 궁금증을 해소할 수 있는 콘텐츠 플랫폼으로 성장했다.외형적인 성장도 두드러졌다. 매달 20여 건의 다양한 콘텐츠를 발행하는 토스피드의 월 평균 조회수는 2023년 8월 기준 100만을 넘어섰다.토스피드의 오리지널 콘텐츠 시리즈는 총 70개로, 금융과 일상을 연결 짓는 콘텐츠부터 금융·경제 지식을 심도 있게 다루는 콘텐츠까지 다양하다. 이중 누적 조회수 50만을 넘은 시리즈는 10개이며, '사소한 질문들' 21년 및 22년 시리즈, '에브리데이 경제학' 시리즈는 누적 조회수 120만 이상을 기록했다.전세 제도, NFT 등 시의성 있는 금융·경제 이슈를 쉽고 빠르게 풀어낸 콘텐츠와 함께, 보험 가입, 생애 첫 대출, 부동산 계약 등 금융 소비자가 어려움을 겪는 부분에 대한 실질적인 팁을 제공하는 콘텐츠도 큰 호응을 얻으며 토스피드의 성장을 견인했다.토스피드는 콘텐츠 플랫폼으로서 다양한 시도를 이어가고 있다. 전문가 필진 및 타 기업·브랜드와의 콘텐츠 협업, 누구나 참여 가능한 공모전이 그것이다.김경곤 한밭대 경제학과 교수, 채상욱 건설·부동산 애널리스트, 김경일 아주대 심리학과 교수 등 40여 명의 전문가가 다양한 주제에 대한 견해를 전달한다. 피델리티자산운용, 신한자산운용 등 국내외 금융사와 부딩, 커피팟, 심용환역사N교육연구소 등 콘텐츠 기업 및 민간 연구소와의 협업도 활발히 확대해 나가고 있다.또한, 올해 토스피드에서 진행된 머니스토리 공모전 ‘드래프트(DRAFT)’에는 1,500건이 넘는 작품이 몰리며, 누구나 ‘돈’에 대한 이야기를 나눌 수 있는 플랫폼으로서의 입지도 다져가고 있다. 공모전 수상작 16편은 이달 말 토스피드를 통해 연재되며, 9월 중 책으로도 출간될 예정이다.윤기열 토스 커뮤니케이션 헤드는 "토스피드는 브랜드의 소식을 전하는 채널로 시작해, 매달 100만 명이 찾는 콘텐츠 플랫폼으로 성장했다. 토스가 금융의 수퍼앱으로 자리매김한 것과 마찬가지로, 토스피드 역시 모두가 금융에 조금 더 쉽고 재미있게 다가갈 수 있도록 지원하는 콘텐츠 플랫폼으로서의 역할을 더욱 강화해 나가고자 한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2023.08.30.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>5대 은행 예대금리차 5개월만에 늘어…0%대는 유지</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005307143?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>대출·수신금리 모두 내렸지만 수신금리 하락폭 더 커5대 은행 중에선 하나은행 예대금리차 가장 작아5대 은행의 가계 예대금리차가 다섯달 만에 다시 늘었다. 30일 은행연합회에 따르면 5대 은행(국민·신한·하나·우리·농협)의 신규 취급액 기준 7월 평균 가계예대금리차(정책서민금융상품 제외)는 0.934%포인트였다. 한 달 전(0.928%)보다 0.006%포인트 오른 수준이다. 수치는 소폭 높아졌지만 두달 연속 0%대를 기록했다.예대금리차는 저축성 수신금리에서 대출금리를 뺀 값으로, 은행의 수익성을 나타내는 지표다. 대출금리와 수신금리가 모두 내렸지만 수신금리 하락폭이 더 컸다. 7월 평균 가계대출금리는 연 4.602%로 전달(연 4.604%)보다 0.002%포인트 내렸다. 저축성수신금리는 연 3.668%로 전월(연 3.676%) 대비 0.008%p 하락했다. 이로인해 예대금리차는 전달보다 커졌다.5대 은행 중 예대금리차가 가장 작은 곳은 하나은행(0.83%포인트) 이었다. 우리은행이 0.90%포인트, 신한은행 0.91%포인트, 국민은행 0.92%포인트, 농협은행 1.11%포인트로 뒤를 이었다.인터넷전문은행은 토스뱅크(3.39%포인트), 케이뱅크(2.09%포인트), 카카오뱅크(1.25%포인트)로 나타났다. 예대금리차 공시한 19개 은행 중에 가장 작은 곳은 IBK기업은행으로 0.44%포인트였다. 전북은행(5.76%포인트로)로 가장 컸다.한편 기업대출 금리가 크게 하락하며 전체 예대금리차는 줄어들었다. 5대 시중은행의 기업 대출금리는 지난 한 달간 0.084%포인트(5.322%→5.238%) 떨어졌다. 이로인해 5대 시중은행의 7월 전체 예대금리차는 1.38%포인트로 집계됐다. 전월(1.43%포인트)에 비해 감소했다. 전체 예대금리차는 지난 2월 1.738%포인트로 가장 벌어졌다가 그 다음부터 계속 축소되고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2023.08.25.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>"금융매출 5%→20%"…네이버페이, 결제 넘어 금융플랫폼으로</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005304887?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>3년뒤 年결제액 100조, 금융매출 20% 목표결제부터 예·적금, 대출, 보험까지 비교 추천생성형AI 적용…금융상품 손쉽고 찾고 이용네이버페이가 현재 5% 수준인 금융 매출을 3년 내 20%까지 끌어올리겠다고 예고했다. 새롭게 발표한 네이버의 생성형 인공지능(AI) 기술을 활용해 간편결제 영역을 넘어 초개인화가 가능한 종합금융플랫폼으로 나아가겠다는 전략이다.25일 업계에 따르면 박상진 네이버파이낸셜 대표는 서울 강남구에서 전날 열린 '팀네이버 컨퍼런스 단23'에서 이같은 성장 계획을 발표했다.현재 네이버파이낸셜의 매출 대부분은 결제 영역에서 발생하고 있다. 금융감독원 전자공시시스템에 따르면 네이버파이낸셜의 지난해 4분기 매출은 3199억원이다. 이중 금융 영역 매출은 154억원으로 4.8% 수준이다. 이는 경쟁 간편결제업체 카카오페이, 토스 등과 비교해도 낮은 수치다. 카카오페이의 경우 지난해 4분기 기준 금융영역 매출 비중이 12.8%(157억원)에 달한다. 같은 기간 토스의 금융사업 부문 매출 비중도 10.4%였다.박 대표는 종합금융플랫폼으로 도약을 예고하며 금융 매출 비중을 3년 안에 20%까지 끌어올리겠다고 밝혔다. 특히 네이버페이는 플랫폼 자체에 집중할 계획이다. 카카오페이나 토스처럼 보험·증권 계열사에서 발생하는 금융 매출을 늘리는 것보다는, 네이버의 AI 기술을 적극 활용해 결제를 넘어 자산을 관리하고 예·적금부터 대출과 보험까지 비교하며 이용할 수 있는 '초개인화' 금융 플랫폼으로 나아간다는 방침이다.'생성형 인공지능(AI)' 기술은 네이버파이낸셜만의 강점이다. 다음 달 네이버가 선보일 생성형 AI 검색 ‘큐(CUE:)’를 통해 '챗GPT'처럼 자연스럽게 물어보며 원하는 금융상품을 정확히 찾아낼 수 있다는 설명이다. 예를 들어 '서울 서북부 역세권 24평형 아파트 중 가격 상승 가능성이 높은 지역은?'이라고 물으면 ‘큐’가 네이버페이 부동산 매물정보를 토대로 추천 매물을 제시하는 식이다. 여기에 더해 주택담보대출도 사용자에 유리한 상품으로 비교해 추천해주고, 부동산 중개료 등도 네이버페이로 한 번에 결제할 수 있도록 구성된다.연간 60조원에 달하는 결제액과 소비 데이터를 기반으로 다양한 금융 기술도 고도화할 예정이다. 대안신용평가(ACS)와 금융상품 비교·추천 및 입점 상품 차별화 등에 특히 힘을 쏟을 계획이다. 이를 통해 여러 금융사에서 이미 시행하고 있는 마이데이터 서비스를 차별화할 수 있을 것으로 보고 있다.박 대표는 "네이버페이 회원은 3300만명을 웃돌고 누적 결제액은 지난해 국내 이커머스 전체 거래액과 맞먹는 200조원 수준"이라며 "결제를 넘어 기술, 데이터, 트래픽 기반의 종합금융플랫폼으로 나아가며 금융 영역을 적극적으로 넓혀가겠다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2023.08.25.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>인터넷은행, 올해 ‘중저신용자 대출’에 방점…‘설립 취지 집중해야“ 당국 압박 작용[머니뭐니]</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002188495?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>인터넷은행 3사 본사 모습.[각 사 제공][헤럴드경제=김광우 기자] 인터넷전문은행 3사(카카오뱅크·케이뱅크·토스뱅크)가 하반기에는 중저신용자 대출 비중을 공격적으로 늘릴 전망이다. 인터넷은행들이 올 상반기 중저신용자 신용대출 비중이 올해 목표치에 턱없이 모자라기 때문이다. 여기다 인터넷은행 본연의 역할을 강조하는 금융당국의 압박과 함께, 상반기 대출 성장을 주도했던 주택담보대출 영업에 제한이 걸린 것도 중저신용자 대출 확대 움직임에 한 몫 할 전망이다.올해 목표에 2~6%p 모자라…인터넷은행, “하반기 역량 집중해 목표 달성할 것”25일 은행연합회 공시에 따르면 올해 2분기 말 기준 인터넷은행 3사의 중저신용자 대출 비중은 카카오뱅크 27.7%, 케이뱅크 24%, 토스뱅크 38.5% 등으로 집계됐다. 올 상반기 이들이 중저신용자에 공급한 총 대출금은 3조551억원으로 나타났다.물론 인터넷은행 3사는 아직 올해 중저신용자 대상 신용대출 비중 목표치를 달성하지 못한 상태다. 이들의 목표치는 카카오뱅크 30%, 케이뱅크 32%, 토스뱅크 44% 등으로 6월 말 기준 6%포인트(p), 2.3%p, 5.5%p가량 모자라다.그러나 인터넷은행들은 올해 하반기 중저신용자 대출 비중 확대에 역량을 집중해, 목표치를 달성하겠다는 입장이다. 가장 많은 1조7504억원의 중저신용 대출을 공급한 카카오뱅크는 8월 기준으로 중저신용자 대출 비중을 28%까지 끌어올리며, 연말 목표치 30%를 달성할 것이라는 각오를 내놨다.케이뱅크 관계자 또한 “남은 하반기 동안 중저신용자 대출 확대에 집중할 것”이라고 강조했다. 38.5%의 가장 높은 중저신용 대출 비중을 기록한 토스뱅크는 “건전한 중저신용자를 발굴하는 것이 중요해짐에 따라, 내부 등급 기준을 고도화하며 비중이 일정 부분 감소했다”며 “지속가능한 포용금융을 이룰 수 있도록 최선을 다할 것”이라고 설명했다.“설립 취지 집중해야” 금융당국 압박에…‘중저신용자 대출’ 확대 불가피서울 한 시중은행의 영업점 앞을 시민이 지나가고 있다.[연합]실제 은행권에서는 하반기 중 인터넷은행이 중저신용 대출 비중을 끌어올릴 수밖에 없을 것이라는 전망이 우세하다. 인터넷은행의 설립 취지인 ‘중저신용 대출’을 강조하는 금융당국의 기조가 점차 강해지면서다.금융당국은 최근 늘어나는 가계부채 관리에 돌입하며 주 원인 중 하나로 인터넷은행의 저금리 주담대를 꼽은 바 있다. 본래 취지인 중저신용 대출이 아닌, 주담대 영업에 힘을 쏟으며 가계대출 증가를 유발했다는 지적이다.실제 지난 2분기 말 기준 카카오뱅크와 케이뱅크의 주담대 잔액은 총 21조220억원으로 전년 말(15조5890억원) 대비 반 년만에 34.8%(5조4330억원) 증가했다. 같은 기간 5대 시중은행은 513조1342억원에서 511조4007억원으로 0.3% 감소했다. 이복현 금융감독원장도 이에 대해 “인터넷은행은 중·저신용자에게 자금을 공급한다는 정책 목적이 있는데, 주담대 쏠림이 제도와 맞는 비판적 시각이 있다”고 언급한 바 있다.금융당국은 인터넷은행의 비대면 주담대와 관련해 소득심사, 담보가치 산정, 연체 관리 등 과정을 제대로 수행하고 있는지 점검에 나선 상태다. 이에 은행권 관계자는 “인터넷은행에서는 자동으로 소득심사를 하고 있다고 하는데, 결국 뚜렷한 잘못이 발견되지는 않더라도 주담대를 늘리지 말고, 중저신용 대출을 늘리라는 당국의 압박은 영업에 영향을 미치지 않겠나”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2023.08.28.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>잡코리아, '신성장 산업 중소기업 온라인 채용박람회' 개최</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002303136?sid=105</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>9월30일까지잡코리아는 서울지방중소벤처기업청이 주최하는 '2023 하반기 수도권 신성장 산업분야 중소기업 온라인 채용박람회'를 9월30일까지 개최한다고 밝혔다.이번 채용박람회는 수도권 소재의 신성장 산업분야 중소기업의 일자리 창출에 기여하고, 관련 분야에 관심도가 높은 구직자의 취업 활동을 지원하기 위해 마련됐다. 채용박람회에 참여하는 구직자에게는 우수 중소기업의 실시간 채용 공고를 제공하며, 입사지원서, 면접, 진로 상담 컨설팅 등 다양한 혜택을 무료로 제공할 예정이다.온라인 채용박람회에 참여하는 기업은 온라인 채용박람회에 참여하는 기업은 ▲지능형ICT(핀테크·AI 등) ▲디지털문화콘텐츠(웹툰·게임·애니메이션·웹드라마 등) ▲의료·바이오 ▲패션·스마트섬유 등을 주력으로 하는 중소기업 100여개사가 참여하여 연구 개발, 마케팅, 품질관리 등의 직무를 수행할 인재를 채용할 계획이다. 구직자 모집을 원하는 기업은 9월 22일까지 채용박람회 참여 신청을 통해 참가할 수 있다.잡코리아잡코리아 관계자는 "이번 채용박람회를 계기로 기술력과 성장 가능성이 높은 우수 기업들이 구직자들에게 기업을 홍보하고 역량 있는 인재를 확보할 기회가 되길 바란다"며 "앞으로도 잡코리아는 다양한 기관과의 협력을 통해 좋은 일자리를 더 많이 알리고, 취업난 해소 지원 노력에 최선을 다할 것"이라고 말했다.한편 지디넷코리아는 9월25일부터 27일까지 삼성동 코엑스A 홀에서 ‘잡테크 커넥팅 데이즈’ 채용 브랜딩 행사를 개최한다. 대중들에게 사랑받는 다수 기업들이 참여해 자사의 기업문화와 필요로 하는 인재상, 복지정책과 일하는 방식 등을 소개할 예정이다.국내·외 정보통신기술(ICT)의 미래를 한자리에서 확인할 수 있는 ‘대한민국 디지털 미래혁신대전 2023’과 함께 열리는 이번 채용 행사에는 ▲원티드랩 ▲제네시스랩 ▲네이버 ▲무신사 ▲라인 ▲당근마켓 ▲토스CX ▲오늘의집 ▲야놀자 ▲직방 ▲나만의 닥터 등이 참여한다.잡테크커넥팅데이즈 포스터채용 정보와 직무 교육 등에 있어 인사이트를 주는 다양한 강연도 열릴 계획이다. 각 회사 인사/교육 담당자를 비롯해 취준생, 이직러 등이 참여해 서로 간의 정보 교류도 기대된다. 취준생들은 여러 기업들의 채용 관련 팁, 일하는 문화와 방식, 기업 철학 등을 파악해 자신의 진로를 선택하는 데 도움을 받을 수 있다. 이직을 생각하는 직장인들도 새로운 직장으로 옮기기 위해 필요한 업무 스킬과 자격 요건 등을 파악하는 기회가 될 수 있다.취업을 앞둔 대학생이나 휴직생, 이직을 고려하는 직장인들 모두 무료로 참석할 수 있다. 채용 브랜딩이 필요한 기업들은 [☞디지털 미래혁신대전 운영 사무국]을 통해 신청하면 된다. 관련 대학 또는 기관 참여도 가능하다. 보다 자세한 참여 안내는 네이버 검색창에서 '디지털 미래혁신대전'을 입력 후, 웹사이트에 방문하면 확인 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2023.08.30.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>[ET시론]'함께 성장'하는 벤처 기업가정신</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003130791?sid=110</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>국내 밴처기업 성장 추이23일부터 사흘간 전북 전주에서 300여명 벤처기업인과 관계자가 모인 가운데 '제21회 벤처썸머포럼'이 열렸다. 올해 21회를 맞은 벤처썸머포럼은 벤처기업인과 벤처생태계 관계자가 경영전략, 기술 트렌드 등을 공유하며, 성공과 도전의 경험을 나누고 협력 기회를 통해 비즈니스 성장의 시간을 가질 수 있는 벤처업계 대표 하계포럼이다.올해 썸머포럼에서는 5월 정부 '함성 프로젝트' 후속으로 선배 벤처기업인과 후배 벤처기업이 '함께 성장'하는 벤처 기업가정신 확산과 실천을 다짐했다. 이날 모인 선·후배 벤처기업인은 기업가정신 실천 주체로 후배 기업을 발굴·육성하고 글로벌 벤처대국을 실현해 다음 세대를 위한 양질의 일자리를 만드는 등 국가 경제에 기여할 것을 약속했다.경제협력개발기구(OECD) 국가들은 세계적으로 당면한 경제위기를 극복하고, 포스트 코로나 시대에 새로운 가치를 창출하는 성장 동력으로 기업가정신을 주목하고 있다. 불확실한 상황에서도 끊임없는 창의적 도전으로 위기를 극복하고, 기회를 바탕으로 가치를 창조하는 일이 바로 벤처기업 역할이기 때문이다.현재 디지털 경제로 시대적 전환기를 맞아 벤처기업인의 기업가정신이 날로 중요해지고 있다. 벤처기업정밀실태조사를 보면 2021년 벤처기업의 총 매출은 223조원을 기록했다. 삼성에 이은 재계 2위 수준이다. 이는 우리 경제가 과거 대기업 중심에서 벤처·스타트업 중심으로 빠르게 변화하고 있음을 의미한다.또한 과거 대표적 국제전자제품박람회인 CES에서 대기업이 혁신상을 주로 차지했던 것과 달리, 최근에는 벤처·스타트업이 활약하고 있다. 올해 CES에서 혁신상을 수상한 434개사 중 111개사가 자랑스러운 대한민국 벤처·스타트업이었다.이런 지표만 보고 국내 벤처생태계가 무르익었다고 보기는 힘들다. 한국경제연구원이 지난달 발표한 '글로벌 100대 유니콘기업과 국내 신산업 규제 개선 방향' 보고서에 의하면 글로벌 100대 유니콘 중 국내 기업은 비바리퍼블리카(토스) 한 곳뿐이다. 그 외 유니콘 수에서도 미국, 인도, 독일 등 창업 선진국과 격차를 좁히지 못하고 있다.지난해부터 이어진 투자심리 위축과 심화된 대내외 경제 불확실성도 벤처기업 미래를 더욱 가늠할 수 없게 만들고 있다. 이러한 상황을 타개해 '함께 성장'하는 기업가정신을 발휘하기 위한 법·제도 등 다방면의 지원책이 필요한 시점이다.먼저 시급히 다뤄야 할 부분은 '규제 혁신'이다. 신산업 진입을 막는 수많은 규제가 미래 대한민국 경제를 이끌어갈 혁신 벤처기업 태동과 성장을 근본부터 막고 있다. 특히 법률이나 정책에서 명시한 행위만 허가하는 기존 포지티브 규제의 한계가 크다. 이제는 우리나라도 금지된 행위가 아니면 모두 허용하는 네거티브 규제로 전환하는 것이 마땅하다. 아울러 벤처기업의 탄력적 근로시간 단위기간 확대, 주 52시간제 근무, 30인 미만 사업장의 8시간 추가 근로제 허용 등 노동 유연성 확보를 위해 정부의 전향적결정이 요구된다.두번째는 '벤처금융 활성화'로, 현재 성숙하지 못한 벤처금융 시장과 대내외 변수로 어려움을 겪는 벤처기업에 우산이 되어줄 수 있는 특단의 대책을 마련해야 한다. 특히 정책금융이 축소된 현재 상황에서 민간자금을 대규모로 유치해 기업성장을 촉진하고 정책금융에 대한 의존도를 줄일 수 있는 대안인 '기업성장집합투자기구'(BDC) 제도와 같은 혁신 벤처금융제도 도입이 필요하다. BDC는 증권사, 자산운용사, 벤처캐피털(VC) 등이 투자대상을 정하지 않은 상태에서 일반 투자자로부터 자금을 모아 거래소에 상장하는 투자목적회사를 말한다. 민간 자금을 유치해 기업 성장을 촉진하고 정책금융 의존도를 줄일 수 있는 장점이 있다. 이외에도 내국법인의 벤처펀드 출자 세제지원 확대, 해외 창업기업의 모태펀드 투자 대상 포함, 인수합병(M&amp;A) 활성화를 위한 세제 혜택 확대 등 정책적 뒷받침이 수반돼야 한다.세번째는 벤처 인재 혁신이다. 벤처기업이 필요로 하는 우수인력 양성과 확보, 이들의 장기 근속을 유인할 수 있는 정책이 필요하다. 중소벤처기업부의 소프트웨어(SW) 인력 채용 조사결과에 의하면 중소기업의 75.4%가 SW전문 인력 채용 및 유지에 어려움을 느끼고 있는 것으로 나타났다. 이렇듯 개발인력 수급에 어려움을 겪는 국내 벤처기업 상황을 고려해 개도국 SW 전문인력을 유입할 수 있도록 전문업 취업비자인 E-7비자 요건 완화 등 지원이 필요하다. 이외에도 성과조건부 주식 제도 도입(RSU)과 특례 부여 등 장기근속 유인책을 통해 인력문제를 해소해야 한다.마지막은 벤처의 글로벌화다. 벤처기업은 아직도 국내총생산(GDP) 1% 수준인 내수시장을 탈피하지 못한 상황이다. 국내 벤처기업의 양적·질적 성장을 위해서는 벤처의 글로벌화가 불가피하다. 이를 위해 벤처기업에 대한 정부의 무역금융 지원 확대, 민간 차원의 해외 혁신단체·지원기관과의 협력 네트워크 구축과 지원 프로그램 추진, 글로벌 투자유치 지원 등 적극적인 노력이 필요하다.벤처기업인이 올해 벤처썸머포럼을 계기로 다시 벤처 기업가정신을 발휘하고, 혁신 성장과 양질의 일자리 창출 중추로서 '다시 도전하는 벤처인의 함성이 전 세계로' 뻗어나가는 새로운 출발이 되길 바란다. 이를 실현할 수 있도록 정부와 관계기관에서도 '함께 원팀'이 되어 힘을 보태줄 것을 희망한다.〈필자〉성상엽 벤처기업협회장은 1972년생으로 대구 달성고, 연세대 전자공학과를 졸업했다. 앤더슨컨설팅을 다니다 2004년 위성통신 안테나·솔루션 전문 기업인 인텔리안테크놀로지스를 창업, 2016년 코스닥에 상장했다. 2018년 전파방송기술대상 대통령 표창, 2020년 무역의날 장관 표창, 지난해엔 한국거래소 코스닥 라이징스타 선정, 광대역 국제위성통신 인증, 1억불 수출 탑을 수상했다. 2016년부터 벤처기업협회 부회장, 2020년 11월부터는 수석부회장을 역임하며 국가 경제 활성화와 벤처생태계 발전에 힘써왔다.성상엽 벤처기업협회장벤처기업협회 회장(인텔리안테크놀로지스 대표) 성상엽 eric.sung@kova.or.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2023.08.28.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>키움증권에 등돌린 서학개미?…토스증권, 해외 주식 점유율 '넘버5' 우뚝</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0007012754?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>삼성증권, 외화증권 수수료 수익 키움 넘어서…토스, 5위권 입성대형사 위주 경쟁에 토스·카카오 등 중소형사 가세…열띤 마케팅ⓒ News1 DB(서울=뉴스1) 박승희 기자 = 서학개미, 중학개미, 일학개미 등 해외 주식 시장에 대한 관심이 높아지면서 증권업계 시장 점유율 경쟁도 치열해지고 있다. 대형사들의 상위권 순위 경쟁이 이어지는 가운데 후발주자인 중소형사들도 세를 넓히고 있다.28일 금융투자협회에 따르면 올해 상반기 기준 해외주식을 중개한 증권사 26곳의 외화증권 수탁수수료 수익은 3659억원으로 집계됐다. 미래에셋증권이 733억원으로 가장 많은 수익을 올렸고, 그 뒤로는 삼성증권(636억원), 키움증권(533억원)으로 뒤를 이었다.삼성증권의 수수료 수익은 지난해 상반기(606억원) 대비 30억원 늘었다. 이에 점유율 순위도 3위에서 2위로 한 계단 올라섰다. 하지만 키움증권은 같은 기간 수수료 수익이 100억원가량 줄면서 삼성증권에게 2위 자리를 내줬다. 4위는 NH투자증권(397억원)이 가져갔다.상위권에서는 대형사들의 경쟁이 치열한 모습이다. 이들은 수수료 할인, 지원금 제공 등 공격적인 마케팅으로 점유율 확대에 열을 올리고 있다.미래에셋증권은 미국 주식 온라인 매수 수수료 제로 이벤트를 연말까지 진행하고 있다. 삼성증권도 해외선물 무거래 고객에게 해외선물 거래를 무료로 제공한다. NH투자증권은 첫 거래 시 투자지원금을 제공하고, 타사 주식을 자사로 입고하는 경우에도 지원금을 준다.후발주자인 중소형사도 입지를 키우고 있다. 주목할 점은 토스증권이 올해 상반기 외화증권 수탁수수료 수익 다섯손가락 내에 진입했단 것이다. 토스증권은 338억원의 수익을 거두며 1년 전 대비 1.5배 성장했다. 순위는 8위에서 5위로 훌쩍 뛰었다.테크핀(기술+금융) 증권사인 토스증권은 테크핀 특유의 편리함을 앞세워 실시간 소수점 거래, 모바일 트레이딩 시스템(MTS) 내 거래 종목 확장 등 전략으로 고객을 끌어왔다. 이에 해외주식 시장 점유율은 지난해 초 3%에서 올해 20% 선까지 올라섰다.  카카오페이증권은 지난해 4월 MTS를 출시한 뒤 공격적 마케팅을 이어가고 있다. 지난 2월 미국 주식 온라인 거래수수료율을 업계 최저 수준인 0.05%로 인하했고, 이달엔 타사 미국 주식 옮기기 이벤트, 미국 상장지수펀드(ETF) 매매수수료 무료 이벤트까지 내놨다. 나스닥 상장사인 미국 증권사 시버트 인수도 계획 중이다.해외주식 시장에 대한 관심이 높아지면서 하반기에도 증권사들의 해외주식 점유율 경쟁은 치열할 것으로 예상된다.한국예탁결제원 세이브로에 따르면 국내 투자자의 상반기 해외주식 매매거래 금액은 1413억달러(약 187조원)로 지난해 상반기(1084억달러) 대비 30% 늘었다. 보관규모도 6월 들어 747억달러로 올해 초 대비 20%가량 늘었다.한 금융투자업계 관계자는 "대형사 경쟁에 토스 같은 '메기'까지 등장하면서 브로커리지 강자로 통하는 키움은 점유율이 40%대에 육박했다가 20%대로 내려섰다"며 "시장 규모가 커지고 있고 국내 시장보다 점유율이 유동적이라 경쟁적인 마케팅이 이어질 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2023.08.17.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>토스뱅크, 인터넷銀 최초 '햇살론뱅크' 출시</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004880832?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>대출금리 연 6.84~13.24%최대 2500만원 한도토스뱅크.  /사진=연합뉴스토스뱅크가 서민금융진흥원에서 운영 중인 ‘햇살론뱅크’를 인터넷전문은행 최초로 출시한다고 17일 밝혔다. 햇살론뱅크는 정책서민금융상품으로 저신용·저소득자가 부채 또는 신용도 개선을 통해 은행권에 안착할 수 있도록 지원하는 ‘징검다리’ 대출 상품이다. 상품 출시 알림 신청에는 4만명이 넘는 고객이 신청하는 등 햇살론뱅크에 대한 높은 관심도 높은 편이다.대상은 정책서민금융상품을 이용한 후 대출을 잘 갚아 신용도가 개선된 고객이다. 햇살론15, 햇살론17, 바꿔드림론, 안전망대출, 안전망대출II, 새희망홀씨, 미소금융, 근로자햇살론, 사업자햇살론, 햇살론유스 등 정책서민금융상품을 6개월 이상 이용했거나 현재 이용중인 또는 정상 완제하고 부채 또는 신용도가 개선된 고객이 대상이다.햇살론뱅크의 한도는 최소 500만원 최대 2500만원으로 서민금융진흥원 보증한도 내에서 취급 가능하다. 대출 기간은 3년 또는 5년으로 거치기간 1년이 선택 가능하다. 상환방법은 원리금균등분할상환이다. 햇살론뱅크 이용자의 인지세와 중도상환해약금은 무료고, 보증료는 연 2%다. 저소득 청년(24세 이하면서 연소득 3500만원 이하) 연 0.5%, 금융교육 및 컨설팅 이수자 연 0.1% 금리를 깎아준다. 보증료가 포함된 대출금리는 최저 연 6.84% 에서 최고 연 13.24% 수준이다. 신청은 토스 앱 내 토스뱅크 상품찾기 탭에서 하면 된다. 단 햇살론뱅크는 서금원에서 운영 중인 상품으로 주말 및 공휴일엔 신청할 수 없다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2023.08.31.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>이화여대·금감원 '국제 컨퍼런스·채용설명회' 개최</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012060856?sid=102</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>유수 기업 참여하는 MZ청년 채용설명회'A.I. Challenge' 대회 개최(사진제공=이화여대) *재판매 및 DB 금지[서울=뉴시스]박예진 인턴 기자 = 이화여대는 금융감독원과 산학 교류를 통한 지속가능 녹색 금융 모델을 제시하기 위해 31일 오전 9시 이화여대 ECC 이삼봉홀에서 국제컨퍼런스와 MZ청년 채용설명회를 개최한다고 밝혔다.'녹색금융으로 세상을 바꾸다(Change the world with Green Finance)'라는 주제로 마련되는 이번 컨퍼런스는 약 500명이 참석한 가운데 HSBC, ING 등 글로벌 금융사와 세계자연기금(WWF), 금융감독원, 이화여대, KB금융그룹의 핵심 인사들이 참여해 녹색금융 대응 사례와 국제 동향 및 전략을 소개한다. 이화여대와 금융감독원은 2019년부터 미래금융, 녹색금융을 주제로 한 국제컨퍼런스를 공동 개최해왔다. 행사는 제1부 국제컨퍼런스와 제2부의 MZ청년 채용설명회 및 A.I. Challenge 대회로 구성된다. 국제컨퍼런스는 총 7개의 주제 발표로 진행된다. 이어 오후에는 MZ청년 채용설명회 프로그램이 진행된다. 오후 4시부터 시작되는 '청년 채용설명회'는 KB, 신한, 하나, 우리, NH 등 금융사를 비롯해 카카오페이, 토스뱅크 등 디지털기업과 ING 등 글로벌 기업이 참여해 채용 절차, 면접 준비팁 등 입사전략을 다양한 사례를 바탕으로 설명한다. ESG와 녹색금융에 관심 있는 금융권 진로 희망 대학생들에게 유익한 기회가 될 전망이다. 앞서 오후 1시 'A.I. Challenge 대회'에는 예선을 통과한 10개 팀이 인공지능을 활용한 미래금융 아이디어를 발표하고 심사위원 평가와 현장 청중 투표를 종합해 최종 우승자를 가린다. 본선 수상자에 대한 소정의 상금과 함께 우수상 이상을 수상한 팀에게는 KB국민은행 신입행원 IT·데이터 부문 채용시 서류·필기 전형 합격의 특전이 주어진다. 이화여대와 금융감독원이 공동 주최하는 본 행사는 기후변화 위기 속에서 탄소중립 달성의 중심축인 녹색금융의 미래를 살펴보고 국내 금융권의 대응방안과 신성장 기회 모색을 위한 논의의 장을 제공할 것이다. 또한 청년층 구직 지원을 통해 혁신적인 미래금융 아이디어를 촉진하고 청년층의 미래금융 인식 제고에 기여할 것으로 기대된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2023.08.30.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>선호은행, Z세대는 시중은행, 알파세대는?</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002822150?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>하나금융연구소, '잘파세대의 금융 인식과 거래 특징의 이해' 보고서하나금융경영연구소    잘파세대는 1990년대 중반 이후 태어난 Z세대와 알파세대의 합성어다.  좀 더 쪼개면 Z세대는 1990년 생, 알파세대는 2010년 이후 출생한 이들을 지칭한다. 미래 세대인 두 세대 간에도 선호은행과 금융인식에 차이가 드러났다. 하루가 다른게 급변하는 기술적 진보 때문이다.Z세대는 첫 금융거래를 시중은행에서 시작하지만, 알파세대는 카카오뱅크나 케이뱅크, 토스뱅크 등 인터넷전문은행에서 첫 금융거래를 하는 것으로 조사됐디. 하나금융경영연구소는  금융행태를 분석한 '잘파세대의 금융 인식과 거래 특징의 이해' 보고서를 발간했다.보고서는 잘파세대 중에서도 특히 알파(초등생)세대에 관심을 가질 필요가 있음을 시사한다. 알파세대는 밀레니얼의 자녀이자 베이비부머의 손자녀다. 윗세대의 경제적 지원이 충분하고 신체적·정신적 성숙이 빨라 이전 세대보다 일찍 금융을 접하며 이미 부모와 함께 금융 의사결정에 참여하고 있기 때문이다.시중은행 입장에서, 알파세대는 Z세대보다 시중은행에 대한 신뢰 및 선호가 높아 이들의 선제적 관리가 더욱 중요할 수 있다.◇알파세대에게 가장 먼저 떠오르는 은행을 물으면? "시중은행"알파세대를 비롯한 Z세대에게 은행 브랜드를 제시하지 않고 가장 먼저 떠오르는 은행이 어디인지 물으면 대부분 전통의 시중은행을 말한다. 향후 성인이 돼 축적된 자산을 예치할 곳 역시 대규모 시중은행을 우선 고려하며 금융기관의 신뢰와 안정성을 우선시한다.하지만 중·고등학생들의 금융거래는 이들의 생각과 차이를 보였다. 중·고등학생이 가장 많이 인지하는 브랜드는 시중은행이 아닌 인터넷 전문은행이었다. 처음 거래를 시작한 금융기관도 인터넷 전문은행이나 유스앱이 46%를 차지했다. 청소년 특화 앱 출시 후 중고등학생의 거래가 앱 기반으로 급변했다고 볼 수 있다.반면 알파세대가 가장 많이 알고 있는 브랜드는 인터넷전문은행이 아닌 시중은행이 1위였다. 알파세대가 처음 거래를 시작한 곳도 시중은행이 75%에 달한다. 부모 동반거래 경향이 큰 알파세대는 여전히 모바일 금융기관보다 시중은행이 각인된 것으로 보인다.알파세대는 Z세대보다 '돈을 모으는 곳'으로서 은행의 가치(역할)를 더 높게 인식해 '자산 축적' 기능에 더 중요한 의미를 부여하고 있음을 확인할 수 있었다.◇알파세대 '동반 금융거래가 지원되는 앱', Z세대 '계획에 따라 자동으로 용돈이 관리되는 앱' 선호 알파세대도 그렇지만 특히 Z세대의 금융거래에서 모바일 앱의 영향력은 절대적이다. 최근 3개월 동안 잘파세대의 70% 이상이 모바일뱅킹이나 핀테크·빅테크 앱을 이용한 경험이 있다.아직 금융거래 이슈가 많지 않은 알파세대는 자동화기기(ATM)이용률이 가장 높고 모바일뱅킹과 핀테크 앱은 20% 정도에 그친다. 모바일뱅킹 및 핀테크 앱 이용률은 중학생부터 급상승하고 이는 몇 년 후 알파의 모습일 것이라고 하나금융연구소는 예상했다.중학생 이상 Z세대 10명 중 9명은 유스앱 이용 경험이 있고 핀테크 앱에 대한 만족도가 전반적으로 높은 편이다. 앱 만족의 유발 요인은 메뉴 배치, 접근성 등 이용 편리성과 이벤트·혜택이 꼽힌다.아직 부모의존이 높은 알파세대는 부모와 함께 돈 모으기·소비, 친구·또래와 함께 소통하기 등 동반금융거래를 지원하는 유스앱 컨셉을 선호한다. 하지만 소비·지출이 증가하는 중·고등학생에서는 신경 쓰지 않아도 용돈이 자동으로 관리되거나(21%) 계획적으로 분배·관리(20%)되는 유스앱 쪽으로 선호가 변화된다. 소액보상·포인트 적립, 미션·보상의 경제적 혜택에 대한 기대는 잘파세대 전체를 관통하는 니즈로 용돈 마련·앱테크에 대한 관심을 반영하고 있다.잘파세대가 소비 시 주로 사용하는 수단은 체크카드다. 알파세대도 40% 이상이 사용하고 향후 본인 명의의 체크카드 발급에 가장 관심이 높다. 중학생이 되면서부터는 주식투자에 대한 관심이 부쩍 높아진다.팬데믹 이후 부쩍 관심이 많아진 경제·금융 교육에 대한 니즈도 상당하다. 다만 알파세대는 학구적 내용보다 미션 보상 등 혜택에 기반 하거나 유튜브/게임 등 콘텐츠의 재미를 더 중시한다.황선경 하나금융경영연구소 수석연구원은 "세대 관심이 MZ에서 Zalpha(잘파)로 이동해 가고 있지만 환경이 급변하는 만큼 알파와 Z를 하나의 동질집단으로 묶어 해석하면 정교함이 떨어질 수 있다"며 "잘파세대에게 접근할 때 알파부터 시작해 시기별 변화 관리로 지속적인 관계를 형성하는 것이 필요하다"고 밝혔다◇부모 동반거래 선호하는 알파세대알파세대를 포함한 잘파세대는 인생 주요 과업인 학업과 시험, 교우관계에 대한 관심만큼 앱테크, 용돈 추가 마련과 같은 금융 이슈에도 매우 높은 관심을 보인다. 보고서에 따르면 '금융·경제 교육이 주요 교과목만큼 중요하므로 조기 교육이 필요하다'에 68%가 동의했다.하지만 금융 거래 시 연령제한, 용돈 부족, 금융지식·용어의 어려움으로 인해 금융에 대한 관심만큼 실천이 뒤따르지 못하고 있는 것으로 나타났다.잘파세대 10명 중 8명이 용돈을 받고, 앱테크로 추가 용돈도 마련하며 받은 용돈의 일부를 남겨 규칙적 또는 간헐적으로나마 저축을 생활화하고 있다. 특히 알파세대는 중고등학생보다 용돈은 적지만 더 많은 용돈을 남기고 더 규칙적으로 저축하는 등 성실한 금융생활을 실천하는 모습이다. 알파세대의 바른 금융생활은 부모의 영향이 크기 때문이다.알파세대는 금융 의사결정 시 본인(44%)보다 부모의 영향력(56%)을 더 높게 인식하고 용돈 관리 시 부모의 도움이 필요하다고 응답했다. 알파세대의 81%는 소비·지출 내역을 부모와 공유해도 거부감이 없었다. 이 중 1/3은 부모와의 공유를 선호한다고 응답했다. 알파세대 10명 중 6명이 부모와 같은 금융회사를 거래하길 원하고, 실제 같은 주거래은행을 이용 중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2023.08.30.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>토스·카뱅·케뱅 잘만 쓰던 잘파 세대 “커서는 시중은행 쓸래요”···왜?</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003245943?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>하나금융연구소 보고서“전통은행 신뢰 더 높아”어른/직장인이 되었을 때 이용/거래하고 싶은 은행. 하나금융연구소 제공MZ세대의 다음 세대인 ‘잘파세대(Z세대+알파세대)’는 지금은 인터넷은행을 가장 많이 사용하고 있지만 향후 직장인이 되어 소득이 생긴 뒤에는  시중은행과 주로 거래할 생각을 갖고 있는 것으로 나타났다.30일 하나금융연구소는 이같은 내용을 담은 ‘잘파세대의 금융 인식과 거래 특징의 이해‘ 보고서를 발간했다. 잘파세대는 1990년대 중반부터 2000년대 초반에 태어난 ‘Z세대’와 2010년 초반 이후에 태어난 ‘알파세대’를 통칭하는 말이다. 보고서는 초등 고학년부터 소득활동을 하기 전 대학생까지를 잘파세대로 보고, 이들 900명을 대상으로 설문조사를 진행했다.잘파세대는 현재 가장 많이 이용하고 있는 은행으로 인터넷은행을 꼽았다. 보고서에 따르면 ‘인터넷은행1’의 경우 약 60.7%의 잘파세대가 이용하고 있었고 ‘인터넷은행2’ 또한 52.3%로 절반 이상이 이용하고 있는 것으로 나타났다. 반면 시중은행을 이용하고 있다는 응답은 은행별로 8.3~27.2% 수준에 그쳤다.하지만 이들은 향후 ‘어른·직장인이 된 후 이용·거래하고 싶은 은행’으로는 시중은행을 꼽았다. 거래 의향 은행 1위는 KB국민은행으로 25.8%의 지지를 받았다. 이어 다른 시중은행 두 곳도 인터넷은행 보다 많은 표를 받은 것으로 나타났다. 직장인이 되고 나서도 인터넷은행을 이용하겠다는 응답은 급간별로 초등학생(4~6학년) 19.0%, 중·고등학생 23.4%, 대학생 17.0%에 그쳤다.또 향후 선호하는 자산 관리 방법을 묻는 질문에는 ‘시중은행의 영업점 직원 응대’를 1순위로 꼽는 비율이 높게 나타났다. 해당 비율은 초등학생 34%, 중·고등학생 25.8%, 대학생 31.7%로, 인터넷은행 어플리케이션을 이용하겠다는 응답자가 근소하게 많았던 중·고등학생(26.0%)를 제외하고는 시중은행에서 영업점 직원과 직접 상담하겠다는 응답이 가장 많았다.하나금융경영연구소는 “잘파세대는 전통은행과 인터넷은행의 역할을 구분해 인식하고 있고, 해당 인식은 거래 의향에도 영향을 주고 있다”면서 “향후 자산 형성이 시작된 후에는 전통은행에 대한 신뢰가 더 높은 것”이라고 분석했다. 잘파세대의 모든 집단은 실제로 금융기관 선택 시 가장 중요하게 고려하는 요인 1순위로 안정성, 2순위로 신뢰성로 꼽았다.금융회사 선택시 중요하게 고려하는 요인. 하나금융연구소 제공알파세대인 초등학생과 Z세대인 중고등학생 간 처음 거래를 시작한 금융기관이 어느 곳인지에 따른 영향도 반영된 것으로 풀이된다. 중고등학생들은 처음 거래를 시작한 금융기관으로 인터넷은행·유스앱이 46%를 차지했다. 하지만 알파세대가 처음 거래를 시작한 곳은 시중은행이 75%를 차지했다. 부모가 동반하여 거래한 영향으로 시중은행에 대한 각인이 크다는 게 보고서의 설명이다.잘파세대는 본격적 경제활동을 시작하기 전인 만큼 은행의 의미에 대해 돈을 불리거나 빌리는 ‘자산관리’보다 송금, 인출 등 ‘기능적 측면’을 더 우선시하는 경향을 보였다. 다만 알파세대의 경우 은행을 ‘돈을 모으는 곳’이라는 점에 대해 Z세대보다 강하게 인식해 ‘자산 축적’에 중요한 의미를 부여하는 모습도 나타났다.이런 현상과 관련, 보고서는 알파세대에 대해 “밀레니얼의 자녀이자 베이비부머의 손자녀로, 윗세대의 경제적 지원이 충분하고 신체적‧정신적 성숙이 빨라 이전 세대보다 일찍 금융을 접하며 이미 부모와 함께 금융 의사결정에 참여하고 있다”며 “Z세대보다 시중은행에 대한 신뢰 및 선호가 높아 선제적 관리가 더 중요할 수 있다”고 분석했다</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2023.08.24.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>넷마블 '마브렉스', 앱토스와 멀티체인 파트너십 체결</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000767897?sid=105</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>앱토스 이용자 대상 MBX 서비스 지원 예정넷마블 블록체인 전문 자회사 '마브렉스'가 글로벌 블록체인 기업 앱토스와 파트너십을 체결했다고 24일 밝혔다.앱토스는 안정성, 확장성, 신뢰성 등이 핵심 원칙으로 설계된 레이어1 블록체인으로 전 세계 이용자들의 자유로운 블록체인 시장 참여를 돕기 위한 기술 등을 지원한다.  [사진=마브렉스]마브렉스는 이번 파트너십을 기반으로 서로 다른 블록체인 생태계 간 서비스 교류를 가능케하는 '마브렉스 워프' 서비스를 통해 앱토스 이용자들을 대상으로 MBX 생태계 내 게임, NFT 등의 서비스를 선보일 예정이다.마브렉스는 앞서 바이낸스, 니어 재단 등과 파트너십을 체결하면서 본격적인 멀티체인 확장에 나선 바 있다.문준기 마브렉스 본부장은 "이번 파트너십을 통해 앱토스 이용자와 마브렉스 이용자 간의 교류와 함께 확장성 부분에서 큰 시너지를 발휘할 수 있을 것으로 기대한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2023.08.16.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>"성장성만큼 내실 갖춰야"…투자유치 희비 가르는 '흑자 성적표' [긱스]</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004880448?sid=101</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>투자 혹한기 스타트업 생존법마리트·리멤버 "월간 흑자 전환"에이블리 "손익분기점 넘어"라포랩스 등 신생업체도 흑자 홍보점점 더 깐깐해지는 VC 투자 심사후속투자 받기 위해 수익성 증명인건비 감축 등 고육책도 동원이 기사는 프리미엄 스타트업 미디어 플랫폼 한경 긱스에 게재된 기사입니다.“올해 2분기 손익분기점(BEP)을 넘어섰다”(스토어링크) “첫 월간 흑자 전환 성공”(마이리얼트립) “올 상반기 전체가 흑자”(탈잉)….벤처 투자시장이 얼어붙으면서 매출 성장 못지않게 영업이익을 내는 데 초점을 맞추는 스타트업이 늘고 있다. 사업 초기부터 대규모 투자를 유치해 외형을 키우고, 시장 영향력을 확대한 뒤 흑자를 내는 기존의 스타트업 ‘성장 공식’이 더 이상 통하지 않아서다. 벤처캐피털(VC)의 투자를 받으려면 수익성을 증명해내야 한다는 압박도 커졌다. 업력이 비교적 짧은 스타트업마저 ‘BEP 맞추기’에 주력하는 이유다. 업력 10년 차 안팎인 스타트업 역시 후속 투자와 기업공개(IPO) 등을 위해서는 단순한 성장을 넘어 내실을 갖춰야 한다고 판단하고 있다. “이젠 내공 증명할 시간”그래픽=전희성 기자지난해 상반기까지 국내 벤처업계는 최고의 호황을 누렸다. 중소벤처기업부에 따르면 작년 상반기 벤처투자액은 7조6442억원으로 역대 최대를 기록했다. 하지만 1년 만에 상황은 급반전했다. 올 상반기 벤처투자액은 4조4447억원으로 전년 동기 대비 42% 쪼그라들었다. 투자 혹한기를 맞으며 최근 1년간 폐업과 구조조정 등으로 쓰러진 업체도 적지 않다. 갈수록 VC들은 투자에 신중해졌고, 스타트업 업계를 바라보는 자본시장의 경계심은 커졌다.10년 차 안팎의 스타트업도 이젠 ‘내공’을 드러내 보여야 한다는 압박이 커진 이유다. 최근 여행 플랫폼 마이리얼트립은 “지난 7월 처음으로 월간 손익분기점을 돌파했다”고 밝혔다.명함 앱 ‘리멤버’를 운영하는 드라마앤컴퍼니 역시 지난달 흑자 전환에 성공했다. 회사 관계자는 “채용 솔루션의 매출 성장이 두드러진 가운데 광고와 리서치 솔루션 부문도 고른 성장세를 보였다”며 “영업이익이 갈수록 불어날 것으로 예상한다”고 말했다.세금 신고·환급 도움 서비스 ‘삼쩜삼’을 운영하는 자비스앤빌런즈는 최근 상장을 추진하면서 성장과 수익성을 동시에 강조하고 있다. 자비스앤빌런즈는 올 상반기 매출 390억원을 돌파하며 역대 최대 매출을 기록했다. 영업이익률은 10% 이상이라고 밝혔다. 회사 관계자는 “작년에 TV 광고 등 마케팅 비용이 크게 늘어 적자를 냈지만, 올 상반기에는 매출 급증과 수익성 개선 노력 등으로 다시 흑자 전환했다”고 설명했다.유니콘 기업(기업가치 1조원 이상 스타트업) 반열에 올라선 스타트업도 성장 못지않게 내실을 중시하고 있다. 패션 플랫폼 에이블리는 올 상반기 흑자 전환했다. 지난해 700억원 이상의 손실을 냈으나 올해 3월 월간 손익분기점을 달성한 데 이어 꾸준히 흑자 행진을 이어가고 있다. 강석훈 에이블리 대표는 “비용 축소로 만든 단기적 성과가 아니라 거래액과 매출 성장을 동반한 지속 가능한 흑자로 판단하고 있다”고 말했다. 중견 스타트업도 흑자 홍보에 ‘올인’투자자의 시선은 업력 4~10년 차 스타트업에도 날카로워지고 있다. 투자 심사역들이 자금 집행을 꺼리는 가운데 구조조정 등으로 시장에 부정적 신호를 알렸던 스타트업들이 사활을 걸고 수익성 증명에 나서고 있다.재능 공유 플랫폼 탈잉은 최근 “올해 6월 영업이익이 1억원을 돌파하며 창사 이후 최대 성과를 냈다”며 “올해 상반기 전체로 흑자”라고 밝혔다. 2016년 설립된 탈잉은 지난해 11월 대규모 구조조정을 했다. 여성 쇼핑 플랫폼 브랜디 역시 “지난 6월에 올 상반기 첫 월간 흑자를 기록했다”며 “수익성 개선에 대한 조기 성과를 달성했다”고 밝혔다. 브랜디는 지난해 7월 670억원 규모 투자 유치에 도전하며 차세대 유니콘 기업으로 지목받았다. 하지만 이후 목표액을 채우지 못했고, 올 상반기에도 자금난을 겪은 것으로 전해진다.중국과 동남아지역 지역에서 큰 성공을 거둔 뷰티·소비재 브랜드 육성 스타트업 크레이버는 올 2분기 역대 최대 영업이익(30억원)을 기록했다고 밝혔다. 토스뱅크는 지난달 설립 이후 처음으로 약 10억원의 월간 순이익을 기록했다. 토스뱅크는 최근 여덟 번째 유상증자에 나서기도 했다. 초기 기업마저 어깨 무거워져투자사의 실적 개선 요구는 업력 4년 차 미만 초기 단계 스타트업까지 향하고 있다. 상반기에 흑자 전환을 알린 스타트업 가운데 스토어링크, 라포랩스 등은 설립 4년도 안 된 업체다. 회사 설립 2년 차를 맞은 한 스타트업 대표는 “초기 기업을 함께 키워야 할 액셀러레이터(AC)에도 흑자를 내면 지원하겠다는 말을 들었다”고 했다.각종 규제, 전문직 단체와의 싸움 등에 경영난을 겪는 스타트업들은 고민이 커지고 있다. 대표적으로 온라인투자연계금융업(P2P) 관련 스타트업이 꼽힌다. P2P업계는 법 해석이 갈리며 현재 기관투자가 모집이 사실상 불가능한 상태다. 개인 투자 중개만으로는 수익성에 한계가 있어 대부분 업체가 적자를 겪고 있다. 한 P2P 스타트업 임원은 “올해 투자 유치 계획이 있었지만 수익성 문제로 불발됐다”며 “다른 업체들도 상황이 다르지 않다”고 전했다.전문직 단체와 갈등을 겪고 있는 리걸테크(법률기술) 분야도 마찬가지다. 법률 플랫폼 로톡은 2021년 변호사 회원 수가 4000명에 육박하며 흑자 전환에 다가섰지만, 현재 가입 변호사가 반토막 나며 경영난이 깊어지고 있다.강래경 브릿지파트너스 대표회계사는 “흑자 전환이 어려운 스타트업은 인건비 관리에 신경 쓰며 경기 여파를 버텨야 한다”며 “연구개발비 일부를 재무제표상 자산으로 인정받으려는 시도 등을 통해 체력을 확보하는 방법도 있다”고 조언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2023.08.30.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>금융 관심 많은 '잘파세대' 앱으로 저축, 용돈도 벌어</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005179672?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>하나금융硏 금융생활 보고서'잘파세대'의 금융은 모두 애플리케이션으로 이뤄진다는 연구 결과가 나왔다. 잘파세대는 1990년 중반에서 2000년대 초반에 태어난 Z세대와 2010년 초반 이후에 태어난 알파세대의 합성어다. 이들은 앱테크로 추가 용돈을 마련하고 앱으로 저축을 하고, 중고등학생이 돼 처음 거래를 시작하는 금융기관도 토스나 카카오뱅크 같은 인터넷전문은행인 것으로 나타났다.30일 하나금융연구소는 이 같은 내용을 담은 '잘파세대 금융 인식 및 거래 현황 보고서'를 발간했다. 보고서는 서울과 경기 지역, 6대 광역시의 초등학교 고학년, 중고등학생, 대학생과 초등학교 고학년 학부모 등 1200명을 대상으로 조사해 작성됐다. 잘파세대 77.7%가 앱테크를 하고 있었다. 매일 앱테크를 활용하는 경우는 51.5%로 절반을 웃돌았다. 대학생은 앱테크로 월평균 2만원, 중고등학생은 5800원, 초등학생은 3400원을 벌고 있었다. 잘파세대의 88.7%는 앞으로도 앱테크에 참여할 의향을 나타냈다.잘파세대 모두 취미나 문화생활, 전자기기 구입, 여행비용 마련을 위해 저축하고 있었다. 초등학생과 중고등학생은 95.7%, 대학생의 86.1%는 목표를 갖고 저축을 했다. 대학생은 여행비용 마련, 초중고생은 취미, 문화생활이 저축의 가장 큰 이유였다.소비는 주로 체크카드를 썼다. 초등학생은 23.5%가 아이부자카드(하나은행), 19.1%가 쏘영체크카드(KB국민은행)를 사용했다. 중고생·대학생은 카카오뱅크와 토스카드 사용이 압도적으로 나타났다. 중고등학생은 카카오뱅크 '니니즈카드(60.9%, 복수응답)', 토스 '유스카드(34.6%)' 사용 비중이 컸고, 대학생은 KB국민카드(48.0%) 사용 비중이 가장 컸지만 카카오뱅크카드와 토스뱅크카드도 각각 39.3%, 37.3%로 상위권을 차지했다.잘파세대는 첫 거래 금융기관이 앱 기반 금융기관인 것으로 나타났다. 아직 초등학생인 알파세대는 부모 의견에 따라 61%가 시중은행으로 첫 거래 금융기관을 선택했다. 하지만 중고생부터는 46.2%가 인터넷전문은행 등 앱 기반 금융기관을 첫 거래 금융기관으로 택했다.[최근도 기자]</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2023.08.30.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>"플랫폼 뭐 필요하노?" 어느 의원 한마디에 혁신이 죽었다 [안혜리 논설위원이 간다]</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003304119?sid=110</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>더불어민주당 전혜숙 의원이 지난 24일 국회 복지위 제1법안심사소위 당일 회의장 밖 복도에서 이형훈 복지부 보건의료정책관, 박민수 2차관, 차전경 보건의료정책과장을 질타했다. 회의 중엔 ″비대면 진료에 재진을 허용하는 건 (복지부 공무원과) 플랫폼 사업자와의 유착을 의심케 하는 아주 불순한 의도″라고 몰아붙였다. [사진 의협신문 박승민 기자 제공]     "  "(전화가 있는데) 플랫폼이 뭐 필요하노?"  "    더불어민주당 전혜숙 의원이 지난 24일 비대면 진료 법제화를 위한 국회 보건복지위 제1법안심사소위원회에서 한 발언이다. 이 한마디 안에 3년 전 모빌리티 서비스 '타다'가 그랬던 것처럼 '닥터나우''나만의닥터' 등 비대면 진료 혁신 기업들이 또 좌초할 수밖에 없는 모든 상황이 담겨 있다. '타다 금지법'을 발의하고 압도적 찬성으로 통과시켰던 민주당은 지난 6월 대법원의 타다 무죄 판결 이후 대외적으론 반성과 변화를 약속했다. 하지만 여전히 "혁신 경제를 탄압하는 정당"(최병천 전 민주연구원 부원장)이라는 지적에서 자유롭지 않다는 걸 보여준 셈이다. 대한민국의 혁신 시계가 어떻게 거꾸로 되돌아갔는지 복기해봤다.       1400만명 이용한 비대면 진료   코로나 후 없애자는 민주당   '타다' 실패 불구 배운 것 없나   정치의 혁신 발목잡기 끝내야      소극적 진전마저 후퇴      지난 18일 국회 복지위 전체회의에서 비대면 진료 법제화를 논하는 제1법안심사소위원장이 된 고영인 더불어민주당 의원. 위원장이 국민의힘에서 민주당으로 바뀌며 반대 기류가 강해졌다. 뉴스1           "제가 없을 때 아주 일사천리로 잘 나간 것 같아요. "      칭찬이 아니다. 코로나 19 국면 동안(2020년 2월 24일~2023년 4월 30일) 국민 1419만명이 3786만번 경험했던 비대면 진료 법제화를 위해 열린 지난 24일 복지위 법안심사소위에서 전혜숙 민주당 의원이 동료 의원과 복지부 공무원들을 앞에 두고 타박하듯 한 말이다.       지난 3월 첫 논의에 이어 전 의원이 불출석한 6월 2차 회의에서 여야는 한시적으로 허용됐던 비대면 진료가 팬데믹 위기 경보 하향('심각'에서 '경계')에 따라 5월 말 종료한 후에도 계속 이어가야 한다는 정도의 합의는 이뤘다. 정부가 시범사업(6~8월) 당시 제시했던 약 배송 없는 재진 위주의 가이드라인을 대체로 인정하는 분위기였다. 초진과 약 배송을 서비스의 핵심에 뒀던 플랫폼 기업들은 "사실상 비대면 진료 금지법"이라고 반발하고 적잖은 국민도 불편을 호소했지만, 의사협회와 약사협회가 원하는 방식이 많이 반영된 덕분이었다. 하지만 이런 소극적 진전도 무위로 돌아갔다.       물론 이날도 "감기 환자를 포함하면 안 된다"(민주당 서영석 의원)거나 "닥터나우같은 플랫폼 업체들이 의료생태계를 위해서가 아니라 자기 수익 창출을 위해 사업을 하려는 것이기 때문에 강력하게 제재해야 한다"(민주당 신현영 의원)는 반대는 있었다. 하지만 약사 출신이라 법안 처리에 부정적이라고 알려졌던 서정숙 국민의힘 의원조차 "비대면 진료의 문은 일단 열렸고, 완벽하다고 할 수는 없지만 큰 틀에서 하기로 했으면 해 보자"고 했다. 약사회는 처방전 위변조를 통한 약물 오남용 문제를 내세우지만 상대적으로 약값이 비싼 동네 약국 등이 환자의 선택을 못 받거나 대형업체도 경쟁이 치열해질 거란 생각에 반대 기류가 강하다. 신현영 의원도 비록 장려가 아닌 제재를 위한 것일지라도 "심의를 조속히 하자"고 제안했다. 8월 3차 회의 법안 통과가 낙관적이었다.       하지만 현실은 달랐다. 지난 18일 법안심사소위원장이 강기윤 국민의힘 의원에서 고영인 민주당 의원으로 바뀌면서 미묘한 변화가 감지되더니, 지난 24일 3차 회의에서 끝내 모든 논의가 원점으로 돌아갔다. 그 중심에 약사 출신 전혜숙 의원이 있었다.      지난 10일 민생연석회의에서 이재명 더불어민주당 대표와 대화하는 전혜숙 의원. 김현동 기자           이날 전 의원의 '활약'은 대단했다. 조명희 국민의힘 의원이 "물결은 거스를 수 없다, 국민을 위해 플랫폼을 좀 더 정교하게"라고 제안하자 전 의원은 "(전화가 있는데) 플랫폼이 뭐 필요하노?"를 외쳤다. 민주당이 혁신 기업을 바라보는 시각을 단적으로 드러낸 한 문장이었다. 그는 회의 내내 "플랫폼은 필요 없다, 비대면은 가급적 안 해야 한다, 하더라도 (전화로 해야지) 플랫폼을 통하는 건 원칙적으로 잘못된 것, 그 잘못된 걸 법제화하자는 얘기가 왜 우리 상임위에서 나오느냐"는 국민 눈높이와 한참 다른 발언을 쏟아냈다.      민주당 '타다 금지법' 반성했지만      주거니 받거니 민주당 의원들의 반대가 이어졌다. 역시 약사 출신인 서영석 의원은 집요하게 민간 플랫폼을 배제한 공적 전자처방 시스템을 주장했고, 지난 회의 때 한마디 없던 김원이 민주당 의원도 "모든 문제가 모여드는 지점이 플랫폼"이라며 "복지부가 플랫폼을 장악해야 하는데"라고 했다. 지난 3월 첫 회의 때 "(약) 배달은 국민 건강에 큰 위해를 준다. 어느 환자, 어느 연세 많은 분이 컴퓨터를 켜고 핸드폰을 통해 (진료를) 보나. 주치의들이 방문해서 환자를 봐야 1차 의료를 살린다"던 전 의원의 약사 중심 시각에서 단 한 발자국, 아니 반 발자국도 국민 눈높이로 나아가지 못한 채 오히려 퇴보한 것이다. 그리고 "법안 통과는 불가능하다"는 쐐기를 박는 전 의원 발언으로 지난 5개월간의 논의에 사실상 종지부를 찍었다. 지난 2020년에 이어 다시 한번 혁신을 죽이고 대한민국 시계를 거꾸로 돌린 순간이었다.       29일 통화에서도 전 의원은 "도서벽지나 감염병 환자에 한해서만 예외적으로 휴대전화 화상통화로 비대면 진료를 해야 한다, 약은 가까운 약국에 직접 가거나 약국으로부터 배달을 받으면 된다"는 입장을 고수했다.       한국 혁신 기업의 싹을 잘라냈다는 비판을 받는 3년 전 '타다 사태'는 사실 당시 여당인 민주당뿐 아니라 여야 모두의 합작품이었다. 총선 직전 택시업계 표를 얻겠다고 국민 대다수(77%)의 반대에도 불구하고 법인택시 업체가 많은 서울 중랑구에 지역구를 둔 박홍근 민주당 의원(전 원내대표)이 '타다 금지법'(여객자동차운수사업법 개정안)을 무리하게 발의한 건 맞다. 하지만 나중에 윤석열 대선 캠프 대외협력특보로 활동한 김경진 의원(무소속)이 더 강경한 법안을 몇달 먼저 내기도 했고, 결정적으로 본회의에선 여야 모두 찬성 당론을 채택해 169명이 찬성표를 던졌다. 반대는 민주당 최운열 의원의 1표를 포함해 7표에 불과했다. 그 결과 모빌리티 산업이 전 세계적으로 성장하는 와중에 한국은 여전히 부진을 면치 못하고 있고, 택시 기사를 포함한 전 국민은 피해자가 됐다.       박광온 더불어민주당 원내대표가 지난 3일 '더불어민주당 민생채움단 혁신성장을 위한 플랫폼 스타트업 간담'회에서 발언하고 있다. 왼쪽 두번째가 닥터나우 장지호 대표다. 뉴스1           이번엔 같은 듯 다르다. 굳이 정치권 비중을 논하자면 민주당 책임이 크다. 건보공단·보건산업진흥원 등 여러 설문조사에서 비대면 진료를 경험한 90% 가까운 국민이 비대면 진료 재이용 의사를 밝혔지만, 민주당 복지위 의원들은 국민 의사는 아랑곳없이 타다 때처럼 플랫폼 기업에 대한 거부감을 숨기지 않았다. 국회 스타트업 연구모임인 유니콘팜 강훈식(민주당) 공동대표는 지난 3월 유니콘팜 주최 토론회 당시 "이승건 토스 대표 초청 강연에서 20~30대 80% 이상이 (핀테크 서비스) 토스를 쓴다는 말에 민주당 의원들이 '앱 안 쓰는 우리가 소수 집단이라는 걸 깨달았다'더라"는 얘기를 전하며 정치도 이제 변화해야 한다고 얘기했다. 박광온 원내대표는 대법원의 타다 판결 후 수차례 혁신 기업을 돕겠다고 약속했다. "타다의 승소가 국회의 패소라는 지적을 아프게 받아들인다"며 "혁신경제의 편이 되겠다"고 했다. 직접 닥터나우 장지호 대표 등을 만났고, 신구산업 상생 혁신 TF를 출범시켰다. 지난 28~29일 민주당 워크숍에선 혁신성장 지원법, 벤처기업 육성법 등을 9월 정기국회 주요 과제로 꼽았다. 하지만 비대면 진료 법제화 좌초 과정을 보면 말 따로, 행동 따로라는 비판이 나올 수밖에 없다.     고사 직전의 비대면 플랫폼 업체들      복지부가 의사협회·약사회 눈치 보느라 실효성 떨어지는 약 배송 없는 재진 중심 비대면 진료 처계를 짜는 바람에 시범사업이 시작된 6월부터 플랫폼 업체들은 사실상 개점휴업 상태를 면치 못하고 있다. "시범사업 자체가 사실 비대면 진료 사형 선고"라는 업계(원격의료산업협의회)의 비판이 나오는 이유다. 한 관계자는 "윤석열 대통령에게는 비대면 진료 활성화법이라고 보고해 아마 높은 분들은 잘 되고 있다고 생각하겠지만 현장에선 다 이렇게 사라지는 것"이라고 아쉬움을 표했다. 실제로 2020년 11월 서비스 시작 이후 국내외 벤처투자사로부터 520억원의 투자를 받은 비대면 진료 1위 스타트업 닥터나우는 서비스 축소를 선언했고, 72억원을 유치한 나만의닥터는 아예 비대면 진료 서비스를 종료했다.      장지호 닥터나우 대표는 "지금 국회가 하는 걸 보면 구한말 척화비 세우는 느낌"이라고 했다. 김경록 기자           법안 불발 후 장지호 닥터나우 대표는 "지금 국회가 하는 걸 보면 막을 수 없는 흐름을 막겠다고 구한말 척화비를 세우는 것 같은 느낌"이라며 이렇게 절박함을 호소했다.      "정부나 국회 회의에 가서 아무리 데이터로 얘기해도 늘 답은 다 정해져 있다. 업계와의 만남을 의견 청취했다는 알리바이로만 삼으려는 것 같다. 사업을 할 수만 있게 해주면 좋은데 그걸 못하게 한다. 코로나라는 국가 재난 상황에서 정부(보건소)를 대신해 이용 수수료는커녕 약 배송비도 안 받고 무료로 서비스하느라 몇십 억원 적자를 봤는데 팽당한 느낌이다. 코로나 같은 팬데믹이 또 와서 우리가 구축한 비대면 진료 서비스가 필요해지면 다시 손을 내밀겠지만 그땐 다 없어지고 난 뒤 아닐까. 실리콘밸리 투자자가 '한국 디지털 헬스케어에 누가 투자하고 싶겠느냐, 마음은 다 떠났고 다시는 한국에 투자 안 한다'더라. 결국 이렇게 국내 업체가 다 사라진 후 10~20년 후 구글이나 아마존 등 해외 빅 테크가 몰려와 의료 데이터와 디지털 헬스케어 시장을 싹 빼앗지 않으란 법이 없다. 그런 그림을 막기 위해서라도 어떻게든 살아남으려고 하는데 정말 어렵다. "      안혜리 논설위원</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2023.08.24.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>네이버페이통장 재출시...핀테크·금융사 연계 상품 '인기'</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012049999?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>'네이버페이머니 하나통장', 출시 6개월 만 50만좌 모집완료'네이버 현대카드', 20218년 8월 출시…지난달 61만장 발급 돌파 *재판매 및 DB 금지[서울=뉴시스] 남정현 기자 = 빅테크사들이 최근 은행·카드사와 협업해 내놓은 금융 상품이 큰 호응을 얻고 있다. 제휴된 빅테크사의 포인트를 추가 적립해 주면서 기존 금융사 단독 상품보다 더 높은 금리, 더 많은 캐시백을 제공한 것이 주효했다는 분석이다. 예컨대 카드사 단독 상품의 경우 1% 미만의 캐시백 혜택을 제공하는 데 반해 이들 카드는 10%의 캐시백을 제공하는 식이다.24일 금융업계에 따르면 네이버파이낸셜은 지난해 하나은행과 함께 선보인 수시입출금통장 '네이버페이머니 하나통장'을 다음달 재출시한다. 이 통장은 선불충전금인 네이버페이머니를 은행 계좌에 보관하고, 네이버페이 결제에 따라 금리와 포인트 혜택을 동시에 누릴 수 있는 상품이다.이 상품은 금융위원회로부터 혁신금융서비스로 지정, 출시된 지 6개월 만에 계좌 개설 한도인 50만좌 모집을 완료했다. 지난달 금융위의 혁신금융서비스 지정내용 변경 신청이 받아들여져 신규 계좌 개설 한도가 100만좌로 늘었다. 새 상품 역시 지난해 11월 출시된 상품과 동일하게 최대 연 4% 금리 혜택은 유지된다. 그러면서도 이를 적용받을 수 있는 예치금 한도는 100만원에서 200만원으로 늘었다. 적립 혜택은 ▲네이버페이 온라인 결제 시 최대 3% 포인트 적립(네이버플러스 멤버십 동시 이용 시 최대 7%) ▲현장결제 시 2배 적립 (네이버플러스 멤버십 동시 이용 시 4배) ▲네이버페이머니 하나 체크카드 이용 시 1.2% 네이버페이 포인트 적립 (월 최대 1만원 한도) 등이다.네이버페이 관계자는 "해외 QR 현장결제 관련 혜택도 제공될 예정"이라며 "네이버페이머니 하나 통장 시즌2 혜택은 시즌1 가입자에게도 동일하게 적용된다"고 말했다.네이퍼파이낸셜의 경우 카드사와 제휴해 내놓은 상품도 큰 호응을 얻었다. 대표적으로 '네이버 현대카드'를 꼽을 수 있다. 2021년 8월 출시해 출시 2년을 맞은 이 카드는 지난달까지 61만장 발급됐다. 네이버플러스 멤버십 무료 이용권 제공하고 네이버 쇼핑 이용 시 결제금액의 최대 10%(네이버 현대카드 5%+네이버플러스 멤버십 5%)를 네이버페이 포인트로 적립, 네이버쇼핑 등에서 소비가 잦은 젊은 세대에게 큰 인기를 끌고 있다.실제로 지난해 10월 기준 네이버 현대카드 회원 10명 중 6.5명이 2030세대로 조사됐다. 또 발급 회원의 95% 가까이가 매월 네이버 현대카드를 실제로 이용하는 것으로 나타났고 월평균 결제액 역시 78만2000원으로 높았다.핀테크와의 협업에 가장 적극적인 카드사로는 하나카드가 있다. 하나카드는 국내 대표 빅테크 '네카토'와 모두 제휴카드를 내놓은 상태다. 대표적으로 '네이버페이 체크카드', '토스신용카드'를 꼽을 수 있고 카카오와는 계열사인 인터넷은행 카카오뱅크와 '카카오뱅크 하나카드' 등을 출시했다. 2020년 3월 하나카드와 함께 출시한 '토스신용카드'의 주 인기 요인 역시 '캐시백' 서비스다. 토스신용카드와 연계한 토스페이 이용 시에 결제금액의 10%를 토스 포인트로 캐시백해 준다. 이 포인트는 현금으로 출금이 가능하며 토스페이 제휴처에서 결제할 때 사용할 수도 있다. 토스는 하나카드 외에도 삼성카드, KB국민카드 등과도 협업해 카드를 출시했다. 카카오페이는 최근 '카픽(KaPick)' 카드의 첫 상품으로 신한카드와 함께 카카오프렌즈 캐릭터 춘식이가 그려진 '신한카드 카픽'을 출시했다. '카픽' 카드는 카카오페이가 '픽(Pick)'한 카드라는 뜻으로, 카카오페이 '카드추천' 서비스 내에서만 가입할 수 있는 단독 상품이다.주간·월간 서비스 영역에 따라 카카오페이포인트를 지급한다. 월요일부터 금요일까지 서비스 대상 가맹점에서 1만원 이상 이용하는 사용자에게 결제 금액의 5%를 카카오페이포인트로 지급한다. 주말에는 업종에 관계없이 카카오페이 결제금액이 2만원 이상일 경우 3000포인트를 지급한다. 또 월간 혜택으로 OTT·멤버십 서비스, 대상 커피 가맹점을 이용하면 결제 금액의 10%를 카카오페이포인트로 지급한다.NHN페이코(PAYCO)는 간편결제 업계 최초로 장기 할부에 특화된 신용카드 'PAYCO 36 우리카드'를 선보였다. 이 카드는 이용자들에게 카드 분할결제 수수료 부담을 덜어주기 위해 낮은 수수료로 장기 할부 결제를 할 수 있게 한 점이 특징이다. 24·36개월 장기할부 거래를 온라인에서 페이코로 결제 시 부과되는 할부수수료를 6%까지 낮췄다.이 외에도 전월 실적에 따라 ▲장기할부 결제 시 청구할인 ▲커피전문점·편의점 청구할인 ▲월 최대 10만 페이코 포인트 적립 혜택 등을 제공한다.       금융업계 관계자는 "핀테크와 협업한 상품이 미래세대인 2030을 중심으로 큰 호응을 얻고 있는 만큼 앞으로 금융사와 핀테크의 관련 제휴는 계속해서 확대될 것으로 보인다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2023.08.21.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>토스뱅크, 자유적금 출시 9일 만에 10만 계좌 돌파</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000925701?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>토스뱅크 자유적금이 출시 9일 만에 10만 계좌를 넘어섰다. /토스뱅크 제공        토스뱅크는 토스뱅크 자유적금이 출시 9일 만에 10만 계좌를 넘어섰다고 21일 밝혔다.토스뱅크 자유적금은 이달 9일 토스뱅크가 선보인 적금 상품이다. 통상 예·적금 가입 시 우대금리 혜택을 누리려면 카드 실적, 통신비 자동이체 등 까다로운 조건을 충족해야 하거나 제한된 일부 고객들만 혜택을 누릴 수 있었다. 하지만 토스뱅크 자유적금은 고객들이 복잡한 조건을 충족할 필요없이, 매달 꾸준히 저금하면 우대금리를 포함 최고 연 5%의 금리 혜택을 받을 수 있다.고객의 선택권은 대폭 넓혔다. 가입 기간은 최소 3개월부터 최대 36개월까지다. 월 납입 한도는 최대 300만원으로 한도 범위 내에서 고객들이 자유롭게 추가 납입 가능하다. 기본금리는 가입 기간에 따라 차등 적용되지만, 12개월 이상 가입할 경우 우대금리를 포함 최고 연 5% 금리 혜택을 받을 수 있다. 고객들은 상품 가입 전, 자신이 받게 될 이자도 미리 확인할 수 있다.특히 이 적금은 MZ세대(밀레니얼+Z세대, 1980~2004년생) 사이에서 높은 호응을 얻었다. 토스뱅크 자유적금 가입 고객 가운데 2030은 58.6%에 달했다. 특히 고객 3명 중 1명(32.3%)이 20대였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2023.08.18.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>오락가락 정책에 부채 급증 주범된 ‘인뱅’</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002185122?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>리스크 큰 중저신용자 대출 위해상대적 안전한 주담대 대출 필수당국 대출행태 점검예고에 ‘한숨’“중저신용자 대상 중금리 대출 활성화라는 인터넷전문은행 도입 취지가 무색하다”(배진교 정의당 의원)“5대 은행 과점체제 깨야...인터넷은행 경쟁력 위해 중저신용자 대출 의무 개선책 나온다면 적극 검토하겠다”(이복현 금융감독원장)“비대면 주담대에서 소득확인이 제대로 이뤄지지 않고 있다”(김주현 금융위원장)저금리 대출상품을 제공하며 성장가도를 달리던 인터넷전문은행들이 가계대출 급증의 ‘주범’으로 몰리고 있다. 당국은 인터넷은행이 ‘중·저신용자를 위한 메기’라는 설립 취지와 다르게 주담대 수요 흡수로 외형을 불리고 있다며, 대출 행태에 대해 직접 점검을 예고했다.하지만 시장에서는 당국의 오락가락 정책이 지금의 화(禍)를 키웠다는 지적이 나온다. 2021년 중·저신용자 의무 비중을 강제화한 뒤 인터넷은행의 건전성 악화는 주담대 강화로, 대출금리 인하 압박은 가계대출 증가로 이어졌다. 당시 상황을 모면하기 위한 당국의 미봉책이 부작용을 낳은 셈이다. 또 업계는 당국이 최근 은행권의 완전경쟁을 위해 인터넷은행의 역할을 강조한 이후, 금리를 대폭 낮춰 소비자에게 혜택을 제공했을 뿐이라는 입장이다.▶“안정적 대출 해야 위험한 대출도 한다”...일관성 없는 당국에 인뱅 ‘몸살’=시작은 2020년 국정감사였다. 당시 인터넷은행은 고신용자를 중심으로 대출을 취급하는 게 설립 취지와 맞지 않다는 비판을 받았다. 이에 금융당국은 중·저신용자 대출 의무비율 규제를 만들었다. 카카오뱅크와 케이뱅크, 토스뱅크는 올해 말까지 전체 신용대출의 30%, 32%, 44%를 신용점수 하위 50%를 대상으로 하는 중·저신용자 대출로 취급해야 한다.중·저신용자를 대상으로 영업비율을 늘리자, 연체율도 당연히 올랐다. 이에 안정적으로 중·저신용자 신용대출을 공급하며 건전성까지 관리하기 위해선 대출 포트폴리오를 다변화할 필요성이 대두됐다. 주담대는 신용대출 대비 마진은 적지만, 담보가 있기 때문에 그만큼 리스크도 적다는 특징을 가지고 있다. 이제 막 대출영업을 시작한 인터넷은행에게 성장과 건전성을 모두 잡기 위해선 주담대가 필수였던 셈이다. 카카오뱅크는 지난해 2월, 케이뱅크는 10월 전 대출 과정의 100%가 비대면으로 진행되는 주택담보대출 상품을 출시했다.금감원 관계자는 “신용대출에서 시작해서 점차적으로 주택담보대출, 전세대출로 확대해가는 과정이 카카오뱅크와 케이뱅크에 있었고 토스뱅크도 이를 따라갈 것”이라며 “개별 은행만 봐서는 포트폴리오 구성에 있어 그렇게 나아갈 수밖에 없는 측면이 있다. 전반적인 연체율을 관리하기 위해서는 주담대가 훨씬 좋다”고 설명했다.한 인터넷은행 관계자는 “중저신용 대출도 최대로 늘리고 있다”며 “주담대로 우회로를 찾아 실적을 더 달성해야겠다는 목적이 아니라 안정적인 담보 대출이 자리잡아야 위험한 대출도 더 실적을 낼 수 있는 것”이라고 호소했다. 두 대출이 상호 보완적인 관계이지 배타적인 관계가 아니라는 것이다.당국의 금리 인하 압박도 한 몫했다. 금리인상이 본격화된 지난해 6월과 7월부터 윤석열 대통령을 비롯해 이복현 금감원장은 연일 예대마진 확대와 이자장사를 경고했다. 올 초에도 금리 인하 압박이 계속되자, 은행권은 부랴부랴 대출금리를 낮췄다.인터넷은행에는 ‘메기 역할’에 대한 압박까지 동반됐다. 영업점과 대면업무가 없는 인터넷은행이 고금리에 기대 이자장사를 하면 안 된다는 것이다. 이에 인터넷은행들은 줄줄이 주담대 금리를 인하하기 시작했다. 시중은행의 금리가 5%대를 달리던 시기에 카카오뱅크는 최저 3%대 주담대 영업을 유지했다. 케이뱅크는 지난 7월 말까지 변동금리형 주담대 금리를 최대 0.38% 포인트 인하하며 최저 금리를 이어갔다.이들은 당국이 은행권의 완전경쟁을 위해 밀어붙이고 있는 ‘대환대출’ 수요도 흡수했다. 은행연합회에 따르면 전달 기준 분할상환방식 주담대 금리가 가장 낮은 건 4.02%의 카카오뱅크와 4.09%의 케이뱅크였다. 이들은 올 상반기 주담대 취급액 중 절반 이상이 대환 수요라고 설명했다. 주택시장의 슴통이 트이며 주택 매수 심리가 조금씩 살아나자, 수요는 더 낮은 금리를 제공하는 인터넷은행으로 향했다.▶많이 성장했지만...그래봤자 주담대 점유율 5%도 안 돼=그 결과 인터넷은행의 주담대 규모는 성장했다. 실제 지난 2분기 말 기준 카카오뱅크와 케이뱅크의 주담대 잔액은 총 21조220억원으로 전년 말(15조5890억원) 대비 반 년만에 34.8%(5조4330억원) 증가했다. 같은 기간 5대 시중은행은 513조1342억원에서 511조4007억원으로 0.3% 감소했다.하지만 여전히 전체 주담대 시장에서 인터넷은행이 차지하는 비중은 턱없이 적다는 게 업계의 설명이다. 100% 비대면 주담대 상품을 통해 고객의 편의성을 높이고, 낮은 금리로 혜택까지 돌려줬는데 가계대출 급증의 주범으로 몰리는 게 억울하다는 것이다.윤호영 카카오뱅크 대표는 전날 기자들을 만나 “우리가 무슨 주범이냐”며 “전체 주담대 시장에서 카카오뱅크가 차지하는 비중이 2%도 안 된다”고 말했다. 케이뱅크가 카카오뱅크보다 현저히 낮은 규모의 주담대를 취급하고 있다는 점을 감안하면, 두 은행의 시장점유율(MS)은 5% 안팎으로 추정된다.소득산정이 제대로 이뤄지지 않았다는 지적에 대해서도 그 원인에 대해 세부적인 당국 가이드라인의 부재를 꼽는 목소리가 더 높다. 카카오뱅크는 대면 영업이 불가능한 구조이기 때문에 담보를 선정할 때 KB시세를 따르고 이 플랫폼에 잡히지 않는 주택에 대해선 대출을 내주지 않고 있다. 소득을 산정할 때도 소득원천자료를 자동으로 스크래핑 하는 방식을 활용한다. 모든 것이 당국의 규제에 맞춰 100% 디지털화돼있다는 얘기다.금감원 관계자는 “가계대출 총량 차원에서 볼지, 건전성 관점에서 볼지에 따라 같은 당국 안에서도 인터넷은행을 바라보는 온도차가 생길 수 있다”며 “곧 실시될 검사에서는 소득 산정이 잘 됐는지, 담보 가치가 잘 산정됐는지 등 전반적인 여신 과정을 점검하겠다는 취지”라고 설명했다.홍승희·김광우 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2023.08.29.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>HS애드, 토스앱에 ‘브랜드 체험 공간’ 만든다</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002189693?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>LG계열 광고회사 HS애드(대표이사 박애리·오른쪽)는 모바일금융플랫폼 토스(사업총괄 부사장 김규하·왼쪽)와 O2O(온라인 투 오프라인) 서비스 관련 업무협약을 체결하고, 토스앱 내 동영상 광고채널 사업까지 협업한다고 29일 밝혔다.오프라인 브랜드 공간을 MZ 세대들에게 알리기를 원하는 기업들은 HS애드에 의뢰해 개별 브랜드를 위한 마이크로사이트를 토스앱 내에 만들 수 있다. 요즘 핫한 브랜드 체험 공간이 궁금한 MZ 세대들은 토스앱을 통해 각 공간의 정보를 확인한 후 오프라인 공간에 찾아가, 토스앱 인증 등을 통해 미션을 수행하고 토스 포인트를 받을 수 있다.HS애드는 LG전자 금성전파사, 신한투자증권 팝업스토어 ‘핑계고’ 등 다양한 오프라인 고객경험 공간의 조성을 실행한 전문성을 갖고 있다. 토스는 모바일 경험을 오프라인 공간에 연결시킬 수 있는 플랫폼 파워를 보유했다.양사의 역량을 기반으로 고객 경험이 곧 혜택이 될 수 있는 사업 모델과 서비스를 선보이는 시너지를 낼 것으로 기대된다. 김민지 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2023.08.16.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>반년간 주담대 5조 늘린 카뱅-케뱅… 금융당국 “집중 점검”</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003515092?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>주담대 비중 늘리며 최대 실적 올려일부 “인터넷銀 취지 안맞아” 지적카카오뱅크와 케이뱅크가 반년 사이 주택담보대출(전월세 대출 포함)을 5조 원 넘게 늘리는 등 인터넷은행들이 주담대 비중을 확대하고 있다. 15일 금융권에 따르면 올해 상반기(1∼6월) 카카오뱅크와 케이뱅크의 주담대 잔액은 지난해 말 대비 5조4229억 원 증가했다. 6월 말 기준 카카오뱅크의 주담대 잔액은 17조3223억 원으로, 지난해 말(13조2954억 원)보다 30.3% 늘었다. 카카오뱅크 전체 대출의 절반 이상에 해당하는 규모다. 주담대 성장을 바탕으로 카카오뱅크는 반기 기준 역대 최대 실적을 달성했다. 올해 상반기 카카오뱅크는 전년 동기(1238억 원) 대비 48.5% 급증한 1838억 원의 순이익을 거뒀다. 케이뱅크도 같은 기간 주담대 잔액이 60.8% 늘어난 3조6934억 원으로 집계됐다. 이에 따라 전체 여신에서 주담대가 차지하는 비중은 6개월 새 21.3%에서 29.1%로 늘었다. 이들 은행은 낮은 금리를 내세워 공격적으로 주담대 영업에 나서고 있다. 6월 중 카카오뱅크와 케이뱅크가 취급한 분할상환 방식 주담대 평균 금리는 각각 연 4.02%, 4.14%로, 이미 5대 시중은행(KB국민·신한·하나·우리·NH농협은행)보다 낮을 뿐만 아니라 대환대출 고객에게 금리 인하 등의 혜택도 제공하고 있다. 현재 신용대출만 취급하고 있는 토스뱅크 역시 하반기 중 전월세 보증금 대출 상품을 출시할 계획이다. 금융당국은 최근 증가하는 가계부채를 관리하기 위해 인터넷은행의 비대면 주담대를 집중적으로 점검하겠다는 방침을 세웠다. 인터넷은행이 주담대를 늘리며 수익을 내는 것이 중·저신용자를 위한 대출 공급 확대라는 인가 취지에 맞지 않는다는 지적도 나오고 있다. 6월 말 기준 인터넷은행의 중·저신용 대출 비중은 카카오뱅크 27.7%, 케이뱅크 24.0%, 토스뱅크(3월 말 기준) 42.06%로, 연말 목표치(30%·32%·44%)에 모두 미치지 못한 상태다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2023.08.16~2023.08.31).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.08.16~2023.08.31).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2023.08.18.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>“‘급여·복지 톱’ 토스 직원이라 행복해요”[Biz &amp; Life]</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002589079?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>■ Biz &amp; Life전 직원 법인카드 제공‘자율과 책임’ 강조 조직문화‘자율과 책임’을 강조하며 전 직원 개인용 법인카드, 출퇴근 완전 자율제 등을 추진하는 스타트업이 있다. 일에만 집중해도 생활이 돌아가도록 여행 계획을 대신 짜주고 가사를 도와주는 ‘커뮤니티 팀’도 운영되고 있다. 토스 운영사인 비바리퍼블리카 얘기다. 치과의사 출신인 이승건(41) 대표의 독특한 경영 철학이 반영돼 있다는 평가다.18일 직장인 익명 커뮤니티 블라인드에 따르면 비바리퍼블리카의 ‘급여 및 복지’와 ‘커리어 향상’ 평점은 5점 만점에 각각 4.3점, 4.2점으로 높은 점수를 기록했다. 비바리퍼블리카는 블라인드의 지난해 5월부터 12월까지 회사 내 행복도 조사에서도 구글코리아, 우아한형제들에 이어 3위를 기록했다. SK텔레콤, SK이노베이션, 애플코리아 등이 그 뒤를 이었다.서울대 치의학과를 졸업한 이 대표는 자율과 책임이 있는 조직 문화를 조성하고 있다. 비바리퍼블리카 관계자는 “모든 구성원이 높은 역량과 책임감을 갖췄다는 것을 가정한다”고 전했다. 일례로 개인마다 법인카드를 받아 점심·저녁 식비 등을 상식선에서 쓸 수 있다. 한 직원은 “업무 외의 일을 책임지는 사내 ‘커뮤니티 팀’이 아이 생일파티 때 맛집을 추천해주고 케이크까지 준비해줘 큰 감동을 받았다”고 전했다. 비바리퍼블리카는 전액 무료인 미용실(사진)도 두 곳 운영하고 있다. 2021년부터는 약 열흘간 전사 휴무를 갖는 겨울방학 제도를 운영하고 있다. 한 직원은 “미뤄왔던 가족 여행을 할 수 있었다”며 “직원의 휴식까지 회사가 신경 써주는 느낌이 들었다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2023.08.31.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>"승진했는데도..." 금리인하요구권 신청자 10명 중 4명만 수용</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005065459?sid=101</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>신용점수 상승 시 금리 낮추는 금리인하요구권은행권 평균 수용률 41.4% 그쳐...전반기比 하락5대 시중은행은 35.1%로 2반기 연속 낮아져신청건수 늘어난 영향으로, 이자감면액은 증가  사진=뉴시스화상  [파이낸셜뉴스]올 상반기 은행권이 '금리인하요구권'을 수용해 금리를 인하해 준 비율이 10건 중 4건에 그쳤다. 전체 은행 수용률이 뒷걸음질 친 가운데 5대 시중은행은 2반기 연속 수용률이 낮아졌다. 다만 총 이자감면액은 오히려 커져 은행들은 신청건수가 늘어난 데 따른 '착시효과'라는 설명이다.   8월 31일 은행연합회에 따르면 올 상반기 공시대상 19개 은행의 금리인하요구권 운영실적 현황을 분석한 결과 평균 수용률이 41.4%로 집계됐다. 지난해 하반기(42.1%)에 비해 0.7%p 소폭 낮아진 수치다. 국책은행인 KDB산업은행(88.4%)과 IBK기업은행(79.4%)이 우수한 성적을 보였다. 제주은행(12.9%)의 수용률이 가장 낮았고 경남은행(17.1%), 케이뱅크(17.3%), 토스뱅크(19.8%) 등도 하위권에 머물렀다.   5대 시중은행(KB국민·신한·하나·우리·NH농협)으로 좁혀보면 하락세가 더 가팔랐다. 모든 은행의 수용률이 일제히 하락하며 올 상반기 평균 수용률이 35.1%로 지난 하반기(40.8%) 대비 5.7%p나 낮아졌다. 은행별로는 농협은행(68.8%), 우리은행(34.9%), 신한은행(26.7%), 국민은행(25.7%), 하나은행(19.2%) 순으로 수용률이 높았다. 5대 시중은행의 금리인하요구권 수용률은 앞서 지난해 상반기(41.3%) 대비 하반기에도 하락한 모습을 보인 바 있다.   금리인하요구권은 승진, 소득 증가, 부채 감소 등 신용점수가 좋아졌을 때 대출자가 기존 대출에 대해 금리인하를 요구할 수 있는 권리다. 최근 금융당국은 고금리 시대 금융소비자의 편의 제고를 위해 금리인하요구제도의 실효성 제고가 필요하다는 목소리를 적극 내고 있다. 올 초에는 △신용도가 높아진 차주에 대한 수시 안내 △금리인하요구 신청 요건에 대한 안내 강화 △심사 결과 불수용 사유 안내 구체화 등을 골자로 하는 '금리인하요구제도 실효성 제고 방안'을 발표하기도 했다.   하지만 은행권은 이런 단편적인 '수용률'만 봐서는 안 된다고 조언한다. 비대면 신청이 용이해지면서 신청건수 자체가 폭증한 경향이 있기 때문이다. 하나은행 관계자는 5대 시중은행 가운데 수용률이 가장 저조한 데 대해 "올해 상반기 가계대출 금리인하요구권 비대면 신청 프로세스가 정착됐고, 신용위험이 없는 담보대출의 신청이 증가하면서 작년 하반기 대비 금리인하 신청건수가 대폭 증가함에 따라 상대적으로 수용률이 감소한 것으로 파악된다"고 설명했다.   실제 지난 반기 새 전체 19개 은행의 금리인하요구권 신청건수는 102만9112건에서 127만7064건으로 약 1.2배 증가했다. 같은 기간 총 수용건수는 31만5771건에서 36만1463건으로 증가했으며, 이에 따라 총 이자감면액도 22억원 가량(706억원→928억원) 많아졌다. 금리인하요구권의 실효성이 높아지고 있다는 평가다.   5대 시중은행의 경우 총 신청건수와 수용건수가 모두 낮아졌지만 총 이자감면액은 되레 증가(147억원→154억원)했다. 특히 5대 시중은행 가운데 금리인하요구권 수용률이 크게 감소한 국민은행(11.2%p)과 하나은행(7.7%p)은 타행에 비해 가계대출을 중심으로 금리인하요구 신청건수가 크게 증가한 것으로 파악됐다. 하나은행의 가계대출 금리인하요구권 신청건수가 지난 하반기 대비 약 1.5배(4만1633→6만5948), 국민은행은 2.5배(2만6848→6만4512) 수준으로 껑충 뛰었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2023.08.17.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>네오위즈 '인텔라 X', 앱토스 재단과 파트너십 체결</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002302277?sid=105</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>앱토스 재단, 블록체인 대중화에 앞장네오위즈(공동대표 김승철, 배태근)는 17일 웹3 블록체인 게임 플랫폼 '인텔라 X(Intella X)'가 글로벌 레이어1 블록체인 회사 앱토스 재단과 파트너십을 체결했다고 17일 밝혔다.앱토스 재단은 레이어1 기반의 블록체인 사업을 운용하는 회사로, 전 세계 이용자들의 자유로운 블록체인 시장 참여를 돕기 위한 분산 네트워크를 구축하고, 블록체인 기술 등을 지원한다.지난해 뛰어난 안정성과 높은 자유도 및 확장성을 자랑하는 레이어1 블록체인 메인넷 앱토스를 출시했다. 이번 파트너십을 통해 재단의 한국 게임 개발사 네트워크를 확대해 나간다는 계획이다.네오위즈 ‘인텔라 X’, ‘앱토스 재단’과 파트너십 체결양사는 추후 ‘인텔라 X’ 생태계 확장 및 성공적인 웹3 사업을 위한 기술 및 사업자문을 포함, 다양한 방면의 협업을 검토해 나갈 예정이다.한편, 웹3 블록체인 게임 플랫폼 인텔라 X는 글로벌 웹3 시장에서 누구나 쉽게 즐기는 이용자 친화적인 플랫폼을 지향한다.게임뿐만 아니라 자체 플랫폼 서비스인 DEX(탈중앙화거래소), NFT 런치패드, NFT 거래소 등 다양한 서비스를 제공한다. 현재 안드로이드 및 웹 버전의 ‘인텔라 X 월렛(IX Wallet)’을 소프트 런칭하며 생태계 확장을 위한 준비를 마쳤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2023.08.29.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>토스證, 금융 보안 컨퍼런스 ‘가디언즈’ 개최</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002743802?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>토스증권 보안 강점 두루 소개지난 25일 지정호 토스증권 CISO가 토스증권 본사에서 진행된 제1회 금융 보안 컨퍼런스 ‘가디언즈(Guardians)’에서 발언하고 있다. ⓒ토스증권[데일리안 = 황인욱 기자] 토스증권은 29일 정보보호 우수 사례를 소개하는 제1회 금융 보안 컨퍼런스 ‘가디언즈(Guardians)’를 개최했다고 밝혔다.지난 25일 토스증권 본사에서 진행된 이번 컨퍼런스에서는 토스증권이 의무사항을 넘어 최고의 정보보호 관리체계를 이뤄 내기까지의 우수사례를 발표했다. 정보보호 관리체계를 시작으로 보안 취약점 점검 방법, 보안위협에 대한 예방 및 대응 체계까지 토스증권의 보안 강점을 두루 소개했다.이번 행사는 출범 3년차를 맞은 토스증권이, 보안관련 노력의 산물을 금융회사 보안 종사자들과 나누기 위해 마련된 것으로 참가비도 무료로 진행됐다.실제로 금융사에서 보안업무 담당자만 참여할 수 있었음에도 불구하고 약 100여명이 단기간에 신청하며 높은 인기를 드러냈다.올해 토스증권은 신용정보보호법 준수현황을 점검하는 정보보호 상시평가에서 S등급을 받았다. S등급은 개인신용정보 보호 관련 평가항목을 모두 이행하고, 평가 결과 모범사례로 활용할 수 있는 회사에 주어지는 등급이다.지난달에는 증권사 최초로 글로벌 데이터 보안표준인 ‘PCI-DSS v4.0’ 인증을 취득했다. 이 인증은 지급결제 산업의 정보보호, 정보유출을 방지할 목적으로 만든 금융특화 글로벌 보안표준이다.지정호 토스증권 최고정보보호책임자(CISO)는 “토스증권은 고객이 안심하고 서비스를 이용할 수 있도록 의무사항을 준수하는데 그치지 않고 최고 수준 정보보호 체계를 만들기 위해 노력하고 있다”며 “토스증권의 사례 공유가 금융회사 보안 역량강화에 도움이 될 뿐 아니라 이번을 시작으로 금융회사들간의 정보보호 사례 교류가 활성화 되기를 기대한다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2023.08.31.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>간편결제 수수료율 가장 높은 곳은 또 ‘배민’ 우아한형제들 오명</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000928450?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>선불결제 수수료율 3월 대비 최대 0.16%p 인하카드결제는 최대 0.12p 낮아져빅테크 3사, 평균 수수료율 1.65%첫 공시보다 0.9%p 인하공시 이후 소상공인 수수료 부담 완화 효과카드사에 비해선 여전히 수수료율 높아배달의민족 라이더.        네이버파이낸셜·카카오페이 등 간편결제 사업자들이 소상공인 등 가맹점으로부터 받는 수수료율이 낮아진 것으로 확인됐다. 간편결제업자들은 두 번째 수수료율 공시를 통해 첫 공시 때보다 수수료율을 평균 0.12%포인트 낮췄다. 특히 영세사업자에 대해서는 최대 0.69%포인트까지 수수료율을 인하한 곳도 나왔다.간편결제 사업자 중 소상공인 등 가맹점에 가장 높은 수수료율을 부과한 곳은 배달의 민족을 운영하는 ‘우아한형제들’이었다. 우아한형제들은 지난 3월 시행한 첫 간편결제 수수료 공시에서도 가장 높은 수수료율을 기록했다. 우아한형제들은 지난 공시 때와 동일한 수준의 수수료율을 유지하며 수수료율 인하 노력을 하지 않았다.선불전자지급수단 결제 수수료율과 카드 결제 수수료율이 가장 낮은 곳은 각각 네이버파이낸셜과 카카오페이였다. 선불결제는 네이버페이머니나 카카오페이머니처럼 미리 돈을 충전해 쓰는 것이다.31일 간편결제 사업자의 올해 2월부터 7월까지의 수수료율 공시를 취합한 결과, 선불결제 수수료율(평균)은 1.84%(영세)~2.21%(일반) 수준으로 분포했다. 카드결제 수수료율(평균)은 0.97%(영세)~2.33%(일반)로 조사됐다.선불결제와 카드결제 모두 수수료율이 지난 3월 첫 공시보다 낮아졌다. 지난 3월 말 기준 선불결제 수수료율은 2.00%(영세)~2.23%(일반)이며, 카드결제 수수료율은 1.09%(영세)~2.39%(일반)이었다.금융감독원은 간편결제 수수료가 소상공인에게 부담으로 작용한다는 문제점을 인식하고 수수료 부과의 투명성을 제고하기 위해 지난 3월부터 간편결제 수수료 자율 공시를 시행하고 있다. 간편결제업자가 가맹점으로부터 받는 수수료율 결정을 ‘깜깜이’로 운영해 소상공인은 적정 수수료율을 가늠하기 어려웠다는 지적이 꾸준히 제기됐다. 전자금융업자는 가맹점으로부터 받는 수수료에 결제 수수료 외에도 다양한 수수료가 포함돼 있으나, 이 수수료를 항목별로 구분해 관리하지 않았기 때문이다.금융감독원 건물.        공시 대상 전자금융업자는 간편결제 거래 규모가 월 평균 1000억원 이상인 곳이다. 네이버파이낸셜, 쿠팡페이, 카카오페이, 지마켓, 11번가, SSG닷컴, 우아한형제들, NHN페이코, 비바리퍼블리카 등 9개사다. 이들은 가맹점 연매출에 따라 ▲영세(3억원 이하) ▲중소1(3억원 초과~5억원 이하) ▲중소2(5억원 초과~10억원 이하) ▲중소3(10억원 초과~30억원 이하)로 구분해 수수료율을 공시한다.수수료율이 가장 높은 곳은 우아한형제들이었다. 우아한형제들의 선불결제 수수료율(영세~일반)은 3.0%이다. 카드결제 수수료율도 영세 1.52%, 일반 3.0%로 가장 높은 수준이었다. 다만, 우아한형제들은 이번 공시 결과에 대해 “핀테크, 오픈마켓, 배달앱 등 업종을 구분하지 않고 거래액 기준으로만 상위 9개사를 비교했다”라며 “배달앱 업계만 놓고 본다면 배민, 요기요, 쿠팡이츠 모두 3%로 동일하다”라고 말했다.네이버페이·카카오페이·비바리퍼블리카(토스) 등 빅테크 3사는 선불결제 수수료율 전체 평균(영세·중소·일반 미구분)이 1.65%로 지난 3월(1.74%)보다 0.9%포인트 낮아졌다. 빅테크 3사의 선불결제 수수료율은 지난 2021년 2.02%를 기록한 뒤 꾸준히 낮아지고 있다.네이버파이낸셜은 선불결제 수수료율이 평균 1.56%로 가장 낮았다. 카카오페이는 평균 카드결제 수수료율이 1.41%로 선불업체 중 최저치를 부과했다.영세사업자에 대한 수수료율 지원도 더욱 강화된 것으로 나타났다. 간편결제업체는 평균 0.16%포인트의 수수료율을 인하했다.특히 네이버파이낸셜은 영세사업자에 대한 선불결제 수수료율이 가장 낮았다. 지난 3월보다 0.01%포인트 인하한 0.9%의 수수료율을 기록했다. 카카오페이는 영세사업자에 대한 선불결제 수수료율이 0.79%로 3월 대비 무려 0.69%포인트 인하했다. 카드결제 수수료 역시 0.42%포인트 인하한 0.79%로, 전체 업체 중 가장 낮은 수준이었다.그래픽=정서희        이번 간편결제 수수료 2차 공시에서 수수료율이 낮아지면서 수수료 공시에 따른 소상공인의 부담 완화 효과가 증명됐다. 공시를 계기로 업체 간 자율적인 경쟁이 촉진되며 합리적인 수수료의 책정이 이뤄진 것으로 평가된다.다만, 간편결제업자의 수수료는 여전히 신용카드사에 비해 높은 수준이다. 카드사 수수료는 신용카드의 경우 0.5~2.06%, 체크카드의 경우 0.25~1.47%다. 간편결제업체를 통한 카드 수수료율이 최소 2배에서 많게는 4배까지 높다.간편결제 수수료는 업체의 자율로 결정된다. 하지만 신용카드 수수료는 금융 당국과의 협의를 통해 영세･소상공인 수수료 지원을 위해 전체 가맹점의 96%가 원가 이하의 우대 수수료율을 적용하기 때문에 이러한 차이가 발생한 것으로 보인다.금융권 관계자는 “간편결제 수수료율이 낮아지고 있는 추세이지만, 여전히 카드사에 비해서는 높은 수준”이라며 “간편결제업체들의 수수료 인하 노력이 더욱 필요할 것으로 보인다”라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2023.08.28.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>[재예치 쟁탈전]③'한국판 애플 통장'도 완판 행진…내달초 시즌2도</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005305519?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>박상진 네이버페이 대표국내 빅테크사가 시중은행과 협업한 수신 상품도 완판 행진을 이어가는 등 호응을 얻고 있다. 시중은행보다 금리가 높고, 포인트 추가 적립 등의 혜택을 주면서 고객을 모으고 있다.28일 금융권에 따르면 네이버파이낸셜은 하나은행과 함께 수시 입출금 통장 '네이버페이 머니 하나 통장·체크카드 시즌2'를 다음달 초 출시한다. 특히 이 통장은 애플이 지난 4월 애플 카드 저축 계좌를 출시한 이후 '한국판 애플 통장'으로 불리고 있다. 빅테크사가 금융사와 제휴했다는 점을 비롯해 카드 이용 시 결제액을 포인트로 돌려주는 형태 등 구조가 비슷하기 때문이다. 네이버페이 머니 하나 통장 시즌2는 최대 연 4% 금리 혜택을 주고 있다. 예치금 한도는 200만원이다. 이 외에도 네이버페이 온라인 결제 시 최대 3%포인트 적립, 네이버페이 머니 하나 체크카드 이용 시 1.2% 네이버페이 포인트 적립 등의 혜택을 준다.네이버페이 머니 하나통장은 선불 충전금인 네이버페이 머니를 은행 계좌에 보관해 이자와 네이버페이 결제에 따른 포인트 혜택을 동시에 누릴 수 있는 상품으로, 금융위원회로부터 혁신금융서비스로 지정됐다. 지난해 11월 출시한 시즌1의 경우 공급 한도인 50만좌가 출시 된 지 6개월 만에 완판되면서 올해에는 신규 계좌 개설 한도가 100만좌로 늘었다.제2금융권과 시중은행 대비 수신 금리경쟁력이 떨어지는 인터넷전문은행들도 이색상품을 선보이며 고객들을 모으고 있다. 카카오뱅크가 선보인 '기록통장'은 다양한 순간의 기록을 담아 저축할 수 있는 상품이다. 좋아하는 연예인이 특정 행동할 때마다 자신만의 규칙을 정해서 기록과 함께 저축을 할 수 있다.토스뱅크의 경우 시중은행들과 차별화한 '먼저 이자 받는 정기예금'을 선보이고 있다. 이 상품은 만기 시 이자를 받는 보통의 예금 상품과 달리 가입과 동시에 이자를 먼저 제공한다. 연 3.5%의 금리를 제공하고 가입 한도는 최대 10억원까지다. 다만 가입 기간이 3개월 또는 6개월로 짧다. 토스뱅크에 따르면 이 예금은 하루 평균 유입액이 320억원에 달하는 등 성장세를 이어가고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2023.08.30.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>"7개 기업 대거 인수"…中과 밀월 이어나가는 골드만삭스</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004885574?sid=104</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>中 CIC 자금 활용해 美·英 기업 사들여트럼프 방중 때 조성된 협력 펀드 활용이 기사는 국내 최대 해외 투자정보 플랫폼 한경 글로벌마켓에 게재된 기사입니다.골드만삭스가 중국 국부펀드 자금을 활용해 다수의 미국과 영국 기업을 사들였다. 미‧중 긴장이 고조되면서 중국에 대한 외국인직접투자(FDI) 압박이 거세진 와중에도 상당한 규모의 ‘차이나머니’가 서방 세계로 흘러 들어간 셈이다.30일 파이낸셜타임스(FT)에 따르면 골드만삭스는 최근 ‘중‧미 산업 협력 파트너십 펀드(China-US Industrial Cooperation Partnership Fund)’ 자금을 활용해 7건의 기업 인수 계약을 체결했다. 구체적으로 어떤 기업들이 인수됐는지는 알려지지 않았다. FT는 “글로벌 공급망을 추적하는 스타트업, 약물 검사‧진단 업체, 클라우드 컴퓨팅 관련 자문 컨설팅회사, 인공지능(AI)‧드론‧전기차배터리 등에 사용되는 시스템 제조업체 등이 해당된다”고 전했다.25억달러(약 3조3000억원) 규모의 중‧미 산업 협력 파트너십 펀드(이하 파트너십 펀드)는 골드만삭스가 2017년 중국 국부펀드인 중국투자공사(CIC)와 함께 조성했다. 도널드 트럼프 전 미 대통령의 방중 기간 성사된 거래였다.2007년 싱가포르의 국부펀드 테마섹을 모델로 만들어진 CIC의 자산 규모는 2021년 말 기준 1조3500억달러(약 1783조원)에 달한다. 포트폴리오의 절반가량이 사모펀드(PEF)와 같은 대체 자산에 투자됐다. CIC는 파트너십 펀드의 LP자문위원회에도 참여하고 있다. PEF 업계에서 LP자문위는 직접적인 투자 결정을 내리진 않지만, 그 과정에서 자문을 구하는 주요 투자자 그룹을 통칭한다.당시 골드만삭스의 최고경영자(CEO)였던 로이드 블랭크페인은 “중국 자본을 미국 기업에 투자하게 해 미‧중 무역 불균형에 대한 미 정부의 우려를 해소하는 데 도움이 될 것”이라면서 “CIC는 이 펀드의 앵커투자자(초기 핵심 투자자)로서 미국 기업들이 중국 사업을 확장하는 데 도움을 줄 것”이라고 설명했다.그 이후 미‧중 관계는 급격하게 경색됐지만, 골드만삭스는 파트너십 펀드를 적극적으로 활용해 왔다. 2021년에 4건, 2022년에 1건의 투자가 이 펀드를 통해 이뤄졌다. 시프라임(클라우드 컴퓨팅 자문), 파렉셀(약물 검사), 프로젝트44(공급망 추적 스타트업), 앱토스(소매업 기술 전문 회사), 비주얼컴포트(조명), 보이드코퍼레이션(냉각 솔루션) 등 여러 기업이 파트너십 펀드로부터 자금을 지원받았다.특히 이 중에는 영국 로이드인증원(LRQA)도 포함됐는데, LRQA는 항공‧국방‧에너지‧의료 등 기간 산업 분야에서 광범위한 검사‧인증 서비스를 제공하는 기관이다. LRQA는 자회사인 네티튜드(Nettitude)를 통해 사이버 보안 사업도 영위하고 있다. 네티튜드는 ‘윤리적 해킹(악성 해킹을 사전예방하려는 목적으로, 프로그램의 취약성 평가를 위해 행해지는 해킹)’ 등 서비스를 제공하는 데 있어 영국 정부의 승인을 얻기도 했다. 이 때문에 국가 안보와 관련된 민감한 정보가 중국으로 유출될 것을 우려하는 목소리도 있었다.LRQA 측은 골드만삭스가 관리하고 있는 다른 민간 펀드들과 공동 투자한 건인 만큼 중국 정부의 입김은 비교적 작다고 반박했다. LRQA 대변인은 “중국은 글로벌 인증 시장의 40%를 차지하고 있으며, 우리는 중국에서 과소대표되고 있다. 이것이 (골드만삭스와 CIC가 조성한) 펀드의 도움을 받으려는 이유”라며 “네티튜드는 중국에서 사업을 하고 있지 않고, 할 계획도 없으며, CIC와 어떤 관련도 없다”고 해명했다. 골드만삭스도 “파트너십 펀드는 미국의 관리자에 의해 모든 법과 규정을 준수해 관리되고 있으며, 미국을 포함한 글로벌 기업들이 중국 시장을 개척하는 과정에서 지속적으로 도움을 줄 것”이라고 대응했다. 골드만삭스는 중국과 비교적 친밀한 관계를 유지해 왔다. 데이비드 솔로몬 CEO(사진)는 지난 3월에도 CIC의 펑춘 회장과 치빈 부사장을 만났다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2023.08.30.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>5대 은행 예대금리차 5개월 만에 상승 전환</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003245974?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>서울 시내에 설치된 시중은행들의 ATM기 모습. 연합뉴스5대 은행(KB국민·신한·하나·우리·NH농협)의 가계 예대금리차가 다섯 달 만에 다시금 확대된 것으로 나타났다.30일 은행연합회에 따르면 5대 은행의 신규 취급액 기준 7월 평균 가계 예대금리차(정책서민금융 제외)는 0.934%포인트로 집계됐다. 전월 평균(0.928%포인트)보다 0.006%포인트 확대된 수치다.예대금리차는 저축성 수신금리에서 대출금리를 뺀 값으로 은행의 수익성을 나타내는 지표로 쓰인다. 두 금리차가 클수록 예대 업무로 취하는 중간이윤이 높아지기 때문이다.은행별로는 1.11%포인트인 NH농협은행이 가장 높았고 이어 신한은행(0.91%포인트), 국민은행(0.92%포인트), 우리은행(0.90%포인트), 하나은행(0.83%포인트) 순이다.NH농협은행은 “전월보다 대출금리가 낮아졌고 저축성 수신금리가 상승하면서 예대금리차가 축소했다”고 설명했다.은행권 가계 예대금리차가 5개월 만에 확대 전환한 것은 가계 대출금리가 낮아진 동시에 저축성 수신금리가 더 큰 폭으로 낮아졌기 때문으로 풀이된다. 5대 시중은행의 7월 저축성 수신금리는 3.668%로 전월(3.676%) 대비 0.008%포인트 하락한 반면 가계 대출금리는 같은 기간 0.002%포인트 하락하는 데 그쳤다.잔액 기준 예대금리차는 KB국민은행이 2.54%포인트로 가장 높았다. 이어 농협은행(2.45%포인트), 신한은행(2.38%포인트), 우리은행(2.18%포인트), 하나은행(2.08%포인트) 순이다.인터넷전문은행의 가계 예대금리차는 토스뱅크 3.39%포인트, 케이뱅크가 2.09%포인트, 카카오뱅크가 1.25%포인트로 집계됐다. 잔액 기준 가계 예대금리차(정책서민금융 제외)는 5대 은행 평균 2.326%포인트로 처음 공시된 전월(2.398%포인트) 대비 소폭 낮아진 수준이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2023.08.25.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>빅테크 후불결제 연체율 6% '코앞'…혁신성 '시험대'</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002742866?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>석 달 만에 1.4%P 상승영국·호주 등 규제 강화간편결제 이미지. ⓒ연합뉴스[데일리안 = 김효숙 기자] 빅테크의 선구매후불결제(BNPL·Buy Now Pay Later) 서비스 연체율이 6%에 육박한 것으로 나타났다. 건전성 지표가 악화하면서 서비스의 혁신성이 시험대에 오른 가운데, 국내외에서 기존 금융사 신용상품과 비슷한 수준의 규제를 적용해야한다는 목소리가 나온다.25일 국회 정무위원회 소속 최승재 국민의힘 의원이 금융감독원을 통해 제출받은 자료에 따르면 네이버파이낸셜·카카오페이·비바리퍼블리카(토스) 등 3사의 올해 상반기 말 기준 BNPL 연체율은 평균 5.8%로 전분기 말보다 1.4%포인트(p) 올랐다.회사별로 보면 토스가 같은 기간 2.26%p 오른 7.76%로 가장 높았다. 그다음 네이버페이가 0.25%p 내린 2.45%, 카카오페이가 0.03%p 하락한 0.54%를 기록했다.BNPL은 물품을 구매하는 거래가 이뤄질 경우 업체가 가맹점에 먼저 대금을 지급하고, 소비자는 물품을 받은 뒤 여러 차례에 걸쳐 업체에 상환을 할 수 있도록 만든 서비스다.미리 구매하고 할부로 대금을 상환한다는 점에서 신용카드와 유사하지만, 신용이력이 적어 신용카드 발급이 어려운 학생, 주부, 사회초년생 등 씬파일러들도 이용할 수 있다. 월 30만원 등으로 대부분 최대한도가 소액에 그친다.최근 20대를 중심으로 사용자가 늘어나고 있다. 최 의원실에 따르면 올해 6월 말 기준 빅테크 3사의 BNPL 서비스 누적 가입자 숫자는 302만명에 달하는 것으로 집계됐다. 3월 말 192만2000명에 비해 13.4% 증가했다.문제는 짧은 기간 안에 우려스러울 정도로 높아진 연체율이다. 빅테크는 애초 금융정보와 결제, 쇼핑 이력 등 비금융정보를 결합한 대안신용평가시스템으로 기술혁신을 통해 포용금융과 함께 건전성이라는 두 마리 토끼를 잡겠다고 했지만, 연체율이 올라오면서 취지가 무색해진 상황이다. 비슷한 기능의 카드사 연체율이 1%대임을 고려하면 상대적으로 높은 수준이다.금융권에서는 보다 구체적인 건전성 대책이 나와야한다는 조언이 나온다. BNPL 서비스를 먼저 도입한 해외국가에서도 부채 문제로 여러 대책이 논의되고 있다.고은아 하나금융연구소 수석연구원이 발간한 '영국에 이어 호주도 BNPL 규제 강화' 보고서에 따르면 호주 연방정부는 BNPL이 신용상품임에도 그렇게 운영되지 않는다는 비판에 BNPL 서비스를 신용보호법으로 규제하기로 결정했다. BNPL제공자는 신용카드사와 똑같은 호주신용면허를 소지해야 하고 대출 의무를 준수해야 한다.미국 캘리포니아 금융보호혁신부도 BNPL 서비스를 대출로 간주해 제공업체에 캘리포니아금융법을 적용하기로 했다. 영국은 BNPL 제공업체에 대해 금융당국의 승인을 받도록 하는 BNPL 관련 법 초안을 발표 하고 세부사항을 포함한 2차 법안을 마련 중이다.그간 카드업계에서도 빅테크의 BNPL서비스에 대해 여신전문금융업법과 같은 수준으로 건전성을 규제해야 한다는 주장이 이어졌다. 현재 카드사는 금융당국으로부터 카드 수수료율이나 대손충당금 등에 대한 강한 규제를 받지만, 빅테크사들이 수행하는 후불결제업무에 관한 규제는 없는 상태다.반면 빅테크는 BNPL과 신용카드 후불결제는 서비스 목적와 범위, 고객층이 전혀 다르다는 입장이다. 대안신용평가모델 고도화 등 기술 혁신을 위해서는 기존 규제 적용이 성급하다는 설명이다.빅테크 관계자는 "카드사 후불결제와 동일한 서비스가 아니기 때문에 동일 규제를 적용받기는 무리"라며 "단순 규제보다 빅테크사끼리 연체정보 공유 등으로 건전성 관리방안을 먼저 논의해야 한다"고 말했다.한편 네이버페이 토스 등만 취급하던 소액 후불결제 업무도 선불업자에게 허용하는 방안의 전자금융거래법 개정안이 24일 국회 본회의를 통과했다. 이와 함께 선불업 감독 범위 확대, 선불충전금 별도 관리 의무화, 선불업자 영업행위 규칙 신설 등 관리 감독 강화 방안을 담고 있다. 정부의 법률 공포 절차를 거친 뒤 내년 9월부터 시행될 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2023.08.21.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>견통령 강형욱의 ‘반려견 마라톤’ 자라섬으로 댕댕런~</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002186039?sid=103</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>‘개라톤’ 외에 최현우 마술사 공연도‘견통령 토스쇼’..개똥 교환소도 개설[헤럴드경제=함영훈 기자] 반려견과 함께 달리는 마라톤 ‘댕댕런2023’이 오는 10월 28일 가평 자라섬에서 열린다.댕댕런은 ‘개통령’ 강형욱 훈련사의 보듬컴퍼니와 문화기획소 1986프로덕션이 공동 주최했다.견통령 강형욱씨2017년부터 개최된 댕댕런은 올해까지 8회를 맞이하였으며 작년에는 약 5천여 매의 참가권이 매진될 만큼 많은 반려인들의 관심과 사랑을 받아왔다. 2017년부터 2022년까지는 서울과 인천에서 개최되었으나 올해에는 처음으로 최대 1만여 명까지 수용 가능한 경기도 가평 자라섬에서 개최된다.경기도 대표 가을 관광지로 손꼽히는 자라섬은 가을이면 오색빛깔의 단풍이 섬 전체를 둘러싸고 있어 반려견과 함께 연중 최고의 가을 경치를 즐기고 싶은 반려인들의 눈길을 끌고 있다.이전에도 자라섬에서는 2019년 국내 최대 규모 반려견 축제인 ‘댕댕이페스티벌’이 열리며 약 5000여 명의 참가자와 3000여 마리의 반려견이 방문한 바 있다. 이후 코로나 팬데믹이 지나고 4년만에 반려견 마라톤 축제 ‘댕댕런’으로 돌아와 반려인의 뜨거운 관심이 모아지고 있다.올해 댕댕런에서는 가을 자라섬의 매력을 풍성하게 보여줄 수 있는 자라섬의 중도와 남도를 중심으로 수변 산책로를 따라 5㎞를 달리는 코스를 개발했다. 오전 9시에 출발하는 선발댕과 오전 9시 10분부터 오전 10시 사이에 자율 출발하는 후발댕으로 나눠져 개라톤이 시작되며, 기록 경쟁을 위해서는 선발댕의 참여를 공지하고 있다.행사에서는 ‘개라톤’ 뿐 만 아니라 풍성한 부대 프로그램이 진행된다. 최현우 마술사의 댕댕런 완주를 축하하는 마술공연, 반려견 관련 상식을 전하는 ‘강형욱 훈련사 토크쇼’, 함께 사진 촬영을 할 수 있는 ‘개통령 포토타임’도 진행된다.또, 반려견이 목줄 없이 마음껏 뛰어놀며 전국각지에서 모인 다양한 반려견 친구들을 만날 수 있는 ‘댕댕프리존’, 개똥을 가져오면 선물로 교환해주는 ‘개똥교환소’, 추첨을 통해 경품을 증정하는 ‘럭키드로우’가 열린다. 참가자 중 1위부터 20위까지 시상한다.댕댕런은 매회 기부 캠페인을 진행하며, 지난 3년간 4회의 걸쳐 약 16톤 이상의 사료를 기부한 바 있다. 올해도 참가자 1인당 1kg의 사료를 유기견 보호소에 기부해 캠페인을 이어갈 예정이다.참가자에게는 공식 MD로 구성된 티셔츠, 배번호표, 완주 메달, 소정의 기념품을 준다고 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2023.08.23.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>[THE FINANCE] 인터넷은행서 용돈 준다고? `조건없는 적금`도 있다는데</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002821011?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>카뱅, SNS 구독·쇼핑 클릭만해도 캐시 지급'26주적금' 인기… 납입 성공땐 3.5%p 우대토뱅 자유적금, 조건없이 연 5%대 우대금리케뱅, 코드K 예금·플러스박스 등 '적금맛집'편리함 앞세워 중장년층까지 고객범위 확대카카오뱅크 제공.    MZ세대 지갑 점령한 인뱅, 중년 고객 마음도 잡는다MZ세대를 향한 인터넷은행들의 러브콜이 계속되고 있다. 이들은 다양한 혜택은 물론 재미를 추구하는 젊은층의 특성에 주목, 차별화된 상품을 지속적으로 선보이고 있다. 이러한 노력에 힘입어 2030 가입자 수를 꾸준히 늘려가고 있다. 뿐만아니라 간편함을 장점으로 내세우며 모바일에 친숙하지 않는 중장년층 공략에도 속도를 내고 있다.카카오뱅크는 최근 간단한 클릭만으로 캐시를 제공하는 '매일 용돈 받기' 서비스를 내놨다.매일 용돈 받기는 카카오뱅크 앱 내 해당 페이지에서 SNS 구독, 쇼핑, 페이지 방문 등 제휴사가 제공하는 다양한 미션에 참여하면 캐시를 주는 서비스다.카카오뱅크 mini 또는 입출금통장을 보유한 만 14세 이상의 고객이라면 누구나 참여 할 수 있다. 캐시는 미션 완료 후 카카오뱅크 앱으로 돌아오면 받을 수 있다. 미션 항목 중 캐시 금액이 활성화된 경우에만 참여할 수 있다. 미션을 수행하지 않더라도 참여 가능한 '데일리 용돈 이벤트'도 준비돼 있다. 매일 1회 데일리 용돈 이벤트에 참여하면 랜덤 캐시를 받을 수 있다. 주어진 시간 내 '보너스'가 표기된 미션을 수행해 '보너스 용돈 이벤트'까지 캐시를 추가로 받게된다. 카카오뱅크 관계자는 "매일 용돈 받기 서비스는 유효기간 또는 사용처 제한이 있는 포인트가 아닌 캐시 형태로 지급해 포인트 교환 등의 번거로운 절차를 없애고 고객 편의를 강화한 것이 특징"이라고 말했다.카카오뱅크의 기존 스테디셀러인 '26주적금'은 2030에게 꾸준한 사랑을 받고 있다. 26주적금은 최초 가입금액만큼 매주 납입금액을 늘려가는 방식이다. 가입자는 최초 가입금액을 1000원, 2000원, 3000원, 5000원, 1만원 중 자유롭게 선택할 수 있다.기본 금리는 연 3.50%다. 26주간 자동이체를 통해 적금 납입에 성공하면 3.50%포인트(p)의 우대금리가 적용된다. 납입 성공에 따라 카카오프렌즈 캐릭터가 도장처럼 찍히는 귀여운 디자인도 2030을 홀렸다. 지난 7월 말 기준 26주적금 가입 고객의 연령대별 비중은 20대 이하 24.9%, 30대 27.8%로 절반 이상을 차지했다. 누적 개설 계좌 수 2000만좌를 돌파했다.토스뱅크 제공.    토스뱅크가 지난 9일 선보인 '토스뱅크 자유적금'은 MZ세대 사이에서 좋은 반응을 얻으며 출시 9일 만에 10만좌를 넘어섰다. 8초당 1명 꼴로 계좌를 개설한 것이다.토스뱅크 자유적금은 최고 연 5%의 금리를 제공한다. 가입 기간은 최소 3개월부터 최대 36개월까지로 선택 가능하다. 월 납입한도는 최대 300만원이다. 복잡한 조건 없이 우대금리를 받을 수 있다는 것이 가장 큰 특징이다. 일반적으로 예·적금 가입 시 우대금리 혜택을 누리려면 카드 실적, 통신비 자동이체 등 까다로운 조건을 충족해야 하거나 신규 가입자 등 제한된 일부 고객들만 혜택을 받을 수 있었다. 토스뱅크 자유적금 가입 고객 중 2030은 58.6%로 절반을 넘었다. 고객 3명 가운데 1명(32.3%)이 20대로 높은 비중을 차지했다. 케이뱅크 제공.    케이뱅크는 '금리 맛집'으로 입소문이 나며 젊은층을 끌어들였다. 지난해 10월부터 '코드K 정기예금', 파킹통장인 '플러스박스' 등의 금리를 다섯 차례 인상했다.지난 2021년 말 업계 최초로 내놓은 '금리보장서비스'도 호응을 얻었다. 이미 가입한 예금이더라도 14일 이내에 금리가 오르면 예금 가입일로부터 소급해 더 많은 이자를 지원해준다. 출시 이후 이 서비스를 통해 약 2년동안 약 7만5000여 명 고객에게 37억원의 이자를 추가로 지급했다.금리경쟁력을 내세운 케이뱅크는 고객 수도 빠르게 늘려갔다. 지난 2017년 4월 출범한 케이뱅크는 2019년 4월 고객 100만을 돌파한 후 2021년 2월 300만명, 같은 해 5월 500만명을 돌파했다. 900만 고객 돌파는 2022년 9월 말 800만 고객 달성 이후 10개월만이다. 이 중 20대와 30대의 비중은 23%, 29%에 달한다.인터넷은행들은 편리함으로 MZ를 넘어 중장년층까지 고객층을 확대한다는 계획이다. 하나금융경영연구소가 지난해 내놓은 '뉴시니어(금융자산 1억원 이상을 보유한 만 51~65세 금융소비자)가 원하는 금융' 보고서에 따르면 핀테크·빅테크 기관과 거래를 시작한 이유로 '앱이 편리해서'를 가장 많이 꼽았다. 실제 카카오뱅크의 고객 수는 지난 1분기 2118만명에서 2분기 2174만명으로 늘었는데, 특히 중장년층인 40대 이상 고객이 활발히 유입되고 있는 것으로 나타났다. 40대 침투율(연령병 인구 대비 카카오뱅크 고객 비율)은 2022년 2분기 55%에서 64%로, 50대 침투율은 30%에서 40%로, 60대 이상은 7%에서 10%까지 늘어났다. 토스뱅크는 모든 연령대에서 고른 성장세를 보이며 지난달 말 기준 누적 가입자가 700만명을 돌파했다. 아직까지 20대가 26%로 가장 많았지만 30대(23%), 40대(23%), 50대 이상(22%) 등 연령별 사용자 비중에 큰 차이가 없었다.케이뱅크의 경우 지난 2021년 말 16%에 그쳤던 50대 이상 비중이 올해 7월 말에는 21%까지 늘어 처음으로 20%를 넘어섰다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2023.08.25.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>카카오뱅크·케이뱅크 2분기 중저신용 비중↑…토스뱅크는 뒷걸음</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004230390?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>[서울경제] 카카오뱅크와 케이뱅크의 가계 신용대출 가운데 중·저신용자 대출 비중이 전분기보다 더 늘었다. 반면 토스뱅크의 관련 대출 비중은 되레 줄었다.25일 은행연합회 공시에 따르면 카카오뱅크의 '중·저신용자 대상 신용대출 비중(잔액 기준)'은 2분기 기준 27.7%로 집계됐다. 직전 분기인 3월 말에 견줘 2%포인트 늘었다. 케이뱅크의 중·저신용자 대출 비중도 2분기 24%를 기록, 직전 분기 대비 0.1%포인트 증가했다.반면 토스뱅크의 중·저신용자 대출 비중은 2분기 38.5%로 전 분기보다 3.56%포인트 줄어든 것으로 나타났다. 중·저신용자 대출 비중은 각 인터넷 은행의 전체 가계 신용대출에서 개인신용평가회사 코리아크레딧뷰로(KCB) 기준 신용평점 하위 50%(KCB 850점 이하) 대출자에 대한 대출이 차지하는 비중을 뜻한다. 금융 당국은 시중은행에서 돈을 빌리기 어려운 금융 소비자에 대출 공급을 확대한다는 인터넷은행 설립 취지에 따라 인터넷은행에 중·저신용대출 비율 목표치와 실적을 공시하도록 하고 있다. 토스뱅크와 카카오뱅크, 케이뱅크의 올해 말 목표 대출 비중은 각 44%, 30%, 32%다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2023.08.21.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>[단독] “외국인 배우자 있으면 안된대”…인터넷은행 주담대 못받는다</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005175250?sid=101</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>케뱅·카뱅 “비대면 특성상 보수적으로”외국인등록증 진위확인 시스템 구축중 [사진 제공 = 연합뉴스]케이뱅크, 카카오뱅크 등 인터넷전문은행(인터넷은행)에서 주택담보대출(주담대)을 이용할 때 외국인 배우자가 있는 경우 시중은행과 달리 주담대 이용이 불가한 것으로 확인됐다.주담대 심사에서 ‘배우자 정보 제공 동의’ 절차가 있는데 외국인은 본인 확인이 안 되는 만큼 인터넷은행 계좌계설이 불가하고, 이에 따라 배우자 정보 제공 동의 역시 받을 수 없다는 이유에서다.우리나라 인구의 다문화, 다인종화가 가속화하는 추세인 만큼 개선할 필요성이 있다는 지적이 나온다.21일 케이뱅크와 카카오뱅크에 확인한 결과, 외국인 배우자가 주민등록등본에 함께 등재된 경우 이들 인터넷은행에서 한국 국적의 배우자는 주담대가 불가한 것으로 나타났다.가령 한국 국적의 A씨가 본의 명의의 아파트를 담보로 주담대를 받을 때 주민등록등본에 외국 국적의 배우자 B씨가 함께 등재됐다면 주담대가 불가하다는 얘기다.시중은행의 경우 외국인이 우리나라 주민등록증에 해당하는 외국인등록증을 발급 받아 계좌를 개설할 수 있으며, 배우자가 외국인인 경우에도 주담대가 가능하다. 인터넷은행과 달리 오프라인 영업점이 있는 시중은행은 본인 확인을 여러 방법으로 할 수 있어서다.현재 인터넷은행 3사 중 주담대를 취급하는 곳은 케이뱅크와 카카오뱅크이며, 토스뱅크는 주담대를 취급하지 않는다. 다만, 토스뱅크는 외국인에 대한 계좌계설을 허용하고 있다.케이뱅크와 카카오뱅크는 아직까지 법무부의 외국인등록증 진위 확인 시스템이 구축되지 않은 만큼 최대한 보수적으로 주담대 정책을 운용한다는 입장이다.금융기관의 특성상 만일의 경우 발생할 수 있는 여러 금융사고 가능성에 대비해야 한다는 것. 즉, 인터넷은행은 모든 대출을 비대면으로 취급하는 특성상 최대한 보수적으로 접근할 수밖에 없다는 주장이다.현재 법무부는 외국인등록증 진위 확인 시스템의 연내 구축을 목표로 추진하고 있다. 법무부 관계자는 “외국인등록증 진위 확인 시스템을 구축 중에 있다”며 “시스템 구축이 완료된 후 이를 활용하는 것은 금융기관 재량”이라고 밝혔다.통계청에 따르면 지난해 말 기준 다문화가구는 39만9396가구로 매년 1만가구 이상 늘어나는 추세다.한 인터넷은행에서 주담대를 신청했다가 거절당한 다문화가구 A씨는 “배우자가 현재 4대보험이 되는 직장에 다니고 있고 국내에 거주하고 있다”면서 “주담대 심사 절차상 배우자 본인 확인과 정보 동의 절차를 다른 방법으로도 확인할 수 있을 것 같다”고 의지 부족을 꼬집었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2023.08.22.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>"스포츠 브랜드 상품, 최대 60% 할인" 롯데온, 스릴 있는 할인전</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012042767?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>그렉노먼 상품 이미지(사진=롯데온 제공) *재판매 및 DB 금지[서울=뉴시스]박미선 기자 = 롯데온이 27일까지 인기 스포츠 용품을 할인 판매하는 '스릴 있는 세일 - 스포츠 릴레이' 행사를 진행한다고 22일 밝혔다. '스릴 있는 세일' 행사는 이달부터 매월 세 번째 주에 진행할 예정으로, 스포츠 브랜드 상품을 최대 60% 할인된 가격에 판매한다. 토스페이와 롯데카드로 결제하면 최대 10% 즉시 추가 할인 혜택도 제공한다.행사에서는 롯데온이 직접 알려주는 월별 스포츠 콘텐츠를 소개하고 이달의 뜨는 브랜드, 주간 특가, 인기 검색어 등으로 나눠 상품을 제안한다.이달 '스릴 있는 세일' 대표 상품으로 '코베아 트윈돔2 4인용 실속형 거실형 리빙 텐트'를 최종 혜택가 28만 7000원에 선보이고, '살로몬 XT-6 트레일 런닝화·운동화'를 최종 혜택가 18만8000원에 판매한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2023.08.21.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>토스뱅크 연 5% 자유적금…9일 만에 10만 계좌 넘었다</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004927490?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>토스뱅크가 선보인 '토스뱅크 자유적금'이 9일 만에 10만 계좌를 넘어섰다고 21일 밝혔다. 복잡한 조건을 충족할 필요 없는 '혜택의 자유로움'이 MZ세대의 마음을 사로잡으며, 8초당 1명 꼴의 계좌 개설로 이어졌다.토스뱅크 자유적금은 이달 9일 토스뱅크가 선보인 적금 상품이다. 다른 조건없이 매월 자동이체를 통해서 저금만 하면 우대금리를 포함 최고 연 5%의 금리 혜택을 받을 수 있다.고객의 선택권은 대폭 넓혔다. 가입기간은 최소 3개월부터 최대 36개월까지다. 월 납입한도는 최대 300만원으로, 한도 범위 내에서 고객들이 자유롭게 추가 납입 가능하다.기본금리는 가입기간에 따라 차등 적용되지만, 12개월 이상 가입할 경우 우대금리를 포함 최고 연 5% 금리 혜택을 받을 수 있다. 고객들은 상품 가입 전, 자신이 받게 될 이자도 한 눈에 미리 확인할 수 있다.특히 MZ세대 사이에서 높은 호응으로 이어졌다. 토스뱅크 자유적금 가입 고객 가운데 2030세대의 비중은 58.6%에 달했다. 특히 고객 3명 중 1명(32.3%)이 20대로 높은 비중을 차지했다.토스뱅크 관계자는 "고객이 우대금리를 받기 위해 충족해야 했던 '복잡한 조건'을 모두 덜어낸 결과 고객들, 특히 젊은 층을 중심으로 이례적으로 높은 호응을 끌어낼 수 있었다"며 "앞으로도 고객 관점에서 상품을 고민하고 최고의 혜택을 드릴 수 있도록 노력할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2023.08.29.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>패스트벤처스, ‘집지켜’ 운영사 플다 시드 투자</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002303313?sid=105</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>"국내 임대차 시장 정보 비대칭 문제 해결 기대”부동산 권리 분석 서비스 '집지켜' 운영사 플다가 패스트벤처스로부터 시드 투자를 유치했다고 29일 밝혔다.플다는 ‘전월세 거래를 쉽게’라는 슬로건 아래 세입자를 위한 임대차 권리 분석 서비스 '집지켜'를 출시해 주목받고 있다. 집지켜는 보증금 안전 여부 판단, 권리 분석, 보증보험 가입 여부, 추천 대출 상품 등을 담은 보증금 안전도 리포트를 제공한다. 또 서비스 제공 10주 만에 리포트 발급 건수 1만 건, 리포트 진단 보증 금액 2조원 돌파라는 성과를 달성했다. 신규 사용자 수 역시 약 50배 이상 증가하는 등 가파른 성장세를 보이고 있다.패스트벤처스 고윤지 심사역은 "플다는 채널톡 영업 이사 출신인 김한성 대표 외에 토스, 데브시스터즈 출신 엔지니어 코파운더로 구성된 팀으로 사업 기획과 개발 역량을 고루 갖췄다"며 "국내 임대차 시장은 월간 약 21만건이 발생하는 큰 시장이지만 정보 비대칭이 심한 만큼 리포트 발급에서 밸류체인으로 확장해나가며 혁신을 이룰 것으로 기대한다"고 말했다.부동산 권리분석 서비스 ‘집지켜’ 운영사 플다, 시드 투자 유치김한성 플다 대표는 "부동산 임대차 계약은 고 관여 시장임에도 불구하고 빈도가 높지 않다 보니 일반인 수준에서 내재된 위험을 파악하기는 어렵다"면서 "부동산 거래에 대한 지식이 없더라도 모든 임차인이 안전하고 쉽게 전월세 거래를 할 수 있도록 만들 것"이라고 자신했다.플다는 자사 서비스만으로 전월세 거래를 원활하게 마무리할 수 있도록 권리 분석 서비스 외에도 계약서 특약 사항 및 계약서 다운로드 기능, 확정 일자 및 전입신고 대행, 등기 변동 알림 등의 기능 추가를 통해 사용자 편의성을 높일 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2023.08.29.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>라온시큐어, '옴니원 통합인증' 300개 고객사 돌파</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012055804?sid=105</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>본인확인·사설인증·모바일 신분증 등 통합해 제공"기존 본인인증 대체하는 국민 통합인증 입지 지킬 것"라온시큐어CI(사진=라온시큐어 제공) *재판매 및 DB 금지[서울=뉴시스]송혜리 기자 = 라온시큐어는 자사 통합인증 서비스 '옴니원 통합인증'이 8월 기준 공공기관, 금융기관, 기업, 대학, 병원 등 300개 고객사를 확보하고 연 2000만건 이상의 인증을 기록하고 있다고 29일 발표했다.2020년 말 출시된 통합인증 서비스인 옴니원 통합인증은 전자서명법 개정 및 공인인증서 의무화 폐지 이후 빅테크 기업들이 선보인 민간 간편인증 서비스들을 하나의 통합된 창으로 제공하는 서비스다. 카카오톡, 네이버, 패스, 토스, KB, 신한 등 다양한 사업자의 인증 서비스를 이용할 수 있다. 또한 옴니원 통합인증은 민간 인증뿐 아니라 국가 공인 모바일 운전면허증, 모바일 공무원증, 국가보훈등록증 등 다양한 모바일 신분증을 통한 인증도 하나의 통합 창으로 제공한다. 이순형 라온시큐어 대표는 "대한민국 사람이라면 금융 거래나 연말 정산 등을 할 때 옴니원 통합인증을 써본 적 없는 사람은 드물 것"이라며 "당사가 오랜 시간 쌓은 보안, 인증 역량은 쉽게 따라오기 힘든 만큼 앞으로도 옴니원 통합인증은 기존 본인인증 서비스들을 대체하는 '국민 통합인증'의 입지를 지킬 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2023.08.31.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>비상금대출도 '온라인 갈아타기' 시작...씬파일러, 인뱅으로 쏠린다</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003131063?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>'생계비 대출' 20대 4명 중 1명 이자 미납 (서울=연합뉴스) 강민지 기자 = 소액생계비 대출을 받은 20대 4명 중 1명은 이자를 미납했다. 서민금융진흥원 자료에 따르면 지난 4일 기준 소액생계비 대출을 받은 20대(만 19세 포함)의 이자 미납률은 24.5%다. 20대 이자 미납률은 전 연령 중 가장 높고, 같은 기간 전체 연령대 미납률(14.1%) 대비 2배에 육박했다. 사진은 21일 서울의 한 은행 대출 창구 앞. 2023.8.21 mjkang@yna.co.kr비상금대출이 대환대출플랫폼에 추가된다. 상대적으로 금리가 낮은 인터넷뱅크로 수요가 몰릴 것으로 예상된다.31일 금융권에 따르면 오는 10월부터 대환대출 플랫폼을 통해 '비상금대출' 갈아타기가 가능해진다. 인터넷은행과 시중은행들이 취급 중인 SGI서울보증보험 담보 300만원 이하 마이너스통장이 대상이다. 기존에는 무담보 개인신용대출 중 건별대출, 장기카드대출(카드론)만 대환대출 플랫폼을 통해 갈아타기가 가능했는데, 인프라 개선을 통해 3분기부터 소액 마이너스 통장이 추가되는 것이다.비상금대출 갈아타기가 가능해지면 상대적으로 금리가 낮은 인터넷뱅크로 갈아타기가 활발할 것으로 보인다.8월 현재 인터넷뱅크 비상금 대출 금리(최저 기준)는 △카카오뱅크 4.73% △케이뱅크 5.95% △토스뱅크 6.16%로, 주요 시중은행인 △국민은행 6.77% △우리은행 6.82% △신한은행 6.75% △하나은행 5.98%에 비해 1% 이상 낮다.연말까지 중·저신용자 대출 비중을 늘려야 하는 인터넷뱅크에게는 일면 호재다. 300만원 이하 마이너스통장 이용자는 직장·소득 등을 따지지 않아 금융이력 부족으로 신용점수가 낮은 20대 청년 '씬파일러' 비중이 높다. 인터넷은행 관계자는 “소액 대출이지만 중·저신용자를 확대할 수 있다는 점은 긍정적으로 보고 있다”고 말했다.다만, 비상금 대출 이동 규모가 인뱅 건정성에 악영향을 줄 가능성은 있다. 서민금융진흥원에 따르면 이달 4일 기준 소액생계비 대출을 받은 20대(만 19세 포함) 이자 미납률은 24.5%다. 20대 이자 미납률은 전 연령 중 가장 높고, 같은 기간 전체 연령대 미납률(14.1%) 대비 2배였다.금융당국은 2021년 인터넷은행 3사 출범 당시 중·저신용자 대출 비중 목표를 설정토록 했다. 올 연말까지 카카오뱅크는 30%, 케이뱅크는 32%, 토스뱅크는 44%를 달성해야 한다. 6월 기준 △카카오뱅크 중저신용자 대출 비중은 27.7% △케이뱅크 24% △토스뱅크 38.5%로 카카오뱅크를 제외한 2사는 5~8% 비중을 높여야 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2023.08.30.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>핀테크 투자하는 금융회사...94%는 네·카·토</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002314396?sid=101</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>직접투자 6.9조원...지난해 3.9조원 이뤄져네이버, 카카오, 토스 등 빅테크 3사에 투자 쏠림나머지 핀테크에 대한 투자액은 6.3% 비중 ◆…김부곤 금융감독원 디지털혁신국장은 30일 금융위원회가 주최한 '코리아 핀테크 위크 2023'에서 '국내 금융권의 핀테크 협업 수요조사 결과' 발표를 실시했다.[사진=김진수 기자]금융회사들이 핀테크에 활발하게 투자하고 있지만 투자액의 94%는 네이버, 카카오, 토스 등 빅테크 3사에 쏠린 것으로 나타났다.   김부곤 금융감독원 디지털혁신국장은 30일 금융위원회가 주최한 '코리아 핀테크 위크 2023'에서 '국내 금융권의 핀테크 협업 수요조사 결과' 발표를 통해 이같이 밝혔다.   금감원에 따르면 지난 5년간 조사대상 174개사 중 50개사(29%)의 직접 투자 규모는 6조9000억원 수준이다. 보통주와 전환상환우선주, 전환사채 등으로 핀테크 기업에 직접 투자한 실적이다.   2019년 4169억원(46건)이던 직접투자 규모는 지난해 3조9000억원(54건)으로 지속 증가했다. 다만 올해 7월까지의 투자액은 3495억원(28건)으로 급감했다. 투자방식은 보통주가 59%로 대부분을 차지했다.   권역별로는 증권사 5조606억원(92건), 보험사 1조3125억원(61건), 은행 3686억원(50건) 등이었다.   이들 금융회사는 네이버(1조4815억원), 카카오(4조365억원), 토스(9336억원) 등 빅테크 기업에 투자를 집중했다.   3개사에 대한 직접투자액은 6조4516억원으로 전체의 93.7% 비중을 차지했다. 나머지 핀테크 기업에는 4312억원(6.3%)만이 투자됐다.   김부곤 국장은 "빅테크 3사에 대한 투자 쏠림이 심화되긴 했지만 연도별 핀테크 투자금액이 지속 증가한 점은 다행이다"라며 "빅테크 외 핀테크 업체들도 도움의 손길을 요청하고 있는 만큼 투자 다각화가 고려돼야 한다"고 강조했다.   한편, 금융회사 62개사(36%)는 1조3000억원의 자금을 모펀드와 정부조성펀드 등을 통해 간접 투자했다. 주로 금융플랫폼과 간편결제 업종에 투자가 이뤄졌다.   금융회사들은 향후 3년간 핀테크 기업에 57건(457억원)의 직접투자와 263건의 간접투자를 계획하고 있다.   직접투자는 금융플랫폼과 인공지능(AI), 블록체인 및 로보어드바이저 순으로 관심이 컸다. 간접투자의 경우 금융플랫폼과 개인금융관리, 빅데이터 분석 등이 거론됐다.   핀테크랩을 운영하는 금융지주를 중심으로 핀테크 기업 66개사에 대한 해외진출 지원도 진행됐다. 구체적으로는 투자유치(IR)와 자금투자, 컨설팅, 사무공간 지원 등이다.   핀테크 기업들은 싱가포르(18개사)와 일본(15개사), 베트남(14개사), 인도네시아(12개사) 등에 진출했다.   김부곤 국장은 "공동 기술실증(PoC) 확대를 통한 금융회사와 핀테크 기업간 협업이 확대돼야 한다"며 "핀테크 해외진출의 경우 진출 국가 다변화와 금융회사의 적극적인 투자지원이 필요하다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2023.08.22.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>토스, KITRI와 차세대 보안리더 키운다</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003127921?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>지난 21일 서울 역삼동 토스 본사에서 진행된 업무 협약식에서 이형석 토스 최고기술책임자(CTO)(왼쪽)와 유준상 한국정보기술연구원장이 기념 사진을 촬영하고 있다.비바리퍼블리카는 한국정보기술연구원(KITRI)과 정보보안 우수 인재를 양성한다고 22일 밝혔다.토스는 지난 21일 서울 역삼동 토스 본사에서 한국정보기술연구원과 '차세대 보안리더 양성 프로그램(BoB)' 관련 업무 협약식을 열었다.행사에는 이형석 토스 최고기술책임자(CTO)와 이종호 보안기술팀 리더, 유준상 한국정보기술연구원장 등이 참석했다.BoB는 과학기술정보통신부가 주최하고 한국정보기술연구원에서 주관하는 사이버 보안인재 양성 프로그램이다. 화이트해커 양성 교육과정으로도 잘 알려져 있으며, 해당 프로그램을 통해 지난 10년여 간 1600명 이상의 보안 전문가가 배출됐다.양사는 이번 협약을 통해 △기술 및 정보 공유를 통한 정보보안 전문가 양성 및 우수인재 지원 △정보보안 인재 양성을 위한 교육과정 개발 및 개선 △인적 자원 교류 등 보안과 관련해 다양한 협력을 진행할 예정이다.토스는 보안기술팀을 중심으로 기술 교육, 윤리 교육, 프로젝트 멘토링 등 수준 높은 보안 교육을 집중적으로 지원한다. BoB 프로그램의 우수 교육생과 수료생들에게 인턴십 기회 등을 제공할 계획이다.이 CTO는 “토스는 보안을 가장 중요한 가치로 삼고 있는 만큼, '정보보안 우수인재 양성을 통한 국가적 보안 난제 해소'를 향한 한국정보기술연구원의 노력에 적극적으로 협조하고자 한다”라며 “금융보안 관련 기술력과 경험을 바탕으로 수준 높은 교육을 제공할 것”이라고 밝혔다.유 원장은 “BoB 프로그램을 수료한 '선배' 멘토들 중 정보보안 분야에서 최고라고 자부할 수 있는 토스의 보안기술팀과 함께하게 되어 기쁘다“라며 “교육 프로그램을 비롯, 다양한 협업을 통해 차세대 보안리더를 함께 양성할 수 있기를 기대한다”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2023.08.25.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>중저신용자 대출 비중, 카뱅 2%p·케뱅 0.1%p 오르고 토뱅 3.6%p 내리고</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000944521?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>그래픽=머니S DB 올 2분기 카카오뱅크가 중저신용자 대출을 5000억원 가까이 확대했다.25일 은행권에 따르면 카카오뱅크는 2분기 말 중저신용자 대상 신용대출 잔액이 3조 9184억원으로 1분기 말(3조4774억원)보다 4710억원 늘었다.올해 상반기 중저신용자에게 공급한 신용대출 규모는 1조7503억원으로 집계됐다. 이는 반기 기준 역대 최대 공급 규모다. 지난해 상반기 취급액인 1조3362억원보다 31% 늘어난 수준이다.가계 신용대출 대비 중저신용자 대상 대출 비중은 27.7%를 기록, 전분기 대비 2.0%포인트 올랐다.카카오뱅크 관계자는 "지속적인 신용평가시스템(CSS) 고도화로 중저신용 고객에게 적극적인 대출 공급을 할 수 있었다"면서 "앞으로도 금융 소비자 이익과 포용성 제고에 앞장설 것"이라고 말했다.토스뱅크는 올 2분기 말 중저신용자 대출 잔액이 3조700억원으로 1분기 말(3조1000억원)보다 300억원 줄었다고 발표했다. 같은 기간 비중도 42.06%에서 38.5%로 줄었다. 토스뱅크가 상반기 중저신용자에게 공급한 대출 규모는 8408억원이다.케이뱅크의 중저신용자 대출 잔액은 6월 말 기준 약 2조원으로 집계됐다. 1분기 말(2조600억원)과 비교해 600억원가량 줄었다.지난 2017년 4월 이후 케이뱅크가 올해 2분기까지 공급한 중저신용자 신용대출 규모는 4조5460억원으로 집계됐다. 올해 상반기 중저신용자 신용대출 규모는 4640억원, 전체 신용대출에서 차지하는 비중은 24.0%로 나타났다. 이는 전기 대비 0.1%포인트 늘어난 수준이다.케이뱅크 관계자는 "중저신용자, 개인사업자 등 다양한 고객층에 대출공급을 확대하고 이자부담을 덜어드리기 위해 노력하고 있다"며 "남은 하반기 동안에도 중저신용자 대출 확대에 집중할 것"이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2023.08.22.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>토스, 한국정보기술연구원과 보안리더 양성 업무협약</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001228352?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>21일 서울 역삼동 토스 본사에서 진행된 업무 협약식에서 토스 이형석 CTO(왼쪽)와 한국정보기술연구원 유준상 원장이기념 사진을 촬영하고 있다. 토스 제공모바일 금융 서비스 ‘토스'를 운영하는 비바리퍼블리카(토스)는 한국정보기술연구원(KITRI)과 업무 협약을 체결했다고 22일 밝혔다.양사는 이번 협약을 통해 △기술 및 정보 공유를 통한 정보보안 전문가 양성 및 우수인재 지원 △정보보안 인재 양성을 위한 교육과정 개발 및 개선 △인적 자원 교류 등 보안과 관련해 다양한 협력을 진행할 예정이다.특히 토스는 보안기술팀을 중심으로 기술 교육, 윤리 교육, 프로젝트 멘토링 등 수준 높은 보안 교육을 집중적으로 지원한다. 또한 차세대 보안리더 양성 프로그램의 우수 교육생과 수료생들에게 인턴십 기회 등을 제공할 계획이다.토스 보안기술팀은 매일 문제점이나 취약점을 발견하고 의도적으로 공격하는 행위인 레드 티밍을 통해 토스 앱을 점검하고 필요한 조치를 선제적으로 시행하고 있다. 보안기술팀 팀원들 중 대부분이 차세대 보안리더 양성 프로그램을 수료했으며, 현재 해당 프로그램의 멘토로도 활동 중이다.토스 이형석 CTO는 “토스는 보안을 가장 중요한 가치로 삼고 있는 만큼 ‘정보보안 우수인재 양성을 통한 국가적 보안 난제 해소’를 향한 한국정보기술연구원의 노력에 적극적으로 협조하고자 한다"며 “특히 금융보안 관련 기술력과 경험을 바탕으로 수준 높은 교육을 제공할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2023.08.24.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>마브렉스, 앱토스와 멀티체인 파트너십 체결</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003128791?sid=105</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>마브렉스 로고 (사진=마브렉스 홈페이지)넷마블 블록체인 전문 자회사 마브렉스(MARBLEX)가 글로벌 블록체인 기업 앱토스(APTOS)와 파트너십을 체결했다고 24일 밝혔다.앱토스는 레이어1 블록체인으로 전세계 이용자 블록체인 시장 참여를 돕기 위한 기술 등을 지원한다.마브렉스는 이번 파트너십을 기반으로 서로 다른 블록체인 생태계 간 서비스 교류를 가능케 하는 '마브렉스 워프' 서비스를 통해 앱토스 이용자들을 대상으로 대체불가능토큰(NFT) 서비스를 선보일 예정이다.마브렉스는 바이낸스, 니어 재단 등과 파트너십을 체결한 바 있다.문준기 마브렉스 본부장은 “이번 파트너십을 통해 앱토스 이용자와 마브렉스 이용자 간 교류와 함께 확장성 부분에서 큰 시너지를 발휘할 수 있을 것으로 기대한다”라고 밝혔다.바샤르 라자르 앱토스 재단 생태계 및 그랜트 책임자는 “전세계 웹3 기반 게임 이용자 경험을 발전시키는 혁신을 가져올 것으로 기대한다”라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2023.08.21.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>적자 폭 줄인 토스證, 손실 확대된 카카오證…왜?</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000348138?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>국내 대표 핀테크 증권사인 토스증권과 카카오페이증권.후발주자인 이들 증권사는 상반기에도 적자를 이어가고 있는데요. 하지만 속사정을 보면 사뭇 다릅니다. 토스증권이 확연한 성장세를 보이며 적자 폭을 줄인 반면, 카카오페이증권은 적자 폭이 되려 늘어난 겁니다.주목할 만한 점은 두 회사 모두 매출액은 크게 늘어났다는 점입니다. 브로커리지(위탁매매)에 집중하는 구조 특성상 '2차전지' 열풍에 따른 상반기 증시 호조가 긍정적으로 작용한 건데요. 매출이 나란히 증가한 두 회사의 실적을 엇갈리게 한 건 '해외주식 점유율'이었습니다.'적자' 토스증권, 상반기 손실 폭 지난해 대비 25% 수준으로 줄여토스증권의 상반기 매출액은 964억 6천252만 원으로 1년 전보다 91.4% 증가했습니다.올해 상반기, 에코프로, 포스코 그룹주 등 2차전지 관련주 열풍이 불면서 일평균 거래대금도 19조 원 중반까지 회복하는 등 주식 거래가 늘어난 효과를 톡톡히 본 겁니다.실제로 토스증권의 상반기 수수료 수익은 409억 2천993만 원으로 91.5%나 성장했습니다.매출 호조와 반대로 영업손실과 당기순손실은 각각 39억 8천590만 원, 40억 2천825만 원으로 집계됐는데요. 여전히 적자긴 하지만, 지난해(168억 6천166만 원·168억 7천458만 원)보다 손실폭은 25% 수준으로 줄이는 데 성공했습니다.적자 폭을 줄인 토스증권과 달리 카카오페이증권의 손실은 되려 확대됐습니다.카카오페이증권의 영업손실과 당기순손실은 254억 6천834만 원, 247억 5천805만 원으로, 1년 전보다 8.8%·3.3%씩 적자 폭 증가했습니다.상반기 매출액이 378억 6천451만 원으로 24% 증가했고, 수탁수수료 수익도 31억 7천668만 원으로 1억 9천만 원대던 전년 대비 16배 이상 증가한 점을 고려하면 의아한 수준입니다.'서학개미 유치' 나선 카카오페이증권…"빠르게 성장할 것"두 회사의 실적 추이를 가른 건 해외주식 점유율로 보입니다.토스증권은 지난 2021년 2월 모바일트레이딩시스템(MTS)을 시장에 선보이면서 '편리함'을 강점으로 내세웠습니다. 특히 초보 '서학개미'를 집중 겨냥해 해외주식 거래도 편리하게 할 수 있는 UI 마련에 주력했습니다. 지난해 초 3%에 불과했던 토스증권의 해외주식 위탁매매 시장 점유율은 1년 만에 20%를 돌파했는데요. 특히 외화증권 수탁 수수료는 올해 상반기 337억 5천469만 원을 기록하며 지난해 상반기 136억 원 수준에서 2.5배가량 대폭 증가했습니다.카카오페이증권 또한 지난해 4월 MTS를 선보이면서 서학개미 유치에 힘쓰고는 있지만, 후발주자란 한계도 있습니다.이에 카카오페이증권은 다양한 이벤트와 수수료 인하 등을 통해 안간힘입니다.지난주 금요일(18일)엔 미국 주식 첫 거래 사용자에게 최대 10만 원까지 상금을 주는 이벤트를 새롭게 진행하기로 했습니다. 또 지난 2월엔 미국 주식 온라인 거래수수료율을 업계 최저 수준인 0.05%로 인하하는가 하면, 영업일 오전 9시부터 오후 4시까지 실시간 환전에 대해 95% 환전수수료 우대를 적용하고 있습니다.여기에 '주식판매금 미리 받기' 서비스나 최근에는 타사 주식 입고 시 최대 100만 원을 지급하는 이벤트, 8월 한정 미국 상장지수펀드(ETF) 매매 수수료 무료 이벤트 등을 진행하면서 사용자 혜택을 늘리는 중입니다.카카오페이증권은 "카카오톡 내 주식 주문 기능을 탑재하고, 전문 주식 투자자들까지 이용할 수 있도록 주문 화면 구조 개편이 이루어지면서 하반기에는 더욱 빠른 성장을 기록할 것으로 예측된다"라면서 "어려운 해외주식 거래의 진입장벽을 낮추고 사용자를 대상으로 쉽고 재미있는 투자 경험을 제공하기 위해 다양한 혜택을 제공할 것"이라고 했습니다. 당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2023.08.30.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>5대 은행, 7월 예대금리차 0.934%P…5개월만에 상승 전환</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0007019273?sid=101</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>주요 은행 중 농협 '최고'…은행 전체에선 전북·토스뱅크 순 높아서울 시내 시중은행 ATM 앞으로 시민들이 지나가는 모습. 2023.8.22/뉴스1 ⓒ News1 박지혜 기자(서울=뉴스1) 신병남 기자 = 지난달 5대 은행의 가계부문 예대금리차(대출금리-저축성수신금리)가 0.934%포인트(p)를 기록해 5개월 만에 상승 전환한 것으로 나타났다.30일 은행연합회에 따르면 7월 기준 국내 KB국민·신한·하나·우리·농협 등 5대 은행의 정책서민금융(햇살론뱅크·햇살론15·안정망대출)을 제외한 평균 신규 가계 예대금리차는 0.934%p로 집계됐다.가계 예대금리차는 지난달 0.93%p에 비해 소폭 오르며 5개월 만에 상승 전환했다. 은행별로는 NH농협은행이 1.11%p로 가장 금리 차이가 컸으며 KB국민은행이 0.92%p, 신한은행 0.91%p, 우리은행 0.90%p, 하나은행 0.83%p 순이다.농협은행 관계자는 "농협은행은 정부정책자금을 주로 취급하며, 정부정책자금은 당행 수신의 높은 비중을 차지하고 있다"며 "정부정책자금은 주로 1~3개월 초단기 정기예금으로 예치되고 있기 때문에 저축성 수신금리가 낮아 타행 대비 예대금리차가 비교적 높게 나타난다"고 설명했다.산업·기업은행 제외한 17개 은행의 신규 가계 예대금리차는 평균 1.688%p로 집계됐다. 이들 가운데서는 전북은행이 5.76%p로 예대금리차가 가장 컸고 토스뱅크 3.39%p, 광주은행 3.26%p로 뒤를 이었다.한편 지난달부터 공시를 시작한 잔액 기준 가계 예대금리차는 5대 은행 중에선 국민은행의 잔액 기준 가계 예대금리차가 2.54%p로 가장 높았다. 농협은행 2.45%p, 신한은행 2.38%p, 우리은행 2.18%p, 하나은행 2.08%p 등 2%p를 우회하는 예대금리차를 보였다.17개 은행으로 대상을 확대하면 토스뱅크 5.46%p로 차이가 가장 컸다. 이어 전북은행 4.28%p, 광주은행 4.06%p, 케이뱅크 3.65%p, 카카오뱅크 3.13%p가 뒤를 이었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2023.08.28.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>사람인 점핏, 백엔드 개발자 위한 '개취콘' 성료</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002303135?sid=105</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>당근마켓·토스뱅크 등 개발자 4명 강연...주니어 개발자 1천여 명 참석개발자 채용 플랫폼 점핏(대표 김용환)은 교보문고와 공동으로 주최한 개발자 취업 콘서트(이하 개취콘)을 성황리에 마쳤다고 28일 밝혔다.지난 27일 서울 강남 모나코스페이스와 영상 생중계로 온·오프라인 동시에 열린 이번 행사에는 커리어 성장을 꿈꾸는 주니어 개발자 약 1천여명이 참석했다. 주제는 '점핏 투 백엔드(JUMPIT TO BACK-END)'로, 백엔드 개발자로 일하는 노하우와 기술 트렌드, 커리어 성장 방법 등 백엔드 개발 커리어를 총망라했다.연사로는 IT 기업 출신 시니어 백엔드 개발자 4명이 나섰다. 첫 번째 세션 '센스있게 일하는 백엔드(BE·Backend) 개발자 되기'에서는 강남언니 개발 챕터 리드를 역임하고, 현재 서울 엘릭서 밋업(Seoul Elixir Meetup) 운영진을 맡고 있는 손진규 개발자가 인터페이스의 중요성을 역설했다. 이어 토스뱅크의 박준하 CTO·테크놀로지 헤드가 토스뱅크의 기업문화와 성장하는 주니어 백엔드 개발자의 특징을 정리해 주니어 개발자들의 커리어 성장 전략을 공개했다.점핏'꼭 맞는(Fit한) 정보로 성장 부스트업'을 주제로 한 두 번째 세션에서는 최근 각광받는 기술 스택과 기술 트렌드에 대한 정보 공유가 이어졌다. 당근마켓 커뮤니티실의 박용권 개발자와 삼성SDS를 거쳐 LG유플러스 데브옵스(DevOps) 조직에서 근무 중인 심근우 팀장이 각각 코틀린과 컨테이너 인프라에 대해 심도 깊게 강연했다.점핏 편혜은 매니저는 "지난 4월 프론트엔드를 주제로 한 개취콘에 2천명이 넘는 인원이 신청하는 열띤 성원에 힘입어 이번에는 프론트엔드 못지 않게 인기가 높은 백엔드 개발을 주제로 행사를 준비했다"며 "앞으로도 개취콘을 포함해 주니어 개발자들의 커리어 성장을 돕는 다양한 활동을 전개해 나갈 계획"이라고 말했다.잡테크커넥팅데이즈 포스터한편 지디넷코리아는 9월25일부터 27일까지 삼성동 코엑스A 홀에서 ‘잡테크 커넥팅 데이즈’ 채용 브랜딩 행사를 개최한다. 대중들에게 사랑받는 다수 기업들이 참여해 자사의 기업문화와 필요로 하는 인재상, 복지정책과 일하는 방식 등을 소개할 예정이다.국내·외 정보통신기술(ICT)의 미래를 한자리에서 확인할 수 있는 ‘대한민국 디지털 미래혁신대전 2023’과 함께 열리는 이번 채용 행사에는 ▲원티드랩 ▲제네시스랩 ▲네이버 ▲무신사 ▲라인 ▲당근마켓 ▲토스CX ▲오늘의집 ▲야놀자 ▲직방 ▲나만의 닥터 등이 참여한다.채용 정보와 직무 교육 등에 있어 인사이트를 주는 다양한 강연도 열릴 계획이다. 각 회사 인사/교육 담당자를 비롯해 취준생, 이직러 등이 참여해 서로 간의 정보 교류도 기대된다. 취준생들은 여러 기업들의 채용 관련 팁, 일하는 문화와 방식, 기업 철학 등을 파악해 자신의 진로를 선택하는 데 도움을 받을 수 있다. 이직을 생각하는 직장인들도 새로운 직장으로 옮기기 위해 필요한 업무 스킬과 자격 요건 등을 파악하는 기회가 될 수 있다.취업을 앞둔 대학생이나 휴직생, 이직을 고려하는 직장인들 모두 무료로 참석할 수 있다. 채용 브랜딩이 필요한 기업들은 [☞디지털 미래혁신대전 운영 사무국]을 통해 신청하면 된다. 관련 대학 또는 기관 참여도 가능하다. 보다 자세한 참여 안내는 네이버 검색창에서 '디지털 미래혁신대전'을 입력 후, 웹사이트에 방문하면 확인 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2023.08.27.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>글로벌 시장 규모만 760조 ‘후불결제 BNPL’…韓 현주소는?</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000049279?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>[BNPL, 먹거리냐 짐덩이냐] ①스웨덴·독일 등 이커머스 결제 20% 이상이 BNPL국내 빅테크 3사 경쟁…토스는 누적 가입자 200만 ↑ 스마트폰에 표시된 페이팔 로고. [사진 로이터/연합뉴스][이코노미스트 윤형준 기자] 전 세계 후불결제(BNPL·Buy now pay later) 시장 규모가 3년 뒤엔 760조원까지 급증할 전망이다. BNPL은 미국·유럽 등 주요 선진국에선 이미 지급결제 수단의 ‘뉴노멀’(새로운 기준)로 자리 잡았다. 국내에서도 네이버파이낸셜·카카오페이·토스(네카토) 등 빅테크를 중심으로 성장하고 있으며, 카드사들도 새로운 먹거리로 주목한다.비즈니스 통계 플랫폼 스태티스타에 따르면 글로벌 전자상거래(이커머스) 시장에서 BNPL 거래액은 2019년 340억 달러(약 46조원), 2020년 600억 달러(약 81조원), 2021년 1200억 달러(약 161조원)로 꾸준히 늘어났다. 3년 만에 253%나 ‘폭풍 성장’한 셈이다.지난해 거래액 예상치는 2140억 달러(약 287조원)로 전년보다 78.33%나 성장한 것으로 추정된다. 업계에서는 오는 2026년 BNPL 거래액이 5658억 달러(약 759조원)에 달할 것으로 전망한다. BNPL은 사업자가 소비자에게 무이자로 상품 대금을 분할해 낼 수 있게 해주는 서비스다. 소비자는 상품을 우선 제공받고 BNPL 사업자는 가맹점에 대금을 대신 내준다. 이후 소비자가 6주~12개월에 걸쳐 BNPL 업체에 결제 대금을 갚는 식이다. 특히 BNPL은 일정 신용등급 요건을 충족해야 발급받는 신용카드와 달리 만 18세 이상이면 누구나 이용할 수 있다. 신용카드처럼 연회비나 분할납부 수수료도 없다. 이 같은 장점으로 BNPL은 전 세계에서 인기를 끌고 있다. 특히 학생, 주부, 외국인 등 ‘신파일러’(Thin Filer·금융 이력 부족자)들에게 BNPL은 매우 유용한 결제수단으로 통한다. ‘신파일러’ 포용한다…유럽에선 진짜 대세BNPL은 이미 해외에서 다양한 업체들이 등장하며 주요 결제수단으로 자리 잡았다. 스웨덴의 클라르나, 미국의 어펌, 호주의 애프터페이 등이 대표적이다. 글로벌 결제 플랫폼 페이팔도 BNPL 서비스를 제공하며 애플 또한 ‘애플페이 레이터’를 올해 3월 정식 출시했다.특히 유럽에서 BNPL은 주류 결제수단으로 발돋움하고 있다. 금융 콘텐츠 미디어 핀마스터스에 따르면 스웨덴과 독일의 이커머스 결제 중 BNPL이 차지하는 비중은 각각 25%, 20%로 나타났다. 이는 미국(4%)보다도 5~6배가량 높은 수치다.유럽에서도 독일의 경우 카드사별로 차이가 있지만 신용카드 연회비가 약 10만원에 달하고 할부 혜택도 많지 않은 것으로 알려진다. 이에 거액을 지출하는 경우 신용카드 할부 대신 BNPL 이용자가 증가하는 것으로 해석된다. 미국은 유럽보다 BNPL의 결제수단 비중이 낮지만 사용 경험은 높은 수치를 보인다. 금융 콘텐츠 미디어 모틀리풀어센트의 설문 조사 결과, 지난해 미국 성인 가운데 BNPL을 사용해 본 이용자 비중은 50%였다. 이 중 48%는 신용카드보다 BNPL을 더 자주 사용한다고 응답하기도 했다.‘네카토’ 중심 국내 시장도 성장…카드사도 참전국내에선 빅테크를 중심으로 BNPL 시장이 커지고 있다. 네이버파이낸셜은 지난 2021년 4월부터 ‘네이버페이 후불결제’를 선보이며 국내에서 처음으로 BNPL 서비스를 내놨다. 자체 심사를 통과한 사람에게 최대 월 30만원 한도를 부여한다.카카오페이는 지난해 1월부터 월 15만원 한도의 후불형 모바일 교통카드로 BNPL 서비스를 개시했다. 카카오페이 관계자는 “선불 충전형 모바일 교통카드는 연동 계좌에 잔액이 부족하면 이용자들이 곤란해질 경우가 있어 교통카드에 먼저 BNPL을 도입했다”고 설명했다.토스페이 후불결제 소개 페이지. [제공 토스]토스는 후발주자로 지난해 3월 ‘후불결제’를 시작했지만, 오히려 현재는 규모가 가장 크다. 지난 6월 말 기준 토스의 BNPL 서비스 누적 가입자 수는 223만2015명으로 네이버파이낸셜(74만3941명)보다 3배가량 많다. 지난해 8월 기준 가입자수가 25만명이었다는 점을 감안하면 약 1년 만에 가입자가 10배가량 급증한 셈이다. 토스페이 후불결제는 최대 월 30만원 한도로 제공하고 있으며, 야놀자, 진에어, 무신사, 요기요, 위메프 등 97개 가맹점에서 사용할 수 있다.전통 금융사인 카드사들도 BNPL 시장에 눈독을 들이고 있다. 이달 KB국민카드 사내벤처팀 ‘하프하프’와 결제 전문 기업 다날은 공동 BNPL 서비스 ‘소비잇(it)’을 개시했다. 한도는 개인별 신용등급에 따라 최대 200만원까지 설정되며, 분할납부 기간도 최대 12개월까지 조정할 수 있다. 현재는 해외 명품가구 플랫폼 ‘바우트’와 애플 프리미엄 리셀러 ‘넵튠코리아’ 온라인 쇼핑몰에서 사용 가능하다.롯데카드는 지난해 10월 베트남에서 먼저 서비스를 선보였다. 베트남 현지 법인인 롯데파이낸스 베트남은 현지 이커머스 기업인 ‘티키’와 제휴해 해당 몰에서 BNPL을 사용할 수 있게 했다. 롯데카드 관계자는 “베트남은 신용카드 발급률이 낮아 온라인 소액 후불결제 수요가 있다고 판단해 티키와 함께 서비스를 시작했다”며 “특히 베트남 인구의 47.2%인 MZ세대에게 BNPL이 새로운 기술이자 상품으로 다가갈 것으로 기대한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2023.08.21.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>8초에 1개…토스뱅크 자유적금, 10만 좌 돌파</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001228041?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>토스뱅크(대표 홍민택)는 복잡한 조건을 충족할 필요가 없는 ‘토스뱅크 자유적금’이 출시 9일 만에 10만 좌를 넘었다고 21일 밝혔다.토스뱅크 자유적금은 지난 9일 토스뱅크가 선보인 신규 적금 상품이다. 고객들이 복잡한 조건을 충족할 필요 없이, 매달 꾸준히 저금하면 우대 금리를 포함 최고 연 5%의 금리 혜택을 받을 수 있다.해당 상품은 고객의 선택권을 대폭 넓힌 것이 특징이다. 가입 기간은 최소 3개월부터 최대 36개월까지다. 월 납입 한도는 최대 300만 원으로, 한도 범위 내에서 고객들이 자유롭게 추가 납입 가능하다. 기본 금리는 가입 기간에 따라 차등 적용된다. 12개월 이상 가입할 경우 우대 금리를 포함 최고 연 5% 금리 혜택을 받을 수 있다. 고객들은 상품 가입 전 자신이 받게 될 이자도 한 눈에 미리 확인할 수 있다. 특히 MZ세대 사이에서 높은 호응을 보였다. 토스뱅크 자유적금 가입 고객 가운데 2030세대는 전체의 58.6%에 달했다. 특히 고객 3명 중 1명(32.3%)이 20대로 높은 비중을 차지했다. 토스뱅크 관계자는 “고객이 우대 금리를 받기 위해 충족해야 했던 ‘복잡한 조건’을 모두 덜어낸 결과로 생각된다”며 “앞으로도 고객 관점에서 상품을 고민하고 최고의 혜택을 드릴 수 있도록 노력할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2023.08.28.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>토스 사내 봉사단, 중증장애인시설 ‘봉사활동’ 실시</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001229240?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>모바일 금융 서비스 ‘토스’를 운영하는 비바리퍼블리카의 사내 봉사단 ‘토스피스’는 지난 25일 중증 장애인 시설 ‘한사랑마을’에서 봉사 활동을 진행했다고 28일 밝혔다. 지난 6월 봉사단 발족 이후 두 번째 활동이다.이번 활동은 토스, 토스뱅크, 증권, 플레이스 CX 등 토스 계열사 직원 약 20여 명이 참여했으며, 초록우산어린이재단과의 협업으로 진행됐다.토스는 초록우산어린이재단과 지난해 플랫폼 서비스 확대를 위한 업무협약(MOU)를 맺고 모바일 기부 이벤트, 10년사를 담은 ‘유난한 도전’ 인세 기부를 진행한 바 있다. ‘한사랑마을’은 초록우산어린이재단이 중증 장애인들의 보호, 치료 및 상담 등 장애인 서비스 제공을 목적으로 설립한 전문 거주시설이다.이날 봉사활동은 혼자 식사를 하기 어려운 중증 장애인의 식사를 돕고, 이후 휠체어 산책 활동을 함께하는 순서로 진행됐다. 또한 한사랑마을 생활관 내 환경 미화를 지원하고, 세탁기 구매를 위한 소정의 기부금도 전달했다.토스 관계자는 “토스가 만들어 온 눈부신 성장은 고객의 신뢰와 지지가 있었기 때문에 가능했다”며 “더 나은 금융 서비스와 함께 책임 있는 기업으로서 사회의 도움이 필요로 하는 곳에 찾아가 선한 영향력으로 보답할 것”이라 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2023.08.24.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>인터넷은행 산업 내 경쟁력 SWOT 분석해보니...</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000084132?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>기술력 좋지만 대출 건전성 글쎄…규제 완화는 기회·경쟁 심화는 부담2017년 최초의 인터넷은행 케이뱅크가 설립한 지 6년이 지났다. 그동안 인터넷은행은 편의성과 기술력을 앞세워 질적, 양적으로 가파른 성장을 거듭해왔다. 그러나 최근 들어 성장의 한계에 부딪혔다. 비대면의 한계상 ‘큰손’인 기업 고객을 유치하지 못해 확장성이 떨어졌다. 중·저신용자 대출 비중이 증가하며 대출 연체율은 올라갔다. 핀테크 서비스를 강화한 기존 은행 반격도 매섭다. 산업 전반적으로 경쟁력을 점검하고, 재도약을 준비해야 할 시기라는 분석이 나오는 이유다.(S) 강점IT 기술력과 플랫폼 경쟁력은행 산업 내에서 인터넷은행의 최고 강점은 IT 기술력과 플랫폼이다. 온라인 앱상에서 소비자를 모으려면 성능을 극대화해야 한다. 사용자가 모바일 앱을 사용할 때 편리함을 느끼도록 만드는 UI(User Interface) 디자인, 앱 실행 시 오류를 줄이고 처리 속도를 올려주는 ‘최적화’ 기술 등을 필수로 갖춰야 한다.앱 성능은 우수한 소프트웨어 개발자를 얼마나 많이 보유하고 있느냐에 따라 갈린다. 인터넷은행은 개발 역량이 기존 은행에 비해 월등히 뛰어나다. 회사에서 개발 조직이 차지하는 비중이 크다. 케이뱅크, 카카오뱅크, 토스뱅크 3사 모두 회사 내에서 IT 인력 비율이 50%에 육박한다. 세 회사 모기업이 모두 IT 기업 기반인 덕분에 모바일 서비스와 관련해 상당한 역량을 갖추고 있다. 반면 시중은행은 IT 인력 비중이 전체의 6.5%에 불과하다. 은행권 관계자는 “시중은행은 영업을 중요시하다 보니, IT 인력을 뽑아놓고도 영업을 시키는 경우가 허다하다. 개발자들이 이점을 느끼기 힘든 구조”라고 설명했다.거대 플랫폼과 연계성이 뛰어난 것도 강점으로 꼽힌다. 카카오뱅크는 ‘카카오톡’, 토스뱅크는 ‘토스’에 앱이 연동돼 있다. 케이뱅크는 가상자산 1등 거래소인 업비트와 손을 잡았다. 국민 절반 가까이가 사용하는 플랫폼으로 소비자가 빠르게 유입됐다. 덕분에 기존 은행보다 빠른 속도로 고객을 모았다. 올해 2분기 기준 카카오뱅크는 가입자 수가 2174만명을 넘어섰고 케이뱅크와 토스뱅크는 각각 900만명, 700만명을 돌파했다. 미래 주요 고객인 1020세대 사이에서는 시중은행보다 높은 경쟁력을 자랑한다. 하나은행이 올해 6월 잘파세대(10대 중반~20대 초반)를 대상으로 설문조사한 결과 대학생 10명 중 8~9명은 시중은행을 통해 처음 금융 거래를 시작했으나 중고등학생은 10명 중 5명 정도만 시중은행에서 처음 거래를 시작했다. 10대 중 절반은 인터넷은행이나 카카오뱅크미니 같은 유스 앱(청소년용 금융 서비스 앱)을 이용했다.(W) 약점낮은 법인 고객 비중, 건전성 부담강점만큼 약점도 명확하다. 개인 고객 대비 기업 금융 비중이 현저히 낮아 매출 확장성이 떨어진다. 중·저신용자 대출 비중 규제로 건전성이 위협받는 점도 문제다.편의성과 플랫폼 경쟁력을 앞세운 덕분에 개인 고객 비중은 높지만 법인 고객 거래는 공백에 가깝다. 은행 자산 규모가 커지려면 거래 단위가 큰 기업 금융 서비스가 활성화돼야 한다. 문제는 인터넷은행이 기업 금융 서비스를 제공하는 게 사실상 불가능하다는 점이다. 인터넷전문은행법 2조는 업무를 주로 전자금융거래 방법으로만 가능하도록 명시했다. 규모가 크고 복잡한 금융 거래는 직접 만나 진행되는 게 다반사다. 설계 자체가 기업 금융을 못하도록 막혀 있는 셈이다. 금융감독원에 따르면 올해 3월 기준 인터넷은행 3사의 보유 대출 잔액 50조5491억원 중 기업대출 비중은 4.6%에 불과하다. 나머지 95%는 가계대출이다. 하나은행(55.7%), 국민은행(50.7%) 등 시중은행과 비교하면 기업대출 비중이 현저히 떨어진다. 인터넷은행 3사는 필요 업무에 한해 대면 영업을 할 수 있도록 금융당국에 규제 완화를 요구하고 있지만, 현실은 녹록지 않다.중·저신용자 대출 규모가 크다는 것도 부담스럽다. 인터넷은행의 설립 취지 가운데 하나가 중·저신용자를 위한 중금리 대출 확대다. 금융당국은 인터넷은행에 중·저신용자 대출 비중 목표치를 매년 받고 있다. 중·저신용자 대출 확대는 취약계층에 대한 금융 접근성 개선이라는 긍정적 측면이 있으나, 대출 건전성에는 부정적 요인이 될 수 있다. 최근 중·저신용자에 대한 신용대출 비중이 상승하고 있는 가운데, 지난해 하반기 이후 중·저신용자 대출 연체율이 상승세를 이어가고 있다. 2022년 1% 아래로 내려갔던 연체율은 올해 1분기 2.2%로 치솟았다.(O) 기회해외 진출 시작, 색다른 서비스로 차별불리한 여건에도, 인터넷은행의 발전 가능성은 크다는 게 업계 관계자들의 한결같은 판단이다. 우선 해외 시장으로 눈을 돌리면 다양한 기회가 열려 있다. 인터넷은행 3사는 해외 진출을 위한 방안을 모색하는 중이다. 선두 주자는 카카오뱅크다. 인구수가 많은 동남아 시장 공략에 나섰다.카카오뱅크는 올해 6월 태국의 주요 금융지주사 SCBX와 ‘태국 가상은행 인가 획득’을 위한 업무협약(MOU)을 체결했다. 협약을 통해 카카오뱅크와 SCBX는 컨소시엄을 구성, 태국 내 가상은행 인가 획득을 목표로 협력할 예정이다. 카카오뱅크는 추후 설립되는 가상은행 컨소시엄의 20% 이상의 지분을 취득해 2대 주주의 지위를 확보할 수 있을 것으로 전망된다. 토스뱅크는 토스와 함께 베트남 시장 공략을 준비하는 것으로 알려졌다. 홍민택 토스뱅크 대표는 지난해 9월 부이 반 하이 베트남 은행감독원 금융기관안전감독국 부국장 등과 만남을 진행한 바 있다.플랫폼을 활용한 다채로운 서비스도 눈길을 끈다. 기존 은행권이 따라 하기 힘든 독특한 상품으로 고객을 끌어모은다. 케이뱅크는 KT와 연계해 법인 고객을 유치 중이다. 가게 매출 관리(스마트로), 상권 분석 서비스(KT잘나가게), 세금 환급액 조회(비즈넵) 서비스를 제공, 개인사업자 대출 수요를 늘렸다. 케이뱅크 개인사업자 대출 잔액은 950억원(2022년 말) → 3400억원(2023년 1분기) → 5300억원(2023년 2분기)으로 계속 증가 중이다.(T) 위협규제 강화 움직임, 경쟁 격화도 위협인터넷은행업계의 재도약을 위해선 위협 요인을 제거해야 한다. 최근 인터넷은행 성장을 주도한 주택담보대출(주담대)을 향한 당국 기류가 심상찮다. 카카오뱅크 주담대 잔액은 2022년 말 13조2960억원에서 올해 6월 말 17조3220억원으로 4조260억원(30.3%), 케이뱅크는 같은 기간 2조2930억원에서 3조7000억원으로 1조4070억원(61.4%) 각각 늘어났다. 비대면 주담대 상품을 공격적으로 영업, 판매했다.금융당국은 가계대출 급증의 주범 중 하나로 인터넷은행의 비대면 주담대 상품을 꼽았다. 김주현 금융위원장이 “은행권은 상식에서 벗어난 DSR 우회, 과잉 대출을 살펴봐야 한다”고 지적했다. 실적 증가를 견인했던 주담대 상품이 규제로 판매가 까다로워지면 부담이 크다.인터넷은행업 자체의 경쟁이 심화되고 있다는 점도 부담스럽다. 특화은행(챌린저뱅크), 제4인터넷은행 등장설이 파다하다. 특화은행은 특정 고객층을 전문으로 하는 은행이다. 한국신용데이터가 소상공인 전문 특화은행을 만들겠다고 나선 바 있다.[본 기사는 매경이코노미 제2223호 (2023.08.23~2023.08.29일자) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2023.08.21.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>연 5% 토스뱅크 자유적금, 출시 9일 만에 10만 계좌</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005302433?sid=101</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>토스뱅크 자유적금이 출시 9일 만에 10만 계좌를 돌파했다. 토스뱅크는 8초당 1계좌가 개설된 셈이라고 21일 밝혔다.토스뱅크에 따르면 지난 9일 선보인 적금 상품은 우대금리를 포함해 최고 연 5%의 금리 혜택을 받을 수 있다. 가입 기간은 최소 3개월부터 최대 36개월까지다. 월 납입한도는 최대 300만원으로 한도 범위 내에서 고객들이 자유롭게 추가 납입할 수 있다.기본금리는 가입 기간에 따라 차등 적용되지만, 12개월 이상 가입할 경우 우대금리를 포함 최고 연 5% 금리 혜택을 받을 수 있다. 고객들은 상품 가입 전 자신이 받게 될 이자도 한눈에 미리 확인할 수 있다.이 상품은 MZ세대(밀레니얼+Z세대) 사이에서 인기를 끌었다. 토스뱅크 자유적금 가입 고객 가운데 20~30대가 58.6%에 달했다. 특히 고객 3명 중 1명(32.3%)이 20대로 높은 비중을 차지했다.토스뱅크 관계자는 "우대금리를 받기 위해 충족해야 했던 ‘복잡한 조건’을 모두 덜어낸 결과 고객들, 특히 젊은 층을 중심으로 이례적으로 높은 호응을 끌어낼 수 있었다"며 "앞으로도 고객 관점에서 상품을 고민하고, 최고의 혜택을 드릴 수 있도록 노력할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2023.08.28.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>"강력한 지도자, 잠들어있었다"...페루 유적지서 '3천년전' 성직자 추정 유해 발굴</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005062828?sid=104</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>페루 파코팜파 유적지 무덤에서 발굴된 성직자 유해. 사진=연합뉴스 [파이낸셜뉴스] 남미 페루에서 3000년 전 만들어진 것으로 보이는 한 무덤이 발견돼 화제다.   27일(현지시간) 페루 안디나통신 및 AFP 등에 따르면 전날 페루 문화부는 성명을 내고 "북부 카하마르카 파코팜파 고고학 유적지에서, 기원전 1천년 경에 살았던 것으로 보이는 성직자의 유해를 찾았다"라고 밝혔다.   해당 유해는 일본·페루 공동발굴팀이 확인한 것으로, 검은 흙이 섞인 6겹의 잿가루 아래에 매장돼 있었다. 안디나는 유해 주변에 당시 엘리트 신분이었던 사람의 무덤에서 볼 수 있는 도자기와 도장, 뼈 주걱과 다른 제물 등이 함께 묻혀 있었다고 전했다.   이 무덤은 지름 3ｍ, 깊이 1ｍ의 원형으로 전해졌다.   발굴팀 리더이자 이 지역에서 18년간 연구한 유지 세키는 "이 사람이 그 시대의 강력한 지도자였다고 보고 있다. 안데스 지역 종교시설을 통제하며 일련의 제사를 지낸 첫 성직자 중 한 명이었을 것"라고 추정했다.   페루 당국은 발굴된 지역명을 따 유해를 '파코팜파의 사제'라고 명명했다.   당국은 해당 유해가 2009년과 2015년에 각각 발굴된 △파코팜파의 여인, △파코팜파의 뱀 재규어 사제보다 5세기가량 앞선 것으로 보인다고 전했다.   한편, 발굴팀은 지난해 9월에도 묻힌 지 3천년 이상 된 것으로 추정되는 '푸투토스의 사제' 유해를 찾아낸 바 있다. 푸투토스는 트럼펫 같은 소리를 낼 수 있는 도구로, 조개껍데기 등을 사용해 만든다. 옛 종교의식에 주로 쓰였으며, 당시 유해 주변에서 이 푸토토스가 발견됐다. #성직자 #페루유적지</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2023.08.29.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>니시큐슈 신칸센 카모메를 만나다</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/047/0002404385?sid=103</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>2022년 9월 23일 니시큐슈 신칸센 개통으로 일본 큐슈 서쪽 지방의 대표적 도시인 나가사키를 이제는 신칸센으로 이용할 수 있게 되었습니다. 기존의 열차를 타면 나가사키 본선을 이용해 약 1시간 50분 정도 소요가 되었던 것을 이제는 약 30분정도 단축하였습니다. ▲ JR 타케오온천 역 출발 대기중인 카모메 니시큐슈 신칸센 카모메호의 모습ⓒ 서규호 원래 계획은 큐슈 신칸센이 지나는 JR 신토스 역에서 분기해 JR 사가 역  JR 타케오온센 역 그리고 JR 우레시노온천 역등을 거처 JR 나가사키로 가려고 했으나 사가현의 문제로 인해 현재는 JR 하카타 역에서 출발하는 릴레이 카모메호를 타고 JR 타카오온센 역까지 이동 후 평면 열차 환승을 해야 합니다. 언젠가 직통연결이 되면 더욱더 빠르게 나가사키로 이동할 수 있습니다. JR 타케오온센 역은 새롭게 신칸센 열차와 재래선 열차가 환승하는 구조로 되어 있어 릴레이 카모메호에서 내리면 바로 옆 승강장으로 이동하여 환승 합니다. 이러한 환승 방식을 평면 환승 방식으로 우리나라 김포공항 역 9호선과 공항철도의 환승 방식이 이 방식입니다. ▲ JR 타키오온천역의 평면환승 왼쪽이 특급 릴레이 카모메 오른쪽이 니시큐슈 신칸센 카모미의 모습ⓒ 서규호  ▲ 니시큐슈신칸센 카모매 내부 지정석의 2*2열 배열의 차량 내부ⓒ 서규호 열차는 N700S계로 8000번대의 차량 번호입니다. 시속 260KM/H의 영업 속도를 내며 JR 다케오온센 역에서 JR 나가사키 역까지 30여 분 만에 도착합니다.열차 내부로 들어가 보면 대형 수화물을 놓을 수 있는 공간이 따로 마련되어 있습니다. 내부는 큐슈 신칸센 쓰바메 내부처럼 좌석이 나무를 활용한 은은한 분위기를 자아 냅니다. 전 좌석 창가 쪽에는 충전 단자가 있어 충전이 가능 합니다. ▲ JR 나가사키 역에 도착한 카모메호 JR 나가사키 역에 도착한 카모메! ⓒ 서규호 열차는 빠르게 고속선로를 이용해 남서쪽으로 이동합니다. 아무래도 고속이다 보니 풍경은 잘 안 보이고 터널이 많습니다만 빠르게 나가사키로 간다는 설렘은 이미 나가사키로 향하고 있습니다 출발 6분 만에 JR 우레시노온천 역에 도착합니다.일본의 명천으로 "미인이 되는 온천"으로 유명한 온천입니다. 우레시노 하면 또 하나 유명한 게 녹차입니다. 기존에 역이 없어 접근이 힘들었던 우레시노도 이제 열차 역이 생기면서 더 많은 관광객들이 찾게 되었습니다. ▲ JR 나가사키 역 광장 한참 공사중인 JR 나가사키 역 광장ⓒ 서규호 JR 이사하야 역에 도착하면 기존의 JR 나가사키 본선과, JR 오무라 선, 사철인 시마바라 철도 등으로 환승이 가능 합니다. JR 타케오온센 역을 출발한 지 30여 분 만에 JR 나가사키 역에 도착합니다. 실제로 JR 이사하여 역만 정차하는 스케줄의 열차를 탑승하면 23분 만에 JR 나가사키 역에 도착합니다.지금 막 공사를 마친 고가화된 JR 나가사키 역은 기존의 역 선로가 있던 곳을 새롭게 단장을 하고 있습니다. 나가사키 짬뽕과 나가사키 야경을 만나러 이번주 JR 니시큐슈 신칸센을 타고 출발해 보는 건 어떠 실까요!</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2023.08.21.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>"상폐됐습니다"…증권사 오류에 '이 종목' 투자자 멘붕</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002186266?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>[헤럴드경제=김성훈 기자] 토스증권 애플리케이션에서 뉴욕증시 상장 종목인 존슨앤존슨이 상장폐지됐다고 잘못 표기되는 오류가 발생했던 것으로 21일 확인됐다.토스증권에 따르면 이날 오후 5시부터 약 50분간 존슨앤존슨이 모바일트레이딩시스템(MTS)에 상장폐지된 상태로 잘못 표시돼 사용자들 사이에서 혼선이 빚어졌다. 현재는 정상 거래 중이다.토스증권은 외부로부터 해당 종목 관련 정보를 수신하는 과정에서 오류가 발생하면서 생긴 일시적 장애였던 것으로 보고있으며, 해당 종목 하나만 오류가 난 것으로 파악했다.토스증권은 자사 홈페이지를 통해 이날 오류에 대한 안내 공지문을 띄웠으며 피해를 본 고객이 있을 시 보상하겠다는 입장이다.토스증권 관계자는 "오류 발생 시간 동안 해당 종목의 가격 변동이 거의 없어 현재까지 접수된 투자자 피해는 없다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2023.08.17.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>토스뱅크, 인터넷은행 최초로 '햇살론뱅크' 출시</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006995642?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>토스뱅크 제공(서울=뉴스1) 한유주 기자 = 토스뱅크가 서민금융진흥원(서금원)에서 운영 중인 정책서민금융상품 '햇살론뱅크'를 인터넷전문은행 최초로 출시한다고 17일 밝혔다. '햇살론뱅크'는 정책서민금융을 이용했던 저신용·저소득자가 부채 또는 신용도 개선을 통해 은행권에 안착할 수 있도록 지원하는 징검다리 성격의 상품이다.대상은 정책서민금융상품을 이용한 후 대출을 잘 갚아 신용도가 개선된 고객이다. 햇살론15·햇살론17·바꿔드림론·안전망대출·안전망대출II·새희망홀씨·미소금융·근로자햇살론·사업자햇살론·햇살론유스 등 정책서민금융상품을 6개월 이상 이용했거나 이용 중인 또는 정상 완제하고 부채나 신용도가 개선된 고객이 해당된다. 대출 한도는 최소 500만원에서 최대 2500만원으로 서금원 보증한도 내에서 취급 가능하다. 대출 기간은 3년 또는 5년으로 거치기간 1년을 선택해 필요에 따라 기간을 조정할 수도 있다. 상환방법은 원리금 균등 분할상환이다. 햇살론뱅크 이용자는 인지세와 중도상환해약금이 무료다. 보증료는 연 2%로, 24세 이하이면서 연소득이 3500만원 이하인 저소득 청년은 연 0.5%, 금융교육과 컨설팅 이수자는 연 0.1% 인하 우대한다. 보증료가 포함된 대출금리는 이날 기준 연 6.84~13.24% 수준이다. 기준금리는 금융채 3개월(3개월 변동금리), 금융채 6개월(6개월 변동금리), 금융채 12개월(12개월 변동금리) 중에서 택할 수 있다.햇살론뱅크 신청은 토스앱 내 토스뱅크 상품찾기 탭에서 가능하다. 햇살론뱅크는 서금원에서 운영하는 상품이기 때문에 주말과 공휴일에는 신청이 불가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2023.08.16.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>[기획/2023 디지털금융 ⑪] 토스뱅크, 설립 취지에 부합한 혁신 성과… 견고한 '중신용자' 대출 인프라 가동</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002154567?sid=105</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>ⓒ토스뱅크* 본 기사는 디지털데일리가 7월 발간한 &lt;2023년 디지털금융 혁신과 도전&gt;에 게재된 내용을 요약한 것으로, 실제 책의 편집 내용과 다를 수 있습니다. 해당 도서는 디지털데일리 홈페이지를 통해서만 온라인 한정 판매되며 일반 서점에서는 판매하지 않습니다.-‘중신용자’시장 겨냥한 ‘디지털 종합금융플랫폼’ 전략 구현-인터넷은행 특성 고려, UI‧UX 강화… 대고객 ‘초자동화’ 중점-‘계정계’ 업무도 단계적으로 MSA로 분리, 클라우드 환경 전환[디지털데일리 박기록 기자] 2021년 10월에 공식 출범한 국내 세 번째 인터넷전문은행 '토스뱅크', 이 은행는 앞선 K뱅크, 카카오뱅크와는 또 다른 차별화된 ‘디지털 종합금융플랫폼’ 전략을 지향한다.토스뱅크는 출범 이후 ‘중저신용자’ 대출 및 사회적 약자를 위한 금융서비스를 지속적으로 선보여왔다. '중저신용자' 대출이 인터넷전문은행에 주어진 시대적 역할이긴 하지만 그렇다고 토스뱅크가 자선 사업을 하는 회사는 아니다.특히 요즘처럼 고금리 기조가 지속되고 있고, 부실 위험이 높아지는 상황에선 '중저신용자 대출' 시장에서 지속적인 생존 전략을 증명하는 것은 또 다른 의미의 혁신이다.토스뱅크는 2022년말 기준 예금 10조 원을 돌파했다. 후발주자이지만 먼저 출발한 인터넷전문은행인 카카오뱅크, 케이뱅크와 비교해 훨씬 더 혁신적인 시도를 통해 분명한 자기 색깔을 드러내고 있다는 평가를 받고 있다.물론 인터넷전문은행이라는 특수성 때문에 토스뱅크는 IT전략과 디지털 혁신에 대한 관점이 일반 시중 은행들과 확연하게 차이가 난다.토스뱅크는 모바일 앱 기반의 디지털 금융플랫폼으로 계좌 개설, 입출금, 송금, 이체, 투자, 보험 등 다양한 금융 서비스를 제공하고 있다. 특히 빅데이터와 AI(인공지능) 기반의 최적화된 금융 서비스를 지향하고 있으며, 2023년 디지털‧IT 전략도 이에 맞춰져 실행되고 있다.홍민택 토스뱅크 대표 ⓒ토스뱅크◆“인터넷은행 본연의 역할에 충실”… 2023년 1분기 ‘중저신용자’ 대출 비중 42% 달성토스뱅크는 올 1분기 중저신용자(KCB 신용점수 기준 하위 50%) 고객을 대상으로 공급한 신용대출(무보증)의 비중이, 대출 잔액 기준 42.06%를 달성했다. 토스뱅크의 전체 신용대출 가운데 중저신용자 대출 규모가 잔액 기준 3조1000억 원에 달했다.건전한 중저신용자를 포용함으로써 은행 수준의 금리 기회를 제공하고 있다. 만약 토스뱅크가 없었다면 이 ‘중저신용자’ 들은 금리가 비싼 2금융권을 이용할 수 밖에 없었을 것이다.토스뱅크는 올 1분기 기준 대손충당금 760억 원을 추가 적립해 총 2600억 원의 충당금을 확보함으로써 신용위험에 대비한 충격흡수율도 높였다. 전체 여신잔액 대비 대손충당금 잔액 비중을 의미하는 ‘커버리지 비율’은 2.8%로, 현재 1% 수준인 기존 은행권 평균을 훨씬 웃돈다. 그만큼 예금자보호의 방어벽이 두텁다는 의미다.실제로 토스뱅크를 찾은 중저신용 고객들은 기존 은행들로부터 소외된 경험을 가진 사례가 많았다. 토스뱅크에서 대출을 실행한 후 제2, 제3금융권에서 받은 대출을 상환하면서 2명 중 1명 이상(60%)은 평균 68.3점의 신용점수 상승 등 ‘크레딧빌딩’ 효과를 누린 것으로 분석됐다.이처럼 중저신용자 대출 비중이 높음에도 토스뱅크가 안정적인 신용관리와 함께 대출의 부실화를 막는 것은 ‘리스크관리’ 인프라가 뛰어나기 때문이다.인터넷뱅킹전문은행의 특성상 영업점 및 대면 채널이 없는 토스뱅크는 대출 심사 및 실행에 적용되는 신용평가시스템과 사후관리를 포함한 리스크관리시스템 체계의 완결성이 핵심중의 핵심이다.관련하여 토스뱅크는 2021년 자체 개발한 신용평가모형 ‘TSS(Toss Scoring System)’를 한층 고도화하고, 이를 통해 지속가능한 중저신용자 포용을 이어갈 방침이다. 이를 통해 건전한 중·저신용자를 지속적으로 발굴하고, 적시에 시장에 필요 자금을 공급할 계획이다. 또 개인정보보호 및 보안 등 은행의 신뢰와 관련된 핵심 IT인프라에도 지속적인 투자를 통해 가장 안정적이고 신뢰할 수 있는 인터넷전문은행으로서의 위상을 확립해 나갈 방침이다.토스뱅크측은 “고객들을 정당하게 평가할 수 있는 금융정보와 이를 보완할 수 있는 대안정보 분석 및 활용을 통해 건전한 중저신용자를 발굴해 나갈 예정”이라고 밝혔다.한편 토스뱅크는 올해 IT부문 총 예산은 약 930억 원으로 전년 대비 23%로 증가했다. 지속적인 고객 가입 증가와 신상품 출시에 따른 트래픽 증가 대응을 위해 IT부문 자산 투자는 전년 대비 약 2배 수준으로 편성했다. 또한 시스템 개발과 외부 솔루션 의존성을 줄이기 위해 비용 투자 대부분은 IT임직원 인건비에 집중하고 이다.◆토스뱅크, 올해 IT인프라 혁신 계획은?…오라클 위주 정보계시스템, '하둡'으로 전환올해 토스뱅크의 IT인프라 중점 추진 계획은 장단기 전략이 혼재돼 있다. ▲시스템 개발 역량 내재화 ▲외부 솔루션 의존도 낮추기 ▲ 외환 인프라 구축 ▲ 빅데이터 시스템 구축 ▲IT인력의 지속적인 확충이다.‘시스템 개발 역량 내재화’는 앞으로도 내부에서 더욱 빠른 개발과 안정적인 운영을 위해 실력있는 엔지니어들을 계속 확대해 나가겠다는 차원의 전략이다.토스뱅크는 “오픈한 지 1년 반 남짓의 신생은행이지만 외부 인력 거의없이 내부 인력으로만 IT개발과 운영을 하고 있다”며 “앞으로도 내부에 뛰어난 개발 인력을 구성하고 보다 빠르고 효율적인 서비스 개발과 운영을 할 계획”이라고 밝혔다.토스뱅크는 IT인프라 혁신에 있어 ‘고객 경험 최적화’를 가장 중시한다. 이런 부분을 맞춰가기 위해서는 내부에서 모든 개발 및 운영이 진행될 수 있어야 하고, 시스템 구조 역시 여기에 맞춰줘야 한다는 전략적 방향성을 고수하고 있다.이와함께 토스뱅크는 계정계 업무를 지원하는 기간시스템의 전략 변화도 고려하고 있다.토스뱅크는 구축 당시부터 채널계시스템은 모두 MSA(마이크로서비스아키텍처)로 구성했지만 계정계시스템은 ‘모놀리식(Monolithic) 아키텍처’를 적용했다. 하지만 향후 계정계시스템을 중요한 부분부터 ‘MSA’형태로 분리하는 작업을 진행할 계획이라고 은행측은 밝혔다.‘외부 솔루션 의존도 줄이기’는 토스뱅크의 IT서비스 대응력을 끌어올리기위한 차원이다. 예를들어 시스템 개선 요건이 발생할 경우, 작든 크든 모두 외부 IT업체에 의존할 수 밖에 없는 상황이 발생했고, 실제 개선의 속도도 기대했던 것보다 늦어지는 경우가 많이 있었다는 은행측의 설명이다.은행 설립 당시, 토스뱅크는 계정계시스템 구축 프로젝트를 진행하는 과정에서 어쩔 수 없이 많은 외부 솔루션을 도입해야했지만 앞으로 이 비중을 줄여나감으로써 IT서비스 대응의 불확실성을 줄이고 서비스 품질을 높이겠다는 것이다.또한 토스뱅크는 리오프닝에 따른 외환서비스가 커짐에 따라 외환서비스에 대한 고객 경험을 개선하기위해 외환 인프라 구축을 연말까지 진행할 계획이다.한편 토스뱅크는 정보계 인프라의 핵심적인 역할을 맡고 있는 ‘빅데이터 시스템’ 개선과 관련, 기존 오라클 위주의 정보계시스템 영역을 하둡(Hadoop)기반의 에코 시스템으로 전환해 나갈 계획이다.앞서 토스뱅크는 은행 출범당시 계정계시스템을 구축하면서 오라클 ‘엑사데이터’ 중심의 정보계시스템을 구축 운영중이다. 하지만 서비스 분석을 위해 현재 하둡 환경을 사용하고 있다.이와관련 토스뱅크측은 “토스뱅크에 하둡 운영을 위해 실력 좋은 개발자가 있고, 내부 검토 결과 기존 오라클 엑사데이터 기반으로 하는 작업들을 하둡으로 모두 전환 가능하다고 판단했다”며 “2년 정도의 일정으로 주요 분석 시스템을 하둡 기반으로 전환하는 프로젝트를 진행하고 있다”고 밝혔다. 토스뱅크는 이같은 모든 전환 과정을 단계적으로 진행하고, 무중단으로 전환을 완료하겠다는 방침이다.◆'챗GPT'와 같은 생성형AI, 업무 혁신에 적용?챗GPT가 이슈화되면서 AI에 대한 관심이 더욱 커졌다. 토스뱅크는 “항상 신규 기술이 등장할 때 그것을 먼저 적용해보기 위해 검토하진 않았지만 고객의 좋은 경험을 위해 기술적인 문제가 존재하고, 그것을 풀기 위해 해당 기술이 필요하면 학습하고 적용하는 방식을 취해왔다”고 밝혔다.토스뱅크는 AI의 역할에 대해서는 비중을 높이고 있다. 토스뱅크측은 “먼저 가장 큰 부분은 대출을 내줘야 할지 말아야 할지, 고객을 어떻게 나눌까 하는 부분인데 이 부분에서 ML(머신러닝)은 굉장히 활용도가 높은 기술”이라는 입장이다.예를들어 토스뱅크 계좌 개설 과정의 신분증 제출에서, 실제 신분증을 촬영한 것인지, 종이 또는 모니터를 촬영한 것인지 구분하는 과정이 있다. 이것을 원래는 사람이 수기로 하나하나 검증을 해왔지만 이런 부분 역시 AI로 해결하기위한 노력하고 있다는 설명이다.◆IT인력 확충 지속 “인터넷전문은행 혁신 동력의 원천” … MZ세대 공략위한 UI‧UX 중시토스뱅크가 앞서 언급한 대로 IT 내재화 및 외부 솔루션 의존도 줄이기를 달성하려면 그 전제가 우수한 IT역량을 가진 임직원을 확보하는 것이다. 토스뱅크는 인터넷전문인행인 만큼 IT인력이 혁신의 핵심 동력이다.토스뱅크에 따르면, 현재(2023.5월말 기준) IT부문 임직원은 236명이다.상품(Product Division) 116명, 플랫폼 37명, 데이터 24명, 보안(Security)디비전이 24명이다. 총 임직원(426명) 대비 IT 임직원 비율은 55%에 달한다. 일반 은행들의 5~7% 수준과 비교해 월등하다. 토스뱅크는 서비스를 위한 상품 디비전에는 ‘스쿼드’(Squad)로 불리는 애자일 조직이 있다. 또 하나의 스쿼드는 상품 오너(Owner), 매니저(Manager)뿐 아니라 디자이너, 개발자, 데이터 분석가 등으로 구성됐다.토스뱅크측은 “이 구성원들은 하나의 서비스를 온전히 설계하고 개발하여 적용할 수 있다”며 “이를 통해 서비스를 빠르게 개발하고 개선할 수 있는 구조를 가져가고 있다”고 설명했다.또한 ‘플랫폼’(Platform)디비전은 상품 디비전을 지원하기 위한 조직이다. 상품 디비전의 많은 개발자들을 지원하기 위한 공통 모듈 및 시스템을 만들어서 제공하고 운영하고 있다.‘데이터’디비전은 고객 거래 내역 등 여러 정형, 비정형 데이터를 모아서 분석할 수 있는 데이터 플랫폼을 만들어, 데이터를 통한 비즈니스 인사이트 발굴을 지원하고 있다.‘보안’(Security) 디비전은 정보보호 정책 수립, 정보보호 시스템 운영, 모의해킹, 취약점진단, 침해사고대응, 보안 관제, 개인(신용)정보보호, 사무인프라 보안 등 고객의 금융자산과 개인(신용)정보를 보호하기 위한 업무를 수행한다. 정보보호인증들(PCI-DSS, ISO 27001/ISO27701)을 획득하여 글로벌 수준의 보안성을 유지하기 위해 노력하고 있다.토스뱅크는 새로운 유형의 지능화된 침해위협에 대해서도 신속히 탐지하고 대응할 수 있는 체계를 강화하고 있다.이와관련 토스뱅크는 “올해 현재 위협 시나리오 기반의 방어 체계 및 모니터링을 강화하고 네트워크 분석의 가시성을 확보하기 위해 ‘Zeek’ 구축 및 CTI(사이버보안위협) 정보를 활용한 ‘위협 모델링’체계를 구축하고 있다”고 밝혔다.이와함께 자체 보안성 검토를 강화하기 위해 자동화된 모의해킹 및 취약점 진단 도구를 개발하고 있으며, 증가되는 서비스에 대한 진단 대응력 강화를 위해 노력하고 있다는 설명이다.한편 지난 3월21일 ‘애플 페이’의 국내 결제시장 진입으로, MZ세대를 대상으로 한 보다 차별화되고 공격적인 금융서비스 전략이 요구되고 있다. 이러한 MZ세대 공략을 위한 디지털 혁신도 매우 중요한 혁신과제다.이와관련 토스뱅크는 간결하고 편리한 UI·UX 전략을 중시한다. 이를 위해 토스뱅크 내부에 실력있는 UI·UX 전문가들과 개발자들을 확보하는데 노력하고 있다. 토스뱅크측은 “대부분의 금융회사들이 개발 전문 회사에 외주를 맡기는 경우가 많이 있지만, 토스뱅크는 모바일 서비스에 대해 계속 좋은 방향을 고민하고 제안하고 있고, 이런 부분을 내부의 개발자가 빠르게 서비스에 적용을 하고 있다”고 밝혔다.◆인터넷전문은행 특성상 클라우드 비중 제한적… “퍼블릭은 유사시 단점, 프라이빗 클라우드 지향”내부 IT역량을 중시하는 토스뱅크는 클라우드 전략에서도 일반 금융회사들과는 관점이 다르다. 토스뱅크는 처음 기간시스템 구축부터 모바일 서비스 영역을 모두 MSA 환경으로 구성했다. “굉장히 변화가 많은 모바일 서비스 대응을 위해 안정적이고 유연한 구조를 가져가기 위해 선택한 구조였다”는 설명이다.토스뱅크는 프라이빗 클라우드 환경을 중시하며 쿠버네티스(Kubernetes)를 활용하고 있다. 쿠버네티스 환경에서도 많은 트래픽을 다룬 경험이 많아 AWS나 마이크로소프트의 애저(Azure) 등 외부의 퍼블릭 클라우드 환경을 사용하는 것보다 자체 운영하는 것에 장점을 가지고 있다고 생각하고 있다.토스뱅크측은 퍼블릭 클라우드는 도입은 편할 수 있지만 장애가 발생할 경우 직접 대응할 수 있는 부분이 극히 제한적이라는 단점을 지적하고 있다. 토스뱅크는 모바일 서비스를 위한 운영은 이미 프라이빗 클라우드 환경에서 100%가동중이며, 추가로 적용 업무를 확대할 계획이다.이에 따라 핵심인 계정계업무의 일부 기능들을 MSA로 분리하는 작업을 하고 있고, 이렇게 분리되는 마이크로서비스는 모바일 서비스와 마찬가지로 클라우드 환경에서 서비스할 계획이다. 시기를 특정하지는 않았지만 이를 통해 계정계 업무에 대해서는 시스템 운영의 유연성과 안정성을 더욱 더 확보할 수 있을 것으로 보고 있다.ⓒ토스뱅크◆‘초자동화 전략’ 고객편의성 극대화를 위한 열쇠비대면으로 모든 대고객 뱅킹서비스를 처리하는 토스뱅크는 UI‧UX 전략에 ‘초자동화’ 전략도 함께 녹아있다. 이는 대고객 영업점 업무와 내부 업무 혁신을 위해 RPA를 도입하는 일반 금융회사들과 초자동화 전략도 근본적으로 차이가 나는 이유다.토스뱅크는 이에 따라 현재 운영중인 통합단말시스템의 UI‧UX를 좀 더 직관적이고 효율적으로 개선해 생산성을 향상시킬 계획이다. 이를 개선하기 위해 자체적으로 ‘DIG’라는 운영 시스템을 개발했다. 기존 통합단말시스템에서 특히 자주 쓰는 기능들의 경우 쉽고 편하게 사용할 수 있도록 기능 이관을 완료했으며 앞으로도 내부 운영자를 위한 시스템 개발 역시 꾸준히 진행할 계획이라고 밝혔다.토스뱅크는 “대고객 서비스와 마찬가지로 내부 직원을 위한 시스템 역시 편리하고 쉬운 UI‧UX로 개선하고 있으며, 새로운 아이디어가 생길 때마다 빠르게 반영해보면서 가장 편한 환경을 찾기 위해 노력하고 있다”고 소개했다.또한 RPA를 활용해, 스크래핑 및 머신러닝 등 여러 혁신 기술을 활용한 업무자동화도 고도화하고 있다.팩스로 들어온 문서의 숫자를 자동으로 인식하여 입력한다던지 또는 법원 사이트 등을 통해 수기로 가져와야 하는 정보를 시스템에서 자동으로 가져오는 등의 시스템을 자체 개발하여 적용하고 있다고 밝혔다.토스뱅크가 올해 2월부터 전면 서비스에 들어간 비대면·자동화 ‘비과세종합저축’서비스의 경우 폭발적인 관심을 끌었다.이 상품에 가입하려는 장애인 고객들의 경우, 기존에는 일반 시중은행의 영업점을 찾아가 직접 장애인증명서를 발급, 일반 은행 영업점에 방문해야 했고, 기초생활수급자인 차상위 계층에 속한 고객들도 창구 가입 과정에서 원치않게 신분을 밝혀야 하는 등 어려움이 있었다.하지만 토스뱅크는 이를 해소하기 위해, 인터넷전문은행으론 처음으로 비과세종합저축 대상자 등록 한번으로 전면 자동화된 서비스를 이용할 수 있도록 했다. 모든 과정에서 별도의 서류제출 및 검증을 위한 대기시간이 소요되지 않으며 영업점 방문이나 증명서를 직접 발급해 제출해야 하는 등 불편함이 없어 거동의 제약이 있어도 손쉽게 가입할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2023.08.30.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>5대 은행 예대차 5개월 만에 소폭 늘었다…대출·수신금리 모두 내려</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004931847?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>5대 은행의 가계예대금리차가 5개월 만에 다시 늘었다. 대출금리와 수신금리가 모두 내렸지만 수신금리 하락폭이 더 컸기 때문이다.30일 은행연합회에 따르면 5대 은행(KB국민, 신한, 하나, 우리, NH농협은행)의 신규 취급액 기준 7월 평균 가계예대금리차(가계대출금리-저축성수신금리)는 0.934%포인트(p)로 집계됐다. 이는 정책서민금융 상품을 제외한 수치로 한 달 전(0.928%)보다 0.006%p 상승했다.5대 은행의 평균 예대금리차가 늘어난 것은 5개월 만이다. 예대금리차는 지난 2월 이후 넉 달 연속 하락세였다.5대 은행의 7월 평균 가계대출금리(정책서민금융 제외)는 연 4.602%로 전달(연 4.604%)보다 0.002%p 내렸다. 저축성수신금리도 연 3.668%로 전월(연 3.676%) 대비 0.008%p 내리면서, 예대금리차는 전월보다 늘었다.5대 은행 중 예대금리차가 가장 작은 곳은 하나은행으로 0.83%p 수준이었다. 뒤이어 우리은행이 0.90%p, 신한은행 0.91%p, 국민은행 0.92%p, 농협은행 1.11%p 순이었다. 이날 예대금리차 공시 대상이 된 19개 은행 중에서는 전북은행의 가계예대금리차가 5.76%p로 가장 컸다. 가장 작은 곳은 IBK기업은행으로 0.44%p다. 인터넷전문은행의 가계 예대금리차는 토스뱅크 3.39%p, 케이뱅크 2.09%p, 카카오뱅크 1.25%p로 나타났다.예대금리차가 큰 변동이 없었던 것은 대출금리와 수신금리의 준거금리가 되는 금융채 금리와 신규 코픽스(COFIX·자금조달비용지수)가 6~7월 사이 큰 변화가 없었기 때문이다.주택담보대출 변동금리의 준거금리가 되는 코픽스는 7월 기준 3.69%로 전월(3.70%) 대비 0.01%p 하락했다. 아울러 은행들이 예금금리를 산정할 때 참고하는 금융채 금리는 6개월물 기준으로 7월 일평균이 3.81%로 전달(3.81%)과 동일했다.향후 수신 및 대출금리는 상하방 요소가 공존한다. 우선 미국 국채금리가 오르면서 국내 대출금리에도 인상 압박을 주고 있다. 미국 국채금리는 장기물을 중심으로 7월 중순 이후 상승세를 타고 있다. 이에 국내 금융채 장기물 금리도 덩달아 오르고 있기 때문이다.한편 은행권은 취약 차주 지원을 내세우며 자체적으로 대출금리를 인하하고 있다. 지난달 28일 농협은행은 모든 주담대와 전세자금대출 상품의 금리를 0.3%p 내렸다. 이어 지난 18일에는 국민은행이 주담대 고정금리 상품의 금리를 0.3%p 인하한 바 있다.은행권 관계자는 "이달 초 미국 국채 금리가 올랐었으나, 기준금리 동결 움직임이 일면서 미국 국채 금리도 다시 조금씩 내려가고 있다"며 "큰 추세로는 국내 시장금리도 떨어지겠지만, 단기간으로 봐서는 큰 변동이 있을 거라고 보기는 어렵다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2023.08.28.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>토스 사내 봉사단, 중증 장애인시설 봉사활동 진행</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012054856?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]비바리퍼블리카(토스)의 사내 봉사단 '토스피스'가 중증 장애인 시설 '한사랑마을'에서 봉사활동을 진행했다고 28일 밝혔다.(사진=토스 제공)2023.08.28 photo@newsis.com *재판매 및 DB 금지[서울=뉴시스] 한재혁 기자 = 비바리퍼블리카(토스)의 사내 봉사단 '토스피스'가 중증 장애인 시설 '한사랑마을'에서 봉사활동을 진행했다고 28일 밝혔다. 지난 26일 진행된 봉사활동은 토스·토스뱅크·증권·플레이스·CX 등 토스 계열사 직원 약 20여 명이 참여한 가운데 초록우산어린이재단과의 협업으로 진행됐다. 봉사활동은 혼자 식사를 하기 어려운 중증 장애인의 식사를 돕고 휠체어 산책 활동을 함께하는 순서로 이뤄졌다. 한사랑마을 생활관 내 환경미화를 지원하고, 세탁기 구매를 위한 소정의 기부금도 전달했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2023.08.29.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>HS애드-토스, 고객 경험공간 온오프라인 연계에 협력</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0014157340?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>HS애드-토스, 고객경험 마케팅 솔루션 개발 업무협약[HS애드 제공](서울=연합뉴스) 김아람 기자 = HS애드는 모바일 금융 플랫폼 토스와 고객 브랜드 경험의 온오프라인 연계 서비스를 위한 업무협약(MOU)을 체결했다고 29일 밝혔다.    협약으로 오프라인 브랜드 공간을 알리기를 원하는 기업들은 HS에드에 의뢰해 개별 브랜드용 마이크로사이트를 토스 앱 내에 만들 수 있다.    고객은 토스 앱을 통해 각 공간 정보를 확인하고서 오프라인 공간에 찾아가 인증 미션을 수행하면 토스 포인트를 받는다.    HS애드는 LG전자 '금성전파사', 신한투자증권 팝업스토어 '핑계고' 등 다양한 오프라인 고객 경험 공간을 조성해왔다.    여기에 플랫폼 파워를 보유한 토스의 역량을 결합해 고객 경험이 곧 혜택이 되는 사업 모델과 서비스를 선보인다는 계획이다.    박애리 HS애드 대표는 "오프라인 고객 경험 공간이 기업 팬덤 문화의 장으로 떠오르고 있다"며 "더욱 새로운 고객 경험과 아이디어를 선보이겠다"고 말했다.    김규하 토스 사업총괄 부사장은 "HS의 오프라인 고객 경험 설계 노하우와 토스의 혁신이 만나 광고 시장에 새로운 솔루션을 제공할 것"이라고 기대했다.    rice@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2023.08.20.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>인뱅은 이무기가 될까, 용이 될까 [편집장 레터]</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000084048?sid=110</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>편리함에 금리 경쟁력까지 장착하고 나선 인뱅“좋은 담보 주담대 다 인뱅으로 몰린다” 목소리도바야흐로 ‘인뱅(인터넷뱅크)’의 시대입니다.카뱅(카카오뱅크)과 토뱅(토스뱅크)을 초창기부터 이용했습니다. 카뱅은 뭐니 뭐니 해도 모임통장이죠. 카뱅 통장 개수만 두 자릿수를 향해 달려갑니다. 토뱅은 파킹통장에 2% 이자를 준다는 얘기에 혹해 바로 통장을 개설했습니다. 이후 더 높은 금리를 주는 파킹통장도 생겨났지만 토스 송금 등의 편리함에 취한 데다 고금리 파킹통장 개념이 처음에나 엄청 신기했지 그다음에는 시들해져 다시 또 옮길 생각을 하지 않았더랬죠. 사실 ‘미리 받는 이자’가 재미있기 때문이기도 했습니다.중간중간 토뱅에 들어가 ‘오늘까지 이자 받기’를 눌러 받곤 합니다. 왠지 그냥 뒀을 때보다 조금이라도  이자가 더 되겠지 하는 막연한 생각이, 의외로 만족감이 높다 할까요. 반면 케뱅(케이뱅크)은 코인 투자를 하지 않다 보니 업비트 계좌 연계라는 이점이 크게 다가오지 않아 패스했습니다. 언젠가 코인 투자를 해야겠다 싶으면 그때는 또 바로 케뱅과 거래를 시작하겠죠. 아마 대한민국 인뱅 가입자 상당수가 비슷한 상황이거나 생각이거나 그럴 겁니다.이렇게 인뱅 3사 앱을 깔고 계좌를 튼 고객이 4000만이 다 되어간답니다. 미성년자를 제외하면 거의 대부분 국민이 인뱅 하나씩은 이용하고 있다는 의미죠.편리함과 참신한 아이디어에 ‘혹’해 시작했지만 요즘은 실질적인 이득까지 얻을 수 있어서 이용자가 더욱 몰리고 있다는 분석입니다. 대표적인 것이 시중은행보다 금리가 낮은 주택담보대출(주담대)입니다. 주담대 상담 받으려면 은행 지점에 가서 못해도 한두 시간은 소요해야 했는데, 비대면이라니, 이건 그야말로 ‘신세계’입니다. 비대면 마이너스통장은 편하긴 하지만 금리가 다소 높았던 반면, 주담대는 편리한 데다 금리도 낮으니 이용하지 않을 이유가 없겠죠.인뱅 주담대가 인기를 끌면서 시중은행들은 좋은 담보를 가진 주담대가 인뱅으로 몰리고 있다며 불만을 표하기도 합니다. 한 시중은행 관계자는 “앞으로 가격 산정이 수월한 아파트를 담보로 한 주담대는 다 인뱅에 뺏기고, 지점에서는 가격 산정이 쉽지 않아 비대면 대출이 용이하지 않은 빌라·주택 등의 주담대만 이뤄지는 게 아닌가 하는 얘기마저 돈다”며 한숨을 쉬더군요.2030이 4050이 되는 시점에는 간단한 개인 거래는 대부분 인뱅에서 이뤄지고, 시중은행은 기업 금융이나 WM(Wealth Management) 같은 복잡한 서비스에 집중하는 식이 되지 않을까, 뭐 그런 생각도 해봅니다. 물론 인뱅이 그때까지 건강하고 건전하게 잘 살아남아야 가능한 일이겠죠. 메기에서 잉어쯤으로 성장한 인뱅이 이무기가 될지, 용이 될지 벌써부터 궁금해집니다.커버스토리 ‘4050도 몰려드는 인뱅 4000만명 시대’ 외에 ‘시세 조작·독소 조항·UP계약서 수법까지… 천태만상이 펼쳐지고 있는 부동산 작전’ 스페셜리포트와 지난 7월 12일 사전지정운용제도(디폴트옵션)가 본격적으로 시행되면서 부쩍 관심을 끌고 있는 ‘잠자고 있는 내 퇴직연금 깨우는 법’도 꼭 읽어보시길 권해드립니다.[본 기사는 매경이코노미 제2223호 (2023.08.23~2023.08.29일자) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2023.08.23.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>AI 조정하는 무인전투기 떴다…전쟁판도 뒤집을 ‘키맨’[이현호 기자의 밀리터리!톡]</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004229284?sid=100</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>인공지능, 베터랑 조종사와 겨뤄 ‘5-0 ’ 완승‘스카이보그’, 자율·전투력 갖춘 AI 무인기발카리, 가격 400만 달러(53억 원) 수준‘윙맨’ 무인전투기 2023년 실전배치 계획미국 공군이 개발 중인 인공지능(AI) 전투기 ‘XQ-58A’ 발키리가 시험 비행을 하고 있다. 사진 제공=미 공군[서울경제] 미 국방부 산하 방위고등연구계획국(DARPA)은 지난 2018년 재미있는 실험을 했다. 프로젝트명은 ‘ACE’(Air Combat Evolution). 미 공군과 세계 최대 방산업체 록히드마틴, 존스홉킨스대 응용물리학 연구소, 인공지능 개발업체 헤론시스템즈 등이 참가했다. 이 실험의 목적은 인공지능이 인간 조종사 수준의 공중전 수행이 가능한지를 알아보는 것.공중전은 마하 1에 가까운 천음속 영역에서 극히 짧은 시간의 판단과 조작이 승부를 가른다. 기계가 할 수 없는 인간만의 영역으로 인식돼 왔다. 센서와 인공지능 알고리즘 기술로는 인간 만큼의 상황 인식과 판단, 반응 조작 능력을 기계가 따라올 수 없다는 이유 때문이다. 하지만 최근 인공지능 기술의 급격한 발달과 함께 “인공지능이 인간 파일럿을 대체할 수 있지 않을까”라는 의문을 커지면서 미군이 이 질문의 해답을 얻기 구하기 위해 ACE 프로젝트를 진행했다.유튜브를 통해 ‘알파 도그파이트 트라이얼(Alpha Dogfight Trial)’이라는 제목으로 전 세계에 생중계 됐다. 참가자들이 만든 인공지능 프로그램들이 서로 대결을 벌여 우승자를 가린 뒤 우승자가 미 공군 교관 조종사와 맞붙었다.시뮬레이션으로 진행된 이 대회는 F-16 전투기를 이용해 근접 공중전 상황에서 기관포만 사용해 승부를 가리는 규칙으로 진행했다. 참가자 간 대결에서는 중소기업 헤론시스템즈가 개발한 인공지능이 우승했다. 헤론시스템즈의 인공지능은 곧바로 미 공군 병기학교에서 나온 베테랑 조종사와 시뮬레이션으로 맞붙었다. 결과는 예상을 벗어났다. 헤론시스템즈 인공지능이 5-0 완승했다.━“인공지능이 베테랑 파일럿을 상대로 일방적 승리 거뒀다” 극찬당시 미 공군은 적잖이 당황했다. 이후에는 헤론시스템즈 인공지능을 공군 병기학교로 가져가 관련 연구와 훈련에 사용 중이다. 헤론시스템즈 인공지능을 개발한 수석디자이너는 인터뷰를 통해 “인공지능에게 유리할 수밖에 없기는 가상공간 이었지만, 인공지능이 베테랑 파일럿을 상대로 일방적인 승리를 거뒀다는 점에서 미래 공중전 환경에 많은 시사점을 던진다”고 평가했다.사진=United States Naval Institute 캡처무인전투기 개발에 가장 적극인 나라는 미국이다. 미 공군이 지난 2019년 공개한 스카이보그(Skyborg) 계획은 자율비행 및 전투능력을 갖춘 AI 무인전투기를 개발해 2023년까지 조기 운용능력을 확보한다는 목표다. 현재까지 공개된 바는 스카이보그는 완전 자율로 이·착륙하는 것은 물론 다른 항공기 또는 지형지물을 회피하고 악천후에도 임무를 수행할 능력을 갖추는 것으로 전해졌다. AI 기반 자율 임무 수행이 기본이지만 필요할 경우 원격 제어가 가능하고, 임무형 모듈(Module) 설계를 통해 간단한 장비교체만으로도 다양한 임무를 수행할 수 있는 것이 가장 특징이다.미 공군의 스카이보그 계획의 가장 유력한 후보 기종은 널리 공개된 미 공군과 미 방위산업체인 크라토스 디펜스&amp; 큐리티 솔루션즈가 함께 개발 중인 ‘XQ-58A 발키리’ 스텔스 무인공격기다. XQ-58A 발키리가 전력화되면 현재 무인공격기로 활약하는 ‘MQ-1 프레데터’나 ‘MQ-9 리퍼’ 보다 더 적대적인 작전 환경에서 임무를 수행하는데 활용할 것으로 보인다.주요 성능을 살펴보면 2개의 내부 무장창에 각각 4개의 무장장착대가 있고 최대 8발의 공대공 미사일이나 250㎏급 합동직격탄(Joint Direct Attack Munition) 또는 GBU-39 소구경직격탄(Small Diameter Bomb)을 장착할 수 있다. 길이 8.8m, 폭 6.7m에 최대 속도는 마하 0.85(1050㎞/h), 최대 항속거리는 3941㎞, 최대 상승고도는 1만3715m로 알려졌다. 레이더를 피할 수 있는 스텔스 성능도 갖췄다. 공대공은 물론 공대지 공격 능력도 갖췄다. 실전 배치가 이루어지면, 미 공군의 무인기 명명법에 따라 ‘XQ-58A’에서 ‘MQ-58A’로 이름이 바뀔 것으로 관측된다.━지난 7월 미 공군기지 시험훈련장에서 시험 부대와 3시간 출격 성공발카리는 지난 2019년 3월 첫 비행에 성공해, 다양한 시험평가를 성공적으로 수행 중인 것으로 알려졌다. 최근 반가운 소식이 들려왔다. 인공지능(AI) 소프트웨어가 XQ-58A 발키리 드론을 성공적으로 날렸다고 미 공군연구소(AFRL)가 발표했다. 공군 연구소는 공군, 우주 및 사이버 우주군을 위한 비용 효율적인 전쟁 기술의 발견, 개발 및 통합을 담당하는 서비스의 주요 과학 연구 및 개발 센터다.연구소에 따르면 지난 7월 25일 플로리다 소재 에글린 공군기지 시험 훈련 단지에서 시험 부대와 함께 3시간 동안의 출격을 이끌었다. 비행은 2년간의 작업과 무인 전투기를 만들기 위한 목적으로 연구소와 공군 생명 주기 관리 센터의 직원들로 구성된 스카이보그 뱅가드 팀이 주도했다.활주로를 치고 나가면 비행을 시작하고 있는 ‘XQ-58A’ 발키리. 사진=나무위키 캡처미국의 차세대 스텔스 무인전투기 ‘XQ-58A 발키리’가 인공지능(AI)을 장착한 채 첫 시험 비행에 성공한 것이다. 현재 전장에서 사용되는 무인기는 지상 통제소에서 인간이 원격 조종하지만, 스스로 자신이 날아갈 방향을 정하는 발키리는 동체에 장착된 AI가 알아서 기체를 제어했다. AI가 향후 공중전에서 주요 전투원으로 등장할 시점이 빠르게 다가오고 얘기다.━첫 스텔스 AI 무인전투기, 크라토스디펜스社 개발 ‘XQ-58A’발키리’미 공군이 발키리 개발에 심혈을 기울이는 가장 큰 이유는 낮은 가격 때문이다. 연간 50대를 생산한다면, 대당 가격은 약 400만 달러(53억 원) 수준일 것으로 게 미 방산업계는 예상하고 있다. F-35가 대당 가격이 약 8000만 달러(1060억 원)와 비교하면 최첨단 유인 전투기보다 현격히 싼 가격으로 미 군당국 입장에서는 방위비 부담을 크게 낮출 수 있다는 유인책이 된다.또 다른 이유는 미 공군이 발키리를 전투기 편대의 ‘윙맨’으로 사용하는 그림을 그리고 있다는 점이다. 윙맨은 편대의 리더 전투기 곁에서 함께 작전을 수행하는 전투기다. 지금은 윙맨 역할을 모두 값비싼 유인 전투기가 맡고 있다. 이 같은 기대감은 미 공군연구소(AFRL)의 공식 발표에 그대로 드러난다. 발키리의 AI를 이용하면 미래 전쟁과 작전 상황에서 각종 결정을 내리는 속도를 끌어올릴 수 있다고 설명했다.군사용 드론을 격추하는 가장 좋은 방법 중 하나는 통신과 GPS를 방해하는 것이다. 이러한 무기의 대부분은 ??군사 작전을 수행하기 위해 원격 제어에 의존하기 때문에 지시를 받거나 위치를 파악할 수 없도록 신호를 방해해 무기를 쓸모없게 무력화한다. 이에 크라토스는 이에 대응하기 위해 현재 ‘XQ-58A 발키리’라는 스텔스 드론을 개발하고 있고, 제트 항공기와 유사한 이 스텔스 드론은 적진에 깊숙이 침투해 폭격을 가하거나 F-22 및 F-35와 같은 유인 항공기의 작전을 지원할 수 있다고 밝혔다.━최대 속도는 마하 0.85…최대 항속거리 3941㎞, 최대 상승고도 1만3715m심지어 크라토스는 발키리가 전자전의 희생양이 되지 않도록 인공지능(AI) 파일럿에게 드론 제어권을 부여할 계획이라고 했다. 통신을 위해 GPS가 필요하지 않으며, 자율적으로 작전 및 동작을 결정할 수 있는 것이다.발키리는 AI 파일럿을 드론에 통합한 최초의 항공기다. 이미 해당 기술은 ‘쿼드콥터’와 ‘F-16 팔콘 전투기’ 등에 시험 적용해 제한적으로 성공한 바 있다. 크라토스의 스텔스 드론 XQ-58A 발키리는 아직 정확한 개발 정도와 실전 배치 시기가 공개되지 않았다.F-22·F-35와 함께 비행 중인 ‘XQ-58A’ 발키리. 사진=위키피디아 캡처스텔스 무인공격기 ‘XQ-58A’ 발카리는 미 공군에서 총 5차례 시험 비행을 시행했다. 2019년 3월 5일에 1차(72분) 비행을, 2019년 6월 11일에 2차(71분) 비행을 소화했다. 다만 3차 시험 비행인 2019년 10월 9일 비행 중 한차례 사고가 발생했다. 미 공군 공식 발표는 급작스럽게 불어온 지상풍 때문에 기체에 임시로 설치한 기체 회수 시스템이 오작동을 일으켜 착륙 시 기체가 일부 파손됐다고 밝혔다. 이후 2020년 1월 23일에 실시한 4차 시험은 성공적으로 완료했으며, 추가로 F-22 및 F-35와 함께 편대 비행 시험을 실시했다.━적 깊이 침투해 폭격 가하거나 F22· F-35 등 유인전투기 작전 지원미 공군이 추진하는 스카이보그 프로그램의 최종 목표는 ‘로열 윙맨’(loyal wingman) 무인전투기를 2023년까지 실전 배치하는 것이다. 현재 미 공군은 초기 소프트웨어 테스트를 2019년 7월 25일부터 실시한 상태고, 미 공군 제412 시험비행단이 소형 무선조종 방식의 드론에 이 신형 비행통제 소프트웨어를 설치해 테스트 중인 것으로 알려졌다. 미 공군은 특히 스카이보그(Skyborg) 사업을 개시하면서 크레이토스 외에 보잉(Boeing), 노스롭-그루먼(Northrop-Grumman), 제네럴 아토믹스(General Atomics)사가 제안요청서(RFP: Request for Proposal)에 응신해 제안서를 제출했다. 미 공군은 이들 업체와 모두 시제기 개발 계약을 체결한 상태다.미 공군은 향후 로열 윙맨 개념의 무인전투기가 도입되면 F-35A와 업그레이드형 F-15에 윙맨 무인항공기를 통합시켜 운용할 계획이다. 예컨대, 발키리를 전투기 편대 프로그램인 ‘충성스러운 윙맨’으로 삼아 조종 전투기용 소모품 윙맨으로 활용하겠다는 복안이다.이를 통해 미 공군은 센서와 슈터(shooter)를 분리시켜, 레이더를 비롯한 탐지 장비가 장착된 센서 탑재 항공기는 유인기로, 슈터 전투기는 이들 로열 윙맨 무인전투기로 지정해 센서 전투기가 지시한 대로 공격을 실시할 수 있게 하는 개념으로 발전한다는 방침이다.F-22·F-35와 함께 비행 중인 ‘XQ-58A’ 발키리. 사진=위키피디아 캡처미국 이외 호주와 중국, 일본 등이 스텔스 무인전투기 개발에 적극 나서고 있다. 하지만 미국이나 호주를 제외한 영국, 프랑스, 러시아, 중국, 일본 등의 스텔스 무인전투기 개발은 많은 부분이 베일에 가려져 있는 게 현실이다. 아직은 일부분이라도 공개가 되고 있지 않다. 그만큼 기술적 진화가 없다는 게 전문가들의 공통된 의견이다. 예를 들어 영국 및 프랑스, 독일, 러시아 등은 2000년대 초부터 연구를 진행하고 있지만 시제기만 제작된 상태에서 계획이 중단되거나, 2030년대 실전배치라는 추상적 목표만 제시하는 수준이다.호주 공군은 항공력 팀 체계(Airpower Teaming System) 사업을 미국보다 먼저 시작했다. 2019년 2월에 사업 추진 사실을 공개했다. 호주 공군은 약 12m 길이의 제트 추진 무인기에 센서와 무장을 탑재하고 최대 3,200km까지 비행해 전투임무를 소화하지만, 기체 가격은 백만 달러 근처로 유지할 수 있는 무인항공기 도입 추진 계획을 공개했다. 크레이토스는 보잉 호주 법인과 파트너 형태로 이 사업에 먼저 참여해 XQ-58A를 제안했다. 현재도 사업은 진행 중이다.호주 공군도 미 보잉사가 공동으로 무인전투기 ‘로열 윙맨’을 개발 중이다. 2021년 첫 시험 비행에 성공한 것으로 알려졌다. 사진=미 보잉사 캡처━중국은 2018년 중반에 약 10m 길이 정도의 무인항공기 ‘안지안 UAU’ 공개중국이 개발 중인 스텔스 무인전투기는 지난 2008년부터 인터넷 등을 중심으로 사진이 돌아다녔다. 중국 정부 역시 기술적 자신감이 없는지 아직 구체적인 개발 계획이나 성능은 공개하지 않고 있다. 다만 중국은 2018년 중반에 약 10m 길이 정도의 무인항공기인 ‘안지안’(暗?, 음검) UAV를 공개했다.일본은 지난 2016년 공개한 항공자위대의 차기 기술 개발 계획을 통해 독자적 개념의 ‘전투지원 무인항공기’ 사업으로 명명한 ’윙맨 ’(Wingman) 무인기 개발을 추진 중이다. 특히 일본은 F-2의 대체 기종으로 개발을 진행 중인 차기 전투기(F-3)에 ‘로열 윙맨’ 콘셉트를 통합할 계획을 수립 중인 것으로 알려졌다. 하지만 예산 확보 문제로 아직은 연구개발 단계에 머물러 있다.━향후 공중전 주도권 선점 좌우…어느 나라가 먼저 상용화에 성공할지 주목항공전 전문가들은 윙맨 드론은 기존의 공군이 가진 전투 양상을 완전히 바꿀 수 있다고 평가한다. 무엇보다 로봇 윙맨의 아이디어는 유인 비행기와 보조를 맞출 수 있다는 장점을 비롯해 가장 큰 장점은 유인 전투기와 드론 전투기가 1개조를 이뤘을 경우 더 적은 인원으로도 기존보다 많은 전투 편대를 만들 수 있다는 대목이다. 여기에 이들 ‘무인전투기’의 기술과 노하우가 축적돼 현재 유인기가 도맡고 있는 공대공 전투까지 영역이 확장된다면, 탑승 중인 조종사 때문에 발생하는 중력 한계의 구애를 받지 않게 돼 운용의 폭이 훨씬 넓어질 수 있다. 이 때문에 윙맨 드론의 상용화에 따라 향후 공중전에서 주도권 선점이 좌우될 수 있어 어느 나라가 먼저 안정적 운용이 가능한 상용화에 성공할지 귀추가 주목될 수 밖에 없다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2023.08.21.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>토스증권 앱에서 특정 종목 한때 ‘상장폐지’ 오표기</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011549634?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>토스증권 앱에서 한 해외 주식 종목이 상장 폐지된 것으로 잘못 표기되는 오류가 발생했다가 정상화됐습니다. 토스증권은 오늘(21일) 오후 5시부터 50분가량 뉴욕증시 상장 종목인 존슨앤존슨이 상장 폐지된 상태로 잘못 나타났다고 밝혔습니다. 토스증권 측은 “해외주식 종목 정보 제공업체의 정보 제공에 오류가 있어 발생한 일시적 장애”라면서, 현재는 정상적으로 거래가 진행되고 있다고 설명했습니다. 또 현재까지 관련해 접수된 소비자 피해 신고는 없지만, 추후 피해 사례가 접수될 경우 보상할 예정이라고 덧붙였습니다.[사진 출처 : 연합뉴스]■ 제보하기▷ 전화 : 02-781-1234, 4444▷ 이메일 : kbs1234@kbs.co.kr▷ 카카오톡 : 'KBS제보' 검색, 채널 추가▷ 네이버, 유튜브에서 KBS뉴스를 구독해주세요!</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2023.08.22.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>풍부한 색채, 역동적 붓질</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005175949?sid=103</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>뉴욕 미첼이네스 앤드 내시청담동 지갤러리 협업 전시켈티 페리스 'T.B.T'(2023).  지갤러리역동적인 몸짓이 인상적인 미국 유망 화가 3인방이 9월 청담동에 뜬다.서울 강남구 청담동 지갤러리는 뉴욕 화랑 미첼이네스 앤드 내시 갤러리와 협업한 전시 'physical spiritual gesture'를 9월 1일부터 23일까지 개최한다.생동감 넘치는 붓질로 통하는 동시대 화가 제라시모스 플로라토스, 켈티 페리스, 크리스 요한슨이 신작을 함께 소개한다.뉴욕 출신 제라시모스 플로라토스(37)는 드로잉과 심리지리학, 그라피티, 미술사 영향을 받은, 제스처가 드러나는 회화가 독특하다. 뉴요커로서 현대 도시 생활의 신체적, 정서적 경험을 바탕으로 물질적 몸과 심리적 몸의 관계를 선과 형태, 재현과 추상 등으로 탐구한다. 종종 붓 대신 손이나 빗자루를 사용해 즉각성이 돋보인다. 알민 레시, 타데우스 로팍 등에서 전시했고 중국 상하이 유즈미술관 단체전에 참여하고 있다.켄터키주 루이빌 출신 켈티 페리스(46)는 퀼트 같은 패턴을 직접 그린 이미지 위에 드문드문 찍힌 스프레이 페인트 점선과 강렬한 오일스틱 자국을 중첩해 색채가 풍부한 그림이 인상적이다. 신체 움직임을 따라 반복되는 패턴은 활기차고 본능적이면서도 절제되고 사려 깊은 이미지로 완성됐다. 역동적으로 진동하는 추상화는 보는 이의 시선을 한쪽 끝에서 반대편으로 이끌며 지각적 인지를 유도한다. 최근 미국 예술문학아카데미로부터 로젠탈재단상을 받았다. 브루클린미술관 등에서 전시하고, 아모레퍼시픽 미술관에 소장됐다.캘리포니아주 새너제이 출신 크리스 요한슨(55)은 30년간 신중한 명상의 산물인 회화를 선보인다. 그는 버려진 물수건과 옷가지, 자연적 안료 등을 이용해 인간의 삶에서 발화하는 물질적 흔적에 대해 성찰하며 고대 프레스코화나 만다라 그림을 연상시키는 섬세한 회화다. 무상함이나 유동성, 존재의 덧없는 본질에 대한 고찰을 소용돌이치는 비정형의 우주적 이미지로 표현한다. 2002년 휘트니비엔날레 설치로 유명하고, 해머미술관과 샌프란시스코현대미술관 등에 소장됐다.[이한나 기자]</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2023.08.24.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>"나한테 맞는 실손보험은?"… 핀테크, 비교 서비스에 '표준API' 탑재</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000944017?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>보험 비교 추천서비스에 표준API 탑재가 확정됐다./사진=이미지투데이 이르면 올 연말 시행할 핀테크사들의 보험 비교·추천 서비스에 표준API가 탑재된다. 24일 금융권에 따르면 지난 22일 금융위원회는 이르면 올 연말 시작할 네이버와 카카오, 토스 등 플랫폼 기업들의 보험 비교·추천서비스에 표준API를 적용하기로 최종 확정했다. 지난 7월초부터 금융위는 표준API 개발과 관련한 의견을 각 협회를 통해 전달 받아왔다.  그 결과 금융위는 손보협회와 생보협회 등을 통해 취합한 의견을 근거로 표준API를 도입하는 게 유리하다고 판단, 표준API에 포함시킬 세부사항을 논의한 후 보험 비교·추천서비스 시행에 맞춰 해당 시스템을 적용하기로 마무리한 것이다. 금융위는 우선 자동차보험과 실손보험, 여행자보험, 저축성보험 등 4개 상품에표준API를 적용한다는 방침이다.  보험권에서 뜨거운 감자로 떠오른 API(Application Programming Interface)는 금융사(데이터 제공자)와 플랫폼의 프로그램이 데이터를 서로 주고받는 방법과 규격이다. 방식과 유형 등에 따라 '표준(통합)', '개별' API로 구분된다.  표준API는 정보 통신 규격을 하나로 통일화한 것이며 개별 API방식은 업체별로 다른 정보 전송 방식을 쓰는 것이다. 이를테면 보험사명과 보험료, 보험상품 등에 대한 정의 값을 미리 설정한 후 데이터 요청을 하면 해당 값을 전송한다. 현재 표준API 도입과 관련해 대형 손보사들은 해당 시스템을 만들어 모든 보험사들이 활용할 수 있도록 해야 한다고 금융당국에 주장하는 중이다. 반면 빅테크사들의 의견은 엇갈린다. 네이버와 카카오 등 대형 빅테크사들은 부정적인 입장이다. 해당 업체들은 각각 자체 API를 통해 차별화한 전산망을 구축, 경쟁력 확보를 구상했다. 반면 중소 업체들은 자체 API를 구축하는데 투자해야 하는 비용, 시간 등에 대한 부담으로 표준API 도입에 우호적인 입장이다. 온라인 플랫폼의 보험 비교·추천 서비스는 대형 포털사이트나 플랫폼에서 각 보험사의 상품을비교·추천하는 것이다. 소비자는 플랫폼에서 내게 맞는 상품을 비교·추천 받을 수 있고 가입까지 가능하다. 그동안 소비자들은 각 보험사 홈페이지에 접속해 보험료를 비교하고 가입을 진행해왔다. 보험업계에서 가장 큰 상품은 자동차보험이다. 자동차보험은 매년 의무적으로 가입해야 하고 평균 보험료도 67만원으로 다른 상품들보다 높은 편이기 때문이다. 현재 네이버와 카카오, 토스 등 빅테크사들은 캐롯과 악사손보 등 중소형 손보사들과 자동차보험 판매 제휴를 추진하는 중이다. 빅테크사들은 연말 출시 예정인 온라인 보험 비교·추천 서비스에 해당 손보사들 상품을 넣는 것을 구상하고 있다. 온라인 채널이 약한 해당 손보사들도 온라인 보험 비교·추천 서비스를 통해 상품 판매를 확대할 수 있다. 반면 대형 손보사 입장에서는 주도권을 빼앗길 수 있다. 현재 금융위원회가 보험 비교·추천서비스를 진행할 수 있도록 지정한 플랫폼업체는 네이버파이낸셜, 뱅크샐러드, 비바리퍼블리카, 카카오페이 등 11개다. 보험 비교추천 서비스는 금융위가 지정한날부터 6개월 안으로 시행해야 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2023.08.28.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>점핏, 개발자 취업 콘서트 성황리에 종료</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002155383?sid=105</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>당근마켓·토스뱅크 등 IT 기업 개발자 4명 연사로 나서[ⓒ점핏][디지털데일리 서정윤 기자] 개발자 채용 플랫폼 점핏은 교보문고와 공동으로 주최한 개발자 취업 콘서트를 성황리에 마쳤다고 28일 밝혔다.'점핏 투 백엔드'를 주제로 열린 이번 행사에는 커리어 성장을 꿈꾸는 주니어 개발자 약 1000여명이 참석했다. 백엔드 개발자로 일하는 노하우와 기술 트렌드, 커리어 성장 방법 등 백엔드 개발 커리어 등에 관한 내용이 다뤄졌다.첫 번째 세션 '센스있게 일하는 백엔드 개발자 되기'에는 손진규 강남언니 개발챕터 리드가 인터페이스의 중요성에 대해 말했다. 이어 박준하 토스뱅크 최고개발책임자(CTO)가 주니어 개발자들의 커리어 성장 전략을 공개했다.'꼭 맞는 정보로 성장 부스트업'을 주제로 한 두 번째 세션에서는 최근 각광받는 기술 스택과 기술 트렌드에 대한 정보 공유가 이어졌다. 박용권 당근마켓 커뮤니티실 개발자와 심근우 LG유플러스 데브옵스 팀장이 각각 코틀린과 컨테이너 인프라에 대해 심도 깊게 강연했다.편혜은 점핏 매니저는 "앞으로도 주니어 개발자들의 커리어 성장을 돕는 다양한 활동을 전개해 나갈 계획"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2023.08.30.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>[단독] 하나금융, 규제 완화시 핀테크 추가 인수 검토</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000945457?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>하나금융이 핀테크사 추가 인수를 구상하고 있다./사진=하나은행  함영주 하나금융그룹 회장이 추가적인 핀테크사 인수 의사를 밝혔다. 급성장세를 보이는 핀테크 시장을 선점해 금융그룹 경쟁력을 끌어올린다는 취지다.함영주 회장은 30일 서울 동대문디지털플라자(DDP) 아트홀에서 열린 '코리아 핀테크 위크 2023' 개최 전 기자와 만나 핀테크사 인수 계획과 관련 "은행의 핀테크사 지분 투자와 관련한 규제가 완화되면 인수에 나설 계획이 있다"고 말했다. 2016년 설립된 핀크에 이어 추가로 핀테크를 인수해 은행 증권 카드 보험 등 계열사와 연계를 강화하겠다는 것이다. 하나금융은 이와 관련 이사회를 중심으로 핀테크사 인수 등을 논의 중이며 금융사의 핀테크 등 자회사 소유를 제한하는 은행법이 완화되는 대로 구체적인 인수 대상 물색에 나설 것으로 알려졌다.  현재 은행법은 은행이 금융 스타트업 지분을 15% 이상 보유할 수 없다고 규정하고 있다. 금융산업의 구조개선에 관한 법률(금산법)에 따르면 은행 등 금융사는 비금융 회사 지분 20% 이상을 확보하려면 금융위원회의 승인을 받아야 한다. 금융지주회사법은 지주 자회사끼리 마케팅 등 영업 목적의 고객 데이터 공유를 금지하고 있다.  앞서 하나금융은 2016년 SK텔레콤과 '핀크'를 합작투자로 설립하며 5대 금융지주 중 가장 먼저 핀테크사를 인수했다.  핀크는 하나금융과 SK텔레콤이 각각 51%와 49%씩 출자해 금융위 인가를 받아 설립했으며 대출 비교 서비스, 초밀착 맞춤 관리를 제공하고 있다. SK텔레콤과 2019년부터 통신 데이터 기반 대안신용평가 모델 'T스코어'를 활용해 핀크 대출 서비스를 출시했으며 고금리를 제공하는 'T이득통장'과 'T하이파이브 적금' 등 금융상품도 제공하고 있다.  이후 2020년 7월 하나금융은 핀테크 사업에 대한 지배력을 강화하기 위해 SK텔레콤이 보유한 핀크 지분을 추가로 취득하며 핀크를 100% 완전 자회사로 편입했다. 핀테크 시장은 최근 가파른 성장세를 이어가고 있다. 한국핀테크지원센터가 지난해 12월 발간한 '2022 한국 핀테크 동향보고서'에 따르면 2021년 핀테크사 평균 매출액은 179억원으로 전년대비 111.5% 증가했다.  매년 핀테크업에 진출하는 업체들도 증가해 2014년 131개에서 2021년 553개로 4.2배(322.1%) 늘어났다. 핀테크는 금융과 IT 기술을 결합한 서비스를 제공하는 업체다. 대표적으로 카카오페이와 네이버파이낸셜, 토스 등이 간편결제(페이)나 온라인 대출, 투자 플랫폼, 디지털 화폐, 자산관리와 증권, 보험, 은행 등 종합금융플랫폼 서비스를 제공하고 있다.한편 함 회장은 하나생명과 하나손해보험 등 비은행 보험 부문 강화와 관련해선 "두 보험사를 통합적으로 운영해 실적을 정상화시켜 나갈 것"이라고 답했다.  그룹 차원에서 관리 체계를 일원화하고 역량을 집중해 보험 계열사의 부진한 실적을 개선하려는 조치로 풀이된다. 하나금융은  올해 상반기 누적 연결 당기순이익으로 2조209억원을 기록했다. 전년 동기와 비교하면 16.6%(2884억원) 증가한 규모다. 그룹의 비이자이익은 전년 동기대비 196.5% 증가한 1조3701억원이다. 하나은행은 올 상반기 전년 동기 대비 33.9%(4654억원) 증가한 1조8390억원의 순이익을 거뒀다. 반면 하나생명의 당기순이익은 전년 동기 대비 24.9% 감소한 131억원을, 하나손보는 180억원 적자로 5분기 연속으로 적자를 기록했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2023.08.21.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>토스피드 콘텐츠 보러 3000만명 몰렸다</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002185836?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>비바리퍼블리카 제공[헤럴드경제=홍승희 기자] 모바일 금융 서비스 ‘토스’를 운영하는 비바리퍼블리카(이하 토스)는 자사의 콘텐츠 플랫폼 ‘토스피드’가 누적 조회수 3000만을 넘어섰다고 21일 밝혔다.토스피드는 토스 사용자를 비롯해 금융 소비자라면 꼭 알아야 할 정보 제공을 목표로, 2018년 5월 기업 공식 블로그로 시작됐다. 이후, ▷ 오리지널 콘텐츠 확장 ▷ 금융·경제 전문가 필진 확보 ▷ 타 기업·브랜드와의 콘텐츠 협업 등을 통해, 금융에 대한 궁금증을 해소할 수 있는 콘텐츠 플랫폼으로 성장했다.외형적인 성장도 두드러졌다. 매달 20여 건의 다양한 콘텐츠를 발행하는 토스피드의 월 평균 조회수는 2023년 8월 기준 100만을 넘어섰다.토스피드의 오리지널 콘텐츠 시리즈는 총 70개로, 금융과 일상을 연결 짓는 콘텐츠부터 금융·경제 지식을 심도 있게 다루는 콘텐츠까지 다양하다. 이중 누적 조회수 50만을 넘은 시리즈는 10개이며, ‘사소한 질문들’ 21년 및 22년 시리즈, ‘에브리데이 경제학’ 시리즈는 누적 조회수 120만 이상을 기록했다.전세 제도, 대체불가능토큰(NFT) 등 시의성 있는 금융·경제 이슈를 쉽고 빠르게 풀어낸 콘텐츠와 함께, 보험 가입, 생애 첫 대출, 부동산 계약 등 금융 소비자가 어려움을 겪는 부분에 대한 실질적인 팁을 제공하는 콘텐츠도 큰 호응을 얻으며 토스피드의 성장을 견인했다.토스피드는 콘텐츠 플랫폼으로서 다양한 시도를 이어가고 있다. 전문가 필진 및 타 기업·브랜드와의 콘텐츠 협업, 누구나 참여 가능한 공모전이 그것이다.김경곤 한밭대 경제학과 교수, 채상욱 건설·부동산 애널리스트, 김경일 아주대 심리학과 교수 등 40여 명의 전문가가 다양한 주제에 대한 견해를 전달한다. 피델리티자산운용, 신한자산운용 등 국내외 금융사와 부딩, 커피팟, 심용환역사N교육연구소 등 콘텐츠 기업 및 민간 연구소와의 협업도 활발히 확대해 나가고 있다.또한, 올해 토스피드에서 진행된 머니스토리 공모전 ‘드래프트(DRAFT)’에는 1,500건이 넘는 작품이 몰리며, 누구나 ‘돈’에 대한 이야기를 나눌 수 있는 플랫폼으로서의 입지도 다져가고 있다. 공모전 수상작 16편은 이달 말 토스피드를 통해 연재되며, 9월 중 책으로도 출간될 예정이다.토스피드는 콘텐츠 플랫폼으로서 지속적으로 새로운 시도를 이어 나갈 예정이다.윤기열 토스 커뮤니케이션 헤드는 "토스피드는 브랜드의 소식을 전하는 채널로 시작해, 매달 100만 명이 찾는 콘텐츠 플랫폼으로 성장했다. 토스가 금융의 수퍼앱으로 자리매김한 것과 마찬가지로, 토스피드 역시 모두가 금융에 조금 더 쉽고 재미있게 다가갈 수 있도록 지원하는 콘텐츠 플랫폼으로서의 역할을 더욱 강화해 나가고자 한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2023.08.22.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>토스·한국정보기술연구원, 차세대 보안리더 양성 MOU</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002302664?sid=105</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>"교육 프로그램을 비롯한 다양한 협업 기대"토스가 한국정보기술연구원과 차세대 보안리더를 양성하는 내용의 업무협약을 체결했다고 22일 밝혔다.차세대 보안리더 양성 프로그램은 과학기술정보통신부가 주최하고 한국정보기술연구원에서 주관하는 사이버 보안인재 양성 프로그램이다. 화이트해커 양성 교육과정으로도 잘 알려져 있으며, 해당 프로그램을 통해 지난 10년여 간 1천600명 이상의 보안 전문가가 배출됐다.양사는 이번 협약을 통해 ▲기술 및 정보 공유를 통한 정보보안 전문가 양성 및 우수인재 지원 ▲정보보안 인재 양성을 위한 교육과정 개발 및 개선 ▲인적 자원 교류 등 보안과 관련해 다양한 협력을 진행할 예정이다.(왼쪽부터) 토스 이형석 CTO와 유준상 한국정보기술연구원장. (사진=토스)특히 토스는 보안기술팀을 중심으로 기술 교육, 윤리 교육, 프로젝트 멘토링 등 수준 높은 보안 교육을 집중적으로 지원한다. 또한 차세대 보안리더 양성 프로그램의 우수 교육생과 수료생들에게 인턴십 기회 등을 제공할 계획이다.토스 보안기술팀은 세계적인 화이트해커 이종호 리더를 주축으로 팀원 11명 전원이 화이트해커로 구성됐다.토스 보안기술팀은 의도적으로 모바일 앱을 공격하는 레드 티밍을 통해 보안 상태를 점검하고 필요한 조치를 시행하고 있다. 보안기술팀 팀원 중 대부분이 차세대 보안리더 양성 프로그램을 수료했으며, 현재 해당 프로그램의 멘토로도 활동 중이다.토스 이형석 CTO는 “보안을 가장 중요한 가치로 삼고 있는 만큼 정보보안 우수인재 양성을 통한 국가적 보안 난제 해소’를 향한 한국정보기술연구원의 노력에 적극적으로 협조하고자 한다”며 “특히 금융보안 관련 기술력과 경험을 바탕으로 수준 높은 교육을 제공할 것”이라고 말했다.유준상 한국정보기술연구원장은 “정보보안 분야에서 최고라고 자부할 수 있는 토스의 보안기술팀과 함께하게 되어 기쁘다”며 “교육 프로그램을 비롯해 다양한 협업을 통해 차세대 보안리더를 함께 양성할 수 있기를 기대한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2023.08.28.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>"블록체인·디지털자산의 미래 '2023 KBW'서 알려드려요" ['2023 KBW' 9월 5일 개막]</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005063350?sid=105</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>이더리움 창시자 비탈릭 부테린, 폴리곤 창업자·비트고 CEO 등 글로벌 블록체인 리더 참여 확정디파이·NFT·웹 3.0 최신 이슈 논의.. 디지털 유명 아티스트 작품 감상도폐막식은 AR 융합 EDM 축제로  KBW2023 메인 이벤트 관련 대표 이미지. KBW 홈페이지 캡처'이더리움 창시자' 비탈릭 부테린 등 글로벌 블록체인 리더들이 오는 9월 5일 열리는 아시아 최대 블록체인 및 웹 3.0 컨퍼런스 '코리아블록체인위크(KBW) 2023'에 참석한다. 올해 KBW는 블록체인 업계 핵심인사들이 모여 블록체인과 웹3.0, 탈중앙화금융(디파이·De-Fi), 대체불가능토큰(NFT) 등 이슈를 놓고 토론하는 글로벌 컨퍼런스의 장이 될 것으로 기대를 모은다.   ■글로벌 블록체인 리더 한자리에   28일 업계에 따르면 올해 6회차를 맞이하는 KBW는 9월 5~10일 서울신라호텔, 서울 성수동 에스팩토리 등지에서 열린다. KBW는 블록체인 커뮤니티빌더인 팩트블록과 블록체인 전문투자사 해시드가 공동 주최한다.   전선익 팩트블록 대표는 "KBW 2023은 블록체인과 디지털 자산 분야의 선두 주자들이 모여 새로운 아이디어와 트렌드를 공유하고 협력의 기회를 모색할 수 있는 중요한 행사"라며 "행사에서 공유되는 콘텐츠가 글로벌 블록체인 커뮤니티에 큰 영감을 주는 것은 물론 참가자들에게 유익하고 의미 있는 경험을 선사할 것"이라고 전했다.   메인 행사인 'KBW 2023: 임팩트(IMPACT)'는 5~6일 이틀 동안 진행된다. 블록체인 업계 핵심인사들이 모여 블록체인과 웹3.0, 게임, De-Fi, NFT, 정책 등 분야에서 최신 이슈를 놓고 토론한다.   먼저 비탈릭 부테린 이더리움 창시자가 5일 화상으로 기조강연에 나선다. 그는 이 자리에서 이더리움 생태계의 최근 동향에 대한 강연을 진행할 예정이다. 또한 폴리곤 재단의 공동설립자 샌디프 네일월을 비롯해 마이크 벨시 비트고 최고경영자(CEO), 아서 헤이즈 말스트롬 최고투자책임자(CIO) 등도 참석한다.   이외에도 IMPACT에는 △장현국 위메이드 대표 △댄 헬드 트러스트 머신스 마케팅 고문 △김우석 핀시아 디렉터 △ 파스칼 고티어 렛져 CEO △세르게이 나자로프 체인링크 공동설립자 △에드 펠튼 오프체인랩스 창업자(아비트럼) △에민 귄 시러 아발란체 공동창업자 △주기영 크립토퀀트 대표 △이규창 컴투스 USA 대표 △모 샤이크 앱토스 공동창업자 등 저명 인사들이 연사로 나선다.   ■웹 3.0 이벤트 '더 게이트웨이'도   이번 KBW 기간 동안 'IMPACT' 외에도 세계적인 웹 3.0 이벤트인 '더 게이트웨이: 코리아'와 기술 융합 전자댄스음악(EDM) 축제 '2023 마이크로서울 페스티벌 서울바운드'가 각각 9월 7~8일, 9일~10일에 개최된다.   '더 게이트웨이: 코리아'에서는 웹3.0 산업 리더의 기조연설과 대담을 비롯해 유명 디지털 아티스트 작품을 감상할 수 있다. 세계 3대 경매회사 '크리스티즈'와 아디다스 '쓰리 스트라입스 스튜디오', LG전자, 블록체인 프로젝트 폴카닷 등 글로벌 기업들도 파트너로 참여한다.   기조 연설자로 크리스티즈의 니콜 세일즈 시니어 부사장이 나선다. 그는 2021년 크리스티즈에서 '비플' 작품 경매를 기획했고, NFT 경매 플랫폼 '크리스티즈3.0'을 주도했다. 또 글로벌 패션 브랜드 아디다스의 웹3.0 활동을 총괄하는 쓰리 스트라입스 스튜디오의 글로벌 커뮤니케이션 총괄 스테이시 킹 등도 함께한다.   아울러 KBW2023 폐막식 '2023 마이크로서울 페스티벌 서울바운드'는 세계적 수준의 DJ 및 비주얼 아티스트들이 등장해 몰입형 음악 경험을 제공한다. 기술 융합 EDM 페스티벌인 서울바운드에서는 초대형 무대 디스플레이를 비롯해 증강현실(AR) 및 확장현실(XR), 홀로그램 등 뛰어난 기술력을 엿볼 수 있다. 팩트블록 측은 "서울바운드2023은 KBW 컨퍼런스의 미래 지향적인 사고 뿐만 아니라 기술과 엔터테인먼트의 경계를 넓히려는 의지를 담았다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2023.08.22.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>[단신]한화생명, ‘2030 목돈마련 디딤돌저축보험’ 출시 外</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003516208?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>■ 한화생명, ‘2030 목돈마련 디딤돌저축보험’ 출시 한화생명이 상생금융 상품 ‘2030 목돈마련 디딤돌저축보험’을 출시했다고 21일 밝혔다. 이 상품은 결혼, 출산, 경제적 자립 등을 앞둔 청년을 대상으로 한 저축보험으로 5년간 연 5%의 확정금리를 제공한다. 월 납입액은 10만∼50만 원으로 추가 납입을 통해 매달 최대 75만 원까지 납입할 수 있다. 총급여액 7000만 원 이하, 종합소득금액 6000만 원 이하인 만 19∼39세는 누구나 가입할 수 있다.■ KB증권, 자산관리 자산 50조 원 돌파 KB증권은 자산관리(WM) 자산이 50조 원을 돌파했다고 21일 밝혔다. 2017년 통합법인 출범 이후 시장형 펀드와 채권, 랩(Wrap) 등 환경에 맞춘 상품을 제시하는 ‘WM Transformation’(자산관리로의 전환) 전략을 지속적으로 진행한 결과라는 설명이다. 2017년 초 WM 자산 규모(12조6000억 원)와 비교했을 때 4배가량 성장했다. 앞서 KB증권은 WM 부문을 강화하기 위해 고객 수요를 반영한 상품을 내놓고, 초부유층 고객 자산관리 전담 조직 GWS(GOLD&amp;WISE SUMMIT) 본부를 신설했다. ■ ‘토스뱅스 자유적금’, 출시 9일 만에 10만 계좌 돌파 토스뱅크는 ‘토스뱅크 자유적금’이 출시 9일 만에 10만 계좌를 넘어섰다고 21일 밝혔다. 8초당 1명이 계좌를 개설한 셈이다. 토스뱅크 자유적금은 복잡한 조건 없이 매달 꾸준히 저금하면 우대금리를 포함해 최고 연 5%의 금리 혜택을 받을 수 있는 상품이다. 가입기간은 최소 3개월부터 최대 36개월까지다. 월 납입 한도는 최대 300만 원으로 한도 범위 내에서 자유롭게 추가 납입할 수 있다. 해당 상품은 가입 고객의 58.6%가 2030세대일 정도로 젊은층의 호응이 높았다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
